--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="200" yWindow="1040" windowWidth="24480" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="savedEachDay" sheetId="1" r:id="rId1"/>
-    <sheet name="other" sheetId="2" r:id="rId2"/>
+    <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
+    <sheet name="savedEachDay" sheetId="1" r:id="rId2"/>
+    <sheet name="other" sheetId="2" r:id="rId3"/>
+    <sheet name="indexOfFunctions" sheetId="3" r:id="rId4"/>
+    <sheet name="indexofArguments" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -158,6 +161,47 @@
   </si>
   <si>
     <t>PAR</t>
+  </si>
+  <si>
+    <t>ArgumentName</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
+  </si>
+  <si>
+    <t>HelpTitle</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>See also</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### naming rules:
+#variable names
+#iXXXX: input variable (e.g. iPr : Precipitation)
+#pXXXX: parameter (e.g. pPhyllochron)
+#cXXXX: computed variable (e.g. cDeltaLAI)
+#sXXXX: state variable (e.g. sLAI)
+#function names
+#fXXXX: function (e.g. fPhotosynthesis)
+#rXXXX: pRocedure (e.g. rUpdateLAI)
+#eXXXX: read input scenarios from external files (e.g. eReadInInputs)
+#mXXXX: Model interface (e.g. mrun, mplot)
+</t>
   </si>
 </sst>
 </file>
@@ -206,17 +250,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,11 +609,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="112.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="180">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -771,7 +862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -786,4 +877,85 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1040" windowWidth="24480" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="195" yWindow="1035" windowWidth="24480" windowHeight="16440" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="indexOfFunctions" sheetId="3" r:id="rId4"/>
     <sheet name="indexofArguments" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -203,12 +203,180 @@
 #mXXXX: Model interface (e.g. mrun, mplot)
 </t>
   </si>
+  <si>
+    <t>cTemp</t>
+  </si>
+  <si>
+    <t>daily temperature</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>température journalière</t>
+  </si>
+  <si>
+    <t>pTbasdev</t>
+  </si>
+  <si>
+    <t>pTopt1dev</t>
+  </si>
+  <si>
+    <t>pTop2dev</t>
+  </si>
+  <si>
+    <t>pTlethaldev</t>
+  </si>
+  <si>
+    <t>pTbasedev</t>
+  </si>
+  <si>
+    <t>Temerature threshold to begin phenological development</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TP1D</t>
+  </si>
+  <si>
+    <t>TP2D</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>température optimale 2 pour le développement phénologique</t>
+  </si>
+  <si>
+    <t>température optimale 1 pour le développement phénologique</t>
+  </si>
+  <si>
+    <t>température de base pour le développement phénologique</t>
+  </si>
+  <si>
+    <t>température limite pour le développement phénologique</t>
+  </si>
+  <si>
+    <t>cCoefTemp</t>
+  </si>
+  <si>
+    <t>factors for daily temperature</t>
+  </si>
+  <si>
+    <t>tempfun</t>
+  </si>
+  <si>
+    <t>facteur lié à la température</t>
+  </si>
+  <si>
+    <t>cDeltaThermalUnit</t>
+  </si>
+  <si>
+    <t>Temperature threshold beyond which no phenological development</t>
+  </si>
+  <si>
+    <t>Daily thermal unit</t>
+  </si>
+  <si>
+    <t>DTU</t>
+  </si>
+  <si>
+    <t>température thermal journalière</t>
+  </si>
+  <si>
+    <t>fComptuteCoefTemp</t>
+  </si>
+  <si>
+    <t>fDelta_thermal_unit</t>
+  </si>
+  <si>
+    <t>fComputeTemp</t>
+  </si>
+  <si>
+    <t>fComputePAR</t>
+  </si>
+  <si>
+    <t>Daily temperature</t>
+  </si>
+  <si>
+    <t>Base temperature for phenological development</t>
+  </si>
+  <si>
+    <t>Lower Optimal temperature for phenological development</t>
+  </si>
+  <si>
+    <t>Upper Optimal temperature for phenological development</t>
+  </si>
+  <si>
+    <t>Lower optimal Temperature for phenological development</t>
+  </si>
+  <si>
+    <t>Upper optimal Temperature for phenological development</t>
+  </si>
+  <si>
+    <t>cCoefPhotoPeriod</t>
+  </si>
+  <si>
+    <t>Numerical factor linked to the temperature with a value between 0 and 1 computed by fComptuteCoefTemp</t>
+  </si>
+  <si>
+    <t>Numerical factor linked to photoperiod sensitivity with a value between 0 and 1</t>
+  </si>
+  <si>
+    <t>cWaterStressFactorDevelopment</t>
+  </si>
+  <si>
+    <t>WSFD</t>
+  </si>
+  <si>
+    <t>Water stress factor for development</t>
+  </si>
+  <si>
+    <t>facteur limitant du développement lié au stress hydrique</t>
+  </si>
+  <si>
+    <t>phenology</t>
+  </si>
+  <si>
+    <t>ppfun</t>
+  </si>
+  <si>
+    <t>facteur lié à la photopériode</t>
+  </si>
+  <si>
+    <t>cBiologicalDay</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>biological days</t>
+  </si>
+  <si>
+    <t>jours biologiques</t>
+  </si>
+  <si>
+    <t>cCoefVernalization</t>
+  </si>
+  <si>
+    <t>Venalization factor to limit phenological development</t>
+  </si>
+  <si>
+    <t>verfun</t>
+  </si>
+  <si>
+    <t>coefficiant de prise en compte de la vernalisation</t>
+  </si>
+  <si>
+    <t>fBiologicalDay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +396,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,11 +437,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -284,6 +459,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -609,18 +789,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.83203125" customWidth="1"/>
+    <col min="1" max="1" width="112.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="180">
+    <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -638,15 +819,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -695,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -721,7 +905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -747,7 +931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -773,7 +957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -799,7 +983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -825,7 +1009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -849,6 +1033,292 @@
       </c>
       <c r="H8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -864,11 +1334,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -881,15 +1352,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -913,6 +1385,31 @@
       </c>
       <c r="H1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -927,15 +1424,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -946,8 +1449,170 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="C2" s="1"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="1035" windowWidth="24480" windowHeight="16440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="1035" windowWidth="24480" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="172">
   <si>
     <t>name</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>module</t>
-  </si>
-  <si>
-    <t>climate</t>
   </si>
   <si>
     <t>RAIN</t>
@@ -371,12 +368,195 @@
   <si>
     <t>fBiologicalDay</t>
   </si>
+  <si>
+    <t>sSnow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>Snow stock</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>Stock de neige</t>
+  </si>
+  <si>
+    <t>cSnowMelt</t>
+  </si>
+  <si>
+    <t>cPrCorrected</t>
+  </si>
+  <si>
+    <t>fComputeSnowMelt</t>
+  </si>
+  <si>
+    <t>fComputeCorrectedPr</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Snow daily melting</t>
+  </si>
+  <si>
+    <t>SNOMLT</t>
+  </si>
+  <si>
+    <t>Sum of cSnowMelt and iPr</t>
+  </si>
+  <si>
+    <t>Pluie efficace, somme de l'eau de fonte et de la pluie</t>
+  </si>
+  <si>
+    <t>Fonte journalière de la pluie</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>snow stock</t>
+  </si>
+  <si>
+    <t>daily precipitation</t>
+  </si>
+  <si>
+    <t>daily melting of snow</t>
+  </si>
+  <si>
+    <t>Crown mean temperature</t>
+  </si>
+  <si>
+    <t>cCrownTemp</t>
+  </si>
+  <si>
+    <t>vernalization</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>TMPCR</t>
+  </si>
+  <si>
+    <t>Température journalière pour la vernalisation</t>
+  </si>
+  <si>
+    <t>fComputeCrownTemperature</t>
+  </si>
+  <si>
+    <t>cDailyVernalization</t>
+  </si>
+  <si>
+    <t>Lower optimum temperature for vernalization</t>
+  </si>
+  <si>
+    <t>Upper optimum temperature for vernalization</t>
+  </si>
+  <si>
+    <t>pTbaseVernalization</t>
+  </si>
+  <si>
+    <t>pTopt1Vernalization</t>
+  </si>
+  <si>
+    <t>pTop2Vernalization</t>
+  </si>
+  <si>
+    <t>pTlethalVernalization</t>
+  </si>
+  <si>
+    <t>Ceiling temperature for vernalization</t>
+  </si>
+  <si>
+    <t>CropParameter</t>
+  </si>
+  <si>
+    <t>Vernalization per day</t>
+  </si>
+  <si>
+    <t>VERDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1VER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBVER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2VER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCVER </t>
+  </si>
+  <si>
+    <t>Base temperature for vernalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDSAT </t>
+  </si>
+  <si>
+    <t>Vernalization sensitivity coefficient</t>
+  </si>
+  <si>
+    <t>Parameter for cCoefVernalization calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pVDSAT </t>
+  </si>
+  <si>
+    <t>pVernalizationSensitivity</t>
+  </si>
+  <si>
+    <t>vsen</t>
+  </si>
+  <si>
+    <t>Sensibilité de la plante à la vernalisation</t>
+  </si>
+  <si>
+    <t>Coefficiant pour la vernalisation</t>
+  </si>
+  <si>
+    <t>T journalière max limite pour Vernalisation</t>
+  </si>
+  <si>
+    <t>Vernalisation journalière</t>
+  </si>
+  <si>
+    <t>température de base pour la vernalisation</t>
+  </si>
+  <si>
+    <t>température optimale 1 pour la vernalisation</t>
+  </si>
+  <si>
+    <t>température optimale 2 pour la vernalisation</t>
+  </si>
+  <si>
+    <t>fComputeDailyVernalization</t>
+  </si>
+  <si>
+    <t>sVernalization</t>
+  </si>
+  <si>
+    <t>Cumulative vernalization days</t>
+  </si>
+  <si>
+    <t>CUMVER</t>
+  </si>
+  <si>
+    <t>Nombre de jours cumulés de vernalisation</t>
+  </si>
+  <si>
+    <t>fComputeCoefVernalization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,13 +586,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -437,12 +628,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -793,7 +987,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,7 +997,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +1013,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,10 +1061,10 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -890,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -899,10 +1093,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -925,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -942,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -951,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -968,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -977,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -985,341 +1179,650 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>76</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>101</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
         <v>105</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G23" t="s">
         <v>108</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H23" t="s">
         <v>109</v>
       </c>
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1353,63 +1856,88 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1953,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1440,150 +1968,150 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1594,7 +2122,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1605,13 +2133,200 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="1035" windowWidth="24480" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="1035" windowWidth="24480" windowHeight="16440" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>module</t>
+  </si>
+  <si>
+    <t>climate</t>
   </si>
   <si>
     <t>RAIN</t>
@@ -368,195 +371,12 @@
   <si>
     <t>fBiologicalDay</t>
   </si>
-  <si>
-    <t>sSnow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm </t>
-  </si>
-  <si>
-    <t>Snow stock</t>
-  </si>
-  <si>
-    <t>SNOW</t>
-  </si>
-  <si>
-    <t>Stock de neige</t>
-  </si>
-  <si>
-    <t>cSnowMelt</t>
-  </si>
-  <si>
-    <t>cPrCorrected</t>
-  </si>
-  <si>
-    <t>fComputeSnowMelt</t>
-  </si>
-  <si>
-    <t>fComputeCorrectedPr</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Snow daily melting</t>
-  </si>
-  <si>
-    <t>SNOMLT</t>
-  </si>
-  <si>
-    <t>Sum of cSnowMelt and iPr</t>
-  </si>
-  <si>
-    <t>Pluie efficace, somme de l'eau de fonte et de la pluie</t>
-  </si>
-  <si>
-    <t>Fonte journalière de la pluie</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>snow stock</t>
-  </si>
-  <si>
-    <t>daily precipitation</t>
-  </si>
-  <si>
-    <t>daily melting of snow</t>
-  </si>
-  <si>
-    <t>Crown mean temperature</t>
-  </si>
-  <si>
-    <t>cCrownTemp</t>
-  </si>
-  <si>
-    <t>vernalization</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>TMPCR</t>
-  </si>
-  <si>
-    <t>Température journalière pour la vernalisation</t>
-  </si>
-  <si>
-    <t>fComputeCrownTemperature</t>
-  </si>
-  <si>
-    <t>cDailyVernalization</t>
-  </si>
-  <si>
-    <t>Lower optimum temperature for vernalization</t>
-  </si>
-  <si>
-    <t>Upper optimum temperature for vernalization</t>
-  </si>
-  <si>
-    <t>pTbaseVernalization</t>
-  </si>
-  <si>
-    <t>pTopt1Vernalization</t>
-  </si>
-  <si>
-    <t>pTop2Vernalization</t>
-  </si>
-  <si>
-    <t>pTlethalVernalization</t>
-  </si>
-  <si>
-    <t>Ceiling temperature for vernalization</t>
-  </si>
-  <si>
-    <t>CropParameter</t>
-  </si>
-  <si>
-    <t>Vernalization per day</t>
-  </si>
-  <si>
-    <t>VERDAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1VER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBVER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP2VER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCVER </t>
-  </si>
-  <si>
-    <t>Base temperature for vernalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDSAT </t>
-  </si>
-  <si>
-    <t>Vernalization sensitivity coefficient</t>
-  </si>
-  <si>
-    <t>Parameter for cCoefVernalization calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pVDSAT </t>
-  </si>
-  <si>
-    <t>pVernalizationSensitivity</t>
-  </si>
-  <si>
-    <t>vsen</t>
-  </si>
-  <si>
-    <t>Sensibilité de la plante à la vernalisation</t>
-  </si>
-  <si>
-    <t>Coefficiant pour la vernalisation</t>
-  </si>
-  <si>
-    <t>T journalière max limite pour Vernalisation</t>
-  </si>
-  <si>
-    <t>Vernalisation journalière</t>
-  </si>
-  <si>
-    <t>température de base pour la vernalisation</t>
-  </si>
-  <si>
-    <t>température optimale 1 pour la vernalisation</t>
-  </si>
-  <si>
-    <t>température optimale 2 pour la vernalisation</t>
-  </si>
-  <si>
-    <t>fComputeDailyVernalization</t>
-  </si>
-  <si>
-    <t>sVernalization</t>
-  </si>
-  <si>
-    <t>Cumulative vernalization days</t>
-  </si>
-  <si>
-    <t>CUMVER</t>
-  </si>
-  <si>
-    <t>Nombre de jours cumulés de vernalisation</t>
-  </si>
-  <si>
-    <t>fComputeCoefVernalization</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -586,24 +406,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -628,15 +437,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -987,7 +793,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -997,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1013,10 +819,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1061,10 +867,10 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1084,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1093,10 +899,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1119,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1136,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1145,7 +951,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -1162,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1171,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1179,650 +985,341 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
         <v>99</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>104</v>
       </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s">
-        <v>113</v>
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="4"/>
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1856,88 +1353,63 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1953,10 +1425,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1968,150 +1440,150 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -2122,7 +1594,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -2133,200 +1605,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="1035" windowWidth="24480" windowHeight="16440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="indexOfFunctions" sheetId="3" r:id="rId4"/>
     <sheet name="indexofArguments" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>module</t>
   </si>
   <si>
-    <t>climate</t>
-  </si>
-  <si>
     <t>RAIN</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>computePAR</t>
-  </si>
-  <si>
-    <t>from 0 to 1</t>
   </si>
   <si>
     <t>proportion of PAR in RSDS</t>
@@ -371,12 +365,255 @@
   <si>
     <t>fBiologicalDay</t>
   </si>
+  <si>
+    <t>sSnow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm </t>
+  </si>
+  <si>
+    <t>Snow stock</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>Stock de neige</t>
+  </si>
+  <si>
+    <t>cSnowMelt</t>
+  </si>
+  <si>
+    <t>cPrCorrected</t>
+  </si>
+  <si>
+    <t>fComputeSnowMelt</t>
+  </si>
+  <si>
+    <t>fComputeCorrectedPr</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Snow daily melting</t>
+  </si>
+  <si>
+    <t>SNOMLT</t>
+  </si>
+  <si>
+    <t>Sum of cSnowMelt and iPr</t>
+  </si>
+  <si>
+    <t>Pluie efficace, somme de l'eau de fonte et de la pluie</t>
+  </si>
+  <si>
+    <t>Fonte journalière de la pluie</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>snow stock</t>
+  </si>
+  <si>
+    <t>daily precipitation</t>
+  </si>
+  <si>
+    <t>daily melting of snow</t>
+  </si>
+  <si>
+    <t>Crown mean temperature</t>
+  </si>
+  <si>
+    <t>cCrownTemp</t>
+  </si>
+  <si>
+    <t>vernalization</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>TMPCR</t>
+  </si>
+  <si>
+    <t>Température journalière pour la vernalisation</t>
+  </si>
+  <si>
+    <t>fComputeCrownTemperature</t>
+  </si>
+  <si>
+    <t>cDailyVernalization</t>
+  </si>
+  <si>
+    <t>Lower optimum temperature for vernalization</t>
+  </si>
+  <si>
+    <t>Upper optimum temperature for vernalization</t>
+  </si>
+  <si>
+    <t>pTbaseVernalization</t>
+  </si>
+  <si>
+    <t>pTopt1Vernalization</t>
+  </si>
+  <si>
+    <t>pTop2Vernalization</t>
+  </si>
+  <si>
+    <t>pTlethalVernalization</t>
+  </si>
+  <si>
+    <t>Ceiling temperature for vernalization</t>
+  </si>
+  <si>
+    <t>CropParameter</t>
+  </si>
+  <si>
+    <t>Vernalization per day</t>
+  </si>
+  <si>
+    <t>VERDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1VER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBVER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2VER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCVER </t>
+  </si>
+  <si>
+    <t>Base temperature for vernalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDSAT </t>
+  </si>
+  <si>
+    <t>Vernalization sensitivity coefficient</t>
+  </si>
+  <si>
+    <t>Parameter for cCoefVernalization calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pVDSAT </t>
+  </si>
+  <si>
+    <t>pVernalizationSensitivity</t>
+  </si>
+  <si>
+    <t>vsen</t>
+  </si>
+  <si>
+    <t>Sensibilité de la plante à la vernalisation</t>
+  </si>
+  <si>
+    <t>Coefficiant pour la vernalisation</t>
+  </si>
+  <si>
+    <t>T journalière max limite pour Vernalisation</t>
+  </si>
+  <si>
+    <t>Vernalisation journalière</t>
+  </si>
+  <si>
+    <t>température de base pour la vernalisation</t>
+  </si>
+  <si>
+    <t>température optimale 1 pour la vernalisation</t>
+  </si>
+  <si>
+    <t>température optimale 2 pour la vernalisation</t>
+  </si>
+  <si>
+    <t>fComputeDailyVernalization</t>
+  </si>
+  <si>
+    <t>sVernalization</t>
+  </si>
+  <si>
+    <t>Cumulative vernalization days</t>
+  </si>
+  <si>
+    <t>CUMVER</t>
+  </si>
+  <si>
+    <t>Nombre de jours cumulés de vernalisation</t>
+  </si>
+  <si>
+    <t>fComputeCoefVernalization</t>
+  </si>
+  <si>
+    <t>defaultInitialvalue</t>
+  </si>
+  <si>
+    <t>sGrowthStage</t>
+  </si>
+  <si>
+    <t>growth stage of the crop</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>stade de développement</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>sCumulatedPhenoCounts</t>
+  </si>
+  <si>
+    <t>arbitrary(depends on the counter)</t>
+  </si>
+  <si>
+    <t>cumulated "growth units" accumulated since the beginning of the stage</t>
+  </si>
+  <si>
+    <t>sCrop</t>
+  </si>
+  <si>
+    <t>sCultivar</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>crop names as present in the sheets of the crops.xls file</t>
+  </si>
+  <si>
+    <t>cultivar names as present in the colnames in crops.xls file</t>
+  </si>
+  <si>
+    <t>crop (maybe not sown yet)</t>
+  </si>
+  <si>
+    <t>cultivar (maybe not sown yet</t>
+  </si>
+  <si>
+    <t>cPhenoFunction</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>incrementing function to apply</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,13 +643,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,7 +672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -436,25 +684,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,21 +1048,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil2"/>
+  <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="112.875" customWidth="1"/>
+    <col min="1" max="1" width="112.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="180">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -818,19 +1077,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H19"/>
+  <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,8 +1114,11 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -867,10 +1129,10 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -878,8 +1140,11 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -890,7 +1155,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -899,13 +1164,16 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -916,7 +1184,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -925,13 +1193,16 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -942,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -951,13 +1222,16 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -968,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -977,349 +1251,842 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>105</v>
       </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G23" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="H23" t="s">
         <v>108</v>
       </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1334,12 +2101,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil3"/>
+  <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1352,64 +2119,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:H6"/>
+  <sheetPr codeName="Feuil4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1424,166 +2216,166 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C16"/>
+  <sheetPr codeName="Feuil5" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1592,9 +2384,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1603,15 +2395,202 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="13365" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="indexOfFunctions" sheetId="3" r:id="rId4"/>
     <sheet name="indexofArguments" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="212">
   <si>
     <t>name</t>
   </si>
@@ -607,6 +607,69 @@
   </si>
   <si>
     <t>incrementing function to apply</t>
+  </si>
+  <si>
+    <t>cCoefWaterstress</t>
+  </si>
+  <si>
+    <t>cPhotoDuration</t>
+  </si>
+  <si>
+    <t>sThermalUnite</t>
+  </si>
+  <si>
+    <t>sBiologicalDay</t>
+  </si>
+  <si>
+    <t>pCriticalPhotoPerdiod</t>
+  </si>
+  <si>
+    <t>pPhotoPeriodSensitivity</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>durée journalière ensoleillement</t>
+  </si>
+  <si>
+    <t>Nombre de jours dans le stade</t>
+  </si>
+  <si>
+    <t>Nombre de jours</t>
+  </si>
+  <si>
+    <t>Sensibilité de la plante à la photopériode</t>
+  </si>
+  <si>
+    <t>Seuil photopériode</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>Photoperiod duration</t>
+  </si>
+  <si>
+    <t>Number of Daily temperature unit</t>
+  </si>
+  <si>
+    <t>Number of Biological day per calindar day</t>
+  </si>
+  <si>
+    <t>ppsen</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>Photoperiod sensitivity coefficient</t>
+  </si>
+  <si>
+    <t>Critical photoperiod</t>
   </si>
 </sst>
 </file>
@@ -649,7 +712,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -698,6 +767,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1055,12 +1125,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.83203125" customWidth="1"/>
+    <col min="1" max="1" width="112.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="180">
+    <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1078,18 +1148,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1189,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1289,7 +1360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1318,7 +1389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1347,7 +1418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1376,7 +1447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +1476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1434,7 +1505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1463,7 +1534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1492,7 +1563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1521,9 +1592,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1550,7 +1621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1579,7 +1650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1608,7 +1679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -1637,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -1666,7 +1737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -1695,7 +1766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -1724,7 +1795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1753,7 +1824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -1782,7 +1853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -1811,7 +1882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -1840,7 +1911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -1869,7 +1940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -1898,7 +1969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>155</v>
       </c>
@@ -1924,7 +1995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -1950,7 +2021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -1979,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -2005,7 +2076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -2024,8 +2095,11 @@
       <c r="F33" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -2044,8 +2118,11 @@
       <c r="F34" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -2064,8 +2141,11 @@
       <c r="F35" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -2084,9 +2164,154 @@
       <c r="F36" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="E37" s="4"/>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2106,7 +2331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2126,9 +2351,9 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2154,52 +2379,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -2223,14 +2448,14 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2241,7 +2466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -2252,7 +2477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2263,7 +2488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2274,7 +2499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2285,7 +2510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2296,7 +2521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2307,7 +2532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2318,7 +2543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2329,7 +2554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2340,7 +2565,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -2351,7 +2576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2362,7 +2587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2373,7 +2598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2384,7 +2609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2395,7 +2620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -2406,7 +2631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -2417,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -2428,7 +2653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -2439,7 +2664,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -2450,7 +2675,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2461,7 +2686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -2472,7 +2697,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2483,7 +2708,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -2494,7 +2719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -2505,7 +2730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -2516,7 +2741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -2527,7 +2752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -2538,7 +2763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -2549,7 +2774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -2560,7 +2785,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -2571,7 +2796,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -2582,7 +2807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="249">
   <si>
     <t>name</t>
   </si>
@@ -671,12 +671,123 @@
   <si>
     <t>Critical photoperiod</t>
   </si>
+  <si>
+    <t>sLAI</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>GLAI</t>
+  </si>
+  <si>
+    <t>DLAI</t>
+  </si>
+  <si>
+    <t>m2 m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf area index </t>
+  </si>
+  <si>
+    <t>Index de surface foliaire</t>
+  </si>
+  <si>
+    <t>m2 m-2 d-1</t>
+  </si>
+  <si>
+    <t>Daily increase (growth) in leaf area index</t>
+  </si>
+  <si>
+    <t>cGrowthLAI</t>
+  </si>
+  <si>
+    <t>Daily decrease (death) in leaf area index</t>
+  </si>
+  <si>
+    <t>Croissance de la surface foliaire</t>
+  </si>
+  <si>
+    <t>Décroissance de la surface foliaire</t>
+  </si>
+  <si>
+    <t>cDecreaseLAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily rate of nitrogen mobilized from leaves </t>
+  </si>
+  <si>
+    <t>g N m-2 d-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XNLF </t>
+  </si>
+  <si>
+    <t>Taux d'azote mobilisable depuis les feuilles</t>
+  </si>
+  <si>
+    <t>cDailyRateNfromLeave</t>
+  </si>
+  <si>
+    <t>Specific leaf nitrogen in green leaves (target)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLNG </t>
+  </si>
+  <si>
+    <t>g N m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLNS </t>
+  </si>
+  <si>
+    <t>Specific leaf nitrogen in senesced leaves (minimum)</t>
+  </si>
+  <si>
+    <t>pSpecLeafNGreenLeaf</t>
+  </si>
+  <si>
+    <t>pSpecLeafNSenescenceLeaf</t>
+  </si>
+  <si>
+    <t>Azote spécifique des feuilles dans les feuilles vertes</t>
+  </si>
+  <si>
+    <t>Azote spécifique des feuilles dans les feuilles mortes</t>
+  </si>
+  <si>
+    <t>pFreezeThresholdTemp</t>
+  </si>
+  <si>
+    <t>Fraction leaf destruction below the critical by each degree centigrad</t>
+  </si>
+  <si>
+    <t>Critical minimum temp for leaf destruction due to frosts</t>
+  </si>
+  <si>
+    <t>Température seuil sous laquelle il y a destruction de feuille</t>
+  </si>
+  <si>
+    <t>Fraction de la feuille détruite par le gel par degré sous le seuil critique</t>
+  </si>
+  <si>
+    <t>m2 m-2 °C-1</t>
+  </si>
+  <si>
+    <t>pFreezeFracLeafDestruction</t>
+  </si>
+  <si>
+    <t>FRZTKIL</t>
+  </si>
+  <si>
+    <t>FRZLDR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,8 +822,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,6 +845,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +881,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -768,6 +891,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1148,10 +1278,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2310,6 +2440,238 @@
         <v>202</v>
       </c>
       <c r="I41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" t="s">
+        <v>215</v>
+      </c>
+      <c r="H44" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" t="s">
+        <v>229</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" t="s">
+        <v>239</v>
+      </c>
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" t="s">
+        <v>247</v>
+      </c>
+      <c r="H48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" t="s">
+        <v>244</v>
+      </c>
+      <c r="I49" t="s">
         <v>39</v>
       </c>
     </row>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="246">
   <si>
     <t>name</t>
   </si>
@@ -568,15 +568,6 @@
   </si>
   <si>
     <t>character</t>
-  </si>
-  <si>
-    <t>sCumulatedPhenoCounts</t>
-  </si>
-  <si>
-    <t>arbitrary(depends on the counter)</t>
-  </si>
-  <si>
-    <t>cumulated "growth units" accumulated since the beginning of the stage</t>
   </si>
   <si>
     <t>sCrop</t>
@@ -1278,10 +1269,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1715,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -2211,19 +2202,19 @@
         <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
@@ -2231,7 +2222,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -2240,13 +2231,13 @@
         <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
@@ -2254,19 +2245,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>187</v>
@@ -2277,22 +2268,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>98</v>
       </c>
-      <c r="E36" t="s">
-        <v>189</v>
+      <c r="E36" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" t="s">
+        <v>196</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -2311,25 +2308,25 @@
       <c r="D37" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" t="s">
-        <v>39</v>
+      <c r="I37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -2344,24 +2341,24 @@
         <v>125</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>194</v>
+      <c r="A39" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -2370,24 +2367,24 @@
         <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -2399,53 +2396,53 @@
         <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>209</v>
       </c>
-      <c r="H40" t="s">
-        <v>203</v>
-      </c>
-      <c r="I40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H41" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" t="s">
-        <v>39</v>
+        <v>215</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -2454,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
         <v>216</v>
@@ -2463,10 +2460,10 @@
         <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2474,7 +2471,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -2483,19 +2480,19 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2503,7 +2500,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -2512,19 +2509,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44" t="s">
-        <v>215</v>
+        <v>223</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2532,36 +2529,36 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H45" t="s">
-        <v>229</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="I45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2570,19 +2567,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="H46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
@@ -2599,19 +2596,19 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>234</v>
+        <v>210</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" t="s">
+        <v>244</v>
       </c>
       <c r="H47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -2628,50 +2625,21 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
+        <v>210</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" t="s">
-        <v>248</v>
-      </c>
-      <c r="H49" t="s">
-        <v>244</v>
-      </c>
-      <c r="I49" t="s">
         <v>39</v>
       </c>
     </row>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="319">
   <si>
     <t>name</t>
   </si>
@@ -600,9 +600,6 @@
     <t>incrementing function to apply</t>
   </si>
   <si>
-    <t>cCoefWaterstress</t>
-  </si>
-  <si>
     <t>cPhotoDuration</t>
   </si>
   <si>
@@ -772,6 +769,228 @@
   </si>
   <si>
     <t>FRZLDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyllochron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pPhyllochron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oC per leaf </t>
+  </si>
+  <si>
+    <t>PHYL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainstem node number </t>
+  </si>
+  <si>
+    <t>MSNN</t>
+  </si>
+  <si>
+    <t>numéro du nœud de la tige principale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sMainstemNodeNumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coefficient (constant) in power relationship between plant leaf area and mainstem node number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAPOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coefficient (exponent) in power relationship between plant leaf area and mainstem node number </t>
+  </si>
+  <si>
+    <t>pcoefPlantLeafNumberNode</t>
+  </si>
+  <si>
+    <t>pExpPlantLeafNumberNode</t>
+  </si>
+  <si>
+    <t>Coefficient d'une loi puissance entre le nombre de feuilles et le nombre de nœuds</t>
+  </si>
+  <si>
+    <t>Exposant d'une loi puissance entre le nombre de feuilles et le nombre de nœuds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDEN </t>
+  </si>
+  <si>
+    <t># m-2</t>
+  </si>
+  <si>
+    <t>Plant density</t>
+  </si>
+  <si>
+    <t>Densité de semis</t>
+  </si>
+  <si>
+    <t>pPlantdensity</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressDevelopment</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressLeaf</t>
+  </si>
+  <si>
+    <t>WSFL</t>
+  </si>
+  <si>
+    <t>Water stress factor for leaf</t>
+  </si>
+  <si>
+    <t>facteur limitant des feuilles lié au stress hydrique</t>
+  </si>
+  <si>
+    <t>Plant leaf area today</t>
+  </si>
+  <si>
+    <t>PLA2</t>
+  </si>
+  <si>
+    <t>cm2 per plant</t>
+  </si>
+  <si>
+    <t>Surface follière</t>
+  </si>
+  <si>
+    <t>cPlantLeafArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLF </t>
+  </si>
+  <si>
+    <t>g m-2 d-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily increase (growth) in leaf weight </t>
+  </si>
+  <si>
+    <t>cDailyLeafWeight</t>
+  </si>
+  <si>
+    <t>poids des feuilles du jours</t>
+  </si>
+  <si>
+    <t>DMProduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific leaf area </t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>pSpecificLeafArea</t>
+  </si>
+  <si>
+    <t>m2 g-1</t>
+  </si>
+  <si>
+    <t>suface spécifique des feuilles</t>
+  </si>
+  <si>
+    <t>cEndCropCycle</t>
+  </si>
+  <si>
+    <t>Stage of the culture: in Progress, death, harvested</t>
+  </si>
+  <si>
+    <t>MATYP</t>
+  </si>
+  <si>
+    <t>Etat de la culture: en cours, morte, récoltée</t>
+  </si>
+  <si>
+    <t>PlantN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRUE </t>
+  </si>
+  <si>
+    <t>g MJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation use efficiency under optimal growth conditions </t>
+  </si>
+  <si>
+    <t>DMDistribution</t>
+  </si>
+  <si>
+    <t>pRadEffiencyOptimal</t>
+  </si>
+  <si>
+    <t>Efficacité d'utilisation des radiations dans des conditions de croissance optimales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCFRUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A correction factor of radiation use efficiency for daily temperature </t>
+  </si>
+  <si>
+    <t>facteur de correction de l'efficacité d'utilisation du rayonnement pour la température journalière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUE </t>
+  </si>
+  <si>
+    <t>Radiation use efficiency adjusted for temperature and water stress</t>
+  </si>
+  <si>
+    <t>cRadiationUseEffiency</t>
+  </si>
+  <si>
+    <t>cCoefRadiationEffiency</t>
+  </si>
+  <si>
+    <t>Efficacité d'utilisation des radiations ajustée à la température et au stress hydrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSFG </t>
+  </si>
+  <si>
+    <t>Water stress factor for growth (dry matter production)</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressDryMatter</t>
+  </si>
+  <si>
+    <t>SoiWater</t>
+  </si>
+  <si>
+    <t>Facteur de stress hydrique pour la croissance (production de matière sèche)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPAR </t>
+  </si>
+  <si>
+    <t>Extinction coefficient for photosyntheticaly active radiation (PAR)</t>
+  </si>
+  <si>
+    <t>Coefficient d'extinction pour le rayonnement actif photosynthétiquement (PAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDMP </t>
+  </si>
+  <si>
+    <t>Daily dry matter production</t>
+  </si>
+  <si>
+    <t>cDryMatterProduction</t>
+  </si>
+  <si>
+    <t>Production journalière de matière sèche</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1488,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1934,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1724,7 +1943,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
         <v>174</v>
@@ -1738,8 +1957,8 @@
       <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="I16" t="s">
-        <v>39</v>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,7 +2487,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -2280,16 +2499,16 @@
         <v>98</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
@@ -2297,7 +2516,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -2312,13 +2531,13 @@
         <v>125</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G37" t="s">
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2326,7 +2545,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -2341,13 +2560,13 @@
         <v>125</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G38" t="s">
         <v>102</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2355,7 +2574,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -2367,16 +2586,16 @@
         <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I39" t="s">
         <v>39</v>
@@ -2384,7 +2603,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -2396,16 +2615,16 @@
         <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
@@ -2413,7 +2632,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2422,19 +2641,19 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" t="s">
         <v>214</v>
-      </c>
-      <c r="G41" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" t="s">
-        <v>215</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2442,7 +2661,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -2451,19 +2670,19 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" t="s">
         <v>210</v>
       </c>
-      <c r="E42" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" t="s">
-        <v>211</v>
-      </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2471,7 +2690,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -2480,19 +2699,19 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2500,7 +2719,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -2509,19 +2728,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" t="s">
         <v>225</v>
-      </c>
-      <c r="H44" t="s">
-        <v>226</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2529,7 +2748,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2538,19 +2757,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="H45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s">
         <v>39</v>
@@ -2558,7 +2777,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -2567,19 +2786,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="H46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
@@ -2587,7 +2806,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
@@ -2596,19 +2815,19 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" t="s">
         <v>239</v>
-      </c>
-      <c r="G47" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" t="s">
-        <v>240</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
@@ -2616,7 +2835,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -2625,21 +2844,482 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G48" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="G49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H50" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H52" t="s">
+        <v>260</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" t="s">
+        <v>268</v>
+      </c>
+      <c r="H54" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" t="s">
+        <v>274</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H58" t="s">
+        <v>290</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59" t="s">
+        <v>297</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" t="s">
+        <v>301</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" t="s">
+        <v>311</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" t="s">
+        <v>314</v>
+      </c>
+      <c r="I63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H64" t="s">
+        <v>318</v>
+      </c>
+      <c r="I64" t="s">
         <v>39</v>
       </c>
     </row>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="0" windowWidth="24720" windowHeight="18900" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="11660" yWindow="1740" windowWidth="24720" windowHeight="18900" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="other" sheetId="2" r:id="rId3"/>
     <sheet name="indexOfFunctions" sheetId="3" r:id="rId4"/>
     <sheet name="indexofArguments" sheetId="4" r:id="rId5"/>
+    <sheet name="generalPhysicalParameters" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="491">
   <si>
     <t>name</t>
   </si>
@@ -1290,9 +1291,6 @@
     <t>SoilParameter</t>
   </si>
   <si>
-    <t>residual water content when the soil is dryed by evaporation in layer 10</t>
-  </si>
-  <si>
     <t>eau résiduelle du sol sec couche 10</t>
   </si>
   <si>
@@ -1314,15 +1312,6 @@
     <t>SAT(L)</t>
   </si>
   <si>
-    <t>water content at wilting point layer 10</t>
-  </si>
-  <si>
-    <t>water content at field capacity later 10</t>
-  </si>
-  <si>
-    <t>water content at full saturation layer 10</t>
-  </si>
-  <si>
     <t>saturation couche 10</t>
   </si>
   <si>
@@ -1338,9 +1327,6 @@
     <t xml:space="preserve">Potential daily increase (growth) in root depth </t>
   </si>
   <si>
-    <t>thickness soil layer 1</t>
-  </si>
-  <si>
     <t>GRTDP</t>
   </si>
   <si>
@@ -1414,6 +1400,114 @@
   </si>
   <si>
     <t>pKPAR</t>
+  </si>
+  <si>
+    <t>EOSMIN</t>
+  </si>
+  <si>
+    <t>pMinimalSoilEvaporation</t>
+  </si>
+  <si>
+    <t>Minimal Soil Evaporation</t>
+  </si>
+  <si>
+    <t>evaporation minimale du sol</t>
+  </si>
+  <si>
+    <t>WETWAT</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>CALB</t>
+  </si>
+  <si>
+    <t>canopy extinction coefficient</t>
+  </si>
+  <si>
+    <t>pCanopyExtinctionCoefficient</t>
+  </si>
+  <si>
+    <t>pCropAlbedo</t>
+  </si>
+  <si>
+    <t>Crop albedo</t>
+  </si>
+  <si>
+    <t>amount of rainfall and/or irrigation required to wet the top soil layer to return soil evaporation from Stage II to Stage I</t>
+  </si>
+  <si>
+    <t>pSoilAlbedo</t>
+  </si>
+  <si>
+    <t>SALB</t>
+  </si>
+  <si>
+    <t>Soil Albedo</t>
+  </si>
+  <si>
+    <t>albedo du sol</t>
+  </si>
+  <si>
+    <t>STBLW</t>
+  </si>
+  <si>
+    <t>pStubleWeight</t>
+  </si>
+  <si>
+    <t>stubble weight left on the soil (has an impact on soil evaporation)</t>
+  </si>
+  <si>
+    <t>ITKParameter</t>
+  </si>
+  <si>
+    <t>t.ha-1</t>
+  </si>
+  <si>
+    <t>poids du mulch laissé en surface</t>
+  </si>
+  <si>
+    <t>thickness soil layer (columns = cases, rows: layers)</t>
+  </si>
+  <si>
+    <t>water content at full saturation  (columns = cases, rows: layers)</t>
+  </si>
+  <si>
+    <t>water content at field capacity  (columns = cases, rows: layers)</t>
+  </si>
+  <si>
+    <t>water content at wilting point  (columns = cases, rows: layers)</t>
+  </si>
+  <si>
+    <t>residual water content when the soil is dryed by evaporation  (columns = cases, rows: layers)</t>
+  </si>
+  <si>
+    <t>pSoilWettingWaterQuantity</t>
+  </si>
+  <si>
+    <t>sDaysSinceSoilWettingWater</t>
+  </si>
+  <si>
+    <t>days since the last sufficient water amount to wet the soil (to go from stage II soil evaporation to stage I soil evaporation</t>
+  </si>
+  <si>
+    <t>DYSE</t>
+  </si>
+  <si>
+    <t>nombre de jours depuis la dernière arrivée d'eau suffisante pour mouiller le sol (passer de stade II à stade I pour l'évaporation)</t>
+  </si>
+  <si>
+    <t>cSoilEvaporation</t>
+  </si>
+  <si>
+    <t>soil evaporation</t>
+  </si>
+  <si>
+    <t>SEVP</t>
+  </si>
+  <si>
+    <t>évaporation du sol</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1612,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1713,7 +1859,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="217">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1796,6 +1942,32 @@
     <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1878,6 +2050,32 @@
     <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2242,13 +2440,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3603,7 +3801,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -4597,29 +4795,28 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>474</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" t="s">
-        <v>168</v>
-      </c>
-      <c r="F83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>203</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="H83" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -4628,28 +4825,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>382</v>
+        <v>393</v>
+      </c>
+      <c r="E84" t="s">
+        <v>394</v>
+      </c>
+      <c r="F84" t="s">
+        <v>395</v>
+      </c>
+      <c r="G84" t="s">
+        <v>405</v>
       </c>
       <c r="H84" t="s">
-        <v>250</v>
+        <v>406</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -4658,7 +4855,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s">
         <v>41</v>
@@ -4673,13 +4870,13 @@
         <v>394</v>
       </c>
       <c r="F85" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G85" t="s">
         <v>405</v>
       </c>
       <c r="H85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -4688,7 +4885,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
@@ -4703,13 +4900,13 @@
         <v>394</v>
       </c>
       <c r="F86" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G86" t="s">
         <v>405</v>
       </c>
       <c r="H86" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -4718,7 +4915,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
@@ -4733,13 +4930,13 @@
         <v>394</v>
       </c>
       <c r="F87" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G87" t="s">
         <v>405</v>
       </c>
       <c r="H87" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -4748,7 +4945,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -4763,13 +4960,13 @@
         <v>394</v>
       </c>
       <c r="F88" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G88" t="s">
         <v>405</v>
       </c>
       <c r="H88" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -4778,7 +4975,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
@@ -4793,13 +4990,13 @@
         <v>394</v>
       </c>
       <c r="F89" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G89" t="s">
         <v>405</v>
       </c>
       <c r="H89" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -4808,7 +5005,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
@@ -4823,13 +5020,13 @@
         <v>394</v>
       </c>
       <c r="F90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G90" t="s">
         <v>405</v>
       </c>
       <c r="H90" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -4838,7 +5035,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B91" t="s">
         <v>41</v>
@@ -4853,13 +5050,13 @@
         <v>394</v>
       </c>
       <c r="F91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G91" t="s">
         <v>405</v>
       </c>
       <c r="H91" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
@@ -4868,7 +5065,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
@@ -4883,13 +5080,13 @@
         <v>394</v>
       </c>
       <c r="F92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G92" t="s">
         <v>405</v>
       </c>
       <c r="H92" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
@@ -4898,7 +5095,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -4913,13 +5110,13 @@
         <v>394</v>
       </c>
       <c r="F93" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G93" t="s">
         <v>405</v>
       </c>
       <c r="H93" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
@@ -4928,28 +5125,28 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>393</v>
-      </c>
-      <c r="E94" t="s">
-        <v>394</v>
+        <v>432</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="F94" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="G94" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="H94" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
@@ -4961,25 +5158,25 @@
         <v>436</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
+        <v>432</v>
+      </c>
+      <c r="E95" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" t="s">
         <v>437</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F95" t="s">
-        <v>433</v>
       </c>
       <c r="G95" t="s">
         <v>435</v>
       </c>
       <c r="H95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
@@ -4991,25 +5188,25 @@
         <v>441</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H96" t="s">
         <v>442</v>
-      </c>
-      <c r="G96" t="s">
-        <v>440</v>
-      </c>
-      <c r="H96" t="s">
-        <v>443</v>
       </c>
       <c r="I96" t="e">
         <f>NA()</f>
@@ -5018,30 +5215,90 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>474</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E97" t="s">
+        <v>475</v>
+      </c>
+      <c r="F97" t="s">
+        <v>473</v>
+      </c>
+      <c r="G97" t="s">
+        <v>471</v>
+      </c>
+      <c r="H97" t="s">
+        <v>476</v>
+      </c>
+      <c r="I97" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>483</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>444</v>
+      </c>
+      <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
+        <v>484</v>
+      </c>
+      <c r="G98" t="s">
+        <v>485</v>
+      </c>
+      <c r="H98" t="s">
+        <v>486</v>
+      </c>
+      <c r="I98" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>444</v>
+      </c>
+      <c r="E99" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H97" t="s">
-        <v>447</v>
-      </c>
-      <c r="I97" t="e">
+      <c r="F99" t="s">
+        <v>488</v>
+      </c>
+      <c r="G99" t="s">
+        <v>489</v>
+      </c>
+      <c r="H99" t="s">
+        <v>490</v>
+      </c>
+      <c r="I99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5065,10 +5322,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5107,7 +5364,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>417</v>
@@ -5116,149 +5373,175 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>417</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
         <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G4" t="s">
         <v>424</v>
       </c>
-      <c r="F4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>425</v>
-      </c>
-      <c r="H4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="G5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H5" t="s">
         <v>422</v>
-      </c>
-      <c r="H5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>417</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F6" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" t="s">
         <v>420</v>
-      </c>
-      <c r="H6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
         <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="G7" t="s">
         <v>416</v>
       </c>
       <c r="H7" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H8" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5757,4 +6040,192 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil6" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="1740" windowWidth="24720" windowHeight="18900" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="12380" yWindow="840" windowWidth="25600" windowHeight="16060" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="510">
   <si>
     <t>name</t>
   </si>
@@ -1508,6 +1508,63 @@
   </si>
   <si>
     <t>évaporation du sol</t>
+  </si>
+  <si>
+    <t>A coefficient to calculate VPD; 0.65 for humid and subhumid climates and 0.75 for arid and semi-arid climates</t>
+  </si>
+  <si>
+    <t>VPDF</t>
+  </si>
+  <si>
+    <t>pVPDcoef</t>
+  </si>
+  <si>
+    <t>coefficient pour calculer le VPD, 0.65 pour les climats humides et subhumides, 0.75 pour les climats arides et semiarides</t>
+  </si>
+  <si>
+    <t>Transpiration efficiency coefficient at CO2 concentration 350 ppm</t>
+  </si>
+  <si>
+    <t>TEC350</t>
+  </si>
+  <si>
+    <t>pTranspirationEfficiencyLinkedToCO2</t>
+  </si>
+  <si>
+    <t>coefficient d'efficacité de la transpiration lié à la teneur en CO2</t>
+  </si>
+  <si>
+    <t>FLOUT</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.1</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.2</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.3</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.4</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.5</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.6</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.7</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.8</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.9</t>
+  </si>
+  <si>
+    <t>cDownwardWaterFlux.10</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1669,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1859,7 +1930,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="231">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1968,6 +2039,13 @@
     <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2076,6 +2154,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2440,13 +2525,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5301,6 +5386,209 @@
       <c r="I99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>497</v>
+      </c>
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>444</v>
+      </c>
+      <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
+        <v>495</v>
+      </c>
+      <c r="G100" t="s">
+        <v>496</v>
+      </c>
+      <c r="H100" t="s">
+        <v>498</v>
+      </c>
+      <c r="I100" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>500</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>444</v>
+      </c>
+      <c r="E101" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>501</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>444</v>
+      </c>
+      <c r="E102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>502</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>444</v>
+      </c>
+      <c r="E103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>503</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>504</v>
+      </c>
+      <c r="B105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>444</v>
+      </c>
+      <c r="E105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>505</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>444</v>
+      </c>
+      <c r="E106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>506</v>
+      </c>
+      <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>444</v>
+      </c>
+      <c r="E107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>507</v>
+      </c>
+      <c r="B108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>444</v>
+      </c>
+      <c r="E108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>508</v>
+      </c>
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>444</v>
+      </c>
+      <c r="E109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>509</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>444</v>
+      </c>
+      <c r="E110" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5322,10 +5610,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5542,6 +5830,29 @@
       </c>
       <c r="H8" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="840" windowWidth="25600" windowHeight="16060" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="27080" windowHeight="13560" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="520">
   <si>
     <t>name</t>
   </si>
@@ -790,9 +790,6 @@
     <t>Densité de semis</t>
   </si>
   <si>
-    <t>pPlantdensity</t>
-  </si>
-  <si>
     <t>cCoefWaterstressDevelopment</t>
   </si>
   <si>
@@ -898,9 +895,6 @@
     <t>cRadiationUseEffiency</t>
   </si>
   <si>
-    <t>cCoefRadiationEffiency</t>
-  </si>
-  <si>
     <t>Efficacité d'utilisation des radiations ajustée à la température et au stress hydrique</t>
   </si>
   <si>
@@ -1453,15 +1447,9 @@
     <t>STBLW</t>
   </si>
   <si>
-    <t>pStubleWeight</t>
-  </si>
-  <si>
     <t>stubble weight left on the soil (has an impact on soil evaporation)</t>
   </si>
   <si>
-    <t>ITKParameter</t>
-  </si>
-  <si>
     <t>t.ha-1</t>
   </si>
   <si>
@@ -1565,6 +1553,48 @@
   </si>
   <si>
     <t>cDownwardWaterFlux.10</t>
+  </si>
+  <si>
+    <t>pTopt2Vernalization</t>
+  </si>
+  <si>
+    <t>pTopt2dev</t>
+  </si>
+  <si>
+    <t>stateVariable</t>
+  </si>
+  <si>
+    <t>sLastSowing</t>
+  </si>
+  <si>
+    <t>sLastHarvest</t>
+  </si>
+  <si>
+    <t>rUpdateManagement</t>
+  </si>
+  <si>
+    <t>timestep</t>
+  </si>
+  <si>
+    <t>timestep of the last sowing operation</t>
+  </si>
+  <si>
+    <t>timestep of the last harvest operation</t>
+  </si>
+  <si>
+    <t>pas de temps du dernier semis</t>
+  </si>
+  <si>
+    <t>pas de temps de la dernière récolte</t>
+  </si>
+  <si>
+    <t>cCoefRadiationEfficiency</t>
+  </si>
+  <si>
+    <t>sPlantdensity</t>
+  </si>
+  <si>
+    <t>sStubleWeight</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1699,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1930,7 +1978,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="249">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2046,6 +2094,15 @@
     <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2161,6 +2218,15 @@
     <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2525,18 +2591,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2601,7 +2668,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -2610,103 +2677,103 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" t="s">
         <v>299</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2714,7 +2781,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -2723,19 +2790,19 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
         <v>283</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H7" t="s">
-        <v>284</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2743,7 +2810,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2752,19 +2819,19 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" t="s">
         <v>295</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H8" t="s">
-        <v>297</v>
       </c>
       <c r="I8" t="e">
         <f>NA()</f>
@@ -2773,7 +2840,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -2782,19 +2849,19 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2802,7 +2869,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -2817,13 +2884,13 @@
         <v>188</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" t="s">
         <v>274</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2889,7 +2956,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -2901,16 +2968,16 @@
         <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" t="s">
         <v>259</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" t="s">
-        <v>260</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2920,8 +2987,8 @@
       <c r="A14" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
+      <c r="B14" t="s">
+        <v>508</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>26</v>
@@ -2947,10 +3014,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -3183,7 +3250,7 @@
         <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -3212,7 +3279,7 @@
         <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
         <v>171</v>
@@ -3239,7 +3306,7 @@
         <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -3274,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>217</v>
@@ -3283,7 +3350,7 @@
         <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H26" t="s">
         <v>218</v>
@@ -3294,7 +3361,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -3303,7 +3370,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
         <v>168</v>
@@ -3323,7 +3390,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -3332,19 +3399,19 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3352,7 +3419,7 @@
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -3361,19 +3428,19 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
         <v>168</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" t="s">
         <v>255</v>
-      </c>
-      <c r="G29" t="s">
-        <v>254</v>
-      </c>
-      <c r="H29" t="s">
-        <v>256</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3384,13 +3451,13 @@
         <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
         <v>124</v>
@@ -3563,7 +3630,7 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
@@ -3589,7 +3656,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
@@ -3598,16 +3665,16 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I37" t="e">
         <f>NA()</f>
@@ -3616,7 +3683,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
@@ -3625,16 +3692,16 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I38" t="e">
         <f>NA()</f>
@@ -3643,7 +3710,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
@@ -3652,16 +3719,16 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I39" t="e">
         <f>NA()</f>
@@ -3670,7 +3737,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
@@ -3679,16 +3746,16 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I40" t="e">
         <f>NA()</f>
@@ -3697,7 +3764,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -3706,16 +3773,16 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I41" t="e">
         <f>NA()</f>
@@ -3724,7 +3791,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
@@ -3733,16 +3800,16 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -3751,7 +3818,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -3760,16 +3827,16 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -3778,7 +3845,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
@@ -3787,16 +3854,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -3805,7 +3872,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -3814,16 +3881,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -3832,7 +3899,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
@@ -3841,16 +3908,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -3859,7 +3926,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -3868,16 +3935,16 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I47" t="e">
         <f>NA()</f>
@@ -3886,7 +3953,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -3895,19 +3962,19 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -3916,22 +3983,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -3940,7 +4007,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
@@ -3949,19 +4016,19 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -3970,22 +4037,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -3994,22 +4061,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4018,22 +4085,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4045,13 +4112,13 @@
         <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>188</v>
@@ -4060,7 +4127,7 @@
         <v>242</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H54" t="s">
         <v>246</v>
@@ -4075,13 +4142,13 @@
         <v>245</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>188</v>
@@ -4090,7 +4157,7 @@
         <v>243</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H55" t="s">
         <v>247</v>
@@ -4102,16 +4169,16 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>237</v>
@@ -4132,28 +4199,28 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>336</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B57" t="s">
-        <v>329</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s">
-        <v>338</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" t="s">
         <v>270</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H57" t="s">
-        <v>271</v>
       </c>
       <c r="I57" t="e">
         <f>NA()</f>
@@ -4165,13 +4232,13 @@
         <v>233</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>232</v>
@@ -4195,13 +4262,13 @@
         <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -4222,22 +4289,22 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4246,22 +4313,22 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4273,13 +4340,13 @@
         <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>221</v>
@@ -4288,7 +4355,7 @@
         <v>220</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H62" t="s">
         <v>225</v>
@@ -4303,13 +4370,13 @@
         <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>221</v>
@@ -4318,7 +4385,7 @@
         <v>222</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H63" t="s">
         <v>226</v>
@@ -4390,7 +4457,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
@@ -4459,7 +4526,7 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E68" t="s">
         <v>187</v>
@@ -4489,7 +4556,7 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E69" t="s">
         <v>188</v>
@@ -4519,7 +4586,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
@@ -4528,7 +4595,7 @@
         <v>146</v>
       </c>
       <c r="G70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H70" t="s">
         <v>156</v>
@@ -4549,7 +4616,7 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -4558,7 +4625,7 @@
         <v>142</v>
       </c>
       <c r="G71" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H71" t="s">
         <v>154</v>
@@ -4570,7 +4637,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
@@ -4579,7 +4646,7 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -4588,7 +4655,7 @@
         <v>137</v>
       </c>
       <c r="G72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H72" t="s">
         <v>158</v>
@@ -4609,7 +4676,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4618,7 +4685,7 @@
         <v>136</v>
       </c>
       <c r="G73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H73" t="s">
         <v>157</v>
@@ -4630,7 +4697,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s">
         <v>143</v>
@@ -4639,14 +4706,14 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>153</v>
@@ -4667,7 +4734,7 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>147</v>
@@ -4715,7 +4782,7 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>508</v>
       </c>
       <c r="C77" t="s">
         <v>171</v>
@@ -4739,7 +4806,7 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>508</v>
       </c>
       <c r="C78" t="s">
         <v>171</v>
@@ -4880,10 +4947,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>518</v>
       </c>
       <c r="B83" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -4898,7 +4965,7 @@
         <v>249</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H83" t="s">
         <v>250</v>
@@ -4910,28 +4977,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
+        <v>391</v>
+      </c>
+      <c r="E84" t="s">
+        <v>392</v>
+      </c>
+      <c r="F84" t="s">
         <v>393</v>
       </c>
-      <c r="E84" t="s">
-        <v>394</v>
-      </c>
-      <c r="F84" t="s">
-        <v>395</v>
-      </c>
       <c r="G84" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H84" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -4940,28 +5007,28 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E85" t="s">
+        <v>392</v>
+      </c>
+      <c r="F85" t="s">
         <v>394</v>
       </c>
-      <c r="F85" t="s">
-        <v>396</v>
-      </c>
       <c r="G85" t="s">
+        <v>403</v>
+      </c>
+      <c r="H85" t="s">
         <v>405</v>
-      </c>
-      <c r="H85" t="s">
-        <v>407</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -4970,28 +5037,28 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E86" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F86" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G86" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H86" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5000,28 +5067,28 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E87" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F87" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -5030,28 +5097,28 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E88" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F88" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -5060,28 +5127,28 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H89" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -5090,28 +5157,28 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E90" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F90" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G90" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H90" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -5120,28 +5187,28 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F91" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H91" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
@@ -5150,28 +5217,28 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" t="s">
+        <v>508</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
         <v>391</v>
       </c>
-      <c r="B92" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" t="s">
-        <v>393</v>
-      </c>
       <c r="E92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F92" t="s">
+        <v>401</v>
+      </c>
+      <c r="G92" t="s">
         <v>403</v>
       </c>
-      <c r="G92" t="s">
-        <v>405</v>
-      </c>
       <c r="H92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
@@ -5180,28 +5247,28 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" t="s">
+        <v>508</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>391</v>
+      </c>
+      <c r="E93" t="s">
         <v>392</v>
       </c>
-      <c r="B93" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" t="s">
-        <v>393</v>
-      </c>
-      <c r="E93" t="s">
-        <v>394</v>
-      </c>
       <c r="F93" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G93" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H93" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
@@ -5210,7 +5277,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s">
         <v>143</v>
@@ -5219,19 +5286,19 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
+        <v>430</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F94" t="s">
+        <v>427</v>
+      </c>
+      <c r="G94" t="s">
+        <v>428</v>
+      </c>
+      <c r="H94" t="s">
         <v>432</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F94" t="s">
-        <v>429</v>
-      </c>
-      <c r="G94" t="s">
-        <v>430</v>
-      </c>
-      <c r="H94" t="s">
-        <v>434</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
@@ -5240,28 +5307,28 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>436</v>
-      </c>
-      <c r="B95" t="s">
-        <v>41</v>
+        <v>434</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>508</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E95" t="s">
         <v>118</v>
       </c>
       <c r="F95" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G95" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H95" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
@@ -5270,7 +5337,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s">
         <v>143</v>
@@ -5279,19 +5346,19 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G96" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H96" t="s">
         <v>440</v>
-      </c>
-      <c r="H96" t="s">
-        <v>442</v>
       </c>
       <c r="I96" t="e">
         <f>NA()</f>
@@ -5300,28 +5367,28 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
+        <v>519</v>
+      </c>
+      <c r="B97" t="s">
+        <v>508</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>442</v>
+      </c>
+      <c r="E97" t="s">
+        <v>471</v>
+      </c>
+      <c r="F97" t="s">
+        <v>470</v>
+      </c>
+      <c r="G97" t="s">
+        <v>469</v>
+      </c>
+      <c r="H97" t="s">
         <v>472</v>
-      </c>
-      <c r="B97" t="s">
-        <v>474</v>
-      </c>
-      <c r="C97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" t="s">
-        <v>444</v>
-      </c>
-      <c r="E97" t="s">
-        <v>475</v>
-      </c>
-      <c r="F97" t="s">
-        <v>473</v>
-      </c>
-      <c r="G97" t="s">
-        <v>471</v>
-      </c>
-      <c r="H97" t="s">
-        <v>476</v>
       </c>
       <c r="I97" t="e">
         <f>NA()</f>
@@ -5330,28 +5397,28 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>483</v>
-      </c>
-      <c r="B98" t="s">
-        <v>41</v>
+        <v>479</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>508</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E98" t="s">
         <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G98" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H98" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I98" t="e">
         <f>NA()</f>
@@ -5360,7 +5427,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5369,19 +5436,19 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E99" t="s">
         <v>118</v>
       </c>
       <c r="F99" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G99" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H99" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I99" t="e">
         <f>NA()</f>
@@ -5390,7 +5457,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B100" t="s">
         <v>143</v>
@@ -5399,19 +5466,19 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E100" t="s">
         <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G100" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H100" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I100" t="e">
         <f>NA()</f>
@@ -5420,7 +5487,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5429,18 +5496,18 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E101" t="s">
         <v>118</v>
       </c>
       <c r="G101" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5449,7 +5516,7 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E102" t="s">
         <v>118</v>
@@ -5457,7 +5524,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5466,7 +5533,7 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E103" t="s">
         <v>118</v>
@@ -5474,7 +5541,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5483,7 +5550,7 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E104" t="s">
         <v>118</v>
@@ -5491,7 +5558,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5500,7 +5567,7 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E105" t="s">
         <v>118</v>
@@ -5508,7 +5575,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5517,7 +5584,7 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E106" t="s">
         <v>118</v>
@@ -5525,7 +5592,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5534,7 +5601,7 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E107" t="s">
         <v>118</v>
@@ -5542,7 +5609,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5551,7 +5618,7 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E108" t="s">
         <v>118</v>
@@ -5559,7 +5626,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -5568,7 +5635,7 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E109" t="s">
         <v>118</v>
@@ -5576,7 +5643,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -5585,10 +5652,64 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E110" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>509</v>
+      </c>
+      <c r="B111" t="s">
+        <v>508</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>511</v>
+      </c>
+      <c r="E111" t="s">
+        <v>512</v>
+      </c>
+      <c r="F111" t="s">
+        <v>513</v>
+      </c>
+      <c r="H111" t="s">
+        <v>515</v>
+      </c>
+      <c r="I111" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>510</v>
+      </c>
+      <c r="B112" t="s">
+        <v>508</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>511</v>
+      </c>
+      <c r="E112" t="s">
+        <v>512</v>
+      </c>
+      <c r="F112" t="s">
+        <v>514</v>
+      </c>
+      <c r="H112" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -5652,207 +5773,207 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" t="s">
         <v>445</v>
-      </c>
-      <c r="G2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" t="s">
         <v>426</v>
       </c>
-      <c r="F3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G3" t="s">
-        <v>428</v>
-      </c>
       <c r="H3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H4" t="s">
         <v>423</v>
-      </c>
-      <c r="F4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" t="s">
         <v>417</v>
       </c>
-      <c r="C6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G6" t="s">
-        <v>419</v>
-      </c>
       <c r="H6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" t="s">
         <v>416</v>
-      </c>
-      <c r="H7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" t="s">
         <v>468</v>
-      </c>
-      <c r="H8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6395,7 +6516,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -6404,19 +6525,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -6424,7 +6545,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6433,16 +6554,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E3" t="s">
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6450,7 +6571,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -6459,16 +6580,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -6476,7 +6597,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -6485,16 +6606,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I5">
         <v>0.23</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="27080" windowHeight="13560" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="518">
   <si>
     <t>name</t>
   </si>
@@ -751,9 +751,6 @@
     <t xml:space="preserve">oC per leaf </t>
   </si>
   <si>
-    <t>PHYL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mainstem node number </t>
   </si>
   <si>
@@ -934,9 +931,6 @@
     <t>Stock de matière sèche dans les feuilles</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accumulated Steam dry matter </t>
   </si>
   <si>
@@ -1018,9 +1012,6 @@
     <t>oC</t>
   </si>
   <si>
-    <t>cropParameter</t>
-  </si>
-  <si>
     <t>pTbasRUE</t>
   </si>
   <si>
@@ -1595,6 +1586,9 @@
   </si>
   <si>
     <t>sStubleWeight</t>
+  </si>
+  <si>
+    <t>phyl</t>
   </si>
 </sst>
 </file>
@@ -2594,16 +2588,17 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomRight" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2638,171 +2633,173 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
+        <v>277</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>297</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>302</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>351</v>
+        <v>301</v>
+      </c>
+      <c r="G4" t="s">
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I4" t="s">
         <v>299</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>345</v>
+      <c r="A5" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I5" t="s">
-        <v>299</v>
+        <v>505</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" t="s">
-        <v>302</v>
+        <v>238</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2810,58 +2807,45 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>177</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2869,28 +2853,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>273</v>
+        <v>197</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2898,28 +2882,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2927,348 +2908,342 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
+      <c r="A13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>505</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>257</v>
+        <v>427</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G13" t="s">
+        <v>430</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>433</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1">
-      <c r="A14" s="14" t="s">
-        <v>202</v>
+      <c r="A14" t="s">
+        <v>507</v>
       </c>
       <c r="B14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>508</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="E14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F14" t="s">
+        <v>511</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>513</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="B15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>508</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>240</v>
+      <c r="E15" t="s">
+        <v>509</v>
+      </c>
+      <c r="F15" t="s">
+        <v>510</v>
       </c>
       <c r="H15" t="s">
-        <v>241</v>
+        <v>512</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
+        <v>476</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>505</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>439</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>477</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>479</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>439</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>467</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>466</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>469</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>401</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>389</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>410</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>389</v>
+      </c>
+      <c r="F20" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" t="s">
+        <v>400</v>
+      </c>
+      <c r="H20" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>195</v>
+        <v>388</v>
+      </c>
+      <c r="E21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" t="s">
+        <v>392</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>403</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>404</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="B23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>197</v>
+        <v>389</v>
+      </c>
+      <c r="F23" t="s">
+        <v>394</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>405</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3276,55 +3251,57 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>389</v>
+      </c>
+      <c r="F24" t="s">
+        <v>395</v>
+      </c>
+      <c r="G24" t="s">
+        <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>406</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>196</v>
+        <v>389</v>
+      </c>
+      <c r="F25" t="s">
+        <v>396</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3332,28 +3309,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>356</v>
+        <v>388</v>
+      </c>
+      <c r="E26" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" t="s">
+        <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3361,144 +3338,142 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>95</v>
+        <v>389</v>
+      </c>
+      <c r="F27" t="s">
+        <v>398</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>409</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>334</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>357</v>
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>254</v>
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" t="s">
-        <v>162</v>
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="I30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I31" t="e">
         <f>NA()</f>
@@ -3507,28 +3482,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I32" t="e">
         <f>NA()</f>
@@ -3537,28 +3512,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I33" t="e">
         <f>NA()</f>
@@ -3567,10 +3542,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -3579,16 +3554,16 @@
         <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I34" t="e">
         <f>NA()</f>
@@ -3597,28 +3572,25 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>119</v>
+        <v>277</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="I35" t="e">
         <f>NA()</f>
@@ -3627,36 +3599,34 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
-        <v>508</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
+        <v>277</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>356</v>
+      </c>
+      <c r="I36" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
@@ -3665,16 +3635,16 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I37" t="e">
         <f>NA()</f>
@@ -3683,7 +3653,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
@@ -3692,16 +3662,16 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I38" t="e">
         <f>NA()</f>
@@ -3710,7 +3680,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
@@ -3719,16 +3689,16 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I39" t="e">
         <f>NA()</f>
@@ -3737,7 +3707,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
@@ -3746,16 +3716,16 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>306</v>
+        <v>277</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I40" t="e">
         <f>NA()</f>
@@ -3764,7 +3734,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -3773,16 +3743,16 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>308</v>
+        <v>277</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I41" t="e">
         <f>NA()</f>
@@ -3791,7 +3761,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
@@ -3800,16 +3770,16 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="G42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -3818,7 +3788,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -3827,16 +3797,16 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -3854,16 +3824,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -3872,7 +3842,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -3881,16 +3851,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F45" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -3898,8 +3868,8 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>324</v>
+      <c r="A46" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
@@ -3908,16 +3878,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" t="s">
-        <v>367</v>
+        <v>264</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" t="s">
+        <v>291</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -3926,7 +3899,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -3935,25 +3908,22 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>278</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G47" t="s">
-        <v>368</v>
-      </c>
-      <c r="I47" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -3962,19 +3932,19 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="H48" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -3983,22 +3953,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -4007,7 +3977,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
@@ -4016,19 +3986,13 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H50" t="s">
-        <v>280</v>
+        <v>264</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>369</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -4037,22 +4001,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -4061,22 +4025,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>372</v>
+        <v>333</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H52" t="s">
+        <v>245</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4085,22 +4055,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>265</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>373</v>
+        <v>333</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H53" t="s">
+        <v>246</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4109,28 +4085,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H54" t="s">
-        <v>246</v>
+        <v>517</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="I54" t="e">
         <f>NA()</f>
@@ -4139,28 +4115,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>375</v>
+        <v>266</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="I55" t="e">
         <f>NA()</f>
@@ -4169,28 +4145,28 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>236</v>
+        <v>329</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" t="s">
+        <v>231</v>
       </c>
       <c r="I56" t="e">
         <f>NA()</f>
@@ -4199,28 +4175,28 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>336</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>267</v>
+        <v>329</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" t="s">
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="I57" t="e">
         <f>NA()</f>
@@ -4229,28 +4205,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
       </c>
-      <c r="D58" t="s">
-        <v>332</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G58" t="s">
-        <v>235</v>
-      </c>
-      <c r="H58" t="s">
-        <v>231</v>
+      <c r="D58" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="I58" t="e">
         <f>NA()</f>
@@ -4259,28 +4229,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="B59" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
       </c>
-      <c r="D59" t="s">
-        <v>332</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G59" t="s">
-        <v>234</v>
-      </c>
-      <c r="H59" t="s">
-        <v>230</v>
+      <c r="D59" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4289,22 +4253,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>326</v>
+      <c r="D60" t="s">
+        <v>329</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="H60" t="s">
+        <v>225</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4313,22 +4283,28 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>326</v>
+      <c r="D61" t="s">
+        <v>329</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="H61" t="s">
+        <v>226</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4337,28 +4313,28 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>332</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>378</v>
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4367,28 +4343,28 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>332</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>379</v>
+        <v>97</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -4397,7 +4373,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4412,13 +4388,13 @@
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
@@ -4427,7 +4403,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>504</v>
       </c>
       <c r="B65" t="s">
         <v>143</v>
@@ -4442,13 +4418,13 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
@@ -4456,8 +4432,8 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>507</v>
+      <c r="A66" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
@@ -4466,19 +4442,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" t="s">
-        <v>89</v>
+        <v>187</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="H66" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -4486,8 +4462,8 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>58</v>
+      <c r="A67" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B67" t="s">
         <v>143</v>
@@ -4496,19 +4472,19 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>64</v>
+        <v>188</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -4516,8 +4492,8 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="6" t="s">
-        <v>185</v>
+      <c r="A68" t="s">
+        <v>436</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
@@ -4526,19 +4502,19 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G68" t="s">
-        <v>199</v>
+        <v>434</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="H68" t="s">
-        <v>193</v>
+        <v>437</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -4546,8 +4522,8 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="6" t="s">
-        <v>186</v>
+      <c r="A69" t="s">
+        <v>426</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
@@ -4556,19 +4532,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>343</v>
-      </c>
-      <c r="E69" t="s">
-        <v>188</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>198</v>
+        <v>427</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" t="s">
+        <v>424</v>
+      </c>
+      <c r="G69" t="s">
+        <v>425</v>
       </c>
       <c r="H69" t="s">
-        <v>192</v>
+        <v>429</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -4577,7 +4553,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
@@ -4586,19 +4562,19 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>337</v>
+        <v>439</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
+      </c>
+      <c r="F70" t="s">
+        <v>488</v>
       </c>
       <c r="G70" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="H70" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
@@ -4607,7 +4583,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
@@ -4616,19 +4592,19 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H71" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
@@ -4637,7 +4613,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>506</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
@@ -4646,19 +4622,19 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G72" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H72" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -4676,7 +4652,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4685,7 +4661,7 @@
         <v>136</v>
       </c>
       <c r="G73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H73" t="s">
         <v>157</v>
@@ -4696,8 +4672,8 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="4" t="s">
-        <v>325</v>
+      <c r="A74" t="s">
+        <v>503</v>
       </c>
       <c r="B74" t="s">
         <v>143</v>
@@ -4706,17 +4682,19 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>337</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>153</v>
+        <v>334</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" t="s">
+        <v>335</v>
+      </c>
+      <c r="H74" t="s">
+        <v>158</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
@@ -4724,8 +4702,8 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>150</v>
+      <c r="A75" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="B75" t="s">
         <v>143</v>
@@ -4734,16 +4712,17 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
+        <v>334</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G75" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" t="s">
-        <v>152</v>
+      <c r="H75" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -4752,25 +4731,25 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" t="s">
-        <v>8</v>
+        <v>334</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" t="s">
+        <v>151</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
@@ -4779,22 +4758,28 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>42</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -4803,22 +4788,28 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
+        <v>277</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>178</v>
+        <v>261</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H78" t="s">
+        <v>263</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -4827,28 +4818,28 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>514</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
+        <v>264</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="H79" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -4857,28 +4848,28 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
+        <v>264</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -4887,28 +4878,28 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
+        <v>264</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
@@ -4917,28 +4908,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -4947,10 +4938,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>518</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -4958,17 +4949,17 @@
       <c r="D83" t="s">
         <v>203</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>248</v>
+      <c r="E83" t="s">
+        <v>209</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>380</v>
+        <v>212</v>
+      </c>
+      <c r="G83" t="s">
+        <v>205</v>
       </c>
       <c r="H83" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -4977,28 +4968,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>381</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>391</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F84" t="s">
-        <v>393</v>
+        <v>209</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="H84" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -5006,29 +4997,29 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>382</v>
+      <c r="A85" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B85" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>391</v>
-      </c>
-      <c r="E85" t="s">
-        <v>392</v>
-      </c>
-      <c r="F85" t="s">
-        <v>394</v>
-      </c>
-      <c r="G85" t="s">
-        <v>403</v>
+        <v>203</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="H85" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -5037,28 +5028,28 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>383</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>395</v>
+        <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>403</v>
+        <v>101</v>
       </c>
       <c r="H86" t="s">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5067,28 +5058,28 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>396</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="H87" t="s">
-        <v>407</v>
+        <v>99</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -5097,28 +5088,28 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>385</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="G88" t="s">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>408</v>
+        <v>74</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -5127,28 +5118,28 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>392</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -5157,28 +5148,22 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>387</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>392</v>
-      </c>
-      <c r="F90" t="s">
-        <v>399</v>
-      </c>
-      <c r="G90" t="s">
-        <v>403</v>
-      </c>
-      <c r="H90" t="s">
-        <v>410</v>
+        <v>180</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -5187,28 +5172,28 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>388</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>391</v>
-      </c>
-      <c r="E91" t="s">
-        <v>392</v>
-      </c>
-      <c r="F91" t="s">
-        <v>400</v>
+        <v>97</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="G91" t="s">
-        <v>403</v>
+        <v>194</v>
       </c>
       <c r="H91" t="s">
-        <v>411</v>
+        <v>189</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
@@ -5217,28 +5202,28 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>392</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s">
-        <v>403</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>412</v>
+        <v>56</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
@@ -5247,28 +5232,28 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>390</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>391</v>
-      </c>
-      <c r="E93" t="s">
-        <v>392</v>
-      </c>
-      <c r="F93" t="s">
-        <v>402</v>
-      </c>
-      <c r="G93" t="s">
-        <v>403</v>
+        <v>274</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="H93" t="s">
-        <v>413</v>
+        <v>218</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
@@ -5277,28 +5262,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>430</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F94" t="s">
-        <v>427</v>
+        <v>439</v>
+      </c>
+      <c r="E94" t="s">
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>428</v>
-      </c>
-      <c r="H94" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
@@ -5307,29 +5286,20 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>434</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>508</v>
+        <v>502</v>
+      </c>
+      <c r="B95" t="s">
+        <v>41</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E95" t="s">
         <v>118</v>
       </c>
-      <c r="F95" t="s">
-        <v>435</v>
-      </c>
-      <c r="G95" t="s">
-        <v>433</v>
-      </c>
-      <c r="H95" t="s">
-        <v>436</v>
-      </c>
       <c r="I95" t="e">
         <f>NA()</f>
         <v>#N/A</v>
@@ -5337,29 +5307,20 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
+        <v>494</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
         <v>439</v>
-      </c>
-      <c r="B96" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" t="s">
-        <v>430</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="H96" t="s">
-        <v>440</v>
-      </c>
       <c r="I96" t="e">
         <f>NA()</f>
         <v>#N/A</v>
@@ -5367,28 +5328,19 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="B97" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E97" t="s">
-        <v>471</v>
-      </c>
-      <c r="F97" t="s">
-        <v>470</v>
-      </c>
-      <c r="G97" t="s">
-        <v>469</v>
-      </c>
-      <c r="H97" t="s">
-        <v>472</v>
+        <v>118</v>
       </c>
       <c r="I97" t="e">
         <f>NA()</f>
@@ -5397,28 +5349,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>479</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>508</v>
+        <v>496</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
-      </c>
-      <c r="F98" t="s">
-        <v>480</v>
-      </c>
-      <c r="G98" t="s">
-        <v>481</v>
-      </c>
-      <c r="H98" t="s">
-        <v>482</v>
+        <v>118</v>
       </c>
       <c r="I98" t="e">
         <f>NA()</f>
@@ -5427,7 +5370,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5436,20 +5379,11 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E99" t="s">
         <v>118</v>
       </c>
-      <c r="F99" t="s">
-        <v>484</v>
-      </c>
-      <c r="G99" t="s">
-        <v>485</v>
-      </c>
-      <c r="H99" t="s">
-        <v>486</v>
-      </c>
       <c r="I99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
@@ -5457,28 +5391,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B100" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
-      </c>
-      <c r="F100" t="s">
-        <v>491</v>
-      </c>
-      <c r="G100" t="s">
-        <v>492</v>
-      </c>
-      <c r="H100" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="I100" t="e">
         <f>NA()</f>
@@ -5487,7 +5412,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5496,18 +5421,19 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E101" t="s">
         <v>118</v>
       </c>
-      <c r="G101" t="s">
-        <v>495</v>
+      <c r="I101" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5516,15 +5442,19 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E102" t="s">
         <v>118</v>
       </c>
+      <c r="I102" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5533,15 +5463,19 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E103" t="s">
         <v>118</v>
       </c>
+      <c r="I103" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5550,15 +5484,28 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E104" t="s">
         <v>118</v>
       </c>
+      <c r="F104" t="s">
+        <v>481</v>
+      </c>
+      <c r="G104" t="s">
+        <v>482</v>
+      </c>
+      <c r="H104" t="s">
+        <v>483</v>
+      </c>
+      <c r="I104" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5567,15 +5514,28 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="E105" t="s">
-        <v>118</v>
+        <v>168</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" t="s">
+        <v>96</v>
+      </c>
+      <c r="I105" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>501</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5584,15 +5544,28 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>442</v>
-      </c>
-      <c r="E106" t="s">
-        <v>118</v>
+        <v>288</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H106" t="s">
+        <v>289</v>
+      </c>
+      <c r="I106" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5601,15 +5574,28 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>168</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G107" t="s">
+        <v>252</v>
+      </c>
+      <c r="H107" t="s">
+        <v>254</v>
+      </c>
+      <c r="I107" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>503</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5618,15 +5604,28 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>442</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s">
-        <v>118</v>
+        <v>168</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" t="s">
+        <v>106</v>
+      </c>
+      <c r="H108" t="s">
+        <v>107</v>
+      </c>
+      <c r="I108" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>504</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -5635,15 +5634,28 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>442</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G109" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" t="s">
+        <v>133</v>
+      </c>
+      <c r="I109" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>505</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -5652,33 +5664,49 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>442</v>
+        <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>118</v>
+        <v>168</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110" t="s">
+        <v>155</v>
+      </c>
+      <c r="I110" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>509</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="F111" t="s">
-        <v>513</v>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
       </c>
       <c r="H111" t="s">
-        <v>515</v>
+        <v>122</v>
       </c>
       <c r="I111" t="e">
         <f>NA()</f>
@@ -5687,25 +5715,28 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>510</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="F112" t="s">
-        <v>514</v>
+        <v>119</v>
+      </c>
+      <c r="G112" t="s">
+        <v>120</v>
       </c>
       <c r="H112" t="s">
-        <v>516</v>
+        <v>123</v>
       </c>
       <c r="I112" t="e">
         <f>NA()</f>
@@ -5713,10 +5744,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I84">
-    <sortCondition ref="B2:B84"/>
-    <sortCondition ref="D2:D84"/>
-    <sortCondition ref="A2:A84"/>
+  <sortState ref="A2:I112">
+    <sortCondition descending="1" ref="B2:B112"/>
+    <sortCondition ref="D2:D112"/>
+    <sortCondition ref="A2:A112"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5773,207 +5804,207 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E2" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H6" t="s">
         <v>415</v>
-      </c>
-      <c r="C6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" t="s">
-        <v>417</v>
-      </c>
-      <c r="H6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H9" t="s">
         <v>487</v>
-      </c>
-      <c r="G9" t="s">
-        <v>488</v>
-      </c>
-      <c r="H9" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6516,7 +6547,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -6525,19 +6556,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E2" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H2" t="s">
         <v>453</v>
-      </c>
-      <c r="H2" t="s">
-        <v>456</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -6545,7 +6576,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6554,16 +6585,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6571,7 +6602,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -6580,16 +6611,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -6597,7 +6628,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -6606,16 +6637,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I5">
         <v>0.23</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="521">
   <si>
     <t>name</t>
   </si>
@@ -1590,6 +1590,15 @@
   <si>
     <t>phyl</t>
   </si>
+  <si>
+    <t>sGrowthStageNumber</t>
+  </si>
+  <si>
+    <t>growth stage of the crop as a number</t>
+  </si>
+  <si>
+    <t>stade de développement en chiffre</t>
+  </si>
 </sst>
 </file>
 
@@ -1601,6 +1610,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1658,7 +1668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1683,6 +1693,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1693,7 +1709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1943,8 +1959,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1971,8 +1993,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="249">
+  <cellStyles count="255">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2097,6 +2121,9 @@
     <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2221,6 +2248,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2585,13 +2615,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:I1048576"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2908,7 +2938,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>505</v>
@@ -2919,81 +2949,77 @@
       <c r="D12" t="s">
         <v>97</v>
       </c>
-      <c r="E12" t="s">
-        <v>124</v>
+      <c r="E12" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
+        <v>519</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
         <v>505</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" t="s">
-        <v>432</v>
+        <v>124</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G13" t="s">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>433</v>
+        <v>190</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="14" customFormat="1">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>505</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="E14" t="s">
-        <v>509</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>511</v>
-      </c>
-      <c r="G14"/>
+        <v>432</v>
+      </c>
+      <c r="G14" t="s">
+        <v>430</v>
+      </c>
       <c r="H14" t="s">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" s="14" customFormat="1">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
         <v>505</v>
@@ -3008,10 +3034,11 @@
         <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>510</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3019,28 +3046,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>476</v>
-      </c>
-      <c r="B16" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" t="s">
         <v>505</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>509</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="H16" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3048,9 +3072,9 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>516</v>
-      </c>
-      <c r="B17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>505</v>
       </c>
       <c r="C17" t="s">
@@ -3060,16 +3084,16 @@
         <v>439</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G17" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="H17" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3077,7 +3101,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s">
         <v>505</v>
@@ -3086,19 +3110,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="E18" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="F18" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="G18" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3106,7 +3130,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>505</v>
@@ -3121,13 +3145,13 @@
         <v>389</v>
       </c>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G19" t="s">
         <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3135,7 +3159,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s">
         <v>505</v>
@@ -3150,13 +3174,13 @@
         <v>389</v>
       </c>
       <c r="F20" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G20" t="s">
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3164,7 +3188,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
         <v>505</v>
@@ -3179,13 +3203,13 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G21" t="s">
         <v>400</v>
       </c>
       <c r="H21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3193,7 +3217,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" t="s">
         <v>505</v>
@@ -3208,13 +3232,13 @@
         <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G22" t="s">
         <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3222,7 +3246,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
         <v>505</v>
@@ -3237,13 +3261,13 @@
         <v>389</v>
       </c>
       <c r="F23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G23" t="s">
         <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3251,7 +3275,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s">
         <v>505</v>
@@ -3266,13 +3290,13 @@
         <v>389</v>
       </c>
       <c r="F24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G24" t="s">
         <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3280,7 +3304,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s">
         <v>505</v>
@@ -3295,13 +3319,13 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G25" t="s">
         <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3309,7 +3333,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
         <v>505</v>
@@ -3324,13 +3348,13 @@
         <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G26" t="s">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3338,7 +3362,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
         <v>505</v>
@@ -3353,13 +3377,13 @@
         <v>389</v>
       </c>
       <c r="F27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G27" t="s">
         <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3367,7 +3391,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
         <v>505</v>
@@ -3376,27 +3400,27 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>161</v>
+        <v>389</v>
+      </c>
+      <c r="F28" t="s">
+        <v>398</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
         <v>505</v>
@@ -3405,75 +3429,74 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" s="4" customFormat="1">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>113</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I31" t="e">
         <f>NA()</f>
@@ -3482,7 +3505,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -3494,16 +3517,16 @@
         <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I32" t="e">
         <f>NA()</f>
@@ -3512,7 +3535,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -3524,16 +3547,16 @@
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I33" t="e">
         <f>NA()</f>
@@ -3542,7 +3565,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -3557,13 +3580,13 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" t="e">
         <f>NA()</f>
@@ -3572,25 +3595,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>307</v>
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>355</v>
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
       </c>
       <c r="I35" t="e">
         <f>NA()</f>
@@ -3599,7 +3625,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
         <v>143</v>
@@ -3614,10 +3640,10 @@
         <v>311</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I36" t="e">
         <f>NA()</f>
@@ -3626,7 +3652,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
@@ -3641,10 +3667,10 @@
         <v>311</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I37" t="e">
         <f>NA()</f>
@@ -3653,7 +3679,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
@@ -3668,10 +3694,10 @@
         <v>311</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I38" t="e">
         <f>NA()</f>
@@ -3680,7 +3706,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
@@ -3695,10 +3721,10 @@
         <v>311</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I39" t="e">
         <f>NA()</f>
@@ -3707,7 +3733,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
@@ -3718,14 +3744,14 @@
       <c r="D40" t="s">
         <v>277</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>309</v>
+      <c r="F40" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I40" t="e">
         <f>NA()</f>
@@ -3734,7 +3760,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -3746,13 +3772,13 @@
         <v>277</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I41" t="e">
         <f>NA()</f>
@@ -3761,7 +3787,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
@@ -3779,7 +3805,7 @@
         <v>310</v>
       </c>
       <c r="G42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -3788,7 +3814,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -3806,7 +3832,7 @@
         <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -3815,7 +3841,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
@@ -3833,7 +3859,7 @@
         <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -3842,7 +3868,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -3853,14 +3879,14 @@
       <c r="D45" t="s">
         <v>277</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>312</v>
+      <c r="F45" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -3868,8 +3894,8 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="3" t="s">
-        <v>449</v>
+      <c r="A46" t="s">
+        <v>316</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
@@ -3878,19 +3904,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H46" t="s">
-        <v>291</v>
+        <v>312</v>
+      </c>
+      <c r="G46" t="s">
+        <v>365</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -3898,8 +3921,8 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>328</v>
+      <c r="A47" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -3910,11 +3933,17 @@
       <c r="D47" t="s">
         <v>264</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>366</v>
+      <c r="E47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" t="s">
+        <v>291</v>
       </c>
       <c r="I47" t="e">
         <f>NA()</f>
@@ -3923,7 +3952,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -3934,17 +3963,11 @@
       <c r="D48" t="s">
         <v>264</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H48" t="s">
-        <v>279</v>
+      <c r="E48" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -3953,7 +3976,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
@@ -3964,11 +3987,17 @@
       <c r="D49" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>368</v>
+      <c r="E49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H49" t="s">
+        <v>279</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -3977,7 +4006,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
@@ -3992,7 +4021,7 @@
         <v>324</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -4001,7 +4030,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s">
         <v>143</v>
@@ -4016,7 +4045,7 @@
         <v>324</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -4025,7 +4054,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
         <v>143</v>
@@ -4034,19 +4063,13 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H52" t="s">
-        <v>245</v>
+        <v>264</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4055,7 +4078,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
         <v>143</v>
@@ -4070,13 +4093,13 @@
         <v>188</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4085,7 +4108,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
@@ -4097,16 +4120,16 @@
         <v>333</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>236</v>
+        <v>372</v>
+      </c>
+      <c r="H54" t="s">
+        <v>246</v>
       </c>
       <c r="I54" t="e">
         <f>NA()</f>
@@ -4115,7 +4138,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
@@ -4127,16 +4150,16 @@
         <v>333</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H55" t="s">
-        <v>269</v>
+        <v>517</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="I55" t="e">
         <f>NA()</f>
@@ -4145,7 +4168,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4154,19 +4177,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G56" t="s">
-        <v>235</v>
+        <v>333</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="H56" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="I56" t="e">
         <f>NA()</f>
@@ -4175,7 +4198,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
@@ -4186,17 +4209,17 @@
       <c r="D57" t="s">
         <v>329</v>
       </c>
-      <c r="E57" t="s">
-        <v>15</v>
+      <c r="E57" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I57" t="e">
         <f>NA()</f>
@@ -4205,7 +4228,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
         <v>143</v>
@@ -4213,14 +4236,20 @@
       <c r="C58" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" t="s">
         <v>329</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>373</v>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" t="s">
+        <v>234</v>
+      </c>
+      <c r="H58" t="s">
+        <v>230</v>
       </c>
       <c r="I58" t="e">
         <f>NA()</f>
@@ -4229,7 +4258,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -4244,7 +4273,7 @@
         <v>324</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4253,7 +4282,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -4261,20 +4290,14 @@
       <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>220</v>
+      <c r="E60" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H60" t="s">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4283,7 +4306,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
@@ -4298,13 +4321,13 @@
         <v>221</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4313,7 +4336,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
         <v>143</v>
@@ -4322,19 +4345,19 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" t="s">
-        <v>63</v>
+        <v>329</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4343,7 +4366,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>143</v>
@@ -4358,13 +4381,13 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -4373,7 +4396,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4388,13 +4411,13 @@
         <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
@@ -4403,7 +4426,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>504</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>143</v>
@@ -4418,13 +4441,13 @@
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
@@ -4432,8 +4455,8 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="6" t="s">
-        <v>185</v>
+      <c r="A66" t="s">
+        <v>504</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
@@ -4442,19 +4465,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>201</v>
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -4463,7 +4486,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
         <v>143</v>
@@ -4475,16 +4498,16 @@
         <v>340</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="G67" t="s">
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -4492,8 +4515,8 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>436</v>
+      <c r="A68" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
@@ -4502,19 +4525,19 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>435</v>
+        <v>198</v>
       </c>
       <c r="H68" t="s">
-        <v>437</v>
+        <v>192</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -4523,7 +4546,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
@@ -4534,17 +4557,17 @@
       <c r="D69" t="s">
         <v>427</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F69" t="s">
-        <v>424</v>
-      </c>
-      <c r="G69" t="s">
-        <v>425</v>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="H69" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -4553,7 +4576,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
@@ -4562,19 +4585,19 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>439</v>
-      </c>
-      <c r="E70" t="s">
-        <v>188</v>
+        <v>427</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>428</v>
       </c>
       <c r="F70" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="G70" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="H70" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
@@ -4583,7 +4606,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
@@ -4592,19 +4615,19 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
+      </c>
+      <c r="F71" t="s">
+        <v>488</v>
       </c>
       <c r="G71" t="s">
-        <v>338</v>
+        <v>489</v>
       </c>
       <c r="H71" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
@@ -4613,7 +4636,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
@@ -4628,13 +4651,13 @@
         <v>15</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H72" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -4643,7 +4666,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
         <v>143</v>
@@ -4658,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
@@ -4673,7 +4696,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
         <v>143</v>
@@ -4688,13 +4711,13 @@
         <v>15</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G74" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
@@ -4702,8 +4725,8 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="4" t="s">
-        <v>323</v>
+      <c r="A75" t="s">
+        <v>503</v>
       </c>
       <c r="B75" t="s">
         <v>143</v>
@@ -4714,15 +4737,17 @@
       <c r="D75" t="s">
         <v>334</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>153</v>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" t="s">
+        <v>335</v>
+      </c>
+      <c r="H75" t="s">
+        <v>158</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -4730,8 +4755,8 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>150</v>
+      <c r="A76" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="B76" t="s">
         <v>143</v>
@@ -4742,14 +4767,15 @@
       <c r="D76" t="s">
         <v>334</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" t="s">
-        <v>151</v>
-      </c>
-      <c r="H76" t="s">
-        <v>152</v>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
@@ -4758,28 +4784,25 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
+        <v>334</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -4788,7 +4811,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
         <v>41</v>
@@ -4797,19 +4820,19 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>347</v>
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -4818,7 +4841,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>514</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
@@ -4827,19 +4850,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -4848,7 +4871,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s">
         <v>41</v>
@@ -4860,16 +4883,16 @@
         <v>264</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H80" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -4878,7 +4901,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
@@ -4890,16 +4913,16 @@
         <v>264</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H81" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
@@ -4908,7 +4931,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s">
         <v>41</v>
@@ -4917,19 +4940,19 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="H82" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -4938,7 +4961,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
         <v>41</v>
@@ -4947,19 +4970,19 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" t="s">
-        <v>209</v>
+        <v>32</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G83" t="s">
-        <v>205</v>
+        <v>271</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="H83" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -4968,7 +4991,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
         <v>41</v>
@@ -4983,13 +5006,13 @@
         <v>209</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -4997,8 +5020,8 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="3" t="s">
-        <v>259</v>
+      <c r="A85" t="s">
+        <v>211</v>
       </c>
       <c r="B85" t="s">
         <v>41</v>
@@ -5009,17 +5032,17 @@
       <c r="D85" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>257</v>
+      <c r="E85" t="s">
+        <v>209</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>256</v>
+        <v>210</v>
+      </c>
+      <c r="G85" t="s">
+        <v>204</v>
       </c>
       <c r="H85" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -5027,8 +5050,8 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>100</v>
+      <c r="A86" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
@@ -5037,19 +5060,19 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
-        <v>101</v>
+        <v>203</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5058,7 +5081,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
@@ -5070,16 +5093,16 @@
         <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G87" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H87" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -5088,7 +5111,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -5103,13 +5126,13 @@
         <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H88" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -5118,7 +5141,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
@@ -5130,16 +5153,16 @@
         <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G89" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -5148,61 +5171,63 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
       </c>
       <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F91" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="I90" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G91" t="s">
-        <v>194</v>
-      </c>
-      <c r="H91" t="s">
-        <v>189</v>
-      </c>
-      <c r="I91" t="e">
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
@@ -5213,17 +5238,17 @@
       <c r="D92" t="s">
         <v>97</v>
       </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" t="s">
-        <v>54</v>
+      <c r="E92" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="G92" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="H92" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
@@ -5232,7 +5257,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -5241,19 +5266,19 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>353</v>
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
       </c>
       <c r="H93" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
@@ -5262,7 +5287,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
@@ -5271,13 +5296,19 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>439</v>
-      </c>
-      <c r="E94" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>492</v>
+        <v>274</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H94" t="s">
+        <v>218</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
@@ -5286,7 +5317,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
@@ -5300,6 +5331,9 @@
       <c r="E95" t="s">
         <v>118</v>
       </c>
+      <c r="G95" t="s">
+        <v>492</v>
+      </c>
       <c r="I95" t="e">
         <f>NA()</f>
         <v>#N/A</v>
@@ -5307,7 +5341,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B96" t="s">
         <v>41</v>
@@ -5328,7 +5362,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B97" t="s">
         <v>41</v>
@@ -5349,7 +5383,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
@@ -5370,7 +5404,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5391,7 +5425,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -5412,7 +5446,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5433,7 +5467,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5454,7 +5488,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5475,7 +5509,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5489,15 +5523,6 @@
       <c r="E104" t="s">
         <v>118</v>
       </c>
-      <c r="F104" t="s">
-        <v>481</v>
-      </c>
-      <c r="G104" t="s">
-        <v>482</v>
-      </c>
-      <c r="H104" t="s">
-        <v>483</v>
-      </c>
       <c r="I104" t="e">
         <f>NA()</f>
         <v>#N/A</v>
@@ -5505,7 +5530,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5514,19 +5539,19 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="E105" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="F105" t="s">
+        <v>481</v>
       </c>
       <c r="G105" t="s">
-        <v>94</v>
+        <v>482</v>
       </c>
       <c r="H105" t="s">
-        <v>96</v>
+        <v>483</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
@@ -5535,7 +5560,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5546,17 +5571,17 @@
       <c r="D106" t="s">
         <v>288</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>354</v>
+      <c r="E106" t="s">
+        <v>168</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" t="s">
+        <v>94</v>
       </c>
       <c r="H106" t="s">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="I106" t="e">
         <f>NA()</f>
@@ -5565,7 +5590,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5576,17 +5601,17 @@
       <c r="D107" t="s">
         <v>288</v>
       </c>
-      <c r="E107" t="s">
-        <v>168</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G107" t="s">
-        <v>252</v>
+      <c r="E107" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="I107" t="e">
         <f>NA()</f>
@@ -5595,7 +5620,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5604,19 +5629,19 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="E108" t="s">
         <v>168</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="G108" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="H108" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="I108" t="e">
         <f>NA()</f>
@@ -5625,7 +5650,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -5637,16 +5662,16 @@
         <v>130</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>128</v>
+        <v>168</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G109" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="I109" t="e">
         <f>NA()</f>
@@ -5655,7 +5680,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -5667,16 +5692,16 @@
         <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H110" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="I110" t="e">
         <f>NA()</f>
@@ -5685,7 +5710,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -5694,19 +5719,19 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" t="s">
-        <v>118</v>
-      </c>
-      <c r="F111" t="s">
-        <v>121</v>
+        <v>168</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="G111" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="H111" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="I111" t="e">
         <f>NA()</f>
@@ -5715,7 +5740,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -5730,15 +5755,45 @@
         <v>118</v>
       </c>
       <c r="F112" t="s">
+        <v>121</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" t="s">
         <v>119</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>120</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>123</v>
       </c>
-      <c r="I112" t="e">
+      <c r="I113" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="2780" yWindow="0" windowWidth="25120" windowHeight="13120" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -739,12 +739,6 @@
     <t>pFreezeFracLeafDestruction</t>
   </si>
   <si>
-    <t>FRZTKIL</t>
-  </si>
-  <si>
-    <t>FRZLDR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phyllochron </t>
   </si>
   <si>
@@ -1153,9 +1147,6 @@
     <t>PLACON</t>
   </si>
   <si>
-    <t>PLAPOW</t>
-  </si>
-  <si>
     <t>HtLDR</t>
   </si>
   <si>
@@ -1598,6 +1589,15 @@
   </si>
   <si>
     <t>stade de développement en chiffre</t>
+  </si>
+  <si>
+    <t>PLAPOW300</t>
+  </si>
+  <si>
+    <t>FrzLDR</t>
+  </si>
+  <si>
+    <t>FrzTh</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="255">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1965,8 +1965,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1995,8 +1999,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="255">
+  <cellStyles count="259">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2124,6 +2129,8 @@
     <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2251,6 +2258,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2618,10 +2627,10 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2663,28 +2672,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
         <v>295</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H2" t="s">
-        <v>297</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2692,28 +2701,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2721,28 +2730,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2753,7 +2762,7 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>26</v>
@@ -2779,10 +2788,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -2794,13 +2803,13 @@
         <v>188</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" t="s">
         <v>238</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" t="s">
-        <v>240</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2808,10 +2817,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -2820,16 +2829,16 @@
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" t="s">
         <v>247</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H7" t="s">
-        <v>249</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2840,7 +2849,7 @@
         <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C8" t="s">
         <v>171</v>
@@ -2863,7 +2872,7 @@
         <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
         <v>171</v>
@@ -2886,7 +2895,7 @@
         <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -2915,7 +2924,7 @@
         <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
         <v>171</v>
@@ -2938,10 +2947,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -2953,10 +2962,10 @@
         <v>188</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2964,7 +2973,7 @@
         <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2990,28 +2999,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E14" t="s">
         <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G14" t="s">
+        <v>427</v>
+      </c>
+      <c r="H14" t="s">
         <v>430</v>
-      </c>
-      <c r="H14" t="s">
-        <v>433</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3019,26 +3028,26 @@
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>505</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>506</v>
+      </c>
+      <c r="F15" t="s">
         <v>508</v>
-      </c>
-      <c r="E15" t="s">
-        <v>509</v>
-      </c>
-      <c r="F15" t="s">
-        <v>511</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3046,25 +3055,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E16" t="s">
         <v>506</v>
       </c>
-      <c r="B16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>508</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" t="s">
         <v>509</v>
-      </c>
-      <c r="F16" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" t="s">
-        <v>512</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3072,28 +3081,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E17" t="s">
         <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3101,28 +3110,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G18" t="s">
+        <v>463</v>
+      </c>
+      <c r="H18" t="s">
         <v>466</v>
-      </c>
-      <c r="H18" t="s">
-        <v>469</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3130,28 +3139,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3159,28 +3168,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3188,28 +3197,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" t="s">
         <v>388</v>
       </c>
-      <c r="E21" t="s">
-        <v>389</v>
-      </c>
-      <c r="F21" t="s">
-        <v>391</v>
-      </c>
       <c r="G21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3217,28 +3226,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" t="s">
         <v>389</v>
       </c>
-      <c r="F22" t="s">
-        <v>392</v>
-      </c>
       <c r="G22" t="s">
+        <v>397</v>
+      </c>
+      <c r="H22" t="s">
         <v>400</v>
-      </c>
-      <c r="H22" t="s">
-        <v>403</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3246,28 +3255,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3275,28 +3284,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3304,28 +3313,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3333,28 +3342,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3362,28 +3371,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>385</v>
       </c>
-      <c r="B27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>388</v>
-      </c>
       <c r="E27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F27" t="s">
+        <v>394</v>
+      </c>
+      <c r="G27" t="s">
         <v>397</v>
       </c>
-      <c r="G27" t="s">
-        <v>400</v>
-      </c>
       <c r="H27" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3391,28 +3400,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" t="s">
         <v>386</v>
       </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" t="s">
-        <v>389</v>
-      </c>
       <c r="F28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H28" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3423,13 +3432,13 @@
         <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E29" t="s">
         <v>124</v>
@@ -3452,7 +3461,7 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -3625,7 +3634,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s">
         <v>143</v>
@@ -3634,16 +3643,16 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I36" t="e">
         <f>NA()</f>
@@ -3652,7 +3661,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
@@ -3661,16 +3670,16 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I37" t="e">
         <f>NA()</f>
@@ -3679,7 +3688,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
@@ -3688,16 +3697,16 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I38" t="e">
         <f>NA()</f>
@@ -3706,7 +3715,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
@@ -3715,16 +3724,16 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I39" t="e">
         <f>NA()</f>
@@ -3733,7 +3742,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
@@ -3742,16 +3751,16 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I40" t="e">
         <f>NA()</f>
@@ -3760,7 +3769,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -3769,16 +3778,16 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I41" t="e">
         <f>NA()</f>
@@ -3787,7 +3796,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
@@ -3796,16 +3805,16 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -3814,7 +3823,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -3823,16 +3832,16 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -3841,7 +3850,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
@@ -3850,16 +3859,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -3868,7 +3877,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -3877,16 +3886,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -3895,7 +3904,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
@@ -3904,16 +3913,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -3922,7 +3931,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -3931,19 +3940,19 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I47" t="e">
         <f>NA()</f>
@@ -3952,7 +3961,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -3961,13 +3970,13 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -3976,7 +3985,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
@@ -3985,19 +3994,19 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -4006,7 +4015,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
@@ -4015,13 +4024,13 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -4030,7 +4039,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s">
         <v>143</v>
@@ -4039,13 +4048,13 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -4054,7 +4063,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
         <v>143</v>
@@ -4063,13 +4072,13 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4078,7 +4087,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
         <v>143</v>
@@ -4087,19 +4096,19 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4108,7 +4117,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
@@ -4117,19 +4126,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>372</v>
+        <v>518</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I54" t="e">
         <f>NA()</f>
@@ -4138,7 +4147,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
@@ -4147,19 +4156,19 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I55" t="e">
         <f>NA()</f>
@@ -4168,7 +4177,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4177,19 +4186,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I56" t="e">
         <f>NA()</f>
@@ -4207,7 +4216,7 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>232</v>
@@ -4215,8 +4224,8 @@
       <c r="F57" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G57" t="s">
-        <v>235</v>
+      <c r="G57" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="H57" t="s">
         <v>231</v>
@@ -4237,7 +4246,7 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
@@ -4245,8 +4254,8 @@
       <c r="F58" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G58" t="s">
-        <v>234</v>
+      <c r="G58" s="11" t="s">
+        <v>520</v>
       </c>
       <c r="H58" t="s">
         <v>230</v>
@@ -4258,7 +4267,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -4267,13 +4276,13 @@
         <v>26</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4282,7 +4291,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -4291,13 +4300,13 @@
         <v>26</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4315,7 +4324,7 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>221</v>
@@ -4324,7 +4333,7 @@
         <v>220</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H61" t="s">
         <v>225</v>
@@ -4345,7 +4354,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>221</v>
@@ -4354,7 +4363,7 @@
         <v>222</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H62" t="s">
         <v>226</v>
@@ -4456,7 +4465,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
@@ -4495,7 +4504,7 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E67" t="s">
         <v>187</v>
@@ -4525,7 +4534,7 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
         <v>188</v>
@@ -4546,7 +4555,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
@@ -4555,19 +4564,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E69" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H69" t="s">
         <v>434</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H69" t="s">
-        <v>437</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -4576,7 +4585,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
@@ -4585,19 +4594,19 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G70" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H70" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
@@ -4606,7 +4615,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
@@ -4615,27 +4624,27 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E71" t="s">
         <v>188</v>
       </c>
       <c r="F71" t="s">
+        <v>485</v>
+      </c>
+      <c r="G71" t="s">
+        <v>486</v>
+      </c>
+      <c r="H71" t="s">
         <v>488</v>
       </c>
-      <c r="G71" t="s">
-        <v>489</v>
-      </c>
-      <c r="H71" t="s">
-        <v>491</v>
-      </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" t="s">
+      <c r="A72" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B72" t="s">
@@ -4645,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -4653,8 +4662,8 @@
       <c r="F72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G72" t="s">
-        <v>338</v>
+      <c r="G72" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="H72" t="s">
         <v>156</v>
@@ -4665,7 +4674,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" t="s">
+      <c r="A73" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B73" t="s">
@@ -4675,7 +4684,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4683,8 +4692,8 @@
       <c r="F73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G73" t="s">
-        <v>336</v>
+      <c r="G73" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="H73" t="s">
         <v>154</v>
@@ -4695,7 +4704,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" t="s">
+      <c r="A74" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B74" t="s">
@@ -4705,7 +4714,7 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -4713,8 +4722,8 @@
       <c r="F74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G74" t="s">
-        <v>339</v>
+      <c r="G74" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="H74" t="s">
         <v>157</v>
@@ -4725,8 +4734,8 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>503</v>
+      <c r="A75" s="16" t="s">
+        <v>500</v>
       </c>
       <c r="B75" t="s">
         <v>143</v>
@@ -4735,7 +4744,7 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -4743,8 +4752,8 @@
       <c r="F75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G75" t="s">
-        <v>335</v>
+      <c r="G75" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="H75" t="s">
         <v>158</v>
@@ -4756,7 +4765,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B76" t="s">
         <v>143</v>
@@ -4765,14 +4774,14 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>337</v>
+      <c r="G76" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>153</v>
@@ -4793,7 +4802,7 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>147</v>
@@ -4841,7 +4850,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
@@ -4850,19 +4859,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H79" t="s">
         <v>261</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H79" t="s">
-        <v>263</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -4871,7 +4880,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s">
         <v>41</v>
@@ -4880,19 +4889,19 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H80" t="s">
         <v>280</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H80" t="s">
-        <v>282</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -4901,7 +4910,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
@@ -4910,19 +4919,19 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H81" t="s">
         <v>292</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H81" t="s">
-        <v>294</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
@@ -4931,7 +4940,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
         <v>41</v>
@@ -4940,19 +4949,19 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H82" t="s">
         <v>283</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H82" t="s">
-        <v>285</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -4961,7 +4970,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B83" t="s">
         <v>41</v>
@@ -4976,13 +4985,13 @@
         <v>188</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H83" t="s">
         <v>271</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H83" t="s">
-        <v>273</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -5051,7 +5060,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
@@ -5063,16 +5072,16 @@
         <v>203</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G86" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H86" t="s">
         <v>256</v>
-      </c>
-      <c r="H86" t="s">
-        <v>258</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5296,7 +5305,7 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>217</v>
@@ -5305,7 +5314,7 @@
         <v>216</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H94" t="s">
         <v>218</v>
@@ -5317,7 +5326,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
@@ -5326,13 +5335,13 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E95" t="s">
         <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
@@ -5341,7 +5350,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s">
         <v>41</v>
@@ -5350,7 +5359,7 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
@@ -5362,7 +5371,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B97" t="s">
         <v>41</v>
@@ -5371,7 +5380,7 @@
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E97" t="s">
         <v>118</v>
@@ -5383,7 +5392,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
@@ -5392,7 +5401,7 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E98" t="s">
         <v>118</v>
@@ -5404,7 +5413,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5413,7 +5422,7 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E99" t="s">
         <v>118</v>
@@ -5425,7 +5434,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -5434,7 +5443,7 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E100" t="s">
         <v>118</v>
@@ -5446,7 +5455,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5455,7 +5464,7 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E101" t="s">
         <v>118</v>
@@ -5467,7 +5476,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5476,7 +5485,7 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E102" t="s">
         <v>118</v>
@@ -5488,7 +5497,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5497,7 +5506,7 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E103" t="s">
         <v>118</v>
@@ -5509,7 +5518,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5518,7 +5527,7 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E104" t="s">
         <v>118</v>
@@ -5530,7 +5539,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5539,19 +5548,19 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E105" t="s">
         <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G105" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H105" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
@@ -5560,7 +5569,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5569,7 +5578,7 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E106" t="s">
         <v>168</v>
@@ -5590,7 +5599,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5599,19 +5608,19 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I107" t="e">
         <f>NA()</f>
@@ -5620,7 +5629,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5629,19 +5638,19 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E108" t="s">
         <v>168</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G108" t="s">
+        <v>250</v>
+      </c>
+      <c r="H108" t="s">
         <v>252</v>
-      </c>
-      <c r="H108" t="s">
-        <v>254</v>
       </c>
       <c r="I108" t="e">
         <f>NA()</f>
@@ -5859,207 +5868,207 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H6" t="s">
         <v>412</v>
-      </c>
-      <c r="C6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E6" t="s">
-        <v>418</v>
-      </c>
-      <c r="F6" t="s">
-        <v>473</v>
-      </c>
-      <c r="G6" t="s">
-        <v>414</v>
-      </c>
-      <c r="H6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" t="s">
         <v>484</v>
-      </c>
-      <c r="G9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H9" t="s">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -6602,7 +6611,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -6611,19 +6620,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" t="s">
         <v>450</v>
-      </c>
-      <c r="H2" t="s">
-        <v>453</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -6631,7 +6640,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6640,16 +6649,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E3" t="s">
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6657,7 +6666,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -6666,16 +6675,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -6692,16 +6701,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I5">
         <v>0.23</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="0" windowWidth="25120" windowHeight="13120" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13120" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="527">
   <si>
     <t>name</t>
   </si>
@@ -586,15 +586,9 @@
     <t>cPhotoDuration</t>
   </si>
   <si>
-    <t>sThermalUnite</t>
-  </si>
-  <si>
     <t>sBiologicalDay</t>
   </si>
   <si>
-    <t>pCriticalPhotoPerdiod</t>
-  </si>
-  <si>
     <t>pPhotoPeriodSensitivity</t>
   </si>
   <si>
@@ -694,9 +688,6 @@
     <t>Taux d'azote mobilisable depuis les feuilles</t>
   </si>
   <si>
-    <t>cDailyRateNfromLeave</t>
-  </si>
-  <si>
     <t>Specific leaf nitrogen in green leaves (target)</t>
   </si>
   <si>
@@ -784,9 +775,6 @@
     <t>cCoefWaterstressDevelopment</t>
   </si>
   <si>
-    <t>cCoefWaterstressLeaf</t>
-  </si>
-  <si>
     <t>WSFL</t>
   </si>
   <si>
@@ -796,33 +784,18 @@
     <t>facteur limitant des feuilles lié au stress hydrique</t>
   </si>
   <si>
-    <t>Plant leaf area today</t>
-  </si>
-  <si>
     <t>PLA2</t>
   </si>
   <si>
     <t>cm2 per plant</t>
   </si>
   <si>
-    <t>Surface follière</t>
-  </si>
-  <si>
-    <t>cPlantLeafArea</t>
-  </si>
-  <si>
     <t>g m-2 d-1</t>
   </si>
   <si>
     <t xml:space="preserve">Daily increase (growth) in leaf weight </t>
   </si>
   <si>
-    <t>cDailyLeafWeight</t>
-  </si>
-  <si>
-    <t>poids des feuilles du jours</t>
-  </si>
-  <si>
     <t>DMProduction</t>
   </si>
   <si>
@@ -1051,9 +1024,6 @@
     <t>TP1VER</t>
   </si>
   <si>
-    <t>photoperiod</t>
-  </si>
-  <si>
     <t>sAccumulatedLeafDryMatter</t>
   </si>
   <si>
@@ -1598,6 +1568,54 @@
   </si>
   <si>
     <t>FrzTh</t>
+  </si>
+  <si>
+    <t>sPlantLeafArea</t>
+  </si>
+  <si>
+    <t>Plant leaf area today (PLA2) and yesterday (PLA1)</t>
+  </si>
+  <si>
+    <t>Surface folliaire</t>
+  </si>
+  <si>
+    <t>not really a state variable, but value from last time step is used by module LAI (which is before module DM_Distribution, which computes it)</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>sCoefWaterstressLeaf</t>
+  </si>
+  <si>
+    <t>not really a state variable, but value from last time step is used by module LAI (which is before water module, which computes it)</t>
+  </si>
+  <si>
+    <t>sDailyLeafWeightIncrease</t>
+  </si>
+  <si>
+    <t>poids des feuilles produites ce jour</t>
+  </si>
+  <si>
+    <t>sDailyRateNfromLeave</t>
+  </si>
+  <si>
+    <t>not really a state variable, but value from last time step is used by module LAI (which is before module PlantN, which computes it)</t>
+  </si>
+  <si>
+    <t>name of the function to use for photoperiod (one of fComputeCoefPhotoperiodWheat, fComputeCoefPhotoperiodMaize or fComputeCoefPhotoperiodLegume)</t>
+  </si>
+  <si>
+    <t>nom de la fonction de réponse à la photopériode (à choisir entre fComputeCoefPhotoperiodWheat, fComputeCoefPhotoperiodMaize ou fComputeCoefPhotoperiodLegume)</t>
+  </si>
+  <si>
+    <t>pPhotoperiodFunction</t>
+  </si>
+  <si>
+    <t>sThermalUnit</t>
+  </si>
+  <si>
+    <t>pCriticalPhotoPeriod</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1628,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1709,8 +1726,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="259">
+  <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2001,7 +2036,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="259">
+  <cellStyles count="277">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2131,6 +2166,15 @@
     <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2260,6 +2304,15 @@
     <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2624,13 +2677,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72:G76"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2641,7 +2694,7 @@
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2669,187 +2722,190 @@
       <c r="I1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
         <v>171</v>
@@ -2867,12 +2923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C9" t="s">
         <v>171</v>
@@ -2890,12 +2946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -2907,24 +2963,24 @@
         <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
         <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
         <v>171</v>
@@ -2945,12 +3001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -2959,21 +3015,21 @@
         <v>97</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="H12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2985,95 +3041,95 @@
         <v>124</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E14" t="s">
         <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G14" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H14" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="14" customFormat="1">
+    <row r="15" spans="1:10" s="14" customFormat="1">
       <c r="A15" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E16" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="H16" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3081,28 +3137,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G17" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H17" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3110,28 +3166,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F18" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G18" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H18" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3139,28 +3195,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>375</v>
       </c>
-      <c r="B19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>385</v>
-      </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" t="s">
         <v>387</v>
       </c>
-      <c r="G19" t="s">
-        <v>397</v>
-      </c>
       <c r="H19" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3168,28 +3224,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
+        <v>376</v>
+      </c>
+      <c r="F20" t="s">
         <v>386</v>
       </c>
-      <c r="F20" t="s">
-        <v>396</v>
-      </c>
       <c r="G20" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20" t="s">
         <v>397</v>
-      </c>
-      <c r="H20" t="s">
-        <v>407</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3197,28 +3253,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" t="s">
         <v>376</v>
       </c>
-      <c r="B21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" t="s">
-        <v>386</v>
-      </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H21" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3226,28 +3282,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E22" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F22" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G22" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H22" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3255,28 +3311,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G23" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H23" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3284,28 +3340,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E24" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G24" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H24" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3313,28 +3369,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E25" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F25" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G25" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H25" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3342,28 +3398,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B26" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E26" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G26" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H26" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3371,28 +3427,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B27" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F27" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H27" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3400,28 +3456,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B28" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
+        <v>375</v>
+      </c>
+      <c r="E28" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" t="s">
         <v>385</v>
       </c>
-      <c r="E28" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" t="s">
-        <v>395</v>
-      </c>
       <c r="G28" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H28" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3432,13 +3488,13 @@
         <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E29" t="s">
         <v>124</v>
@@ -3461,7 +3517,7 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -3634,7 +3690,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s">
         <v>143</v>
@@ -3643,16 +3699,16 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I36" t="e">
         <f>NA()</f>
@@ -3661,7 +3717,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
@@ -3670,16 +3726,16 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="I37" t="e">
         <f>NA()</f>
@@ -3688,7 +3744,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
         <v>143</v>
@@ -3697,16 +3753,16 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="I38" t="e">
         <f>NA()</f>
@@ -3715,7 +3771,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
@@ -3724,16 +3780,16 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G39" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I39" t="e">
         <f>NA()</f>
@@ -3742,7 +3798,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
@@ -3751,16 +3807,16 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="I40" t="e">
         <f>NA()</f>
@@ -3769,7 +3825,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -3778,16 +3834,16 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G41" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="I41" t="e">
         <f>NA()</f>
@@ -3796,7 +3852,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s">
         <v>143</v>
@@ -3805,16 +3861,16 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -3823,7 +3879,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -3832,16 +3888,16 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -3850,7 +3906,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
@@ -3859,16 +3915,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G44" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -3877,7 +3933,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -3886,16 +3942,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G45" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -3904,7 +3960,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s">
         <v>143</v>
@@ -3913,16 +3969,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="G46" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -3931,7 +3987,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -3940,19 +3996,19 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H47" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I47" t="e">
         <f>NA()</f>
@@ -3961,7 +4017,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -3970,13 +4026,13 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -3985,7 +4041,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
@@ -3994,19 +4050,19 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H49" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -4015,7 +4071,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
@@ -4024,13 +4080,13 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -4039,7 +4095,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
         <v>143</v>
@@ -4048,13 +4104,13 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -4063,7 +4119,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
         <v>143</v>
@@ -4072,13 +4128,13 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4087,7 +4143,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s">
         <v>143</v>
@@ -4096,19 +4152,19 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4117,7 +4173,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
@@ -4126,19 +4182,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I54" t="e">
         <f>NA()</f>
@@ -4147,7 +4203,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
@@ -4156,19 +4212,19 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I55" t="e">
         <f>NA()</f>
@@ -4177,7 +4233,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4186,19 +4242,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I56" t="e">
         <f>NA()</f>
@@ -4207,7 +4263,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
@@ -4216,19 +4272,19 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H57" t="s">
         <v>228</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="H57" t="s">
-        <v>231</v>
       </c>
       <c r="I57" t="e">
         <f>NA()</f>
@@ -4237,7 +4293,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s">
         <v>143</v>
@@ -4246,19 +4302,19 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I58" t="e">
         <f>NA()</f>
@@ -4267,7 +4323,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -4276,13 +4332,13 @@
         <v>26</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4291,7 +4347,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -4300,13 +4356,13 @@
         <v>26</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4315,7 +4371,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
@@ -4324,19 +4380,19 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4345,7 +4401,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
         <v>143</v>
@@ -4354,19 +4410,19 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H62" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4433,7 +4489,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -4463,9 +4519,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
@@ -4493,9 +4549,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="6" t="s">
-        <v>185</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s">
         <v>143</v>
@@ -4504,28 +4560,28 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
@@ -4534,28 +4590,28 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
@@ -4564,28 +4620,28 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H69" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
@@ -4594,28 +4650,28 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F70" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G70" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="H70" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s">
         <v>143</v>
@@ -4624,26 +4680,26 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F71" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G71" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H71" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="16" t="s">
         <v>138</v>
       </c>
@@ -4654,7 +4710,7 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -4663,7 +4719,7 @@
         <v>146</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H72" t="s">
         <v>156</v>
@@ -4673,7 +4729,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="16" t="s">
         <v>141</v>
       </c>
@@ -4684,7 +4740,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4693,7 +4749,7 @@
         <v>142</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H73" t="s">
         <v>154</v>
@@ -4703,7 +4759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="16" t="s">
         <v>139</v>
       </c>
@@ -4714,7 +4770,7 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -4723,7 +4779,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H74" t="s">
         <v>157</v>
@@ -4733,9 +4789,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="16" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s">
         <v>143</v>
@@ -4744,7 +4800,7 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -4753,7 +4809,7 @@
         <v>137</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H75" t="s">
         <v>158</v>
@@ -4763,9 +4819,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
         <v>143</v>
@@ -4774,14 +4830,14 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>153</v>
@@ -4791,7 +4847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -4802,7 +4858,7 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>147</v>
@@ -4818,7 +4874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -4848,9 +4904,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
@@ -4859,28 +4915,30 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>261</v>
-      </c>
-      <c r="I79" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>519</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s">
         <v>41</v>
@@ -4889,28 +4947,28 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H80" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
@@ -4919,28 +4977,28 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H81" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
         <v>41</v>
@@ -4949,28 +5007,28 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H82" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
         <v>41</v>
@@ -4982,25 +5040,25 @@
         <v>32</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H83" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
         <v>41</v>
@@ -5009,28 +5067,28 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G84" t="s">
         <v>203</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>209</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G84" t="s">
-        <v>205</v>
-      </c>
-      <c r="H84" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>211</v>
       </c>
       <c r="B85" t="s">
         <v>41</v>
@@ -5039,28 +5097,28 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="3" t="s">
-        <v>257</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
@@ -5069,26 +5127,28 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>253</v>
+        <v>512</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H86" t="s">
-        <v>256</v>
-      </c>
-      <c r="I86" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>513</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -5118,7 +5178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -5148,7 +5208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -5178,7 +5238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -5208,7 +5268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" s="16" t="s">
         <v>179</v>
       </c>
@@ -5234,7 +5294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -5248,23 +5308,23 @@
         <v>97</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92" t="s">
+        <v>192</v>
+      </c>
+      <c r="H92" t="s">
         <v>187</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G92" t="s">
-        <v>194</v>
-      </c>
-      <c r="H92" t="s">
-        <v>189</v>
-      </c>
       <c r="I92" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>53</v>
       </c>
@@ -5294,9 +5354,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>520</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
@@ -5305,28 +5365,30 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F94" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H94" t="s">
         <v>216</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H94" t="s">
-        <v>218</v>
-      </c>
-      <c r="I94" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
@@ -5335,22 +5397,22 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E95" t="s">
         <v>118</v>
       </c>
       <c r="G95" t="s">
+        <v>479</v>
+      </c>
+      <c r="I95" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
         <v>489</v>
-      </c>
-      <c r="I95" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>499</v>
       </c>
       <c r="B96" t="s">
         <v>41</v>
@@ -5359,7 +5421,7 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
@@ -5369,9 +5431,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B97" t="s">
         <v>41</v>
@@ -5380,7 +5442,7 @@
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E97" t="s">
         <v>118</v>
@@ -5390,9 +5452,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
@@ -5401,7 +5463,7 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E98" t="s">
         <v>118</v>
@@ -5411,9 +5473,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5422,7 +5484,7 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E99" t="s">
         <v>118</v>
@@ -5432,9 +5494,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -5443,7 +5505,7 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E100" t="s">
         <v>118</v>
@@ -5453,9 +5515,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5464,7 +5526,7 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E101" t="s">
         <v>118</v>
@@ -5474,9 +5536,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5485,7 +5547,7 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E102" t="s">
         <v>118</v>
@@ -5495,9 +5557,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5506,7 +5568,7 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E103" t="s">
         <v>118</v>
@@ -5516,9 +5578,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5527,7 +5589,7 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E104" t="s">
         <v>118</v>
@@ -5537,9 +5599,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5548,28 +5610,28 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E105" t="s">
         <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G105" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H105" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5578,7 +5640,7 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
         <v>168</v>
@@ -5592,14 +5654,16 @@
       <c r="H106" t="s">
         <v>96</v>
       </c>
-      <c r="I106" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5608,28 +5672,30 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H107" t="s">
-        <v>287</v>
-      </c>
-      <c r="I107" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>278</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>249</v>
+        <v>516</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5638,26 +5704,28 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
         <v>168</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H108" t="s">
-        <v>252</v>
-      </c>
-      <c r="I108" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5687,7 +5755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -5717,7 +5785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -5747,7 +5815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5803,6 +5871,30 @@
         <v>123</v>
       </c>
       <c r="I113" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>524</v>
+      </c>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" t="s">
+        <v>522</v>
+      </c>
+      <c r="H114" t="s">
+        <v>523</v>
+      </c>
+      <c r="I114" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5868,207 +5960,207 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3" t="s">
         <v>409</v>
-      </c>
-      <c r="C3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F5" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G5" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H5" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F6" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H6" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G8" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H8" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F9" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G9" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H9" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -6611,7 +6703,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -6620,19 +6712,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -6640,7 +6732,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6649,16 +6741,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s">
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6666,7 +6758,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -6675,16 +6767,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G4" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -6692,7 +6784,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -6701,16 +6793,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G5" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="I5">
         <v>0.23</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13120" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="534">
   <si>
     <t>name</t>
   </si>
@@ -268,15 +268,9 @@
     <t>Temperature threshold beyond which no phenological development</t>
   </si>
   <si>
-    <t>Daily thermal unit</t>
-  </si>
-  <si>
     <t>DTU</t>
   </si>
   <si>
-    <t>température thermal journalière</t>
-  </si>
-  <si>
     <t>fComptuteCoefTemp</t>
   </si>
   <si>
@@ -337,18 +331,9 @@
     <t>facteur lié à la photopériode</t>
   </si>
   <si>
-    <t>cBiologicalDay</t>
-  </si>
-  <si>
     <t>bd</t>
   </si>
   <si>
-    <t>biological days</t>
-  </si>
-  <si>
-    <t>jours biologiques</t>
-  </si>
-  <si>
     <t>cCoefVernalization</t>
   </si>
   <si>
@@ -604,9 +589,6 @@
     <t>Nombre de jours dans le stade</t>
   </si>
   <si>
-    <t>Nombre de jours</t>
-  </si>
-  <si>
     <t>Sensibilité de la plante à la photopériode</t>
   </si>
   <si>
@@ -622,9 +604,6 @@
     <t>Number of Daily temperature unit</t>
   </si>
   <si>
-    <t>Number of Biological day per calindar day</t>
-  </si>
-  <si>
     <t>ppsen</t>
   </si>
   <si>
@@ -772,9 +751,6 @@
     <t>Densité de semis</t>
   </si>
   <si>
-    <t>cCoefWaterstressDevelopment</t>
-  </si>
-  <si>
     <t>WSFL</t>
   </si>
   <si>
@@ -865,9 +841,6 @@
     <t>Water stress factor for growth (dry matter production)</t>
   </si>
   <si>
-    <t>cCoefWaterstressDryMatter</t>
-  </si>
-  <si>
     <t>SoiWater</t>
   </si>
   <si>
@@ -1616,6 +1589,54 @@
   </si>
   <si>
     <t>pCriticalPhotoPeriod</t>
+  </si>
+  <si>
+    <t>-Inf</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>cDeltaBiologicalDay</t>
+  </si>
+  <si>
+    <t>sDurationStage</t>
+  </si>
+  <si>
+    <t>Number of Biological days accumulated in this stage</t>
+  </si>
+  <si>
+    <t>Nombre de jours biologiques depuis le dernier changement de stade</t>
+  </si>
+  <si>
+    <t>duration of the current stage in biological days</t>
+  </si>
+  <si>
+    <t>durée du stade en jours biologiques</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>biological days increment</t>
+  </si>
+  <si>
+    <t>incrément de jours biologiques par jour</t>
+  </si>
+  <si>
+    <t>Daily thermal unit increment</t>
+  </si>
+  <si>
+    <t>incrément journalier de temps thermal</t>
+  </si>
+  <si>
+    <t>sCoefWaterstressDevelopment</t>
+  </si>
+  <si>
+    <t>sCoefWaterstressDryMatter</t>
+  </si>
+  <si>
+    <t>not really a state variable, but sometimes computed on-the-fly at stage change and must remain the same for the whole stage</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1747,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="277">
+  <cellStyleXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2004,8 +2025,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2035,8 +2068,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="277">
+  <cellStyles count="289">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2175,6 +2209,12 @@
     <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2313,6 +2353,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2677,13 +2723,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2720,36 +2766,36 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2757,28 +2803,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2786,86 +2832,89 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14" t="s">
-        <v>200</v>
+      <c r="A5" t="s">
+        <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>206</v>
+        <v>483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H5" t="s">
+        <v>510</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>332</v>
+      <c r="A6" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" t="s">
-        <v>235</v>
+        <v>483</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2873,28 +2922,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2902,74 +2951,83 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
+        <v>194</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>177</v>
+        <v>236</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" t="s">
+        <v>237</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>173</v>
+      <c r="A9" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>176</v>
+        <v>194</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>178</v>
+        <v>503</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" t="s">
+        <v>504</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2977,25 +3035,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="B11" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
         <v>171</v>
       </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3003,1036 +3058,1068 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>186</v>
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>506</v>
+        <v>522</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>507</v>
+        <v>523</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
         <v>525</v>
       </c>
-      <c r="B13" t="s">
-        <v>492</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>526</v>
+      </c>
+      <c r="J13" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>492</v>
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>419</v>
-      </c>
-      <c r="G14" t="s">
-        <v>417</v>
+        <v>164</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="H14" t="s">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
-      </c>
-      <c r="E15" t="s">
-        <v>496</v>
-      </c>
-      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H15" t="s">
         <v>498</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" t="s">
-        <v>500</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" s="14" customFormat="1">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>496</v>
-      </c>
-      <c r="F16" t="s">
-        <v>497</v>
+        <v>119</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>463</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>492</v>
+        <v>511</v>
+      </c>
+      <c r="B17" t="s">
+        <v>483</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
-      </c>
-      <c r="E17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" t="s">
-        <v>464</v>
-      </c>
-      <c r="G17" t="s">
-        <v>465</v>
+        <v>255</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="H17" t="s">
-        <v>466</v>
+        <v>209</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>503</v>
-      </c>
-      <c r="B18" t="s">
-        <v>492</v>
+        <v>409</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>483</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="H18" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="F19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="H19" t="s">
-        <v>388</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>491</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="E20" t="s">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
-      </c>
-      <c r="G20" t="s">
-        <v>387</v>
+        <v>488</v>
       </c>
       <c r="H20" t="s">
-        <v>397</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>490</v>
+      </c>
+      <c r="I20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" t="s">
-        <v>492</v>
+        <v>454</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>483</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="E21" t="s">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="G21" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>494</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="F22" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="G22" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="H22" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" t="s">
         <v>368</v>
       </c>
-      <c r="B23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
+        <v>378</v>
+      </c>
+      <c r="H23" t="s">
+        <v>379</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" t="s">
+        <v>377</v>
+      </c>
+      <c r="G24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H24" t="s">
+        <v>388</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" t="s">
+        <v>380</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" t="s">
+        <v>378</v>
+      </c>
+      <c r="H26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E27" t="s">
+        <v>367</v>
+      </c>
+      <c r="F27" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" t="s">
+        <v>382</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F28" t="s">
+        <v>372</v>
+      </c>
+      <c r="G28" t="s">
+        <v>378</v>
+      </c>
+      <c r="H28" t="s">
+        <v>383</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" t="s">
+        <v>384</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" t="s">
+        <v>374</v>
+      </c>
+      <c r="G30" t="s">
+        <v>378</v>
+      </c>
+      <c r="H30" t="s">
+        <v>385</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1">
+      <c r="A31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" t="s">
         <v>375</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G31" t="s">
+        <v>378</v>
+      </c>
+      <c r="H31" t="s">
+        <v>386</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" t="s">
         <v>376</v>
       </c>
-      <c r="F23" t="s">
-        <v>380</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G32" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" t="s">
         <v>387</v>
       </c>
-      <c r="H23" t="s">
-        <v>391</v>
-      </c>
-      <c r="I23">
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>531</v>
+      </c>
+      <c r="B33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>532</v>
+      </c>
+      <c r="B34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>507</v>
+      </c>
+      <c r="B35" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>483</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>369</v>
-      </c>
-      <c r="B24" t="s">
-        <v>492</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>375</v>
-      </c>
-      <c r="E24" t="s">
-        <v>376</v>
-      </c>
-      <c r="F24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G24" t="s">
-        <v>387</v>
-      </c>
-      <c r="H24" t="s">
-        <v>392</v>
-      </c>
-      <c r="I24">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>370</v>
-      </c>
-      <c r="B25" t="s">
-        <v>492</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>375</v>
-      </c>
-      <c r="E25" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" t="s">
-        <v>387</v>
-      </c>
-      <c r="H25" t="s">
-        <v>393</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" t="s">
-        <v>492</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" t="s">
-        <v>383</v>
-      </c>
-      <c r="G26" t="s">
-        <v>387</v>
-      </c>
-      <c r="H26" t="s">
-        <v>394</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>372</v>
-      </c>
-      <c r="B27" t="s">
-        <v>492</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>375</v>
-      </c>
-      <c r="E27" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" t="s">
-        <v>387</v>
-      </c>
-      <c r="H27" t="s">
-        <v>395</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" t="s">
-        <v>492</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>375</v>
-      </c>
-      <c r="E28" t="s">
-        <v>376</v>
-      </c>
-      <c r="F28" t="s">
-        <v>385</v>
-      </c>
-      <c r="G28" t="s">
-        <v>387</v>
-      </c>
-      <c r="H28" t="s">
-        <v>396</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" t="s">
-        <v>492</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>323</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>492</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E38" t="s">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F38" t="s">
         <v>8</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="I31" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+      <c r="I38" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G39" t="s">
         <v>28</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H39" t="s">
         <v>40</v>
       </c>
-      <c r="I32" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="I39" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F40" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H40" t="s">
         <v>23</v>
       </c>
-      <c r="I33" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="I40" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F41" t="s">
         <v>19</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G41" t="s">
         <v>30</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H41" t="s">
         <v>22</v>
       </c>
-      <c r="I34" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+      <c r="I41" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
         <v>15</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G42" t="s">
         <v>29</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H42" t="s">
         <v>21</v>
       </c>
-      <c r="I35" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G36" t="s">
-        <v>343</v>
-      </c>
-      <c r="I36" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="I42" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>297</v>
       </c>
-      <c r="G37" t="s">
-        <v>344</v>
-      </c>
-      <c r="I37" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>303</v>
-      </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" t="s">
+        <v>334</v>
+      </c>
+      <c r="I43" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44" t="s">
+        <v>335</v>
+      </c>
+      <c r="I44" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>294</v>
       </c>
-      <c r="G38" t="s">
-        <v>345</v>
-      </c>
-      <c r="I38" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" t="s">
+        <v>336</v>
+      </c>
+      <c r="I45" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>293</v>
       </c>
-      <c r="G39" t="s">
-        <v>346</v>
-      </c>
-      <c r="I39" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" t="s">
+        <v>337</v>
+      </c>
+      <c r="I46" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>295</v>
       </c>
-      <c r="G40" t="s">
-        <v>347</v>
-      </c>
-      <c r="I40" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>308</v>
-      </c>
-      <c r="B41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" t="s">
-        <v>348</v>
-      </c>
-      <c r="I41" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>333</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47" t="s">
+        <v>338</v>
+      </c>
+      <c r="I47" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>299</v>
       </c>
-      <c r="G42" t="s">
-        <v>349</v>
-      </c>
-      <c r="I42" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G43" t="s">
-        <v>350</v>
-      </c>
-      <c r="I43" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>310</v>
-      </c>
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G44" t="s">
-        <v>351</v>
-      </c>
-      <c r="I44" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>311</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" t="s">
-        <v>352</v>
-      </c>
-      <c r="I45" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G46" t="s">
-        <v>353</v>
-      </c>
-      <c r="I46" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H47" t="s">
-        <v>280</v>
-      </c>
-      <c r="I47" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>317</v>
-      </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>354</v>
+        <v>258</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G48" t="s">
+        <v>339</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -4041,28 +4128,25 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H49" t="s">
-        <v>268</v>
+        <v>258</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" t="s">
+        <v>340</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -4071,22 +4155,25 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>356</v>
+        <v>258</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>341</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -4095,22 +4182,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>357</v>
+        <v>258</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" t="s">
+        <v>342</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -4119,22 +4209,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>358</v>
+        <v>258</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52" t="s">
+        <v>343</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4143,28 +4236,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="H53" t="s">
-        <v>240</v>
+        <v>292</v>
+      </c>
+      <c r="G53" t="s">
+        <v>344</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4172,29 +4262,29 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>239</v>
+      <c r="A54" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>508</v>
+        <v>325</v>
       </c>
       <c r="H54" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="I54" t="e">
         <f>NA()</f>
@@ -4203,28 +4293,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="I55" t="e">
         <f>NA()</f>
@@ -4233,28 +4317,28 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" t="s">
-        <v>322</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I56" t="e">
         <f>NA()</f>
@@ -4263,28 +4347,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="H57" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="I57" t="e">
         <f>NA()</f>
@@ -4293,28 +4371,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>226</v>
+        <v>245</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="H58" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="I58" t="e">
         <f>NA()</f>
@@ -4323,22 +4395,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>318</v>
+      <c r="D59" t="s">
+        <v>245</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>360</v>
+        <v>304</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4347,22 +4419,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="D60" t="s">
         <v>313</v>
       </c>
+      <c r="E60" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="G60" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
+      </c>
+      <c r="H60" t="s">
+        <v>233</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4371,28 +4449,28 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>362</v>
+        <v>499</v>
       </c>
       <c r="H61" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4401,28 +4479,28 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H62" t="s">
-        <v>223</v>
+        <v>495</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4431,28 +4509,28 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>63</v>
+        <v>313</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -4461,664 +4539,644 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s">
-        <v>66</v>
+        <v>309</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>500</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
       </c>
-      <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>64</v>
+      <c r="F65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>501</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
       </c>
-      <c r="D66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66" t="s">
-        <v>67</v>
+      <c r="D66" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="6" t="s">
-        <v>526</v>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>311</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
       </c>
-      <c r="D67" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I67" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" t="s">
+        <v>215</v>
+      </c>
+      <c r="I68" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H69" t="s">
+        <v>216</v>
+      </c>
+      <c r="I69" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" t="s">
         <v>185</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I70" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>515</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>513</v>
+      </c>
+      <c r="H71" t="s">
+        <v>514</v>
+      </c>
+      <c r="I71" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I67" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="6" t="s">
+      <c r="G72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H72" t="s">
         <v>184</v>
       </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H68" t="s">
-        <v>190</v>
-      </c>
-      <c r="I68" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>423</v>
-      </c>
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" t="s">
-        <v>414</v>
-      </c>
-      <c r="E69" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H69" t="s">
-        <v>424</v>
-      </c>
-      <c r="I69" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>413</v>
-      </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" t="s">
-        <v>414</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F70" t="s">
-        <v>411</v>
-      </c>
-      <c r="G70" t="s">
-        <v>412</v>
-      </c>
-      <c r="H70" t="s">
-        <v>416</v>
-      </c>
-      <c r="I70" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>477</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" t="s">
-        <v>426</v>
-      </c>
-      <c r="E71" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" t="s">
-        <v>475</v>
-      </c>
-      <c r="G71" t="s">
-        <v>476</v>
-      </c>
-      <c r="H71" t="s">
-        <v>478</v>
-      </c>
-      <c r="I71" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="16" t="s">
+      <c r="I72" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
         <v>138</v>
       </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" t="s">
-        <v>323</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="H72" t="s">
-        <v>156</v>
-      </c>
-      <c r="I72" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
       <c r="C73" t="s">
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>325</v>
+      <c r="F73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
       </c>
       <c r="H73" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="16" t="s">
-        <v>139</v>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>328</v>
+      <c r="F74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="16" t="s">
-        <v>490</v>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>414</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>405</v>
+      </c>
+      <c r="E77" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H77" t="s">
+        <v>415</v>
+      </c>
+      <c r="I77" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>405</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F78" t="s">
+        <v>402</v>
+      </c>
+      <c r="G78" t="s">
+        <v>403</v>
+      </c>
+      <c r="H78" t="s">
+        <v>407</v>
+      </c>
+      <c r="I78" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>417</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" t="s">
+        <v>466</v>
+      </c>
+      <c r="G79" t="s">
+        <v>467</v>
+      </c>
+      <c r="H79" t="s">
+        <v>469</v>
+      </c>
+      <c r="I79" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>314</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H80" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" t="s">
-        <v>158</v>
-      </c>
-      <c r="I75" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="G81" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H81" t="s">
+        <v>149</v>
+      </c>
+      <c r="I81" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H82" t="s">
+        <v>152</v>
+      </c>
+      <c r="I82" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>314</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H83" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>314</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" t="s">
-        <v>323</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5" t="s">
+      <c r="G84" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G76" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I76" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" t="s">
-        <v>323</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="I84" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>314</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" t="s">
+        <v>146</v>
+      </c>
+      <c r="H85" t="s">
         <v>147</v>
       </c>
-      <c r="G77" t="s">
-        <v>151</v>
-      </c>
-      <c r="H77" t="s">
-        <v>152</v>
-      </c>
-      <c r="I77" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
+      <c r="I85" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
         <v>35</v>
-      </c>
-      <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>518</v>
-      </c>
-      <c r="B79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H79" t="s">
-        <v>519</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>501</v>
-      </c>
-      <c r="B80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H80" t="s">
-        <v>271</v>
-      </c>
-      <c r="I80" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H81" t="s">
-        <v>283</v>
-      </c>
-      <c r="I81" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>273</v>
-      </c>
-      <c r="B82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H82" t="s">
-        <v>274</v>
-      </c>
-      <c r="I82" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="s">
-        <v>259</v>
-      </c>
-      <c r="B83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H83" t="s">
-        <v>262</v>
-      </c>
-      <c r="I83" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G84" t="s">
-        <v>203</v>
-      </c>
-      <c r="H84" t="s">
-        <v>212</v>
-      </c>
-      <c r="I84" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" t="s">
-        <v>207</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" t="s">
-        <v>202</v>
-      </c>
-      <c r="H85" t="s">
-        <v>211</v>
-      </c>
-      <c r="I85" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
@@ -5127,30 +5185,28 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>249</v>
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
       </c>
       <c r="H86" t="s">
-        <v>513</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="I86" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
@@ -5159,28 +5215,28 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>97</v>
-      </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
+        <v>245</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -5189,28 +5245,28 @@
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>98</v>
+        <v>245</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
@@ -5219,28 +5275,28 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" t="s">
-        <v>168</v>
-      </c>
-      <c r="F89" t="s">
-        <v>72</v>
-      </c>
-      <c r="G89" t="s">
-        <v>73</v>
+        <v>245</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
@@ -5249,54 +5305,58 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
-        <v>77</v>
-      </c>
-      <c r="G90" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="H90" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="16" t="s">
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" t="s">
+        <v>200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
@@ -5305,28 +5365,28 @@
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
+      </c>
+      <c r="E92" t="s">
+        <v>200</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G92" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H92" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -5335,28 +5395,28 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H93" t="s">
         <v>97</v>
       </c>
-      <c r="E93" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" t="s">
-        <v>54</v>
-      </c>
-      <c r="G93" t="s">
-        <v>55</v>
-      </c>
-      <c r="H93" t="s">
-        <v>56</v>
-      </c>
       <c r="I93" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>520</v>
+        <v>71</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
@@ -5365,30 +5425,28 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>341</v>
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>216</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>74</v>
+      </c>
+      <c r="I94" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
@@ -5397,22 +5455,28 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>527</v>
       </c>
       <c r="G95" t="s">
-        <v>479</v>
+        <v>98</v>
+      </c>
+      <c r="H95" t="s">
+        <v>528</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
         <v>41</v>
@@ -5421,40 +5485,54 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>529</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>530</v>
       </c>
       <c r="I96" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>481</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" spans="1:9">
+      <c r="A97" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" t="s">
-        <v>426</v>
-      </c>
-      <c r="E97" t="s">
-        <v>118</v>
-      </c>
-      <c r="I97" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="C97" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>482</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
@@ -5463,19 +5541,28 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>426</v>
-      </c>
-      <c r="E98" t="s">
-        <v>118</v>
+        <v>95</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G98" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" t="s">
+        <v>182</v>
       </c>
       <c r="I98" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5484,19 +5571,28 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
       </c>
       <c r="I99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -5505,19 +5601,22 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E100" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s">
+        <v>470</v>
       </c>
       <c r="I100" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5526,19 +5625,19 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E101" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I101" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5547,19 +5646,19 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E102" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I102" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5568,19 +5667,19 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I103" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5589,19 +5688,19 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E104" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I104" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5610,28 +5709,19 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E105" t="s">
-        <v>118</v>
-      </c>
-      <c r="F105" t="s">
-        <v>468</v>
-      </c>
-      <c r="G105" t="s">
-        <v>469</v>
-      </c>
-      <c r="H105" t="s">
-        <v>470</v>
+        <v>113</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5640,30 +5730,19 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>417</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G106" t="s">
-        <v>94</v>
-      </c>
-      <c r="H106" t="s">
-        <v>96</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>113</v>
+      </c>
+      <c r="I106" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>276</v>
+        <v>477</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5672,30 +5751,19 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H107" t="s">
-        <v>278</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>417</v>
+      </c>
+      <c r="E107" t="s">
+        <v>113</v>
+      </c>
+      <c r="I107" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5704,30 +5772,19 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>417</v>
       </c>
       <c r="E108" t="s">
-        <v>168</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G108" t="s">
-        <v>246</v>
-      </c>
-      <c r="H108" t="s">
-        <v>248</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>113</v>
+      </c>
+      <c r="I108" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -5736,28 +5793,19 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="E109" t="s">
-        <v>168</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" t="s">
-        <v>106</v>
-      </c>
-      <c r="H109" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I109" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -5766,28 +5814,28 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="F110" t="s">
+        <v>459</v>
       </c>
       <c r="G110" t="s">
-        <v>132</v>
+        <v>460</v>
       </c>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>461</v>
       </c>
       <c r="I110" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -5796,28 +5844,28 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E111" t="s">
-        <v>168</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="H111" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="I111" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -5826,19 +5874,19 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
-        <v>118</v>
-      </c>
-      <c r="F112" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G112" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I112" t="e">
         <f>NA()</f>
@@ -5847,7 +5895,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -5856,19 +5904,19 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>118</v>
-      </c>
-      <c r="F113" t="s">
-        <v>119</v>
+        <v>163</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G113" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H113" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="I113" t="e">
         <f>NA()</f>
@@ -5877,33 +5925,69 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>524</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+      <c r="E114" t="s">
+        <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>522</v>
+        <v>116</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
       </c>
       <c r="H114" t="s">
-        <v>523</v>
+        <v>117</v>
       </c>
       <c r="I114" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" t="s">
+        <v>113</v>
+      </c>
+      <c r="F115" t="s">
+        <v>114</v>
+      </c>
+      <c r="G115" t="s">
+        <v>115</v>
+      </c>
+      <c r="H115" t="s">
+        <v>118</v>
+      </c>
+      <c r="I115" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:I112">
-    <sortCondition descending="1" ref="B2:B112"/>
-    <sortCondition ref="D2:D112"/>
-    <sortCondition ref="A2:A112"/>
+  <sortState ref="A2:J115">
+    <sortCondition descending="1" ref="B2:B115"/>
+    <sortCondition ref="D2:D115"/>
+    <sortCondition ref="A2:A115"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5955,212 +6039,212 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" t="s">
         <v>399</v>
       </c>
-      <c r="C3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E3" t="s">
-        <v>408</v>
-      </c>
       <c r="F3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H6" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G8" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H8" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F9" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G9" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H9" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6213,52 +6297,52 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6300,51 +6384,51 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -6355,84 +6439,84 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -6443,7 +6527,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -6454,7 +6538,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -6465,7 +6549,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -6476,40 +6560,40 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -6520,29 +6604,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -6553,7 +6637,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -6564,90 +6648,90 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6698,12 +6782,12 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -6712,19 +6796,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -6732,7 +6816,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6741,16 +6825,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6758,7 +6842,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -6767,16 +6851,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G4" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -6784,7 +6868,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -6793,16 +6877,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -6822,7 +6906,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13680" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="538">
   <si>
     <t>name</t>
   </si>
@@ -1637,6 +1637,18 @@
   </si>
   <si>
     <t>not really a state variable, but sometimes computed on-the-fly at stage change and must remain the same for the whole stage</t>
+  </si>
+  <si>
+    <t>sDecreaseLAIperBD</t>
+  </si>
+  <si>
+    <t>m2 m-2 bd-1</t>
+  </si>
+  <si>
+    <t>rate of decrease (death) in leaf area index per biologicalday</t>
+  </si>
+  <si>
+    <t>not really a state variable, but sometimes computed on-the-fly at beginning of LAI senescence and must remain the same until the end of the crop</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1759,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="289">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2070,7 +2094,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="289">
+  <cellStyles count="301">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2215,6 +2239,12 @@
     <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2359,6 +2389,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2723,13 +2759,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5335,7 +5371,7 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
         <v>200</v>
@@ -5893,7 +5929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -5923,7 +5959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -5953,7 +5989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -5981,6 +6017,38 @@
       <c r="I115" t="e">
         <f>NA()</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>534</v>
+      </c>
+      <c r="B116" t="s">
+        <v>483</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" t="s">
+        <v>535</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G116" t="s">
+        <v>196</v>
+      </c>
+      <c r="H116" t="s">
+        <v>205</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13680" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="549">
   <si>
     <t>name</t>
   </si>
@@ -1649,6 +1649,39 @@
   </si>
   <si>
     <t>not really a state variable, but sometimes computed on-the-fly at beginning of LAI senescence and must remain the same until the end of the crop</t>
+  </si>
+  <si>
+    <t>in the code this is called FRZLDR</t>
+  </si>
+  <si>
+    <t>in the code this is called FRZTKIL</t>
+  </si>
+  <si>
+    <t>in the code this is called HtLTH</t>
+  </si>
+  <si>
+    <t>cFrost</t>
+  </si>
+  <si>
+    <t>cHeat</t>
+  </si>
+  <si>
+    <t>decrease of LAI due to frost</t>
+  </si>
+  <si>
+    <t>decrease of LAI due to heat</t>
+  </si>
+  <si>
+    <t>DLAIF</t>
+  </si>
+  <si>
+    <t>DLAIH</t>
+  </si>
+  <si>
+    <t>décroissance du LAI à cause du froid</t>
+  </si>
+  <si>
+    <t>décroissance du LAI à cause de la chaleur</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1792,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2094,7 +2133,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="301">
+  <cellStyles count="307">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2245,6 +2284,9 @@
     <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2395,6 +2437,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2759,13 +2804,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4162,7 +4207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>324</v>
       </c>
@@ -4189,7 +4234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>300</v>
       </c>
@@ -4216,7 +4261,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -4243,7 +4288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>302</v>
       </c>
@@ -4270,7 +4315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>296</v>
       </c>
@@ -4297,7 +4342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="3" t="s">
         <v>427</v>
       </c>
@@ -4327,7 +4372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>308</v>
       </c>
@@ -4351,7 +4396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>259</v>
       </c>
@@ -4381,7 +4426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>305</v>
       </c>
@@ -4405,7 +4450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>306</v>
       </c>
@@ -4429,7 +4474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -4453,7 +4498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -4483,7 +4528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>232</v>
       </c>
@@ -4513,7 +4558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -4543,7 +4588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -4573,7 +4618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -4602,8 +4647,11 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>217</v>
       </c>
@@ -4632,8 +4680,11 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>310</v>
       </c>
@@ -4657,7 +4708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>311</v>
       </c>
@@ -4680,8 +4731,11 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>213</v>
       </c>
@@ -4711,7 +4765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -4741,7 +4795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="6" t="s">
         <v>517</v>
       </c>
@@ -4771,7 +4825,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>515</v>
       </c>
@@ -4795,7 +4849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="6" t="s">
         <v>179</v>
       </c>
@@ -4825,7 +4879,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -4855,7 +4909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -4885,7 +4939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -4915,7 +4969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>482</v>
       </c>
@@ -4945,7 +4999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>414</v>
       </c>
@@ -4975,7 +5029,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>404</v>
       </c>
@@ -5005,7 +5059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>468</v>
       </c>
@@ -5035,7 +5089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="16" t="s">
         <v>133</v>
       </c>
@@ -6038,9 +6092,6 @@
       <c r="F116" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G116" t="s">
-        <v>196</v>
-      </c>
       <c r="H116" t="s">
         <v>205</v>
       </c>
@@ -6049,6 +6100,66 @@
       </c>
       <c r="J116" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>541</v>
+      </c>
+      <c r="B117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117" t="s">
+        <v>197</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G117" t="s">
+        <v>545</v>
+      </c>
+      <c r="H117" t="s">
+        <v>547</v>
+      </c>
+      <c r="I117" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>542</v>
+      </c>
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>309</v>
+      </c>
+      <c r="E118" t="s">
+        <v>197</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="G118" t="s">
+        <v>546</v>
+      </c>
+      <c r="H118" t="s">
+        <v>548</v>
+      </c>
+      <c r="I118" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21260" windowHeight="12480" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="560">
   <si>
     <t>name</t>
   </si>
@@ -832,9 +832,6 @@
     <t>Radiation use efficiency adjusted for temperature and water stress</t>
   </si>
   <si>
-    <t>cRadiationUseEffiency</t>
-  </si>
-  <si>
     <t>Efficacité d'utilisation des radiations ajustée à la température et au stress hydrique</t>
   </si>
   <si>
@@ -1513,9 +1510,6 @@
     <t>pas de temps de la dernière récolte</t>
   </si>
   <si>
-    <t>cCoefRadiationEfficiency</t>
-  </si>
-  <si>
     <t>sPlantdensity</t>
   </si>
   <si>
@@ -1558,12 +1552,6 @@
     <t>remark</t>
   </si>
   <si>
-    <t>sCoefWaterstressLeaf</t>
-  </si>
-  <si>
-    <t>not really a state variable, but value from last time step is used by module LAI (which is before water module, which computes it)</t>
-  </si>
-  <si>
     <t>sDailyLeafWeightIncrease</t>
   </si>
   <si>
@@ -1630,12 +1618,6 @@
     <t>incrément journalier de temps thermal</t>
   </si>
   <si>
-    <t>sCoefWaterstressDevelopment</t>
-  </si>
-  <si>
-    <t>sCoefWaterstressDryMatter</t>
-  </si>
-  <si>
     <t>not really a state variable, but sometimes computed on-the-fly at stage change and must remain the same for the whole stage</t>
   </si>
   <si>
@@ -1682,6 +1664,57 @@
   </si>
   <si>
     <t>décroissance du LAI à cause de la chaleur</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressDryMatter</t>
+  </si>
+  <si>
+    <t>cCoefTemperatureRUE</t>
+  </si>
+  <si>
+    <t>cRUE</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>pCoefPAR</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressDevelopment</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressLeaf</t>
+  </si>
+  <si>
+    <t>because computewaterstress functions not coded yet</t>
+  </si>
+  <si>
+    <t>because it should be 0 when there is no vernalization</t>
+  </si>
+  <si>
+    <t>because it should be 1 when there is no vernalization</t>
+  </si>
+  <si>
+    <t>because it sould be 1 outside of temperature sensibility stages</t>
+  </si>
+  <si>
+    <t>because it should be 1 outside of photoperiod sensitivity stages</t>
+  </si>
+  <si>
+    <t>cCoefDrySoilSurface</t>
+  </si>
+  <si>
+    <t>coeficient to stop germination if soil surface is dry</t>
+  </si>
+  <si>
+    <t>arrêt de la germination si le sol est sec en surface</t>
+  </si>
+  <si>
+    <t>because it should be 1 after germination ; I haven't been able to find where in the original model this is used so I don't have the SSM translation</t>
+  </si>
+  <si>
+    <t>because it should be 1 outside of any modifications</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1825,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="307">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2133,7 +2196,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="307">
+  <cellStyles count="337">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2287,6 +2350,21 @@
     <cellStyle name="Lien hypertexte" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2440,6 +2518,21 @@
     <cellStyle name="Lien hypertexte visité" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2804,13 +2897,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2819,6 +2912,7 @@
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2850,15 +2944,15 @@
         <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -2867,16 +2961,16 @@
         <v>258</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" t="s">
         <v>276</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" t="s">
-        <v>277</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2884,10 +2978,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2896,16 +2990,16 @@
         <v>258</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2913,10 +3007,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -2925,16 +3019,16 @@
         <v>258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2942,10 +3036,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -2960,16 +3054,16 @@
         <v>244</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2977,7 +3071,7 @@
         <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>26</v>
@@ -3003,10 +3097,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -3032,10 +3126,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -3050,7 +3144,7 @@
         <v>236</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H8" t="s">
         <v>237</v>
@@ -3061,10 +3155,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -3076,19 +3170,19 @@
         <v>242</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3096,7 +3190,7 @@
         <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
         <v>166</v>
@@ -3110,8 +3204,8 @@
       <c r="F10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3119,7 +3213,7 @@
         <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
         <v>166</v>
@@ -3133,8 +3227,8 @@
       <c r="F11" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3142,7 +3236,7 @@
         <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -3154,13 +3248,13 @@
         <v>98</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3168,10 +3262,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -3183,19 +3277,19 @@
         <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J13" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3203,7 +3297,7 @@
         <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
         <v>166</v>
@@ -3220,16 +3314,16 @@
       <c r="H14" t="s">
         <v>165</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -3241,10 +3335,10 @@
         <v>181</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3252,10 +3346,10 @@
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -3282,10 +3376,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -3300,7 +3394,7 @@
         <v>207</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
         <v>209</v>
@@ -3309,33 +3403,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
         <v>113</v>
       </c>
       <c r="F18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" t="s">
+        <v>407</v>
+      </c>
+      <c r="H18" t="s">
         <v>410</v>
-      </c>
-      <c r="G18" t="s">
-        <v>408</v>
-      </c>
-      <c r="H18" t="s">
-        <v>411</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3343,81 +3437,81 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>485</v>
       </c>
-      <c r="B19" t="s">
-        <v>483</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>486</v>
       </c>
-      <c r="E19" t="s">
-        <v>487</v>
-      </c>
       <c r="F19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20" t="s">
         <v>486</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>487</v>
       </c>
-      <c r="F20" t="s">
-        <v>488</v>
-      </c>
       <c r="H20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I20" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E21" t="s">
         <v>181</v>
       </c>
       <c r="F21" t="s">
+        <v>454</v>
+      </c>
+      <c r="G21" t="s">
         <v>455</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>456</v>
-      </c>
-      <c r="H21" t="s">
-        <v>457</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3425,28 +3519,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E22" t="s">
+        <v>445</v>
+      </c>
+      <c r="F22" t="s">
+        <v>444</v>
+      </c>
+      <c r="G22" t="s">
+        <v>443</v>
+      </c>
+      <c r="H22" t="s">
         <v>446</v>
-      </c>
-      <c r="F22" t="s">
-        <v>445</v>
-      </c>
-      <c r="G22" t="s">
-        <v>444</v>
-      </c>
-      <c r="H22" t="s">
-        <v>447</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3454,28 +3548,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" t="s">
         <v>366</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>367</v>
       </c>
-      <c r="F23" t="s">
-        <v>368</v>
-      </c>
       <c r="G23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" t="s">
         <v>378</v>
-      </c>
-      <c r="H23" t="s">
-        <v>379</v>
       </c>
       <c r="I23">
         <v>0.5</v>
@@ -3483,28 +3577,28 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>365</v>
       </c>
-      <c r="B24" t="s">
-        <v>483</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>366</v>
       </c>
-      <c r="E24" t="s">
-        <v>367</v>
-      </c>
       <c r="F24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G24" t="s">
         <v>377</v>
       </c>
-      <c r="G24" t="s">
-        <v>378</v>
-      </c>
       <c r="H24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24">
         <v>0.5</v>
@@ -3512,28 +3606,28 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" t="s">
         <v>366</v>
       </c>
-      <c r="E25" t="s">
-        <v>367</v>
-      </c>
       <c r="F25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I25">
         <v>0.5</v>
@@ -3541,28 +3635,28 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" t="s">
         <v>366</v>
       </c>
-      <c r="E26" t="s">
-        <v>367</v>
-      </c>
       <c r="F26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I26">
         <v>0.5</v>
@@ -3570,28 +3664,28 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" t="s">
         <v>366</v>
       </c>
-      <c r="E27" t="s">
-        <v>367</v>
-      </c>
       <c r="F27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I27">
         <v>0.5</v>
@@ -3599,28 +3693,28 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" t="s">
         <v>366</v>
       </c>
-      <c r="E28" t="s">
-        <v>367</v>
-      </c>
       <c r="F28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I28">
         <v>0.5</v>
@@ -3628,28 +3722,28 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" t="s">
         <v>366</v>
       </c>
-      <c r="E29" t="s">
-        <v>367</v>
-      </c>
       <c r="F29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I29">
         <v>0.5</v>
@@ -3657,28 +3751,28 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30" t="s">
         <v>366</v>
       </c>
-      <c r="E30" t="s">
-        <v>367</v>
-      </c>
       <c r="F30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I30">
         <v>0.5</v>
@@ -3686,28 +3780,28 @@
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" t="s">
         <v>366</v>
       </c>
-      <c r="E31" t="s">
-        <v>367</v>
-      </c>
       <c r="F31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I31">
         <v>0.5</v>
@@ -3716,28 +3810,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E32" t="s">
         <v>366</v>
       </c>
-      <c r="E32" t="s">
-        <v>367</v>
-      </c>
       <c r="F32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I32">
         <v>0.5</v>
@@ -3745,16 +3839,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="B33" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
         <v>163</v>
@@ -3772,53 +3866,53 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B34" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>181</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="B35" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
         <v>163</v>
@@ -3836,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3844,13 +3938,13 @@
         <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E36" t="s">
         <v>119</v>
@@ -3873,7 +3967,7 @@
         <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -4047,7 +4141,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
@@ -4059,13 +4153,13 @@
         <v>258</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -4074,7 +4168,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s">
         <v>138</v>
@@ -4086,13 +4180,13 @@
         <v>258</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -4101,7 +4195,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s">
         <v>138</v>
@@ -4113,13 +4207,13 @@
         <v>258</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -4128,7 +4222,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
         <v>138</v>
@@ -4140,13 +4234,13 @@
         <v>258</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -4155,7 +4249,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
         <v>138</v>
@@ -4167,13 +4261,13 @@
         <v>258</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I47" t="e">
         <f>NA()</f>
@@ -4182,7 +4276,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
@@ -4194,13 +4288,13 @@
         <v>258</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -4209,7 +4303,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
@@ -4221,13 +4315,13 @@
         <v>258</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -4236,7 +4330,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
@@ -4248,13 +4342,13 @@
         <v>258</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -4263,7 +4357,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
         <v>138</v>
@@ -4275,13 +4369,13 @@
         <v>258</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -4290,7 +4384,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s">
         <v>138</v>
@@ -4302,13 +4396,13 @@
         <v>258</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -4317,7 +4411,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s">
         <v>138</v>
@@ -4329,13 +4423,13 @@
         <v>258</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I53" t="e">
         <f>NA()</f>
@@ -4344,7 +4438,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
         <v>138</v>
@@ -4359,13 +4453,13 @@
         <v>181</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" t="s">
         <v>270</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" t="s">
-        <v>271</v>
       </c>
       <c r="I54" t="e">
         <f>NA()</f>
@@ -4374,7 +4468,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
         <v>138</v>
@@ -4386,10 +4480,10 @@
         <v>245</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I55" t="e">
         <f>NA()</f>
@@ -4416,7 +4510,7 @@
         <v>257</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H56" t="s">
         <v>260</v>
@@ -4428,7 +4522,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
@@ -4440,10 +4534,10 @@
         <v>245</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I57" t="e">
         <f>NA()</f>
@@ -4452,7 +4546,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -4464,10 +4558,10 @@
         <v>245</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I58" t="e">
         <f>NA()</f>
@@ -4476,7 +4570,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s">
         <v>138</v>
@@ -4488,10 +4582,10 @@
         <v>245</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4509,7 +4603,7 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>181</v>
@@ -4518,7 +4612,7 @@
         <v>229</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H60" t="s">
         <v>233</v>
@@ -4539,7 +4633,7 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>181</v>
@@ -4548,7 +4642,7 @@
         <v>230</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H61" t="s">
         <v>234</v>
@@ -4560,7 +4654,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B62" t="s">
         <v>138</v>
@@ -4569,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>225</v>
@@ -4578,7 +4672,7 @@
         <v>224</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>224</v>
@@ -4599,7 +4693,7 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>249</v>
@@ -4629,7 +4723,7 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>222</v>
@@ -4638,7 +4732,7 @@
         <v>218</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H64" t="s">
         <v>221</v>
@@ -4648,7 +4742,7 @@
         <v>#N/A</v>
       </c>
       <c r="J64" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4662,7 +4756,7 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -4671,7 +4765,7 @@
         <v>219</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H65" t="s">
         <v>220</v>
@@ -4681,12 +4775,12 @@
         <v>#N/A</v>
       </c>
       <c r="J65" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -4695,13 +4789,13 @@
         <v>26</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -4710,7 +4804,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
@@ -4719,20 +4813,20 @@
         <v>26</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J67" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4746,7 +4840,7 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>211</v>
@@ -4755,7 +4849,7 @@
         <v>210</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H68" t="s">
         <v>215</v>
@@ -4776,7 +4870,7 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>211</v>
@@ -4785,7 +4879,7 @@
         <v>212</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H69" t="s">
         <v>216</v>
@@ -4797,7 +4891,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
@@ -4827,7 +4921,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
@@ -4839,10 +4933,10 @@
         <v>95</v>
       </c>
       <c r="F71" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H71" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
@@ -4971,7 +5065,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
@@ -5001,7 +5095,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
@@ -5010,19 +5104,19 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
         <v>113</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="H77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -5031,7 +5125,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
@@ -5040,19 +5134,19 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" t="s">
+        <v>401</v>
+      </c>
+      <c r="G78" t="s">
+        <v>402</v>
+      </c>
+      <c r="H78" t="s">
         <v>406</v>
-      </c>
-      <c r="F78" t="s">
-        <v>402</v>
-      </c>
-      <c r="G78" t="s">
-        <v>403</v>
-      </c>
-      <c r="H78" t="s">
-        <v>407</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -5061,7 +5155,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s">
         <v>138</v>
@@ -5070,19 +5164,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E79" t="s">
         <v>181</v>
       </c>
       <c r="F79" t="s">
+        <v>465</v>
+      </c>
+      <c r="G79" t="s">
         <v>466</v>
       </c>
-      <c r="G79" t="s">
-        <v>467</v>
-      </c>
       <c r="H79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -5100,7 +5194,7 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -5109,7 +5203,7 @@
         <v>141</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H80" t="s">
         <v>151</v>
@@ -5119,7 +5213,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="16" t="s">
         <v>136</v>
       </c>
@@ -5130,7 +5224,7 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -5139,7 +5233,7 @@
         <v>137</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H81" t="s">
         <v>149</v>
@@ -5149,7 +5243,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="16" t="s">
         <v>134</v>
       </c>
@@ -5160,7 +5254,7 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -5169,7 +5263,7 @@
         <v>131</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H82" t="s">
         <v>152</v>
@@ -5179,9 +5273,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s">
         <v>138</v>
@@ -5190,7 +5284,7 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -5199,7 +5293,7 @@
         <v>132</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H83" t="s">
         <v>153</v>
@@ -5209,9 +5303,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
@@ -5220,14 +5314,14 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
         <v>143</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>148</v>
@@ -5237,7 +5331,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -5248,7 +5342,7 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>142</v>
@@ -5264,7 +5358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -5294,9 +5388,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
@@ -5314,7 +5408,7 @@
         <v>262</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H87" t="s">
         <v>263</v>
@@ -5324,9 +5418,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -5341,22 +5435,22 @@
         <v>243</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
@@ -5374,17 +5468,17 @@
         <v>264</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>251</v>
       </c>
@@ -5414,7 +5508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -5425,7 +5519,7 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E91" t="s">
         <v>200</v>
@@ -5444,7 +5538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>202</v>
       </c>
@@ -5474,7 +5568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -5499,12 +5593,14 @@
       <c r="H93" t="s">
         <v>97</v>
       </c>
-      <c r="I93" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -5529,14 +5625,16 @@
       <c r="H94" t="s">
         <v>74</v>
       </c>
-      <c r="I94" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
@@ -5551,20 +5649,22 @@
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G95" t="s">
         <v>98</v>
       </c>
       <c r="H95" t="s">
-        <v>528</v>
-      </c>
-      <c r="I95" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>524</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -5581,20 +5681,20 @@
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G96" t="s">
         <v>77</v>
       </c>
       <c r="H96" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I96" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" s="16" t="s">
         <v>174</v>
       </c>
@@ -5620,7 +5720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -5650,7 +5750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -5680,9 +5780,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -5691,22 +5791,22 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E100" t="s">
         <v>113</v>
       </c>
       <c r="G100" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I100" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5715,7 +5815,7 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
         <v>113</v>
@@ -5725,9 +5825,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5736,7 +5836,7 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E102" t="s">
         <v>113</v>
@@ -5746,9 +5846,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5757,7 +5857,7 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
         <v>113</v>
@@ -5767,9 +5867,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5778,7 +5878,7 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E104" t="s">
         <v>113</v>
@@ -5788,9 +5888,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5799,7 +5899,7 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E105" t="s">
         <v>113</v>
@@ -5809,9 +5909,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5820,7 +5920,7 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
         <v>113</v>
@@ -5830,9 +5930,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5841,7 +5941,7 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E107" t="s">
         <v>113</v>
@@ -5851,9 +5951,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5862,7 +5962,7 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E108" t="s">
         <v>113</v>
@@ -5872,9 +5972,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -5883,7 +5983,7 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E109" t="s">
         <v>113</v>
@@ -5893,9 +5993,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -5904,26 +6004,26 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E110" t="s">
         <v>113</v>
       </c>
       <c r="F110" t="s">
+        <v>458</v>
+      </c>
+      <c r="G110" t="s">
         <v>459</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>460</v>
       </c>
-      <c r="H110" t="s">
-        <v>461</v>
-      </c>
       <c r="I110" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -5948,12 +6048,14 @@
       <c r="H111" t="s">
         <v>102</v>
       </c>
-      <c r="I111" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -6008,9 +6110,11 @@
       <c r="H113" t="s">
         <v>150</v>
       </c>
-      <c r="I113" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -6075,22 +6179,22 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B116" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E116" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H116" t="s">
         <v>205</v>
@@ -6099,12 +6203,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -6113,19 +6217,19 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E117" t="s">
         <v>197</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G117" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H117" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I117" t="e">
         <f>NA()</f>
@@ -6134,7 +6238,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
@@ -6143,23 +6247,52 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E118" t="s">
         <v>197</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G118" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H118" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I118" t="e">
         <f>NA()</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>555</v>
+      </c>
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" t="s">
+        <v>163</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H119" t="s">
+        <v>557</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -6223,207 +6356,207 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>416</v>
-      </c>
-      <c r="B2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>417</v>
       </c>
       <c r="E2" t="s">
         <v>181</v>
       </c>
       <c r="F2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" t="s">
         <v>418</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>419</v>
-      </c>
-      <c r="H2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" t="s">
         <v>421</v>
       </c>
-      <c r="B3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" t="s">
-        <v>422</v>
-      </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" t="s">
         <v>399</v>
-      </c>
-      <c r="F3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" t="s">
         <v>396</v>
       </c>
-      <c r="F4" t="s">
-        <v>449</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>397</v>
-      </c>
-      <c r="H4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" t="s">
         <v>394</v>
-      </c>
-      <c r="H5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6" t="s">
         <v>392</v>
-      </c>
-      <c r="H6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H7" t="s">
         <v>390</v>
-      </c>
-      <c r="C7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
         <v>181</v>
       </c>
       <c r="F8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" t="s">
         <v>442</v>
-      </c>
-      <c r="G8" t="s">
-        <v>441</v>
-      </c>
-      <c r="H8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" t="s">
+        <v>461</v>
+      </c>
+      <c r="G9" t="s">
+        <v>462</v>
+      </c>
+      <c r="H9" t="s">
         <v>464</v>
-      </c>
-      <c r="B9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F9" t="s">
-        <v>462</v>
-      </c>
-      <c r="G9" t="s">
-        <v>463</v>
-      </c>
-      <c r="H9" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +7063,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6966,7 +7099,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -6975,19 +7108,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
       </c>
       <c r="F2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" t="s">
         <v>430</v>
-      </c>
-      <c r="G2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" t="s">
-        <v>431</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -6995,7 +7128,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -7004,16 +7137,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
         <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -7021,7 +7154,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -7030,16 +7163,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
         <v>181</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -7047,7 +7180,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -7056,16 +7189,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
         <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -7073,7 +7206,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21260" windowHeight="12480" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="12480" tabRatio="652" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="621">
   <si>
     <t>name</t>
   </si>
@@ -769,9 +769,6 @@
     <t>g m-2 d-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily increase (growth) in leaf weight </t>
-  </si>
-  <si>
     <t>DMProduction</t>
   </si>
   <si>
@@ -859,108 +856,24 @@
     <t>Production journalière de matière sèche</t>
   </si>
   <si>
-    <t xml:space="preserve">Accumulated leaf dry matter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">g m-2  </t>
-  </si>
-  <si>
-    <t>Stock de matière sèche dans les feuilles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accumulated Steam dry matter </t>
-  </si>
-  <si>
-    <t>Stock de matière sèche dans les tiges</t>
-  </si>
-  <si>
     <t>WVEG</t>
   </si>
   <si>
-    <t xml:space="preserve">Accumulated vegetative (leaf + stem) dry matter </t>
-  </si>
-  <si>
-    <t>Stock de matière sèche dans les parties végétatives</t>
-  </si>
-  <si>
-    <t>g m-2</t>
-  </si>
-  <si>
-    <t>Partitioning coefficient to leaves during main phase of leaf area development at lower levels of total crop mass</t>
-  </si>
-  <si>
-    <t>Partitioning coefficient to leaves during main phase of leaf area development at higher levels of total crop mass</t>
-  </si>
-  <si>
-    <t>Partitioning coefficient to leaves from termination leaf growth on mainstem to beginning seed growth</t>
-  </si>
-  <si>
-    <t>Fraction crop mass at beginning seed growth which is translocateble to grains</t>
-  </si>
-  <si>
-    <t>Grain conversion coefficient</t>
-  </si>
-  <si>
-    <t>Potential slope of harvest index (DHI)</t>
-  </si>
-  <si>
-    <t>A critical point for DHI</t>
-  </si>
-  <si>
-    <t>g g-1</t>
-  </si>
-  <si>
-    <t>Total crop mass when leaf partitioning coefficient turns from FLF1A to FLF1B</t>
-  </si>
-  <si>
-    <t>pParCoefLeafAeraLow</t>
-  </si>
-  <si>
-    <t>pParCoefLeafAeraHigh</t>
-  </si>
-  <si>
-    <t>pParCoefLeafAeraTerminationLeafGrow</t>
-  </si>
-  <si>
-    <t>pTotalCropMassFromCoefLeafAreaLowHigh</t>
-  </si>
-  <si>
-    <t>pFractionCropMassTranslocateble</t>
-  </si>
-  <si>
     <t>pGrainConversionCoefficient</t>
   </si>
   <si>
-    <t>pPotentialSlopeHarvestIndex</t>
-  </si>
-  <si>
-    <t>pPotentialSlopeHarvestIndexCriticalPoint2</t>
-  </si>
-  <si>
-    <t>pPotentialSlopeHarvestIndexCriticalPoint3</t>
-  </si>
-  <si>
-    <t>pPotentialSlopeHarvestIndexCriticalPoint4</t>
-  </si>
-  <si>
     <t>pVDSAT</t>
   </si>
   <si>
     <t>oC</t>
   </si>
   <si>
-    <t>pTbasRUE</t>
-  </si>
-  <si>
     <t>pTopt1RUE</t>
   </si>
   <si>
     <t>pTopt2RUE</t>
   </si>
   <si>
-    <t>plethalRUE</t>
-  </si>
-  <si>
     <t>LAI_Senescence</t>
   </si>
   <si>
@@ -1000,15 +913,9 @@
     <t>sAccumulatedStemDryMatter</t>
   </si>
   <si>
-    <t>sAccumulatedVegDryMatter</t>
-  </si>
-  <si>
     <t>sMainstemNodeNumber</t>
   </si>
   <si>
-    <t>pPotentialSlopeHarvestIndexCriticalPoint1</t>
-  </si>
-  <si>
     <t>KPAR</t>
   </si>
   <si>
@@ -1018,9 +925,6 @@
     <t>WLF</t>
   </si>
   <si>
-    <t>WSF</t>
-  </si>
-  <si>
     <t>TCFRUE</t>
   </si>
   <si>
@@ -1555,9 +1459,6 @@
     <t>sDailyLeafWeightIncrease</t>
   </si>
   <si>
-    <t>poids des feuilles produites ce jour</t>
-  </si>
-  <si>
     <t>sDailyRateNfromLeave</t>
   </si>
   <si>
@@ -1715,13 +1616,362 @@
   </si>
   <si>
     <t>because it should be 1 outside of any modifications</t>
+  </si>
+  <si>
+    <t>pTlethalRUE</t>
+  </si>
+  <si>
+    <t>pTbaseRUE</t>
+  </si>
+  <si>
+    <t>Temperature above which there is no dry matter production</t>
+  </si>
+  <si>
+    <t>Temperature below which there is no dry matter production</t>
+  </si>
+  <si>
+    <t>temperature where dry matter production starts to be optimal</t>
+  </si>
+  <si>
+    <t>temperature where dry matter production stops being optimal</t>
+  </si>
+  <si>
+    <t>température au-delà de laquelle il n'y a plus de produciton de biomasse</t>
+  </si>
+  <si>
+    <t>température de début de zone optimale pour la production de biomasse</t>
+  </si>
+  <si>
+    <t>température de fin de zone optimale pour la production de biomasse</t>
+  </si>
+  <si>
+    <t>température en dessous de laquelle il n'y a pas de production de biomasse</t>
+  </si>
+  <si>
+    <t>pFractionCropMassTranslocatable</t>
+  </si>
+  <si>
+    <r>
+      <t>g g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">−1 </t>
+    </r>
+  </si>
+  <si>
+    <t>fraction of the total crop mass present at BSG that is available for transfer to the grains</t>
+  </si>
+  <si>
+    <t>ratio of energy content of vegetative tissues to that of grain</t>
+  </si>
+  <si>
+    <t>pFractionDMtoLeavesPhase1A</t>
+  </si>
+  <si>
+    <t>[0-1]</t>
+  </si>
+  <si>
+    <t>fraction of daily dry matter production that is partitioned to the leaves during phase 1A (from emergence up to when dry matter reaches pInflexionPointLeafAllocationAB)</t>
+  </si>
+  <si>
+    <t>pFractionDMtoLeavesPhase1B</t>
+  </si>
+  <si>
+    <t>fraction of daily dry matter production that is partitioned to the leaves during phase 1B (from when dry matter reaches pInflexionPointLeafAllocationAB until termination of leaf growth on main stem)</t>
+  </si>
+  <si>
+    <t>pFractionDMtoLeavesPhase2</t>
+  </si>
+  <si>
+    <t>fraction of daily dry matter production that is partitioned to the leaves during phase 2 (from termination of leaf growth on main stem to beginning of seed growth)</t>
+  </si>
+  <si>
+    <t>pPotentialDailyRateHIincrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day−1 </t>
+  </si>
+  <si>
+    <t>potential DailyRateHIincrease</t>
+  </si>
+  <si>
+    <t>pDailyRateHIincreaseCriticalPoint1</t>
+  </si>
+  <si>
+    <t>g m−2</t>
+  </si>
+  <si>
+    <t>DM at beginning seed growth below which DHI is 0</t>
+  </si>
+  <si>
+    <t>pDailyRateHIincreaseCriticalPoint2</t>
+  </si>
+  <si>
+    <t>g m−3</t>
+  </si>
+  <si>
+    <t>DM at beginning seed growth above which DHI is optimal</t>
+  </si>
+  <si>
+    <t>pDailyRateHIincreaseCriticalPoint3</t>
+  </si>
+  <si>
+    <t>g m−4</t>
+  </si>
+  <si>
+    <t>DM at beginning seed growth below which DHI is optimal</t>
+  </si>
+  <si>
+    <t>pDailyRateHIincreaseCriticalPoint4</t>
+  </si>
+  <si>
+    <t>g m−5</t>
+  </si>
+  <si>
+    <t>DM at beginning seed growth above which DHI is 0</t>
+  </si>
+  <si>
+    <t>pInflexionPointLeafAllocationAB</t>
+  </si>
+  <si>
+    <t>inflection point between high proportion of dry matter allocated to the leaves and low proportion of dry matter allocated to the leaves</t>
+  </si>
+  <si>
+    <t>pStemMinimumNconcentration</t>
+  </si>
+  <si>
+    <r>
+      <t>g N g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">−1 </t>
+    </r>
+  </si>
+  <si>
+    <t>minimum stem N concentration</t>
+  </si>
+  <si>
+    <t>SNCS</t>
+  </si>
+  <si>
+    <r>
+      <t>g m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">−2 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative leaf dry matter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative stem dry matter </t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>sAccumulatedVegetativeDryMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative vegetative organs dry matter </t>
+  </si>
+  <si>
+    <t>sAccumulatedGrainDryMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative grain dry matter </t>
+  </si>
+  <si>
+    <t>WGRN</t>
+  </si>
+  <si>
+    <t>sAccumulatedAboveGroundDryMatter</t>
+  </si>
+  <si>
+    <t>total accumulated dry matter in above-ground organs</t>
+  </si>
+  <si>
+    <t>WTOP</t>
+  </si>
+  <si>
+    <r>
+      <t>g m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">−2 day−1 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">daily increase in leaf mass </t>
+  </si>
+  <si>
+    <t>because outside of LAI growing period, it should be 0</t>
+  </si>
+  <si>
+    <t>cDailyStemWeightIncrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily increase in stem mass </t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>cDailySeedWeightIncrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily seed growth </t>
+  </si>
+  <si>
+    <t>SGR</t>
+  </si>
+  <si>
+    <t>initialized at 0 because out of seed growth period, it should be 0</t>
+  </si>
+  <si>
+    <t>cEffectOfHeatOnDHI</t>
+  </si>
+  <si>
+    <t>FrHtDHI</t>
+  </si>
+  <si>
+    <t>because actually it is not modified in the code</t>
+  </si>
+  <si>
+    <t>cDailyPortionDMtranslocated</t>
+  </si>
+  <si>
+    <t>portion of TRLDM that is transferred to the grains</t>
+  </si>
+  <si>
+    <t>TRANSL</t>
+  </si>
+  <si>
+    <t>sDryMatterAtBeginningSeedGrowth</t>
+  </si>
+  <si>
+    <t>crop mass at beginning of seed growth</t>
+  </si>
+  <si>
+    <t>BSGDM</t>
+  </si>
+  <si>
+    <t>sTranslocatableBiomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of dry matter available for seed growth via mobilization </t>
+  </si>
+  <si>
+    <t>TRLDM</t>
+  </si>
+  <si>
+    <t>cFractionDMtoLeaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraction of daily mass production for leaf growth </t>
+  </si>
+  <si>
+    <t>FLF</t>
+  </si>
+  <si>
+    <t>cDailyDryMatterforLeavesAndStems</t>
+  </si>
+  <si>
+    <t>Daily Dry matter available for stem and leaf growth</t>
+  </si>
+  <si>
+    <t>DDMP2</t>
+  </si>
+  <si>
+    <t>sDailyRateHIincrease</t>
+  </si>
+  <si>
+    <r>
+      <t>g g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">−1 day−1 </t>
+    </r>
+  </si>
+  <si>
+    <t>daily rate of increase in harvest index</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>sHarvestIndex</t>
+  </si>
+  <si>
+    <t>Harvest index</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>coefficient for the Effect Of Heat On DHI (always 1 in the current version)</t>
+  </si>
+  <si>
+    <t>because we dont want Nas in the computation of leaf and stem weight</t>
+  </si>
+  <si>
+    <t>because we want it to be 0 and not NA outside of the DM production period</t>
+  </si>
+  <si>
+    <t>because we want it to be 0 and not NA outside of the LAI_senescence production period</t>
+  </si>
+  <si>
+    <t>actually not really a state variable, but we need it in LAI and it is updated in DMDistribution and initialized at 0 because outside of LAI growing period, it should be 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1825,378 +2075,402 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="337">
+  <cellStyleXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="337">
+  <cellStyles count="359">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2365,6 +2639,17 @@
     <cellStyle name="Lien hypertexte" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2533,6 +2818,17 @@
     <cellStyle name="Lien hypertexte visité" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2897,20 +3193,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
@@ -2944,492 +3240,480 @@
         <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2">
+      <c r="A2" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20">
         <v>0</v>
       </c>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3">
+      <c r="A3" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20">
         <v>0</v>
       </c>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4">
+      <c r="A4" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20">
         <v>0</v>
       </c>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" t="s">
-        <v>506</v>
-      </c>
-      <c r="I5">
+      <c r="A5" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>503</v>
-      </c>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="B11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I6">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="12" spans="1:10" s="14" customFormat="1">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H12" t="s">
         <v>228</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" t="s">
-        <v>502</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>519</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
+        <v>194</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
+        <v>236</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="H13" t="s">
-        <v>521</v>
-      </c>
-      <c r="I13" t="s">
-        <v>522</v>
-      </c>
-      <c r="J13" t="s">
-        <v>527</v>
+        <v>237</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>161</v>
+      <c r="A14" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>164</v>
+        <v>194</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>469</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" t="s">
-        <v>546</v>
+        <v>470</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>181</v>
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
+        <v>496</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H15" t="s">
-        <v>496</v>
+        <v>205</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1">
+      <c r="J15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16"/>
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H17" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>508</v>
+        <v>173</v>
+      </c>
+      <c r="I17" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>408</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>482</v>
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>450</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>409</v>
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="G18" t="s">
-        <v>407</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3440,78 +3724,80 @@
         <v>484</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>486</v>
-      </c>
-      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
         <v>488</v>
       </c>
-      <c r="H19" t="s">
-        <v>490</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="J19" s="14"/>
+      <c r="I19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J19" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>486</v>
-      </c>
-      <c r="F20" t="s">
-        <v>487</v>
+        <v>164</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>489</v>
+        <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>453</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>482</v>
+        <v>462</v>
+      </c>
+      <c r="B21" t="s">
+        <v>450</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
-      </c>
-      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F21" t="s">
-        <v>454</v>
-      </c>
-      <c r="G21" t="s">
-        <v>455</v>
+      <c r="F21" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3519,28 +3805,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
-      </c>
-      <c r="F22" t="s">
-        <v>444</v>
+        <v>119</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>446</v>
+        <v>183</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3548,202 +3834,201 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" t="s">
-        <v>366</v>
-      </c>
-      <c r="F23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G23" t="s">
-        <v>377</v>
+        <v>254</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="H23" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>364</v>
-      </c>
-      <c r="B24" t="s">
-        <v>482</v>
+        <v>376</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>450</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H24" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="B25" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
-        <v>366</v>
+        <v>454</v>
       </c>
       <c r="F25" t="s">
-        <v>368</v>
-      </c>
-      <c r="G25" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="H25" t="s">
-        <v>379</v>
-      </c>
-      <c r="I25">
-        <v>0.5</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="B26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E26" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" t="s">
+        <v>455</v>
+      </c>
+      <c r="H26" t="s">
+        <v>457</v>
+      </c>
+      <c r="I26" t="s">
         <v>482</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E26" t="s">
-        <v>366</v>
-      </c>
-      <c r="F26" t="s">
-        <v>369</v>
-      </c>
-      <c r="G26" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" t="s">
-        <v>380</v>
-      </c>
-      <c r="I26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1">
       <c r="A27" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" t="s">
-        <v>482</v>
+        <v>421</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>450</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="E27" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="H27" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="B28" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="E28" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="F28" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="G28" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="H28" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E29" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F29" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="G29" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="H29" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="I29">
         <v>0.5</v>
@@ -3751,87 +4036,86 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E30" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F30" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="G30" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="I30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E31" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="H31" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="I31">
         <v>0.5</v>
       </c>
-      <c r="J31"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E32" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="G32" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="H32" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="I32">
         <v>0.5</v>
@@ -3839,222 +4123,213 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>334</v>
+      </c>
+      <c r="F33" t="s">
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>550</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>543</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F34" t="s">
+        <v>339</v>
+      </c>
+      <c r="G34" t="s">
+        <v>345</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>550</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>239</v>
+        <v>334</v>
+      </c>
+      <c r="F35" t="s">
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>550</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>156</v>
+        <v>334</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>345</v>
       </c>
       <c r="H36" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>334</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>345</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>354</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
+        <v>119</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>158</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -4063,46 +4338,43 @@
         <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I41" t="e">
         <f>NA()</f>
@@ -4111,7 +4383,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -4123,16 +4395,16 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -4141,25 +4413,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>286</v>
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>333</v>
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -4168,25 +4443,28 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>287</v>
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>334</v>
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -4195,25 +4473,28 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>284</v>
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>335</v>
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -4221,332 +4502,320 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>258</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G46" t="s">
-        <v>336</v>
-      </c>
-      <c r="I46" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C46" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I47" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C47" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>298</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G48" t="s">
-        <v>338</v>
-      </c>
-      <c r="I48" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C48" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>323</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G49" t="s">
-        <v>339</v>
-      </c>
-      <c r="I49" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>299</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>258</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G50" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s">
-        <v>258</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G51" t="s">
-        <v>341</v>
-      </c>
-      <c r="I51" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C51" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G52" t="s">
-        <v>342</v>
-      </c>
-      <c r="I52" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C52" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>295</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s">
-        <v>258</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" t="s">
-        <v>343</v>
-      </c>
-      <c r="I53" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C53" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" t="s">
-        <v>245</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H54" t="s">
-        <v>270</v>
-      </c>
-      <c r="I54" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C54" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>307</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s">
-        <v>245</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="I55" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C55" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>259</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="C56" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H56" t="s">
-        <v>260</v>
-      </c>
-      <c r="I56" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="E56" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="I57" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C57" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>305</v>
+      <c r="A58" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -4555,13 +4824,19 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>347</v>
+        <v>244</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H58" t="s">
+        <v>269</v>
       </c>
       <c r="I58" t="e">
         <f>NA()</f>
@@ -4570,7 +4845,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="B59" t="s">
         <v>138</v>
@@ -4579,13 +4854,19 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>348</v>
+        <v>244</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" t="s">
+        <v>259</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4594,7 +4875,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s">
         <v>138</v>
@@ -4603,19 +4884,19 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>312</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>181</v>
+        <v>244</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>349</v>
+        <v>530</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="H60" t="s">
-        <v>233</v>
+        <v>536</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4624,7 +4905,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>527</v>
       </c>
       <c r="B61" t="s">
         <v>138</v>
@@ -4633,19 +4914,19 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="H61" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4654,7 +4935,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B62" t="s">
         <v>138</v>
@@ -4663,19 +4944,19 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>312</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>224</v>
+        <v>531</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H62" t="s">
+        <v>534</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4684,7 +4965,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
@@ -4693,19 +4974,19 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>247</v>
+        <v>532</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -4714,7 +4995,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
@@ -4723,31 +5004,28 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>498</v>
+        <v>283</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J64" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
         <v>138</v>
@@ -4756,31 +5034,28 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>499</v>
+        <v>283</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="H65" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J65" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -4788,14 +5063,20 @@
       <c r="C66" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>303</v>
+      <c r="D66" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>350</v>
+        <v>461</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -4804,7 +5085,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
@@ -4812,26 +5093,29 @@
       <c r="C67" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>303</v>
+      <c r="D67" t="s">
+        <v>283</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>351</v>
+        <v>246</v>
+      </c>
+      <c r="H67" t="s">
+        <v>249</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J67" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
         <v>138</v>
@@ -4840,28 +5124,31 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>352</v>
+        <v>279</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J68" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
@@ -4870,28 +5157,31 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>353</v>
+        <v>279</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J69" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="6" t="s">
-        <v>513</v>
+      <c r="A70" t="s">
+        <v>280</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
@@ -4899,20 +5189,14 @@
       <c r="C70" t="s">
         <v>26</v>
       </c>
-      <c r="D70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G70" t="s">
-        <v>190</v>
-      </c>
-      <c r="H70" t="s">
-        <v>185</v>
+      <c r="D70" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
@@ -4921,31 +5205,34 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>281</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
-      </c>
-      <c r="D71" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" t="s">
-        <v>509</v>
-      </c>
-      <c r="H71" t="s">
-        <v>510</v>
+        <v>26</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J71" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="6" t="s">
-        <v>179</v>
+      <c r="A72" t="s">
+        <v>213</v>
       </c>
       <c r="B72" t="s">
         <v>138</v>
@@ -4954,19 +5241,19 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" t="s">
-        <v>181</v>
+        <v>279</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>189</v>
+        <v>320</v>
       </c>
       <c r="H72" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -4975,7 +5262,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
@@ -4984,19 +5271,19 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s">
-        <v>63</v>
+        <v>279</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="H73" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
@@ -5004,8 +5291,8 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" t="s">
-        <v>60</v>
+      <c r="A74" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
@@ -5017,16 +5304,16 @@
         <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" t="s">
-        <v>76</v>
+        <v>180</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
@@ -5035,28 +5322,22 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
         <v>95</v>
       </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="H75" t="s">
-        <v>68</v>
+        <v>477</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -5064,8 +5345,8 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>481</v>
+      <c r="A76" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
@@ -5077,16 +5358,16 @@
         <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s">
-        <v>65</v>
+        <v>181</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
@@ -5095,7 +5376,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>413</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
@@ -5104,19 +5385,19 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>412</v>
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" t="s">
+        <v>63</v>
       </c>
       <c r="H77" t="s">
-        <v>414</v>
+        <v>69</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -5125,7 +5406,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>403</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
@@ -5134,19 +5415,19 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>404</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>405</v>
+        <v>95</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>402</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>406</v>
+        <v>70</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -5155,7 +5436,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>467</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
         <v>138</v>
@@ -5164,19 +5445,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>466</v>
+        <v>64</v>
       </c>
       <c r="H79" t="s">
-        <v>468</v>
+        <v>68</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -5184,8 +5465,8 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="16" t="s">
-        <v>133</v>
+      <c r="A80" t="s">
+        <v>449</v>
       </c>
       <c r="B80" t="s">
         <v>138</v>
@@ -5194,19 +5475,19 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>317</v>
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s">
+        <v>65</v>
       </c>
       <c r="H80" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -5214,8 +5495,8 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="16" t="s">
-        <v>136</v>
+      <c r="A81" t="s">
+        <v>381</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
@@ -5224,19 +5505,19 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>315</v>
+        <v>379</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="H81" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
@@ -5244,8 +5525,8 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="16" t="s">
-        <v>134</v>
+      <c r="A82" t="s">
+        <v>371</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
@@ -5254,19 +5535,19 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>313</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>318</v>
+        <v>372</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F82" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" t="s">
+        <v>370</v>
       </c>
       <c r="H82" t="s">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -5274,8 +5555,8 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="16" t="s">
-        <v>480</v>
+      <c r="A83" t="s">
+        <v>435</v>
       </c>
       <c r="B83" t="s">
         <v>138</v>
@@ -5284,19 +5565,19 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>314</v>
+        <v>181</v>
+      </c>
+      <c r="F83" t="s">
+        <v>433</v>
+      </c>
+      <c r="G83" t="s">
+        <v>434</v>
       </c>
       <c r="H83" t="s">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -5304,8 +5585,8 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="4" t="s">
-        <v>302</v>
+      <c r="A84" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
@@ -5314,17 +5595,19 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="5" t="s">
-        <v>143</v>
+        <v>284</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>148</v>
+        <v>288</v>
+      </c>
+      <c r="H84" t="s">
+        <v>151</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -5332,8 +5615,8 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>145</v>
+      <c r="A85" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
@@ -5342,16 +5625,19 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>284</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="H85" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -5359,29 +5645,29 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>35</v>
+      <c r="A86" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>42</v>
-      </c>
-      <c r="G86" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="H86" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5389,29 +5675,29 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>544</v>
+      <c r="A87" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>328</v>
+        <v>132</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -5419,29 +5705,27 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>272</v>
+      <c r="A88" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H88" t="s">
-        <v>273</v>
+        <v>284</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -5450,28 +5734,25 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>545</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>330</v>
+        <v>142</v>
+      </c>
+      <c r="G89" t="s">
+        <v>146</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -5480,7 +5761,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
@@ -5489,19 +5770,19 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>253</v>
+        <v>37</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
       </c>
       <c r="H90" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -5509,220 +5790,217 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>206</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="B91" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" t="s">
-        <v>308</v>
-      </c>
-      <c r="E91" t="s">
-        <v>200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G91" t="s">
-        <v>196</v>
-      </c>
-      <c r="H91" t="s">
-        <v>205</v>
-      </c>
+      <c r="C91" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="H91" s="20"/>
       <c r="I91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B92" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" t="s">
-        <v>200</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G92" t="s">
-        <v>195</v>
-      </c>
-      <c r="H92" t="s">
-        <v>204</v>
-      </c>
-      <c r="I92" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="C92" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20">
+        <v>0</v>
+      </c>
+      <c r="J92" s="20" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B93" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" t="s">
-        <v>95</v>
-      </c>
-      <c r="E93" t="s">
-        <v>163</v>
-      </c>
-      <c r="F93" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H93" t="s">
-        <v>97</v>
-      </c>
-      <c r="I93">
+      <c r="C93" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20">
+        <v>0</v>
+      </c>
+      <c r="J93" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20">
+        <v>0</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20">
+        <v>0</v>
+      </c>
+      <c r="J95" s="20" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20">
         <v>1</v>
       </c>
-      <c r="J93" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="J96" s="20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C94" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" t="s">
-        <v>95</v>
-      </c>
-      <c r="E94" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" t="s">
-        <v>72</v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" t="s">
-        <v>74</v>
-      </c>
-      <c r="I94">
+      <c r="C97" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20">
         <v>1</v>
       </c>
-      <c r="J94" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>516</v>
-      </c>
-      <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" t="s">
-        <v>523</v>
-      </c>
-      <c r="G95" t="s">
-        <v>98</v>
-      </c>
-      <c r="H95" t="s">
-        <v>524</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>525</v>
-      </c>
-      <c r="G96" t="s">
-        <v>77</v>
-      </c>
-      <c r="H96" t="s">
-        <v>526</v>
-      </c>
-      <c r="I96" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="J97" s="20" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>511</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
@@ -5731,19 +6009,19 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>180</v>
+        <v>244</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G98" t="s">
-        <v>186</v>
+        <v>261</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="H98" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="I98" t="e">
         <f>NA()</f>
@@ -5752,7 +6030,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
@@ -5761,28 +6039,30 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" t="s">
-        <v>55</v>
+        <v>244</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
-      </c>
-      <c r="I99" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>272</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -5791,13 +6071,19 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>416</v>
-      </c>
-      <c r="E100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s">
-        <v>469</v>
+        <v>244</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H100" t="s">
+        <v>264</v>
       </c>
       <c r="I100" t="e">
         <f>NA()</f>
@@ -5806,7 +6092,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>479</v>
+        <v>250</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -5815,10 +6101,19 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>416</v>
-      </c>
-      <c r="E101" t="s">
-        <v>113</v>
+        <v>32</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H101" t="s">
+        <v>253</v>
       </c>
       <c r="I101" t="e">
         <f>NA()</f>
@@ -5827,7 +6122,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>471</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -5836,10 +6131,19 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>416</v>
+        <v>194</v>
       </c>
       <c r="E102" t="s">
-        <v>113</v>
+        <v>200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G102" t="s">
+        <v>195</v>
+      </c>
+      <c r="H102" t="s">
+        <v>204</v>
       </c>
       <c r="I102" t="e">
         <f>NA()</f>
@@ -5848,7 +6152,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>472</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -5857,19 +6161,30 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>113</v>
-      </c>
-      <c r="I103" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>200</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" t="s">
+        <v>196</v>
+      </c>
+      <c r="H103" t="s">
+        <v>205</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -5878,10 +6193,19 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>197</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G104" t="s">
+        <v>506</v>
+      </c>
+      <c r="H104" t="s">
+        <v>508</v>
       </c>
       <c r="I104" t="e">
         <f>NA()</f>
@@ -5890,7 +6214,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -5899,10 +6223,19 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>197</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G105" t="s">
+        <v>507</v>
+      </c>
+      <c r="H105" t="s">
+        <v>509</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
@@ -5911,7 +6244,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -5920,19 +6253,27 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
-      </c>
-      <c r="I106" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>163</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H106" t="s">
+        <v>524</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>476</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -5941,19 +6282,30 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E107" t="s">
-        <v>113</v>
-      </c>
-      <c r="I107" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>163</v>
+      </c>
+      <c r="F107" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" t="s">
+        <v>96</v>
+      </c>
+      <c r="H107" t="s">
+        <v>97</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>477</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -5962,19 +6314,30 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
-      </c>
-      <c r="I108" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>163</v>
+      </c>
+      <c r="F108" t="s">
+        <v>72</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -5983,19 +6346,30 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
-      </c>
-      <c r="I109" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>490</v>
+      </c>
+      <c r="G109" t="s">
+        <v>98</v>
+      </c>
+      <c r="H109" t="s">
+        <v>491</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>457</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -6004,19 +6378,19 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="G110" t="s">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="I110" t="e">
         <f>NA()</f>
@@ -6024,40 +6398,34 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>99</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C111" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111" t="s">
-        <v>163</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G111" t="s">
-        <v>101</v>
-      </c>
-      <c r="H111" t="s">
-        <v>102</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111" t="s">
-        <v>552</v>
+      <c r="C111" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -6066,19 +6434,19 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="I112" t="e">
         <f>NA()</f>
@@ -6087,7 +6455,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -6096,30 +6464,28 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>54</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="H113" t="s">
-        <v>150</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>551</v>
+        <v>56</v>
+      </c>
+      <c r="I113" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -6128,19 +6494,13 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="E114" t="s">
         <v>113</v>
       </c>
-      <c r="F114" t="s">
-        <v>116</v>
-      </c>
       <c r="G114" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" t="s">
-        <v>117</v>
+        <v>437</v>
       </c>
       <c r="I114" t="e">
         <f>NA()</f>
@@ -6149,7 +6509,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -6158,19 +6518,10 @@
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
-      </c>
-      <c r="F115" t="s">
-        <v>114</v>
-      </c>
-      <c r="G115" t="s">
-        <v>115</v>
-      </c>
-      <c r="H115" t="s">
-        <v>118</v>
       </c>
       <c r="I115" t="e">
         <f>NA()</f>
@@ -6179,36 +6530,28 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>528</v>
+        <v>439</v>
       </c>
       <c r="B116" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="E116" t="s">
-        <v>529</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="H116" t="s">
-        <v>205</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>531</v>
+        <v>113</v>
+      </c>
+      <c r="I116" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -6217,19 +6560,10 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="E117" t="s">
-        <v>197</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G117" t="s">
-        <v>539</v>
-      </c>
-      <c r="H117" t="s">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="I117" t="e">
         <f>NA()</f>
@@ -6238,7 +6572,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
@@ -6247,19 +6581,10 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="E118" t="s">
-        <v>197</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="G118" t="s">
-        <v>540</v>
-      </c>
-      <c r="H118" t="s">
-        <v>542</v>
+        <v>113</v>
       </c>
       <c r="I118" t="e">
         <f>NA()</f>
@@ -6268,7 +6593,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>555</v>
+        <v>442</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -6277,29 +6602,385 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>95</v>
+        <v>384</v>
       </c>
       <c r="E119" t="s">
+        <v>113</v>
+      </c>
+      <c r="I119" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>443</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" t="s">
+        <v>113</v>
+      </c>
+      <c r="I120" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>444</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>384</v>
+      </c>
+      <c r="E121" t="s">
+        <v>113</v>
+      </c>
+      <c r="I121" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>445</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" t="s">
+        <v>384</v>
+      </c>
+      <c r="E122" t="s">
+        <v>113</v>
+      </c>
+      <c r="I122" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>446</v>
+      </c>
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>384</v>
+      </c>
+      <c r="E123" t="s">
+        <v>113</v>
+      </c>
+      <c r="I123" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>425</v>
+      </c>
+      <c r="B124" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>384</v>
+      </c>
+      <c r="E124" t="s">
+        <v>113</v>
+      </c>
+      <c r="F124" t="s">
+        <v>426</v>
+      </c>
+      <c r="G124" t="s">
+        <v>427</v>
+      </c>
+      <c r="H124" t="s">
+        <v>428</v>
+      </c>
+      <c r="I124" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>515</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" t="s">
         <v>163</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="H119" t="s">
-        <v>557</v>
-      </c>
-      <c r="I119">
+      <c r="F125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G125" t="s">
+        <v>92</v>
+      </c>
+      <c r="H125" t="s">
+        <v>94</v>
+      </c>
+      <c r="I125">
         <v>1</v>
       </c>
-      <c r="J119" t="s">
-        <v>558</v>
+      <c r="J125" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>510</v>
+      </c>
+      <c r="B126" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H126" t="s">
+        <v>267</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>516</v>
+      </c>
+      <c r="B127" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" t="s">
+        <v>238</v>
+      </c>
+      <c r="H127" t="s">
+        <v>240</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>125</v>
+      </c>
+      <c r="E128" t="s">
+        <v>163</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H128" t="s">
+        <v>102</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>125</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G129" t="s">
+        <v>127</v>
+      </c>
+      <c r="H129" t="s">
+        <v>128</v>
+      </c>
+      <c r="I129" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130" t="s">
+        <v>163</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" t="s">
+        <v>150</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>126</v>
+      </c>
+      <c r="E131" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s">
+        <v>117</v>
+      </c>
+      <c r="I131" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E132" t="s">
+        <v>113</v>
+      </c>
+      <c r="F132" t="s">
+        <v>114</v>
+      </c>
+      <c r="G132" t="s">
+        <v>115</v>
+      </c>
+      <c r="H132" t="s">
+        <v>118</v>
+      </c>
+      <c r="I132" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J115">
-    <sortCondition descending="1" ref="B2:B115"/>
-    <sortCondition ref="D2:D115"/>
-    <sortCondition ref="A2:A115"/>
+  <sortState ref="A2:J132">
+    <sortCondition descending="1" ref="B2:B132"/>
+    <sortCondition ref="D2:D132"/>
+    <sortCondition ref="A2:A132"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6356,207 +7037,207 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
         <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" t="s">
         <v>389</v>
       </c>
-      <c r="C3" t="s">
-        <v>421</v>
-      </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" t="s">
         <v>389</v>
       </c>
-      <c r="C4" t="s">
-        <v>421</v>
-      </c>
       <c r="D4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" t="s">
         <v>416</v>
       </c>
-      <c r="E4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F4" t="s">
-        <v>448</v>
-      </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="H4" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" t="s">
         <v>389</v>
       </c>
-      <c r="C5" t="s">
-        <v>421</v>
-      </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="H5" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="s">
         <v>389</v>
       </c>
-      <c r="C6" t="s">
-        <v>421</v>
-      </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="G6" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="H6" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
         <v>389</v>
       </c>
-      <c r="C7" t="s">
-        <v>421</v>
-      </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="H7" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
         <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="H8" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="F9" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="G9" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="H9" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7780,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -7108,19 +7789,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="G2" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -7128,7 +7809,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -7137,16 +7818,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
         <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -7154,7 +7835,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -7163,16 +7844,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
         <v>181</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -7180,7 +7861,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -7189,16 +7870,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
         <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -7206,7 +7887,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -1964,14 +1964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2077,395 +2070,395 @@
   </borders>
   <cellStyleXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3196,10 +3189,10 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="627">
   <si>
     <t>name</t>
   </si>
@@ -1616,9 +1616,6 @@
   </si>
   <si>
     <t>because it should be 1 outside of any modifications</t>
-  </si>
-  <si>
-    <t>pTlethalRUE</t>
   </si>
   <si>
     <t>pTbaseRUE</t>
@@ -1958,6 +1955,27 @@
   </si>
   <si>
     <t>actually not really a state variable, but we need it in LAI and it is updated in DMDistribution and initialized at 0 because outside of LAI growing period, it should be 0</t>
+  </si>
+  <si>
+    <t>pTstopdev</t>
+  </si>
+  <si>
+    <t>pTstopVernalization</t>
+  </si>
+  <si>
+    <t>pTstopRUE</t>
+  </si>
+  <si>
+    <t>sBiologicalDaysSinceSowing</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>Number of Biological days accumulated since sowing</t>
+  </si>
+  <si>
+    <t>Nombre de jours biologiques depuis le semis</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +2086,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="359">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2463,7 +2485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="359">
+  <cellStyles count="363">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2643,6 +2665,8 @@
     <cellStyle name="Lien hypertexte" xfId="353" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2822,6 +2846,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3186,13 +3212,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3238,7 +3264,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>450</v>
@@ -3250,13 +3276,13 @@
         <v>257</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>580</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20">
@@ -3266,7 +3292,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>450</v>
@@ -3278,13 +3304,13 @@
         <v>257</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>576</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>577</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20">
@@ -3306,10 +3332,10 @@
         <v>257</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>569</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>570</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>295</v>
@@ -3334,13 +3360,13 @@
         <v>257</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20">
@@ -3350,7 +3376,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>450</v>
@@ -3362,10 +3388,10 @@
         <v>257</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>273</v>
@@ -3378,7 +3404,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>450</v>
@@ -3390,13 +3416,13 @@
         <v>257</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>611</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>612</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20">
@@ -3406,7 +3432,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>450</v>
@@ -3418,13 +3444,13 @@
         <v>257</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F8" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>598</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>599</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20">
@@ -3434,7 +3460,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>450</v>
@@ -3449,10 +3475,10 @@
         <v>181</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>614</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>615</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20">
@@ -3462,7 +3488,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>450</v>
@@ -3474,13 +3500,13 @@
         <v>257</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F10" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>601</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>602</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
@@ -3685,7 +3711,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>623</v>
       </c>
       <c r="B18" t="s">
         <v>450</v>
@@ -3700,13 +3726,13 @@
         <v>98</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>485</v>
+        <v>625</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>624</v>
       </c>
       <c r="H18" t="s">
-        <v>486</v>
+        <v>626</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3714,7 +3740,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
         <v>450</v>
@@ -3729,76 +3755,79 @@
         <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>488</v>
-      </c>
-      <c r="I19" t="s">
-        <v>489</v>
-      </c>
-      <c r="J19" t="s">
-        <v>494</v>
+        <v>486</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>450</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>487</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>488</v>
       </c>
       <c r="I20" t="s">
-        <v>513</v>
+        <v>489</v>
+      </c>
+      <c r="J20" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>450</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>181</v>
+      <c r="E21" t="s">
+        <v>164</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>463</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>464</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
         <v>450</v>
@@ -3809,17 +3838,14 @@
       <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
-        <v>119</v>
+      <c r="E22" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>464</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3827,7 +3853,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B23" t="s">
         <v>450</v>
@@ -3836,86 +3862,88 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>299</v>
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" t="s">
         <v>450</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" t="s">
-        <v>377</v>
-      </c>
-      <c r="G24" t="s">
-        <v>375</v>
+        <v>254</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="H24" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>450</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s">
-        <v>454</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>456</v>
+        <v>377</v>
+      </c>
+      <c r="G25" t="s">
+        <v>375</v>
       </c>
       <c r="H25" t="s">
-        <v>458</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="J25" s="14"/>
+        <v>378</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B26" t="s">
         <v>450</v>
@@ -3930,50 +3958,47 @@
         <v>454</v>
       </c>
       <c r="F26" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" t="s">
+        <v>458</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>453</v>
+      </c>
+      <c r="E27" t="s">
+        <v>454</v>
+      </c>
+      <c r="F27" t="s">
         <v>455</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>457</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:10" s="4" customFormat="1">
+      <c r="A28" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>384</v>
-      </c>
-      <c r="E27" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G27" t="s">
-        <v>423</v>
-      </c>
-      <c r="H27" t="s">
-        <v>424</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>460</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
         <v>450</v>
       </c>
       <c r="C28" t="s">
@@ -3983,24 +4008,25 @@
         <v>384</v>
       </c>
       <c r="E28" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G28" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H28" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="B29" t="s">
         <v>450</v>
@@ -4009,27 +4035,27 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="F29" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G29" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s">
         <v>450</v>
@@ -4044,13 +4070,13 @@
         <v>334</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G30" t="s">
         <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I30">
         <v>0.5</v>
@@ -4058,7 +4084,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s">
         <v>450</v>
@@ -4073,13 +4099,13 @@
         <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G31" t="s">
         <v>345</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I31">
         <v>0.5</v>
@@ -4087,7 +4113,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s">
         <v>450</v>
@@ -4102,13 +4128,13 @@
         <v>334</v>
       </c>
       <c r="F32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
         <v>345</v>
       </c>
       <c r="H32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I32">
         <v>0.5</v>
@@ -4116,7 +4142,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s">
         <v>450</v>
@@ -4131,13 +4157,13 @@
         <v>334</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
         <v>345</v>
       </c>
       <c r="H33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I33">
         <v>0.5</v>
@@ -4145,7 +4171,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s">
         <v>450</v>
@@ -4160,13 +4186,13 @@
         <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G34" t="s">
         <v>345</v>
       </c>
       <c r="H34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I34">
         <v>0.5</v>
@@ -4174,7 +4200,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s">
         <v>450</v>
@@ -4189,13 +4215,13 @@
         <v>334</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
         <v>345</v>
       </c>
       <c r="H35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I35">
         <v>0.5</v>
@@ -4203,7 +4229,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
         <v>450</v>
@@ -4218,13 +4244,13 @@
         <v>334</v>
       </c>
       <c r="F36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
         <v>345</v>
       </c>
       <c r="H36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -4232,7 +4258,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
         <v>450</v>
@@ -4247,13 +4273,13 @@
         <v>334</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G37" t="s">
         <v>345</v>
       </c>
       <c r="H37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I37">
         <v>0.5</v>
@@ -4261,7 +4287,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s">
         <v>450</v>
@@ -4276,13 +4302,13 @@
         <v>334</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
         <v>345</v>
       </c>
       <c r="H38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I38">
         <v>0.5</v>
@@ -4290,7 +4316,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s">
         <v>450</v>
@@ -4299,27 +4325,27 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>156</v>
+        <v>334</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>345</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
         <v>450</v>
@@ -4328,76 +4354,75 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" t="s">
-        <v>106</v>
+        <v>119</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I42" t="e">
         <f>NA()</f>
@@ -4406,7 +4431,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -4418,16 +4443,16 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -4436,7 +4461,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -4448,16 +4473,16 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -4466,7 +4491,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -4481,13 +4506,13 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -4495,34 +4520,38 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="20" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>138</v>
@@ -4534,13 +4563,13 @@
         <v>257</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -4548,7 +4577,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="20" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>138</v>
@@ -4560,13 +4589,13 @@
         <v>257</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -4574,7 +4603,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="20" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>138</v>
@@ -4586,13 +4615,13 @@
         <v>257</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -4600,7 +4629,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="20" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>138</v>
@@ -4612,13 +4641,13 @@
         <v>257</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -4626,7 +4655,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="20" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>138</v>
@@ -4638,13 +4667,13 @@
         <v>257</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -4652,7 +4681,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="20" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>138</v>
@@ -4664,13 +4693,13 @@
         <v>257</v>
       </c>
       <c r="E52" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="F52" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>545</v>
-      </c>
       <c r="G52" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -4678,7 +4707,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>138</v>
@@ -4690,13 +4719,13 @@
         <v>257</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -4704,7 +4733,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20" t="s">
-        <v>274</v>
+        <v>545</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>138</v>
@@ -4716,13 +4745,13 @@
         <v>257</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -4730,7 +4759,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20" t="s">
-        <v>563</v>
+        <v>274</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>138</v>
@@ -4742,13 +4771,13 @@
         <v>257</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -4756,7 +4785,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>138</v>
@@ -4768,13 +4797,13 @@
         <v>257</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -4782,7 +4811,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>138</v>
@@ -4794,51 +4823,47 @@
         <v>257</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>568</v>
+        <v>306</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" t="s">
-        <v>269</v>
-      </c>
-      <c r="I58" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>258</v>
       </c>
       <c r="B59" t="s">
         <v>138</v>
@@ -4850,16 +4875,16 @@
         <v>244</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="H59" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I59" t="e">
         <f>NA()</f>
@@ -4868,7 +4893,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>528</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
         <v>138</v>
@@ -4879,17 +4904,17 @@
       <c r="D60" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>276</v>
+      <c r="E60" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>314</v>
+        <v>256</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="H60" t="s">
-        <v>536</v>
+        <v>259</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4912,14 +4937,14 @@
       <c r="E61" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="3" t="s">
         <v>529</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H61" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4928,7 +4953,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>622</v>
       </c>
       <c r="B62" t="s">
         <v>138</v>
@@ -4942,14 +4967,14 @@
       <c r="E62" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>531</v>
+      <c r="F62" s="10" t="s">
+        <v>528</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H62" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4958,7 +4983,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
@@ -4973,13 +4998,13 @@
         <v>276</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H63" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -4988,7 +5013,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
@@ -4997,19 +5022,19 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>181</v>
+        <v>244</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>317</v>
+        <v>531</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="H64" t="s">
-        <v>233</v>
+        <v>534</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
@@ -5018,7 +5043,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
         <v>138</v>
@@ -5033,13 +5058,13 @@
         <v>181</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
       <c r="H65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
@@ -5048,7 +5073,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -5060,16 +5085,16 @@
         <v>283</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>224</v>
+        <v>465</v>
+      </c>
+      <c r="H66" t="s">
+        <v>234</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -5078,7 +5103,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
@@ -5090,16 +5115,16 @@
         <v>283</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H67" t="s">
-        <v>249</v>
+        <v>461</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -5108,7 +5133,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
         <v>138</v>
@@ -5117,31 +5142,28 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>466</v>
+        <v>283</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J68" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
@@ -5152,29 +5174,29 @@
       <c r="D69" t="s">
         <v>279</v>
       </c>
-      <c r="E69" t="s">
-        <v>15</v>
+      <c r="E69" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>467</v>
+        <v>218</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="H69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
@@ -5182,23 +5204,32 @@
       <c r="C70" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" t="s">
         <v>279</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>318</v>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" t="s">
+        <v>220</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J70" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
@@ -5213,19 +5244,16 @@
         <v>276</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J71" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="B72" t="s">
         <v>138</v>
@@ -5233,29 +5261,26 @@
       <c r="C72" t="s">
         <v>26</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>210</v>
+      <c r="E72" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H72" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J72" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
@@ -5270,13 +5295,13 @@
         <v>211</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
@@ -5284,8 +5309,8 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="6" t="s">
-        <v>480</v>
+      <c r="A74" t="s">
+        <v>214</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
@@ -5294,19 +5319,19 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" t="s">
-        <v>180</v>
+        <v>279</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G74" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="H74" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
@@ -5314,23 +5339,29 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>478</v>
+      <c r="A75" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
         <v>95</v>
       </c>
-      <c r="F75" t="s">
-        <v>476</v>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" t="s">
+        <v>190</v>
       </c>
       <c r="H75" t="s">
-        <v>477</v>
+        <v>185</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -5338,29 +5369,23 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="6" t="s">
-        <v>179</v>
+      <c r="A76" t="s">
+        <v>478</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
         <v>95</v>
       </c>
-      <c r="E76" t="s">
-        <v>181</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>189</v>
+      <c r="F76" t="s">
+        <v>476</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>477</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
@@ -5368,8 +5393,8 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>61</v>
+      <c r="A77" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
@@ -5381,16 +5406,16 @@
         <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G77" t="s">
-        <v>63</v>
+        <v>181</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="H77" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -5399,7 +5424,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
@@ -5414,13 +5439,13 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -5429,7 +5454,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>620</v>
       </c>
       <c r="B79" t="s">
         <v>138</v>
@@ -5444,13 +5469,13 @@
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -5459,7 +5484,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
         <v>138</v>
@@ -5474,13 +5499,13 @@
         <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -5489,7 +5514,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
@@ -5498,19 +5523,19 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>113</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>380</v>
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s">
+        <v>65</v>
       </c>
       <c r="H81" t="s">
-        <v>382</v>
+        <v>67</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
@@ -5519,7 +5544,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
@@ -5530,17 +5555,17 @@
       <c r="D82" t="s">
         <v>372</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F82" t="s">
-        <v>369</v>
-      </c>
-      <c r="G82" t="s">
-        <v>370</v>
+      <c r="E82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="H82" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -5549,7 +5574,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s">
         <v>138</v>
@@ -5558,19 +5583,19 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83" t="s">
-        <v>181</v>
+        <v>372</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="F83" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="G83" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="H83" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -5578,8 +5603,8 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="16" t="s">
-        <v>133</v>
+      <c r="A84" t="s">
+        <v>435</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
@@ -5588,19 +5613,19 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>288</v>
+        <v>181</v>
+      </c>
+      <c r="F84" t="s">
+        <v>433</v>
+      </c>
+      <c r="G84" t="s">
+        <v>434</v>
       </c>
       <c r="H84" t="s">
-        <v>151</v>
+        <v>436</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -5609,7 +5634,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
@@ -5624,13 +5649,13 @@
         <v>15</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -5639,7 +5664,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="16" t="s">
-        <v>134</v>
+        <v>621</v>
       </c>
       <c r="B86" t="s">
         <v>138</v>
@@ -5654,13 +5679,13 @@
         <v>15</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5669,7 +5694,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="16" t="s">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
         <v>138</v>
@@ -5684,13 +5709,13 @@
         <v>15</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -5698,8 +5723,8 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="4" t="s">
-        <v>275</v>
+      <c r="A88" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="B88" t="s">
         <v>138</v>
@@ -5710,15 +5735,17 @@
       <c r="D88" t="s">
         <v>284</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="5" t="s">
-        <v>143</v>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>148</v>
+        <v>285</v>
+      </c>
+      <c r="H88" t="s">
+        <v>153</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -5726,8 +5753,8 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>145</v>
+      <c r="A89" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="B89" t="s">
         <v>138</v>
@@ -5738,14 +5765,15 @@
       <c r="D89" t="s">
         <v>284</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89" t="s">
-        <v>146</v>
-      </c>
-      <c r="H89" t="s">
-        <v>147</v>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -5754,28 +5782,25 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" t="s">
-        <v>42</v>
+        <v>284</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="H90" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -5783,37 +5808,38 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="B91" s="20" t="s">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="H91" s="20"/>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
       <c r="I91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="20" t="s">
-        <v>473</v>
+        <v>605</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>41</v>
@@ -5825,25 +5851,24 @@
         <v>257</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>294</v>
+        <v>606</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>607</v>
       </c>
       <c r="H92" s="20"/>
-      <c r="I92" s="20">
-        <v>0</v>
-      </c>
-      <c r="J92" s="20" t="s">
-        <v>620</v>
-      </c>
+      <c r="I92" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="20" t="s">
-        <v>594</v>
+        <v>473</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>41</v>
@@ -5855,25 +5880,25 @@
         <v>257</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>596</v>
+        <v>581</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="H93" s="20"/>
       <c r="I93" s="20">
         <v>0</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="20" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>41</v>
@@ -5885,25 +5910,25 @@
         <v>257</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="H94" s="20"/>
       <c r="I94" s="20">
         <v>0</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="20" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>41</v>
@@ -5915,25 +5940,25 @@
         <v>257</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>588</v>
       </c>
       <c r="H95" s="20"/>
       <c r="I95" s="20">
         <v>0</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="20" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>41</v>
@@ -5945,25 +5970,25 @@
         <v>257</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>592</v>
+        <v>584</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="H96" s="20"/>
       <c r="I96" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="20" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>41</v>
@@ -5975,87 +6000,85 @@
         <v>257</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="H97" s="20"/>
       <c r="I97" s="20">
         <v>1</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" t="s">
+      <c r="A98" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20">
+        <v>1</v>
+      </c>
+      <c r="J98" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>511</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>41</v>
       </c>
-      <c r="C98" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H99" t="s">
         <v>262</v>
       </c>
-      <c r="I98" t="e">
+      <c r="I99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>271</v>
-      </c>
-      <c r="B99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" t="s">
-        <v>244</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H99" t="s">
-        <v>272</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>618</v>
-      </c>
-    </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>512</v>
+        <v>271</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -6067,25 +6090,27 @@
         <v>244</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H100" t="s">
-        <v>264</v>
-      </c>
-      <c r="I100" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>272</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -6094,19 +6119,19 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="I101" t="e">
         <f>NA()</f>
@@ -6115,7 +6140,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -6124,19 +6149,19 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
-      </c>
-      <c r="E102" t="s">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G102" t="s">
-        <v>195</v>
+        <v>251</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="H102" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="I102" t="e">
         <f>NA()</f>
@@ -6145,7 +6170,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -6154,30 +6179,28 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
         <v>200</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H103" t="s">
-        <v>205</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" t="s">
-        <v>619</v>
+        <v>204</v>
+      </c>
+      <c r="I103" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>502</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -6189,25 +6212,27 @@
         <v>279</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>504</v>
+        <v>203</v>
       </c>
       <c r="G104" t="s">
-        <v>506</v>
+        <v>196</v>
       </c>
       <c r="H104" t="s">
-        <v>508</v>
-      </c>
-      <c r="I104" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>205</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -6222,13 +6247,13 @@
         <v>197</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G105" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
@@ -6237,7 +6262,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -6246,27 +6271,28 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>523</v>
+        <v>505</v>
+      </c>
+      <c r="G106" t="s">
+        <v>507</v>
       </c>
       <c r="H106" t="s">
-        <v>524</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>525</v>
+        <v>509</v>
+      </c>
+      <c r="I106" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>522</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -6280,25 +6306,22 @@
       <c r="E107" t="s">
         <v>163</v>
       </c>
-      <c r="F107" t="s">
-        <v>90</v>
-      </c>
-      <c r="G107" t="s">
-        <v>96</v>
+      <c r="F107" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="H107" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -6313,24 +6336,24 @@
         <v>163</v>
       </c>
       <c r="F108" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H108" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>483</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -6342,27 +6365,27 @@
         <v>95</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="F109" t="s">
-        <v>490</v>
+        <v>72</v>
       </c>
       <c r="G109" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H109" t="s">
-        <v>491</v>
+        <v>74</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -6377,78 +6400,80 @@
         <v>15</v>
       </c>
       <c r="F110" t="s">
+        <v>490</v>
+      </c>
+      <c r="G110" t="s">
+        <v>98</v>
+      </c>
+      <c r="H110" t="s">
+        <v>491</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
         <v>492</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G111" t="s">
         <v>77</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H111" t="s">
         <v>493</v>
       </c>
-      <c r="I110" t="e">
+      <c r="I111" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="16" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B112" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C112" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="D112" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E112" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F112" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16" t="e">
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G112" t="s">
-        <v>186</v>
-      </c>
-      <c r="H112" t="s">
-        <v>182</v>
-      </c>
-      <c r="I112" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -6459,17 +6484,17 @@
       <c r="D113" t="s">
         <v>95</v>
       </c>
-      <c r="E113" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" t="s">
-        <v>54</v>
+      <c r="E113" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="H113" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="I113" t="e">
         <f>NA()</f>
@@ -6478,7 +6503,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>53</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -6487,13 +6512,19 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
       <c r="E114" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>54</v>
       </c>
       <c r="G114" t="s">
-        <v>437</v>
+        <v>55</v>
+      </c>
+      <c r="H114" t="s">
+        <v>56</v>
       </c>
       <c r="I114" t="e">
         <f>NA()</f>
@@ -6502,7 +6533,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -6515,6 +6546,9 @@
       </c>
       <c r="E115" t="s">
         <v>113</v>
+      </c>
+      <c r="G115" t="s">
+        <v>437</v>
       </c>
       <c r="I115" t="e">
         <f>NA()</f>
@@ -6523,7 +6557,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B116" t="s">
         <v>41</v>
@@ -6544,7 +6578,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -6565,7 +6599,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
@@ -6586,7 +6620,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -6607,7 +6641,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B120" t="s">
         <v>41</v>
@@ -6628,7 +6662,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B121" t="s">
         <v>41</v>
@@ -6649,7 +6683,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
@@ -6670,7 +6704,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
@@ -6691,7 +6725,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -6704,15 +6738,6 @@
       </c>
       <c r="E124" t="s">
         <v>113</v>
-      </c>
-      <c r="F124" t="s">
-        <v>426</v>
-      </c>
-      <c r="G124" t="s">
-        <v>427</v>
-      </c>
-      <c r="H124" t="s">
-        <v>428</v>
       </c>
       <c r="I124" t="e">
         <f>NA()</f>
@@ -6721,7 +6746,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s">
         <v>41</v>
@@ -6730,30 +6755,28 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="F125" t="s">
+        <v>426</v>
       </c>
       <c r="G125" t="s">
-        <v>92</v>
+        <v>427</v>
       </c>
       <c r="H125" t="s">
-        <v>94</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125" s="13" t="s">
-        <v>517</v>
+        <v>428</v>
+      </c>
+      <c r="I125" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
@@ -6764,17 +6787,17 @@
       <c r="D126" t="s">
         <v>266</v>
       </c>
-      <c r="E126" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>300</v>
+      <c r="E126" t="s">
+        <v>163</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G126" t="s">
+        <v>92</v>
       </c>
       <c r="H126" t="s">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -6785,7 +6808,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -6796,17 +6819,17 @@
       <c r="D127" t="s">
         <v>266</v>
       </c>
-      <c r="E127" t="s">
-        <v>163</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G127" t="s">
-        <v>238</v>
+      <c r="E127" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="H127" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -6817,7 +6840,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>516</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -6826,30 +6849,30 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E128" t="s">
         <v>163</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="G128" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="H128" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128" t="s">
-        <v>519</v>
+      <c r="J128" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -6861,57 +6884,57 @@
         <v>125</v>
       </c>
       <c r="E129" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" t="s">
+        <v>101</v>
+      </c>
+      <c r="H129" t="s">
+        <v>102</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>127</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H130" t="s">
         <v>128</v>
       </c>
-      <c r="I129" t="e">
+      <c r="I130" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" t="s">
-        <v>125</v>
-      </c>
-      <c r="E130" t="s">
-        <v>163</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G130" t="s">
-        <v>140</v>
-      </c>
-      <c r="H130" t="s">
-        <v>150</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" t="s">
-        <v>518</v>
-      </c>
-    </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -6920,51 +6943,83 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
+        <v>125</v>
+      </c>
+      <c r="E131" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G131" t="s">
+        <v>140</v>
+      </c>
+      <c r="H131" t="s">
+        <v>150</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
         <v>126</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>113</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>116</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>28</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H132" t="s">
         <v>117</v>
       </c>
-      <c r="I131" t="e">
+      <c r="I132" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
-      <c r="A132" t="s">
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
         <v>109</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>41</v>
       </c>
-      <c r="C132" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
         <v>126</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>113</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>114</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G133" t="s">
         <v>115</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H133" t="s">
         <v>118</v>
       </c>
-      <c r="I132" t="e">
+      <c r="I133" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="12480" tabRatio="652" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="1520" windowWidth="24480" windowHeight="10560" tabRatio="652" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="711">
   <si>
     <t>name</t>
   </si>
@@ -322,9 +322,6 @@
     <t>facteur limitant du développement lié au stress hydrique</t>
   </si>
   <si>
-    <t>phenology</t>
-  </si>
-  <si>
     <t>ppfun</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>sCultivar</t>
   </si>
   <si>
-    <t>management</t>
-  </si>
-  <si>
     <t>crop names as present in the sheets of the crops.xls file</t>
   </si>
   <si>
@@ -634,9 +628,6 @@
     <t xml:space="preserve">Leaf area index </t>
   </si>
   <si>
-    <t>Index de surface foliaire</t>
-  </si>
-  <si>
     <t>m2 m-2 d-1</t>
   </si>
   <si>
@@ -835,9 +826,6 @@
     <t>Water stress factor for growth (dry matter production)</t>
   </si>
   <si>
-    <t>SoiWater</t>
-  </si>
-  <si>
     <t>Facteur de stress hydrique pour la croissance (production de matière sèche)</t>
   </si>
   <si>
@@ -889,9 +877,6 @@
     <t>LAI_Mainstem</t>
   </si>
   <si>
-    <t>vernalisation</t>
-  </si>
-  <si>
     <t>TP2VER</t>
   </si>
   <si>
@@ -1036,9 +1021,6 @@
     <t>sWater.10</t>
   </si>
   <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>mm (a verifier)</t>
   </si>
   <si>
@@ -1105,33 +1087,21 @@
     <t>teneur en eau de la couche de sol 10</t>
   </si>
   <si>
-    <t>ADRY(L)</t>
-  </si>
-  <si>
     <t>SoilParameter</t>
   </si>
   <si>
     <t>eau résiduelle du sol sec couche 10</t>
   </si>
   <si>
-    <t>CLL(L)</t>
-  </si>
-  <si>
     <t>point de flétrissement permanent couche 10</t>
   </si>
   <si>
-    <t>DUL(L)</t>
-  </si>
-  <si>
     <t>capacité au champ couche 10</t>
   </si>
   <si>
     <t>cm.cm-1</t>
   </si>
   <si>
-    <t>SAT(L)</t>
-  </si>
-  <si>
     <t>saturation couche 10</t>
   </si>
   <si>
@@ -1141,9 +1111,6 @@
     <t>épaisseur de la couche de sol 1</t>
   </si>
   <si>
-    <t>DLYER(L)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potential daily increase (growth) in root depth </t>
   </si>
   <si>
@@ -1195,9 +1162,6 @@
     <t>Curve number  describing the soil infiltration capacity</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>parametre de capacité d'infiltration du sol</t>
   </si>
   <si>
@@ -1300,18 +1264,9 @@
     <t>pSoilWettingWaterQuantity</t>
   </si>
   <si>
-    <t>sDaysSinceSoilWettingWater</t>
-  </si>
-  <si>
-    <t>days since the last sufficient water amount to wet the soil (to go from stage II soil evaporation to stage I soil evaporation</t>
-  </si>
-  <si>
     <t>DYSE</t>
   </si>
   <si>
-    <t>nombre de jours depuis la dernière arrivée d'eau suffisante pour mouiller le sol (passer de stade II à stade I pour l'évaporation)</t>
-  </si>
-  <si>
     <t>cSoilEvaporation</t>
   </si>
   <si>
@@ -1567,9 +1522,6 @@
     <t>décroissance du LAI à cause de la chaleur</t>
   </si>
   <si>
-    <t>cCoefWaterstressDryMatter</t>
-  </si>
-  <si>
     <t>cCoefTemperatureRUE</t>
   </si>
   <si>
@@ -1583,12 +1535,6 @@
   </si>
   <si>
     <t>cCoefWaterstressDevelopment</t>
-  </si>
-  <si>
-    <t>cCoefWaterstressLeaf</t>
-  </si>
-  <si>
-    <t>because computewaterstress functions not coded yet</t>
   </si>
   <si>
     <t>because it should be 0 when there is no vernalization</t>
@@ -1977,12 +1923,318 @@
   <si>
     <t>Nombre de jours biologiques depuis le semis</t>
   </si>
+  <si>
+    <t>pNLayer</t>
+  </si>
+  <si>
+    <t>pDrainLayer</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>NLYER</t>
+  </si>
+  <si>
+    <t>LDRAIN</t>
+  </si>
+  <si>
+    <t>paramètre du sol utilise dans le calcul de l’évaporation avec le module complet de Ritchie</t>
+  </si>
+  <si>
+    <t>soil parameter used for Ritchie calculation of evaporation</t>
+  </si>
+  <si>
+    <t>nombre de couches</t>
+  </si>
+  <si>
+    <t>number of layers</t>
+  </si>
+  <si>
+    <t>iniWL</t>
+  </si>
+  <si>
+    <t>initial water content of the layer</t>
+  </si>
+  <si>
+    <t>rCreateDay0</t>
+  </si>
+  <si>
+    <t>teneur en eau initiale</t>
+  </si>
+  <si>
+    <t>DRAINF</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>NORG</t>
+  </si>
+  <si>
+    <t>FMIN</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>pDrainedFraction</t>
+  </si>
+  <si>
+    <t>fraction of water in the saturation zone that can be drained each day</t>
+  </si>
+  <si>
+    <t>fraction de l'eau libre drainable chaque jour</t>
+  </si>
+  <si>
+    <t>Soil bulk density (g.cm-3)</t>
+  </si>
+  <si>
+    <t>g.cm-3</t>
+  </si>
+  <si>
+    <t>'ppm = mg.kg-1</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Fraction soil &gt;2mm</t>
+  </si>
+  <si>
+    <t>Organic N</t>
+  </si>
+  <si>
+    <t>Fraction Org N avail. for mineralization</t>
+  </si>
+  <si>
+    <t>pSoilBulkDensity</t>
+  </si>
+  <si>
+    <t>pOrganicN</t>
+  </si>
+  <si>
+    <t>PFractionMineralizableN</t>
+  </si>
+  <si>
+    <t>pStones</t>
+  </si>
+  <si>
+    <t>fraction de sol&gt;2mm (plus gros que sable grossier)</t>
+  </si>
+  <si>
+    <t>rNitrogen</t>
+  </si>
+  <si>
+    <t>pInitialNitrateConcentration</t>
+  </si>
+  <si>
+    <t>pInitialAmmoniumConcentration</t>
+  </si>
+  <si>
+    <t>densité apparente du sol</t>
+  </si>
+  <si>
+    <t>azote organique</t>
+  </si>
+  <si>
+    <t>fraction de l'azote organique qui est mnéralisable</t>
+  </si>
+  <si>
+    <t>teneur en nitrates initiale</t>
+  </si>
+  <si>
+    <t>teneur en ammoniaque initiale</t>
+  </si>
+  <si>
+    <t>DLYER</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>ADRY</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Indice de surface foliaire</t>
+  </si>
+  <si>
+    <t>sLAIforEvapotranspiration</t>
+  </si>
+  <si>
+    <t>ETLAI</t>
+  </si>
+  <si>
+    <t>Leaf area index used for computation of evapotranspiration</t>
+  </si>
+  <si>
+    <t>LAI utilisé pour le calcul de l'évapotranspiration</t>
+  </si>
+  <si>
+    <t>cIrrigationWater</t>
+  </si>
+  <si>
+    <t>rManagement</t>
+  </si>
+  <si>
+    <t>IRGW</t>
+  </si>
+  <si>
+    <t>irrigation</t>
+  </si>
+  <si>
+    <t>WSSG</t>
+  </si>
+  <si>
+    <t>pThresholdWaterStressGrowth</t>
+  </si>
+  <si>
+    <t>pThresholdWaterStressLeafArea</t>
+  </si>
+  <si>
+    <t>WSSL</t>
+  </si>
+  <si>
+    <t>WSSD</t>
+  </si>
+  <si>
+    <t>threshold FTSW when growth (and crop transpiration) starts to decline</t>
+  </si>
+  <si>
+    <t>threshold FTSW whenleaf area development starts to decline</t>
+  </si>
+  <si>
+    <t>seuil de FTSW en dessous duquel la croissance (et la transpiration) déclinent</t>
+  </si>
+  <si>
+    <t>seuil de FTSW en dessous duquel l'augmentation du LAI décline</t>
+  </si>
+  <si>
+    <t>sDaysSinceStage2evaporation</t>
+  </si>
+  <si>
+    <t>days since thebeginning of stage II soil evaporation</t>
+  </si>
+  <si>
+    <t>nombre de joursle début du stade II pour l'évaporation</t>
+  </si>
+  <si>
+    <t>rUpdatePhenology</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressGrowth</t>
+  </si>
+  <si>
+    <t>rUpdateStresses</t>
+  </si>
+  <si>
+    <t>cFTSWweightedByRoots</t>
+  </si>
+  <si>
+    <t>FTSW of the whole soil weighted by rooted length in each layer</t>
+  </si>
+  <si>
+    <t>FTSWRZ</t>
+  </si>
+  <si>
+    <t>FTSW de tout le sol, pondérée par la longueur racinée de chaque couche</t>
+  </si>
+  <si>
+    <t>pCoefWaterStressGrowthToDevelopment</t>
+  </si>
+  <si>
+    <t>coefficient to compute water stress for development from water stress for growth</t>
+  </si>
+  <si>
+    <t>coefficient pour passer du stress hydrique pour la croissance au stress hydrique pour le développement</t>
+  </si>
+  <si>
+    <t>cEfficientRootLength</t>
+  </si>
+  <si>
+    <t>AROOT</t>
+  </si>
+  <si>
+    <t>root length weighted by effect of water stress on transpiration</t>
+  </si>
+  <si>
+    <t>longueur de racines pondérée par effet du stress hydrique sur la transpiration</t>
+  </si>
+  <si>
+    <t>cCoefWaterstressLeafArea</t>
+  </si>
+  <si>
+    <t>cRunoff</t>
+  </si>
+  <si>
+    <t>cPET</t>
+  </si>
+  <si>
+    <t>cPotentialSoilEvaporation</t>
+  </si>
+  <si>
+    <t>cActualSoilEvaporation</t>
+  </si>
+  <si>
+    <t>cTranspiration</t>
+  </si>
+  <si>
+    <t>RUNOF</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>runoff</t>
+  </si>
+  <si>
+    <t>ETP</t>
+  </si>
+  <si>
+    <t>potential soil evaporation</t>
+  </si>
+  <si>
+    <t>actual soil evaporation</t>
+  </si>
+  <si>
+    <t>transpiration</t>
+  </si>
+  <si>
+    <t>évaporation réelle</t>
+  </si>
+  <si>
+    <t>évaporation potentielle</t>
+  </si>
+  <si>
+    <t>ruissellement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2044,6 +2296,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2086,7 +2343,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2450,8 +2707,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2484,8 +2829,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="451">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2667,6 +3014,50 @@
     <cellStyle name="Lien hypertexte" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -2848,6 +3239,50 @@
     <cellStyle name="Lien hypertexte visité" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3212,13 +3647,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3256,33 +3691,33 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="20" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20">
@@ -3292,25 +3727,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="20" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20">
@@ -3320,25 +3755,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20">
@@ -3348,25 +3783,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20">
@@ -3376,25 +3811,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20">
@@ -3404,25 +3839,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20">
@@ -3432,25 +3867,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20">
@@ -3460,25 +3895,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20">
@@ -3488,25 +3923,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
@@ -3516,223 +3951,235 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>199</v>
+        <v>658</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1">
-      <c r="A12" t="s">
-        <v>292</v>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14" t="s">
+        <v>659</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" t="s">
-        <v>228</v>
+        <v>435</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>468</v>
+      <c r="A14" t="s">
+        <v>444</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>495</v>
+      <c r="A15" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" t="s">
-        <v>496</v>
+        <v>192</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>497</v>
+        <v>454</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="H15" t="s">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>481</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" t="s">
-        <v>513</v>
+        <v>482</v>
+      </c>
+      <c r="H16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>679</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" t="s">
-        <v>513</v>
+        <v>470</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>471</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="G18" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="H18" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3740,112 +4187,112 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>486</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="I19" t="s">
+        <v>474</v>
+      </c>
+      <c r="J19" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G20" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>488</v>
+        <v>164</v>
       </c>
       <c r="I20" t="s">
-        <v>489</v>
-      </c>
-      <c r="J20" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>447</v>
       </c>
       <c r="B21" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
+        <v>679</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" t="s">
-        <v>513</v>
+        <v>449</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
         <v>181</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="H22" t="s">
-        <v>464</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3853,28 +4300,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>479</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3882,60 +4329,60 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3943,198 +4390,187 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>454</v>
-      </c>
-      <c r="F26" t="s">
-        <v>456</v>
-      </c>
-      <c r="H26" t="s">
-        <v>458</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="J26" s="14"/>
+        <v>168</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>451</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E27" t="s">
-        <v>454</v>
-      </c>
-      <c r="F27" t="s">
-        <v>455</v>
-      </c>
-      <c r="H27" t="s">
-        <v>457</v>
+        <v>169</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="I27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>421</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>450</v>
+        <v>437</v>
+      </c>
+      <c r="B28" t="s">
+        <v>435</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="F28" t="s">
-        <v>422</v>
-      </c>
-      <c r="G28" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="H28" t="s">
-        <v>424</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10">
+        <v>443</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="F29" t="s">
-        <v>412</v>
-      </c>
-      <c r="G29" t="s">
-        <v>411</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="G29"/>
       <c r="H29" t="s">
-        <v>414</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="I29" t="s">
+        <v>467</v>
+      </c>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>445</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="F30" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="G30" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="H30" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>332</v>
-      </c>
-      <c r="B31" t="s">
-        <v>450</v>
+        <v>676</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>677</v>
       </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="H31" t="s">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F32" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H32" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I32">
         <v>0.5</v>
@@ -4142,28 +4578,28 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H33" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I33">
         <v>0.5</v>
@@ -4171,28 +4607,28 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H34" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I34">
         <v>0.5</v>
@@ -4200,28 +4636,28 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E35" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" t="s">
         <v>339</v>
       </c>
-      <c r="G35" t="s">
-        <v>345</v>
-      </c>
       <c r="H35" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I35">
         <v>0.5</v>
@@ -4229,28 +4665,28 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>373</v>
+      </c>
+      <c r="E36" t="s">
         <v>328</v>
       </c>
-      <c r="B36" t="s">
-        <v>450</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>333</v>
-      </c>
-      <c r="E36" t="s">
-        <v>334</v>
-      </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -4258,28 +4694,28 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" t="s">
+        <v>373</v>
+      </c>
+      <c r="E37" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" t="s">
         <v>333</v>
       </c>
-      <c r="E37" t="s">
-        <v>334</v>
-      </c>
-      <c r="F37" t="s">
-        <v>341</v>
-      </c>
       <c r="G37" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H37" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="I37">
         <v>0.5</v>
@@ -4287,28 +4723,28 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" t="s">
         <v>334</v>
       </c>
-      <c r="F38" t="s">
-        <v>342</v>
-      </c>
       <c r="G38" t="s">
+        <v>339</v>
+      </c>
+      <c r="H38" t="s">
         <v>345</v>
-      </c>
-      <c r="H38" t="s">
-        <v>353</v>
       </c>
       <c r="I38">
         <v>0.5</v>
@@ -4316,28 +4752,28 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E39" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H39" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I39">
         <v>0.5</v>
@@ -4345,114 +4781,113 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>156</v>
+        <v>328</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="H40" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>337</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>339</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>435</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I43" t="e">
         <f>NA()</f>
@@ -4461,7 +4896,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -4470,19 +4905,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I44" t="e">
         <f>NA()</f>
@@ -4491,7 +4926,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -4500,19 +4935,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -4521,7 +4956,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -4530,19 +4965,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -4550,52 +4985,56 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="20" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -4603,25 +5042,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="20" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
@@ -4629,25 +5068,25 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="20" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -4655,25 +5094,25 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="20" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -4681,25 +5120,25 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="20" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -4707,25 +5146,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="20" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -4733,25 +5172,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -4759,25 +5198,25 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20" t="s">
-        <v>274</v>
+        <v>527</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -4785,25 +5224,25 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20" t="s">
-        <v>562</v>
+        <v>270</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -4811,22 +5250,22 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>306</v>
@@ -4837,84 +5276,80 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="20" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H59" t="s">
-        <v>269</v>
-      </c>
-      <c r="I59" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A59" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>258</v>
+      <c r="A60" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I60" t="e">
         <f>NA()</f>
@@ -4923,28 +5358,28 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>527</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>276</v>
+        <v>241</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>314</v>
+        <v>253</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="H61" t="s">
-        <v>535</v>
+        <v>256</v>
       </c>
       <c r="I61" t="e">
         <f>NA()</f>
@@ -4953,28 +5388,28 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>622</v>
+        <v>509</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>528</v>
+        <v>272</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -4983,28 +5418,28 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H63" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -5013,28 +5448,28 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H64" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
@@ -5043,28 +5478,28 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>604</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>283</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="H65" t="s">
-        <v>233</v>
+        <v>514</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
@@ -5073,28 +5508,28 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H66" t="s">
         <v>230</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="H66" t="s">
-        <v>234</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -5103,28 +5538,28 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>224</v>
+        <v>450</v>
+      </c>
+      <c r="H67" t="s">
+        <v>231</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -5133,28 +5568,28 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H68" t="s">
-        <v>249</v>
+        <v>446</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -5163,10 +5598,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -5174,164 +5609,164 @@
       <c r="D69" t="s">
         <v>279</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>466</v>
+      <c r="E69" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J69" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" t="s">
-        <v>15</v>
+        <v>275</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>467</v>
+        <v>215</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>451</v>
       </c>
       <c r="H70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J70" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>318</v>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="H71" t="s">
+        <v>217</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J71" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J72" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
       </c>
-      <c r="D73" t="s">
-        <v>279</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>210</v>
+      <c r="D73" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H73" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J73" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" t="s">
         <v>212</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H74" t="s">
-        <v>216</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
@@ -5339,29 +5774,29 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="6" t="s">
-        <v>480</v>
+      <c r="A75" t="s">
+        <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" t="s">
-        <v>180</v>
+        <v>275</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G75" t="s">
-        <v>190</v>
+        <v>209</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="H75" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -5369,23 +5804,29 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>478</v>
+      <c r="A76" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" t="s">
-        <v>476</v>
+        <v>679</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" t="s">
+        <v>188</v>
       </c>
       <c r="H76" t="s">
-        <v>477</v>
+        <v>183</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
@@ -5393,29 +5834,23 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="6" t="s">
-        <v>179</v>
+      <c r="A77" t="s">
+        <v>463</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" t="s">
-        <v>181</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>189</v>
+        <v>679</v>
+      </c>
+      <c r="F77" t="s">
+        <v>461</v>
       </c>
       <c r="H77" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -5423,29 +5858,29 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>61</v>
+      <c r="A78" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" t="s">
-        <v>63</v>
+        <v>179</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -5454,28 +5889,28 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>620</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -5487,13 +5922,13 @@
         <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -5514,16 +5949,16 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -5544,28 +5979,28 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>602</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>372</v>
+        <v>679</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>380</v>
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s">
+        <v>66</v>
       </c>
       <c r="H82" t="s">
-        <v>382</v>
+        <v>70</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -5574,28 +6009,28 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83" t="s">
         <v>371</v>
-      </c>
-      <c r="B83" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" t="s">
-        <v>372</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F83" t="s">
-        <v>369</v>
-      </c>
-      <c r="G83" t="s">
-        <v>370</v>
-      </c>
-      <c r="H83" t="s">
-        <v>374</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -5604,28 +6039,28 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>384</v>
-      </c>
-      <c r="E84" t="s">
-        <v>181</v>
+        <v>361</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="F84" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="G84" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="H84" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -5633,29 +6068,29 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="16" t="s">
-        <v>133</v>
+      <c r="A85" t="s">
+        <v>686</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>284</v>
-      </c>
-      <c r="E85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>288</v>
+        <v>681</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" t="s">
+        <v>687</v>
+      </c>
+      <c r="G85" t="s">
+        <v>671</v>
       </c>
       <c r="H85" t="s">
-        <v>151</v>
+        <v>688</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -5663,29 +6098,29 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="16" t="s">
-        <v>621</v>
+      <c r="A86" t="s">
+        <v>668</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>284</v>
-      </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>286</v>
+        <v>681</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" t="s">
+        <v>672</v>
+      </c>
+      <c r="G86" t="s">
+        <v>667</v>
       </c>
       <c r="H86" t="s">
-        <v>149</v>
+        <v>674</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -5693,29 +6128,29 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="16" t="s">
-        <v>134</v>
+      <c r="A87" t="s">
+        <v>669</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
-      </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>289</v>
+        <v>681</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F87" t="s">
+        <v>673</v>
+      </c>
+      <c r="G87" t="s">
+        <v>670</v>
       </c>
       <c r="H87" t="s">
-        <v>152</v>
+        <v>675</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -5723,29 +6158,29 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="16" t="s">
-        <v>448</v>
+      <c r="A88" t="s">
+        <v>420</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>285</v>
+        <v>179</v>
+      </c>
+      <c r="F88" t="s">
+        <v>418</v>
+      </c>
+      <c r="G88" t="s">
+        <v>419</v>
       </c>
       <c r="H88" t="s">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -5753,27 +6188,29 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="4" t="s">
-        <v>275</v>
+      <c r="A89" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>284</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="5" t="s">
-        <v>143</v>
+        <v>679</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>148</v>
+        <v>283</v>
+      </c>
+      <c r="H89" t="s">
+        <v>150</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -5781,26 +6218,29 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" t="s">
-        <v>145</v>
+      <c r="A90" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90" t="s">
+        <v>679</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" t="s">
-        <v>146</v>
-      </c>
       <c r="H90" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -5808,29 +6248,29 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>35</v>
+      <c r="A91" s="16" t="s">
+        <v>433</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>679</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
@@ -5838,127 +6278,123 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="H92" s="20"/>
+      <c r="A92" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>679</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H92" t="s">
+        <v>148</v>
+      </c>
       <c r="I92" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="B93" s="20" t="s">
+      <c r="A93" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>679</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I93" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G94" t="s">
+        <v>145</v>
+      </c>
+      <c r="H94" t="s">
+        <v>146</v>
+      </c>
+      <c r="I94" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20">
-        <v>0</v>
-      </c>
-      <c r="J93" s="20" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20">
-        <v>0</v>
-      </c>
-      <c r="J94" s="20" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20">
-        <v>0</v>
-      </c>
-      <c r="J95" s="20" t="s">
-        <v>589</v>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="20" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>41</v>
@@ -5967,28 +6403,27 @@
         <v>26</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>589</v>
       </c>
       <c r="H96" s="20"/>
-      <c r="I96" s="20">
-        <v>0</v>
-      </c>
-      <c r="J96" s="20" t="s">
-        <v>582</v>
-      </c>
+      <c r="I96" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="20" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>41</v>
@@ -5997,28 +6432,28 @@
         <v>26</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="H97" s="20"/>
       <c r="I97" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="20" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>41</v>
@@ -6027,150 +6462,148 @@
         <v>26</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="20">
+        <v>0</v>
+      </c>
+      <c r="J98" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20">
+        <v>0</v>
+      </c>
+      <c r="J99" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20">
         <v>1</v>
       </c>
-      <c r="J98" s="20" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>511</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="J100" s="20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" t="s">
-        <v>244</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H99" t="s">
-        <v>262</v>
-      </c>
-      <c r="I99" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" t="s">
-        <v>271</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C101" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20">
+        <v>1</v>
+      </c>
+      <c r="J101" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H100" t="s">
-        <v>272</v>
-      </c>
-      <c r="I100">
+      <c r="C102" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>512</v>
-      </c>
-      <c r="B101" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101" t="s">
-        <v>244</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H101" t="s">
-        <v>264</v>
-      </c>
-      <c r="I101" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>250</v>
-      </c>
-      <c r="B102" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H102" t="s">
-        <v>253</v>
-      </c>
-      <c r="I102" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="J102" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>495</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
@@ -6179,19 +6612,19 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
-      </c>
-      <c r="E103" t="s">
-        <v>200</v>
+        <v>241</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G103" t="s">
-        <v>195</v>
+        <v>258</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="H103" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="I103" t="e">
         <f>NA()</f>
@@ -6200,7 +6633,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -6209,30 +6642,30 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
-      </c>
-      <c r="E104" t="s">
-        <v>200</v>
+        <v>241</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G104" t="s">
-        <v>196</v>
+        <v>266</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="H104" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -6241,19 +6674,19 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
-      </c>
-      <c r="E105" t="s">
-        <v>197</v>
+        <v>241</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G105" t="s">
-        <v>506</v>
+        <v>260</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="H105" t="s">
-        <v>508</v>
+        <v>261</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
@@ -6262,7 +6695,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>503</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -6271,19 +6704,19 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
-      </c>
-      <c r="E106" t="s">
-        <v>197</v>
+        <v>32</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G106" t="s">
-        <v>507</v>
+        <v>248</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="H106" t="s">
-        <v>509</v>
+        <v>250</v>
       </c>
       <c r="I106" t="e">
         <f>NA()</f>
@@ -6292,7 +6725,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>522</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -6301,27 +6734,28 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>523</v>
+        <v>198</v>
+      </c>
+      <c r="G107" t="s">
+        <v>193</v>
       </c>
       <c r="H107" t="s">
-        <v>524</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>525</v>
+        <v>201</v>
+      </c>
+      <c r="I107" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -6330,30 +6764,30 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
-      </c>
-      <c r="F108" t="s">
-        <v>90</v>
+        <v>197</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="G108" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="H108" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>487</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -6362,30 +6796,28 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>163</v>
-      </c>
-      <c r="F109" t="s">
-        <v>72</v>
+        <v>195</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="G109" t="s">
-        <v>73</v>
+        <v>491</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109" t="s">
-        <v>520</v>
+        <v>493</v>
+      </c>
+      <c r="I109" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -6394,30 +6826,28 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" t="s">
+        <v>195</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>490</v>
       </c>
       <c r="G110" t="s">
-        <v>98</v>
+        <v>492</v>
       </c>
       <c r="H110" t="s">
-        <v>491</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="J110" t="s">
-        <v>526</v>
+        <v>494</v>
+      </c>
+      <c r="I110" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>504</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -6426,54 +6856,59 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
+        <v>679</v>
+      </c>
+      <c r="E111" t="s">
+        <v>162</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H111" t="s">
+        <v>506</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>679</v>
+      </c>
+      <c r="E112" t="s">
+        <v>162</v>
+      </c>
+      <c r="F112" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" t="s">
         <v>95</v>
       </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" t="s">
-        <v>492</v>
-      </c>
-      <c r="G111" t="s">
-        <v>77</v>
-      </c>
-      <c r="H111" t="s">
-        <v>493</v>
-      </c>
-      <c r="I111" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F112" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="H112" t="s">
+        <v>96</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -6482,28 +6917,30 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>95</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>187</v>
+        <v>679</v>
+      </c>
+      <c r="E113" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" t="s">
+        <v>72</v>
       </c>
       <c r="G113" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>182</v>
-      </c>
-      <c r="I113" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>74</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>468</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -6512,28 +6949,30 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="G114" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H114" t="s">
-        <v>56</v>
-      </c>
-      <c r="I114" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>476</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -6542,13 +6981,19 @@
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>384</v>
+        <v>679</v>
       </c>
       <c r="E115" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>477</v>
       </c>
       <c r="G115" t="s">
-        <v>437</v>
+        <v>77</v>
+      </c>
+      <c r="H115" t="s">
+        <v>478</v>
       </c>
       <c r="I115" t="e">
         <f>NA()</f>
@@ -6556,29 +7001,34 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" t="s">
-        <v>447</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="A116" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C116" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" t="s">
-        <v>384</v>
-      </c>
-      <c r="E116" t="s">
-        <v>113</v>
-      </c>
-      <c r="I116" t="e">
+      <c r="C116" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>439</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -6587,10 +7037,19 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>384</v>
-      </c>
-      <c r="E117" t="s">
-        <v>113</v>
+        <v>679</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G117" t="s">
+        <v>184</v>
+      </c>
+      <c r="H117" t="s">
+        <v>180</v>
       </c>
       <c r="I117" t="e">
         <f>NA()</f>
@@ -6599,7 +7058,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>440</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
@@ -6608,10 +7067,19 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>384</v>
+        <v>679</v>
       </c>
       <c r="E118" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" t="s">
+        <v>56</v>
       </c>
       <c r="I118" t="e">
         <f>NA()</f>
@@ -6620,7 +7088,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>441</v>
+        <v>663</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -6629,19 +7097,27 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>384</v>
+        <v>664</v>
       </c>
       <c r="E119" t="s">
-        <v>113</v>
-      </c>
-      <c r="I119" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>112</v>
+      </c>
+      <c r="F119" t="s">
+        <v>666</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="H119" t="s">
+        <v>666</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B120" t="s">
         <v>41</v>
@@ -6650,10 +7126,13 @@
         <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="G120" t="s">
+        <v>422</v>
       </c>
       <c r="I120" t="e">
         <f>NA()</f>
@@ -6662,7 +7141,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B121" t="s">
         <v>41</v>
@@ -6671,10 +7150,10 @@
         <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I121" t="e">
         <f>NA()</f>
@@ -6683,7 +7162,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
@@ -6692,10 +7171,10 @@
         <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I122" t="e">
         <f>NA()</f>
@@ -6704,7 +7183,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
@@ -6713,10 +7192,10 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I123" t="e">
         <f>NA()</f>
@@ -6725,7 +7204,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -6734,10 +7213,10 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I124" t="e">
         <f>NA()</f>
@@ -6746,7 +7225,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B125" t="s">
         <v>41</v>
@@ -6755,19 +7234,10 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E125" t="s">
-        <v>113</v>
-      </c>
-      <c r="F125" t="s">
-        <v>426</v>
-      </c>
-      <c r="G125" t="s">
-        <v>427</v>
-      </c>
-      <c r="H125" t="s">
-        <v>428</v>
+        <v>112</v>
       </c>
       <c r="I125" t="e">
         <f>NA()</f>
@@ -6776,7 +7246,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
@@ -6785,30 +7255,19 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="E126" t="s">
-        <v>163</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G126" t="s">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s">
-        <v>94</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" s="13" t="s">
-        <v>517</v>
+        <v>112</v>
+      </c>
+      <c r="I126" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>510</v>
+        <v>429</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -6817,30 +7276,19 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>266</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H127" t="s">
-        <v>267</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" s="13" t="s">
-        <v>517</v>
+        <v>373</v>
+      </c>
+      <c r="E127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I127" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>516</v>
+        <v>430</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -6849,30 +7297,19 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="E128" t="s">
-        <v>163</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G128" t="s">
-        <v>238</v>
-      </c>
-      <c r="H128" t="s">
-        <v>240</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128" s="13" t="s">
-        <v>517</v>
+        <v>112</v>
+      </c>
+      <c r="I128" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -6881,30 +7318,19 @@
         <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>373</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G129" t="s">
-        <v>101</v>
-      </c>
-      <c r="H129" t="s">
-        <v>102</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129" t="s">
-        <v>519</v>
+        <v>112</v>
+      </c>
+      <c r="I129" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
@@ -6913,19 +7339,19 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>373</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="F130" t="s">
+        <v>411</v>
       </c>
       <c r="G130" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="H130" t="s">
-        <v>128</v>
+        <v>413</v>
       </c>
       <c r="I130" t="e">
         <f>NA()</f>
@@ -6934,7 +7360,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>682</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -6943,30 +7369,28 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>681</v>
       </c>
       <c r="E131" t="s">
-        <v>163</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
+      </c>
+      <c r="F131" t="s">
+        <v>683</v>
       </c>
       <c r="G131" t="s">
-        <v>140</v>
+        <v>684</v>
       </c>
       <c r="H131" t="s">
-        <v>150</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
-        <v>518</v>
+        <v>685</v>
+      </c>
+      <c r="I131" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>499</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -6975,28 +7399,29 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>681</v>
       </c>
       <c r="E132" t="s">
-        <v>113</v>
-      </c>
-      <c r="F132" t="s">
-        <v>116</v>
+        <v>162</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G132" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="H132" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I132" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>680</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
@@ -7005,30 +7430,381 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>126</v>
-      </c>
-      <c r="E133" t="s">
-        <v>113</v>
-      </c>
-      <c r="F133" t="s">
-        <v>114</v>
-      </c>
-      <c r="G133" t="s">
-        <v>115</v>
+        <v>681</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="H133" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="I133" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J133" s="13"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>693</v>
+      </c>
+      <c r="B134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>681</v>
+      </c>
+      <c r="E134" t="s">
+        <v>162</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G134" t="s">
+        <v>235</v>
+      </c>
+      <c r="H134" t="s">
+        <v>237</v>
+      </c>
+      <c r="I134" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" t="s">
+        <v>162</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" t="s">
+        <v>100</v>
+      </c>
+      <c r="H135" t="s">
+        <v>101</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>124</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G136" t="s">
+        <v>126</v>
+      </c>
+      <c r="H136" t="s">
+        <v>127</v>
+      </c>
+      <c r="I136" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>124</v>
+      </c>
+      <c r="E137" t="s">
+        <v>162</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" t="s">
+        <v>139</v>
+      </c>
+      <c r="H137" t="s">
+        <v>149</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>125</v>
+      </c>
+      <c r="E138" t="s">
+        <v>112</v>
+      </c>
+      <c r="F138" t="s">
+        <v>115</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" t="s">
+        <v>116</v>
+      </c>
+      <c r="I138" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>125</v>
+      </c>
+      <c r="E139" t="s">
+        <v>112</v>
+      </c>
+      <c r="F139" t="s">
+        <v>113</v>
+      </c>
+      <c r="G139" t="s">
+        <v>114</v>
+      </c>
+      <c r="H139" t="s">
+        <v>117</v>
+      </c>
+      <c r="I139" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>689</v>
+      </c>
+      <c r="B140" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>681</v>
+      </c>
+      <c r="E140" t="s">
+        <v>112</v>
+      </c>
+      <c r="F140" t="s">
+        <v>691</v>
+      </c>
+      <c r="G140" t="s">
+        <v>690</v>
+      </c>
+      <c r="H140" t="s">
+        <v>692</v>
+      </c>
+      <c r="I140" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>694</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>373</v>
+      </c>
+      <c r="F141" t="s">
+        <v>703</v>
+      </c>
+      <c r="G141" t="s">
+        <v>699</v>
+      </c>
+      <c r="H141" t="s">
+        <v>710</v>
+      </c>
+      <c r="I141" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>695</v>
+      </c>
+      <c r="B142" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" t="s">
+        <v>700</v>
+      </c>
+      <c r="G142" t="s">
+        <v>700</v>
+      </c>
+      <c r="H142" t="s">
+        <v>704</v>
+      </c>
+      <c r="I142" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>696</v>
+      </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>373</v>
+      </c>
+      <c r="F143" t="s">
+        <v>705</v>
+      </c>
+      <c r="G143" t="s">
+        <v>701</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="I143" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>697</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>373</v>
+      </c>
+      <c r="F144" t="s">
+        <v>706</v>
+      </c>
+      <c r="G144" t="s">
+        <v>412</v>
+      </c>
+      <c r="H144" t="s">
+        <v>708</v>
+      </c>
+      <c r="I144" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>698</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>373</v>
+      </c>
+      <c r="F145" t="s">
+        <v>707</v>
+      </c>
+      <c r="G145" t="s">
+        <v>702</v>
+      </c>
+      <c r="H145" t="s">
+        <v>707</v>
+      </c>
+      <c r="I145" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J132">
-    <sortCondition descending="1" ref="B2:B132"/>
-    <sortCondition ref="D2:D132"/>
-    <sortCondition ref="A2:A132"/>
+  <sortState ref="A2:J138">
+    <sortCondition descending="1" ref="B2:B138"/>
+    <sortCondition ref="D2:D138"/>
+    <sortCondition ref="A2:A138"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7043,10 +7819,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7080,212 +7856,471 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>656</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" t="s">
         <v>357</v>
-      </c>
-      <c r="C3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>653</v>
       </c>
       <c r="H4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>361</v>
+        <v>654</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F6" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G6" t="s">
-        <v>359</v>
+        <v>657</v>
       </c>
       <c r="H6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>356</v>
+        <v>655</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G8" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H8" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G9" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="H9" t="s">
-        <v>432</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" t="s">
+        <v>617</v>
+      </c>
+      <c r="G10" t="s">
+        <v>612</v>
+      </c>
+      <c r="H10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" t="s">
+        <v>615</v>
+      </c>
+      <c r="G12" t="s">
+        <v>611</v>
+      </c>
+      <c r="H12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>620</v>
+      </c>
+      <c r="E13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F13" t="s">
+        <v>619</v>
+      </c>
+      <c r="G13" t="s">
+        <v>618</v>
+      </c>
+      <c r="H13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" t="s">
+        <v>630</v>
+      </c>
+      <c r="G14" t="s">
+        <v>622</v>
+      </c>
+      <c r="H14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>644</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="G15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>639</v>
+      </c>
+      <c r="B16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>644</v>
+      </c>
+      <c r="E16" t="s">
+        <v>633</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="G16" t="s">
+        <v>624</v>
+      </c>
+      <c r="H16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>640</v>
+      </c>
+      <c r="B17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>644</v>
+      </c>
+      <c r="E17" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="G17" t="s">
+        <v>625</v>
+      </c>
+      <c r="H17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>641</v>
+      </c>
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>644</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="G18" t="s">
+        <v>626</v>
+      </c>
+      <c r="H18" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>645</v>
+      </c>
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>644</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="G19" t="s">
+        <v>627</v>
+      </c>
+      <c r="H19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>646</v>
+      </c>
+      <c r="B20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="G20" t="s">
+        <v>628</v>
+      </c>
+      <c r="H20" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -7358,32 +8393,32 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +8548,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -7524,7 +8559,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -7535,18 +8570,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -7590,7 +8625,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -7601,40 +8636,40 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -7645,29 +8680,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -7678,7 +8713,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -7689,90 +8724,90 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -7823,12 +8858,12 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -7837,19 +8872,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -7857,7 +8892,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -7866,16 +8901,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -7883,7 +8918,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -7892,16 +8927,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -7909,7 +8944,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -7918,16 +8953,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -7935,7 +8970,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -7947,7 +8982,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="715">
   <si>
     <t>name</t>
   </si>
@@ -2228,6 +2228,18 @@
   </si>
   <si>
     <t>ruissellement</t>
+  </si>
+  <si>
+    <t>cDrain</t>
+  </si>
+  <si>
+    <t>DRAIN</t>
+  </si>
+  <si>
+    <t>amount of water drained below the drain layer</t>
+  </si>
+  <si>
+    <t>drainage sortant</t>
   </si>
 </sst>
 </file>
@@ -3647,13 +3659,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="I145" sqref="I145:I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7678,6 +7690,9 @@
       <c r="D141" t="s">
         <v>373</v>
       </c>
+      <c r="E141" t="s">
+        <v>112</v>
+      </c>
       <c r="F141" t="s">
         <v>703</v>
       </c>
@@ -7705,6 +7720,9 @@
       <c r="D142" t="s">
         <v>373</v>
       </c>
+      <c r="E142" t="s">
+        <v>112</v>
+      </c>
       <c r="F142" t="s">
         <v>700</v>
       </c>
@@ -7732,6 +7750,9 @@
       <c r="D143" t="s">
         <v>373</v>
       </c>
+      <c r="E143" t="s">
+        <v>112</v>
+      </c>
       <c r="F143" t="s">
         <v>705</v>
       </c>
@@ -7759,6 +7780,9 @@
       <c r="D144" t="s">
         <v>373</v>
       </c>
+      <c r="E144" t="s">
+        <v>112</v>
+      </c>
       <c r="F144" t="s">
         <v>706</v>
       </c>
@@ -7786,6 +7810,9 @@
       <c r="D145" t="s">
         <v>373</v>
       </c>
+      <c r="E145" t="s">
+        <v>112</v>
+      </c>
       <c r="F145" t="s">
         <v>707</v>
       </c>
@@ -7796,6 +7823,36 @@
         <v>707</v>
       </c>
       <c r="I145" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>711</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" t="s">
+        <v>112</v>
+      </c>
+      <c r="F146" t="s">
+        <v>713</v>
+      </c>
+      <c r="G146" t="s">
+        <v>712</v>
+      </c>
+      <c r="H146" t="s">
+        <v>714</v>
+      </c>
+      <c r="I146" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1520" windowWidth="24480" windowHeight="10560" tabRatio="652" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2120" yWindow="560" windowWidth="24480" windowHeight="12100" tabRatio="652" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="719">
   <si>
     <t>name</t>
   </si>
@@ -409,12 +409,6 @@
     <t>cCrownTemp</t>
   </si>
   <si>
-    <t>vernalization</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
     <t>TMPCR</t>
   </si>
   <si>
@@ -760,9 +754,6 @@
     <t>g m-2 d-1</t>
   </si>
   <si>
-    <t>DMProduction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Specific leaf area </t>
   </si>
   <si>
@@ -799,9 +790,6 @@
     <t xml:space="preserve">Radiation use efficiency under optimal growth conditions </t>
   </si>
   <si>
-    <t>DMDistribution</t>
-  </si>
-  <si>
     <t>pRadEffiencyOptimal</t>
   </si>
   <si>
@@ -862,9 +850,6 @@
     <t>pTopt2RUE</t>
   </si>
   <si>
-    <t>LAI_Senescence</t>
-  </si>
-  <si>
     <t>pHeatFracLeafDestruction</t>
   </si>
   <si>
@@ -874,9 +859,6 @@
     <t>pPhyllochron</t>
   </si>
   <si>
-    <t>LAI_Mainstem</t>
-  </si>
-  <si>
     <t>TP2VER</t>
   </si>
   <si>
@@ -1435,12 +1417,6 @@
     <t>pCriticalPhotoPeriod</t>
   </si>
   <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
     <t>cDeltaBiologicalDay</t>
   </si>
   <si>
@@ -1459,9 +1435,6 @@
     <t>durée du stade en jours biologiques</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>biological days increment</t>
   </si>
   <si>
@@ -1526,9 +1499,6 @@
   </si>
   <si>
     <t>cRUE</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>pCoefPAR</t>
@@ -2089,9 +2059,6 @@
     <t>cIrrigationWater</t>
   </si>
   <si>
-    <t>rManagement</t>
-  </si>
-  <si>
     <t>IRGW</t>
   </si>
   <si>
@@ -2240,6 +2207,51 @@
   </si>
   <si>
     <t>drainage sortant</t>
+  </si>
+  <si>
+    <t>so that at the beginning there is no crop (harvest in the past)</t>
+  </si>
+  <si>
+    <t>so that at the beginning there is no crop (sowing in the future)</t>
+  </si>
+  <si>
+    <t>sCropCult</t>
+  </si>
+  <si>
+    <t>sManagement</t>
+  </si>
+  <si>
+    <t>crop.cultivar</t>
+  </si>
+  <si>
+    <t>espece.cultivar</t>
+  </si>
+  <si>
+    <t>management code</t>
+  </si>
+  <si>
+    <t>nom de code de l'ITK</t>
+  </si>
+  <si>
+    <t>rUpdateLAI</t>
+  </si>
+  <si>
+    <t>rWeatherDay</t>
+  </si>
+  <si>
+    <t>rUpdateDMDistribution</t>
+  </si>
+  <si>
+    <t>rUpdateDMProduction</t>
+  </si>
+  <si>
+    <t>rUpdateRootDepth</t>
+  </si>
+  <si>
+    <t>rUpdateWaterBudget</t>
+  </si>
+  <si>
+    <t>because when ther is no plant we don't want transpiration</t>
   </si>
 </sst>
 </file>
@@ -2355,8 +2367,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="451">
+  <cellStyleXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2844,7 +2864,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="451">
+  <cellStyles count="459">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3070,6 +3090,10 @@
     <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="457" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3295,6 +3319,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3659,20 +3687,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I145" sqref="I145:I146"/>
+      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" customWidth="1"/>
   </cols>
@@ -3703,61 +3731,65 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20">
+      <c r="A2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="20" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>557</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20">
@@ -3767,25 +3799,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="20" t="s">
-        <v>285</v>
+        <v>546</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>290</v>
+        <v>547</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20">
@@ -3795,25 +3827,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>553</v>
+        <v>284</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20">
@@ -3823,25 +3855,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
-        <v>554</v>
+        <v>280</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>269</v>
+        <v>542</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20">
@@ -3851,25 +3883,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
-        <v>590</v>
+        <v>544</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>593</v>
+        <v>265</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20">
@@ -3879,25 +3911,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20">
@@ -3907,25 +3939,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>179</v>
+        <v>714</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>540</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20">
@@ -3935,25 +3967,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>550</v>
+        <v>714</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
@@ -3962,87 +3994,86 @@
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="I11">
+      <c r="A11" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20">
         <v>0</v>
       </c>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14" t="s">
-        <v>659</v>
+      <c r="A12" t="s">
+        <v>471</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>662</v>
+        <v>712</v>
+      </c>
+      <c r="E12" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1">
-      <c r="A13" t="s">
-        <v>287</v>
+      <c r="A13" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H13" t="s">
-        <v>225</v>
+        <v>429</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4050,351 +4081,337 @@
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>444</v>
+      <c r="A14" s="14" t="s">
+        <v>649</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" t="s">
-        <v>234</v>
+        <v>429</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>453</v>
+      <c r="A15" t="s">
+        <v>281</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>192</v>
+      <c r="D15" s="14" t="s">
+        <v>712</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>454</v>
+        <v>221</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
-        <v>455</v>
+        <v>223</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>456</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" t="s">
-        <v>481</v>
+      <c r="D16" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>482</v>
+        <v>231</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>176</v>
+      <c r="A17" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>679</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
+      <c r="D17" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
+        <v>448</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
+      <c r="J17" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>605</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>679</v>
+        <v>432</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="G18" t="s">
-        <v>606</v>
-      </c>
-      <c r="H18" t="s">
-        <v>608</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="I18" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>706</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>679</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
+        <v>432</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="s">
+        <v>708</v>
       </c>
       <c r="H19" t="s">
-        <v>473</v>
-      </c>
-      <c r="I19" t="s">
-        <v>474</v>
-      </c>
-      <c r="J19" t="s">
-        <v>479</v>
+        <v>709</v>
+      </c>
+      <c r="I19" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>432</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" t="s">
-        <v>497</v>
+        <v>169</v>
+      </c>
+      <c r="I20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" t="s">
+        <v>433</v>
+      </c>
+      <c r="F21" t="s">
         <v>435</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>679</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="H21" t="s">
-        <v>449</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>437</v>
+      </c>
+      <c r="I21" s="19">
+        <v>-5</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>679</v>
+        <v>432</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
+        <v>433</v>
+      </c>
+      <c r="F22" t="s">
+        <v>434</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>436</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>707</v>
       </c>
       <c r="B23" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>679</v>
-      </c>
-      <c r="E23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" t="s">
-        <v>156</v>
+        <v>432</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" t="s">
+        <v>710</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>711</v>
+      </c>
+      <c r="I23" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>294</v>
+        <v>432</v>
+      </c>
+      <c r="E24" t="s">
+        <v>395</v>
+      </c>
+      <c r="F24" t="s">
+        <v>394</v>
+      </c>
+      <c r="G24" t="s">
+        <v>393</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>396</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>435</v>
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>429</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>361</v>
+        <v>668</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" t="s">
-        <v>366</v>
+        <v>97</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="G25" t="s">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4402,129 +4419,145 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>595</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>438</v>
+        <v>668</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26" t="s">
-        <v>497</v>
+        <v>597</v>
+      </c>
+      <c r="G26" t="s">
+        <v>596</v>
+      </c>
+      <c r="H26" t="s">
+        <v>598</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>461</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>438</v>
+        <v>668</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" t="s">
-        <v>497</v>
+        <v>464</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>465</v>
+      </c>
+      <c r="I27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>437</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>438</v>
+        <v>668</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
-      </c>
-      <c r="F28" t="s">
-        <v>441</v>
+        <v>161</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="H28" t="s">
-        <v>443</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="J28" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="I28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1">
       <c r="A29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E29" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" t="s">
-        <v>440</v>
+        <v>668</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>442</v>
-      </c>
-      <c r="I29" t="s">
-        <v>467</v>
+        <v>443</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>438</v>
+        <v>668</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
-      </c>
-      <c r="F30" t="s">
-        <v>400</v>
+        <v>118</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G30" t="s">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>402</v>
+        <v>179</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4532,28 +4565,28 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>676</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>435</v>
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>429</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>373</v>
+        <v>668</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" t="s">
-        <v>677</v>
+        <v>118</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="H31" t="s">
-        <v>678</v>
+        <v>155</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4561,86 +4594,86 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B32" t="s">
-        <v>435</v>
+        <v>359</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>716</v>
       </c>
       <c r="E32" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="H32" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" t="s">
-        <v>435</v>
+        <v>665</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>666</v>
       </c>
       <c r="G33" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="H33" t="s">
-        <v>349</v>
+        <v>667</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F34" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H34" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I34">
         <v>0.5</v>
@@ -4648,28 +4681,28 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E35" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G35" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I35">
         <v>0.5</v>
@@ -4677,28 +4710,28 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E36" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H36" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -4706,28 +4739,28 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E37" t="s">
         <v>322</v>
       </c>
-      <c r="B37" t="s">
-        <v>435</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>373</v>
-      </c>
-      <c r="E37" t="s">
-        <v>328</v>
-      </c>
       <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
         <v>333</v>
       </c>
-      <c r="G37" t="s">
-        <v>339</v>
-      </c>
       <c r="H37" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I37">
         <v>0.5</v>
@@ -4735,28 +4768,28 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G38" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H38" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I38">
         <v>0.5</v>
@@ -4764,28 +4797,28 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G39" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H39" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I39">
         <v>0.5</v>
@@ -4793,28 +4826,28 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E40" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" t="s">
         <v>328</v>
       </c>
-      <c r="F40" t="s">
-        <v>336</v>
-      </c>
       <c r="G40" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" t="s">
         <v>339</v>
-      </c>
-      <c r="H40" t="s">
-        <v>347</v>
       </c>
       <c r="I40">
         <v>0.5</v>
@@ -4822,28 +4855,28 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G41" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H41" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I41">
         <v>0.5</v>
@@ -4851,115 +4884,113 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>717</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>429</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>717</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>331</v>
+      </c>
+      <c r="G43" t="s">
+        <v>333</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>342</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>429</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>713</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I45" t="e">
         <f>NA()</f>
@@ -4968,7 +4999,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -4977,19 +5008,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>713</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I46" t="e">
         <f>NA()</f>
@@ -4998,7 +5029,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -5007,19 +5038,19 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>713</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" t="e">
         <f>NA()</f>
@@ -5027,78 +5058,86 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>713</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>713</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -5106,25 +5145,25 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="20" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -5132,25 +5171,25 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="20" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -5158,22 +5197,22 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="20" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>299</v>
@@ -5184,25 +5223,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -5210,25 +5249,25 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -5236,25 +5275,25 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20" t="s">
-        <v>270</v>
+        <v>515</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -5262,25 +5301,25 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -5288,25 +5327,25 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="20" t="s">
-        <v>529</v>
+        <v>266</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -5314,114 +5353,106 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="20" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>549</v>
+        <v>300</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H60" t="s">
-        <v>265</v>
-      </c>
-      <c r="I60" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A60" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H61" t="s">
-        <v>256</v>
-      </c>
-      <c r="I61" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A61" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>509</v>
+      <c r="A62" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>272</v>
+        <v>715</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>309</v>
+        <v>260</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="H62" t="s">
-        <v>517</v>
+        <v>261</v>
       </c>
       <c r="I62" t="e">
         <f>NA()</f>
@@ -5430,28 +5461,28 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>272</v>
+        <v>715</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>310</v>
+        <v>250</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="H63" t="s">
-        <v>515</v>
+        <v>252</v>
       </c>
       <c r="I63" t="e">
         <f>NA()</f>
@@ -5460,28 +5491,28 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>241</v>
+        <v>715</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H64" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I64" t="e">
         <f>NA()</f>
@@ -5490,28 +5521,28 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>604</v>
+        <v>269</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>715</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>510</v>
+        <v>268</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H65" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
@@ -5520,28 +5551,28 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>179</v>
+        <v>715</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>312</v>
+        <v>503</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="H66" t="s">
-        <v>230</v>
+        <v>506</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -5550,28 +5581,28 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>594</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>450</v>
+        <v>715</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="H67" t="s">
-        <v>231</v>
+        <v>504</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -5580,28 +5611,28 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>712</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>221</v>
+        <v>306</v>
+      </c>
+      <c r="H68" t="s">
+        <v>228</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -5610,28 +5641,28 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>712</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>243</v>
+        <v>444</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -5640,88 +5671,88 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J70" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J71" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>275</v>
+      <c r="D72" t="s">
+        <v>712</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -5730,55 +5761,55 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>275</v>
+      <c r="D73" t="s">
+        <v>712</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J73" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H74" t="s">
-        <v>212</v>
+        <v>440</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
@@ -5787,28 +5818,28 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="H75" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -5816,29 +5847,29 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="6" t="s">
-        <v>465</v>
+      <c r="A76" t="s">
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>679</v>
-      </c>
-      <c r="E76" t="s">
-        <v>178</v>
+        <v>712</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G76" t="s">
-        <v>188</v>
+        <v>205</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="H76" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
@@ -5847,22 +5878,28 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>463</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>679</v>
-      </c>
-      <c r="F77" t="s">
-        <v>461</v>
+        <v>712</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H77" t="s">
-        <v>462</v>
+        <v>211</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -5871,28 +5908,28 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="6" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G78" t="s">
+        <v>186</v>
       </c>
       <c r="H78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -5901,28 +5938,22 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>679</v>
-      </c>
-      <c r="E79" t="s">
-        <v>15</v>
+        <v>668</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" t="s">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="H79" t="s">
-        <v>69</v>
+        <v>456</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -5930,542 +5961,543 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>58</v>
+      <c r="A80" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s">
-        <v>64</v>
+        <v>177</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>434</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>602</v>
+    <row r="82" spans="1:9">
+      <c r="A82" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
       </c>
-      <c r="F82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s">
-        <v>66</v>
+      <c r="F82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>370</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>361</v>
+        <v>668</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>369</v>
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s">
+        <v>64</v>
       </c>
       <c r="H83" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>360</v>
+    <row r="84" spans="1:9">
+      <c r="A84" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>361</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F84" t="s">
-        <v>358</v>
-      </c>
-      <c r="G84" t="s">
-        <v>359</v>
+        <v>668</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="H84" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>686</v>
+        <v>428</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>681</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>179</v>
+        <v>668</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>687</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s">
-        <v>671</v>
+        <v>65</v>
       </c>
       <c r="H85" t="s">
-        <v>688</v>
+        <v>67</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
+    <row r="86" spans="1:9">
+      <c r="A86" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
         <v>668</v>
       </c>
-      <c r="B86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" t="s">
-        <v>681</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F86" t="s">
-        <v>672</v>
-      </c>
-      <c r="G86" t="s">
-        <v>667</v>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="H86" t="s">
-        <v>674</v>
+        <v>150</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>669</v>
+        <v>592</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>681</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>179</v>
+        <v>668</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>673</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s">
-        <v>670</v>
+        <v>66</v>
       </c>
       <c r="H87" t="s">
-        <v>675</v>
+        <v>70</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>420</v>
+    <row r="88" spans="1:9">
+      <c r="A88" s="16" t="s">
+        <v>593</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>373</v>
+        <v>668</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" t="s">
-        <v>418</v>
-      </c>
-      <c r="G88" t="s">
-        <v>419</v>
+        <v>15</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="H88" t="s">
-        <v>421</v>
+        <v>146</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="16" t="s">
-        <v>132</v>
+    <row r="89" spans="1:9">
+      <c r="A89" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>679</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5" t="s">
         <v>140</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H89" t="s">
-        <v>150</v>
+        <v>276</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="16" t="s">
-        <v>133</v>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>679</v>
-      </c>
-      <c r="E90" t="s">
-        <v>15</v>
+        <v>668</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>284</v>
+        <v>139</v>
+      </c>
+      <c r="G90" t="s">
+        <v>143</v>
       </c>
       <c r="H90" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="16" t="s">
-        <v>433</v>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>364</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>679</v>
+        <v>716</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>280</v>
+        <v>362</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="H91" t="s">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="16" t="s">
-        <v>603</v>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>354</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>679</v>
-      </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>281</v>
+        <v>716</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" t="s">
+        <v>352</v>
+      </c>
+      <c r="G92" t="s">
+        <v>353</v>
       </c>
       <c r="H92" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="4" t="s">
-        <v>271</v>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>675</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>679</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>147</v>
+        <v>670</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" t="s">
+        <v>676</v>
+      </c>
+      <c r="G93" t="s">
+        <v>660</v>
+      </c>
+      <c r="H93" t="s">
+        <v>677</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>657</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>679</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>141</v>
+        <v>670</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" t="s">
+        <v>661</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>656</v>
       </c>
       <c r="H94" t="s">
-        <v>146</v>
+        <v>663</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>658</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
-      </c>
-      <c r="E95" t="s">
-        <v>16</v>
+        <v>670</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>662</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="H95" t="s">
-        <v>42</v>
+        <v>664</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="H96" s="20"/>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>717</v>
+      </c>
+      <c r="E96" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" t="s">
+        <v>412</v>
+      </c>
+      <c r="G96" t="s">
+        <v>413</v>
+      </c>
+      <c r="H96" t="s">
+        <v>415</v>
+      </c>
       <c r="I96" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="B97" s="20" t="s">
+      <c r="A97" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20">
-        <v>0</v>
-      </c>
-      <c r="J97" s="20" t="s">
-        <v>571</v>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H97" t="s">
+        <v>247</v>
+      </c>
+      <c r="I97" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="20" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>41</v>
@@ -6474,24 +6506,23 @@
         <v>26</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H98" s="20"/>
-      <c r="I98" s="20">
-        <v>0</v>
-      </c>
-      <c r="J98" s="20" t="s">
-        <v>571</v>
-      </c>
+      <c r="I98" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J98" s="20"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="20" t="s">
@@ -6504,15 +6535,15 @@
         <v>26</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="F99" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="20" t="s">
         <v>567</v>
       </c>
       <c r="H99" s="20"/>
@@ -6520,12 +6551,12 @@
         <v>0</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="20" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>41</v>
@@ -6534,28 +6565,28 @@
         <v>26</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="H100" s="20"/>
       <c r="I100" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="20" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>41</v>
@@ -6564,28 +6595,28 @@
         <v>26</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>586</v>
+        <v>556</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="H101" s="20"/>
       <c r="I101" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="20" t="s">
-        <v>458</v>
+        <v>562</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>41</v>
@@ -6594,90 +6625,88 @@
         <v>26</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="F102" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="G102" s="20" t="s">
         <v>563</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="H102" s="20"/>
       <c r="I102" s="20">
+        <v>1</v>
+      </c>
+      <c r="J102" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20">
+        <v>1</v>
+      </c>
+      <c r="J103" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20">
         <v>0</v>
       </c>
-      <c r="J102" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" t="s">
-        <v>495</v>
-      </c>
-      <c r="B103" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" t="s">
-        <v>241</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H103" t="s">
-        <v>259</v>
-      </c>
-      <c r="I103" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>267</v>
-      </c>
-      <c r="B104" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" t="s">
-        <v>241</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H104" t="s">
-        <v>268</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>599</v>
+      <c r="J104" s="20" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
@@ -6686,19 +6715,19 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>241</v>
+        <v>715</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H105" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I105" t="e">
         <f>NA()</f>
@@ -6707,7 +6736,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
@@ -6716,28 +6745,30 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>715</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="H106" t="s">
-        <v>250</v>
-      </c>
-      <c r="I106" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>264</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
@@ -6746,19 +6777,19 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
-      </c>
-      <c r="E107" t="s">
-        <v>197</v>
+        <v>715</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G107" t="s">
-        <v>193</v>
+        <v>256</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H107" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="I107" t="e">
         <f>NA()</f>
@@ -6767,7 +6798,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
@@ -6776,30 +6807,30 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G108" t="s">
+        <v>192</v>
+      </c>
+      <c r="H108" t="s">
         <v>200</v>
-      </c>
-      <c r="G108" t="s">
-        <v>194</v>
-      </c>
-      <c r="H108" t="s">
-        <v>202</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -6808,19 +6839,19 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G109" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H109" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="I109" t="e">
         <f>NA()</f>
@@ -6829,7 +6860,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>488</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -6838,19 +6869,19 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>275</v>
+        <v>712</v>
       </c>
       <c r="E110" t="s">
         <v>195</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>490</v>
+        <v>196</v>
       </c>
       <c r="G110" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
       <c r="H110" t="s">
-        <v>494</v>
+        <v>199</v>
       </c>
       <c r="I110" t="e">
         <f>NA()</f>
@@ -6859,7 +6890,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -6868,27 +6899,28 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="E111" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>505</v>
+        <v>481</v>
+      </c>
+      <c r="G111" t="s">
+        <v>483</v>
       </c>
       <c r="H111" t="s">
-        <v>506</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111" t="s">
-        <v>507</v>
+        <v>485</v>
+      </c>
+      <c r="I111" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -6897,30 +6929,27 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>679</v>
+        <v>432</v>
       </c>
       <c r="E112" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="F112" t="s">
-        <v>90</v>
-      </c>
-      <c r="G112" t="s">
-        <v>95</v>
+        <v>655</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>654</v>
       </c>
       <c r="H112" t="s">
-        <v>96</v>
+        <v>655</v>
       </c>
       <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112" t="s">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -6929,30 +6958,27 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E113" t="s">
-        <v>162</v>
-      </c>
-      <c r="F113" t="s">
-        <v>72</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
+        <v>160</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="H113" t="s">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>468</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -6961,30 +6987,30 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F114" t="s">
-        <v>475</v>
+        <v>90</v>
       </c>
       <c r="G114" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H114" t="s">
-        <v>476</v>
+        <v>96</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -6993,54 +7019,62 @@
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F115" t="s">
-        <v>477</v>
+        <v>72</v>
       </c>
       <c r="G115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H115" t="s">
-        <v>478</v>
-      </c>
-      <c r="I115" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>74</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B116" s="16" t="s">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>668</v>
+      </c>
+      <c r="E116" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G116" t="s">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>101</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -7049,19 +7083,19 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>679</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>178</v>
+        <v>668</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="G117" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="H117" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="I117" t="e">
         <f>NA()</f>
@@ -7070,7 +7104,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
@@ -7079,28 +7113,30 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E118" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" t="s">
-        <v>54</v>
+        <v>160</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="G118" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="H118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I118" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>147</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>663</v>
+        <v>460</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -7109,27 +7145,30 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E119" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>666</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>665</v>
+        <v>466</v>
+      </c>
+      <c r="G119" t="s">
+        <v>97</v>
       </c>
       <c r="H119" t="s">
-        <v>666</v>
+        <v>467</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
         <v>41</v>
@@ -7138,13 +7177,19 @@
         <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>373</v>
+        <v>668</v>
       </c>
       <c r="E120" t="s">
-        <v>112</v>
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>468</v>
       </c>
       <c r="G120" t="s">
-        <v>422</v>
+        <v>77</v>
+      </c>
+      <c r="H120" t="s">
+        <v>469</v>
       </c>
       <c r="I120" t="e">
         <f>NA()</f>
@@ -7152,29 +7197,34 @@
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" t="s">
-        <v>432</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C121" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" t="s">
-        <v>373</v>
-      </c>
-      <c r="E121" t="s">
-        <v>112</v>
-      </c>
-      <c r="I121" t="e">
+      <c r="C121" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
@@ -7183,10 +7233,19 @@
         <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>373</v>
-      </c>
-      <c r="E122" t="s">
-        <v>112</v>
+        <v>668</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G122" t="s">
+        <v>182</v>
+      </c>
+      <c r="H122" t="s">
+        <v>178</v>
       </c>
       <c r="I122" t="e">
         <f>NA()</f>
@@ -7195,7 +7254,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>425</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
@@ -7204,10 +7263,19 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>373</v>
+        <v>668</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" t="s">
+        <v>55</v>
+      </c>
+      <c r="H123" t="s">
+        <v>56</v>
       </c>
       <c r="I123" t="e">
         <f>NA()</f>
@@ -7216,7 +7284,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -7225,19 +7293,29 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" t="s">
+        <v>92</v>
+      </c>
+      <c r="H124" t="s">
+        <v>94</v>
       </c>
       <c r="I124" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J124" s="13"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>669</v>
       </c>
       <c r="B125" t="s">
         <v>41</v>
@@ -7246,19 +7324,29 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125" t="s">
-        <v>112</v>
+        <v>670</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H125" t="s">
+        <v>259</v>
       </c>
       <c r="I125" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>428</v>
+        <v>682</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
@@ -7267,19 +7355,29 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" t="s">
+        <v>233</v>
+      </c>
+      <c r="H126" t="s">
+        <v>235</v>
       </c>
       <c r="I126" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>429</v>
+        <v>678</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -7288,10 +7386,19 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="E127" t="s">
         <v>112</v>
+      </c>
+      <c r="F127" t="s">
+        <v>680</v>
+      </c>
+      <c r="G127" t="s">
+        <v>679</v>
+      </c>
+      <c r="H127" t="s">
+        <v>681</v>
       </c>
       <c r="I127" t="e">
         <f>NA()</f>
@@ -7300,7 +7407,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>430</v>
+        <v>671</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -7309,19 +7416,28 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="F128" t="s">
+        <v>672</v>
+      </c>
+      <c r="G128" t="s">
+        <v>673</v>
+      </c>
+      <c r="H128" t="s">
+        <v>674</v>
       </c>
       <c r="I128" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>431</v>
+        <v>686</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -7330,19 +7446,28 @@
         <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E129" t="s">
         <v>112</v>
+      </c>
+      <c r="F129" t="s">
+        <v>695</v>
+      </c>
+      <c r="G129" t="s">
+        <v>406</v>
+      </c>
+      <c r="H129" t="s">
+        <v>697</v>
       </c>
       <c r="I129" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
@@ -7351,28 +7476,22 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E130" t="s">
         <v>112</v>
       </c>
-      <c r="F130" t="s">
-        <v>411</v>
-      </c>
       <c r="G130" t="s">
-        <v>412</v>
-      </c>
-      <c r="H130" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I130" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>682</v>
+        <v>426</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -7381,28 +7500,19 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
-      </c>
-      <c r="F131" t="s">
-        <v>683</v>
-      </c>
-      <c r="G131" t="s">
-        <v>684</v>
-      </c>
-      <c r="H131" t="s">
-        <v>685</v>
+        <v>112</v>
       </c>
       <c r="I131" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>499</v>
+        <v>418</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -7411,29 +7521,19 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G132" t="s">
-        <v>92</v>
-      </c>
-      <c r="H132" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I132" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J132" s="13"/>
-    </row>
-    <row r="133" spans="1:10">
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>680</v>
+        <v>419</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
@@ -7442,29 +7542,19 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>681</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H133" t="s">
-        <v>263</v>
+        <v>717</v>
+      </c>
+      <c r="E133" t="s">
+        <v>112</v>
       </c>
       <c r="I133" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J133" s="13"/>
-    </row>
-    <row r="134" spans="1:10">
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>693</v>
+        <v>420</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
@@ -7473,29 +7563,19 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G134" t="s">
-        <v>235</v>
-      </c>
-      <c r="H134" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="I134" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J134" s="13"/>
-    </row>
-    <row r="135" spans="1:10">
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>421</v>
       </c>
       <c r="B135" t="s">
         <v>41</v>
@@ -7504,30 +7584,19 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>124</v>
+        <v>717</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G135" t="s">
-        <v>100</v>
-      </c>
-      <c r="H135" t="s">
-        <v>101</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="I135" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>123</v>
+        <v>422</v>
       </c>
       <c r="B136" t="s">
         <v>41</v>
@@ -7536,28 +7605,19 @@
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>717</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G136" t="s">
-        <v>126</v>
-      </c>
-      <c r="H136" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I136" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
@@ -7566,30 +7626,19 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>717</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G137" t="s">
-        <v>139</v>
-      </c>
-      <c r="H137" t="s">
-        <v>149</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="I137" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>109</v>
+        <v>424</v>
       </c>
       <c r="B138" t="s">
         <v>41</v>
@@ -7598,28 +7647,19 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>717</v>
       </c>
       <c r="E138" t="s">
         <v>112</v>
-      </c>
-      <c r="F138" t="s">
-        <v>115</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
-      <c r="H138" t="s">
-        <v>116</v>
       </c>
       <c r="I138" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>425</v>
       </c>
       <c r="B139" t="s">
         <v>41</v>
@@ -7628,28 +7668,19 @@
         <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>125</v>
+        <v>717</v>
       </c>
       <c r="E139" t="s">
         <v>112</v>
-      </c>
-      <c r="F139" t="s">
-        <v>113</v>
-      </c>
-      <c r="G139" t="s">
-        <v>114</v>
-      </c>
-      <c r="H139" t="s">
-        <v>117</v>
       </c>
       <c r="I139" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -7658,28 +7689,28 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="E140" t="s">
         <v>112</v>
       </c>
       <c r="F140" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="G140" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="H140" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="I140" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -7688,28 +7719,28 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E141" t="s">
         <v>112</v>
       </c>
       <c r="F141" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="G141" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H141" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="I141" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
@@ -7718,28 +7749,28 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E142" t="s">
         <v>112</v>
       </c>
       <c r="F142" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G142" t="s">
-        <v>700</v>
-      </c>
-      <c r="H142" t="s">
-        <v>704</v>
+        <v>690</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>698</v>
       </c>
       <c r="I142" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
@@ -7748,28 +7779,28 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E143" t="s">
         <v>112</v>
       </c>
       <c r="F143" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="G143" t="s">
-        <v>701</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>709</v>
+        <v>688</v>
+      </c>
+      <c r="H143" t="s">
+        <v>699</v>
       </c>
       <c r="I143" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>697</v>
+        <v>404</v>
       </c>
       <c r="B144" t="s">
         <v>41</v>
@@ -7778,28 +7809,28 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E144" t="s">
         <v>112</v>
       </c>
       <c r="F144" t="s">
-        <v>706</v>
+        <v>405</v>
       </c>
       <c r="G144" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H144" t="s">
-        <v>708</v>
+        <v>407</v>
       </c>
       <c r="I144" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="B145" t="s">
         <v>41</v>
@@ -7808,28 +7839,30 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>373</v>
+        <v>717</v>
       </c>
       <c r="E145" t="s">
         <v>112</v>
       </c>
       <c r="F145" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="G145" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="H145" t="s">
-        <v>707</v>
-      </c>
-      <c r="I145" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>696</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>711</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s">
         <v>41</v>
@@ -7838,30 +7871,90 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>373</v>
+        <v>713</v>
       </c>
       <c r="E146" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>713</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>712</v>
+        <v>42</v>
       </c>
       <c r="H146" t="s">
-        <v>714</v>
+        <v>42</v>
       </c>
       <c r="I146" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>713</v>
+      </c>
+      <c r="E147" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" t="s">
+        <v>115</v>
+      </c>
+      <c r="G147" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" t="s">
+        <v>116</v>
+      </c>
+      <c r="I147" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>108</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>713</v>
+      </c>
+      <c r="E148" t="s">
+        <v>112</v>
+      </c>
+      <c r="F148" t="s">
+        <v>113</v>
+      </c>
+      <c r="G148" t="s">
+        <v>114</v>
+      </c>
+      <c r="H148" t="s">
+        <v>117</v>
+      </c>
+      <c r="I148" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:J138">
-    <sortCondition descending="1" ref="B2:B138"/>
-    <sortCondition ref="D2:D138"/>
-    <sortCondition ref="A2:A138"/>
+  <sortState ref="A2:J148">
+    <sortCondition descending="1" ref="B2:B148"/>
+    <sortCondition ref="D2:D148"/>
+    <sortCondition ref="A2:A148"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7913,471 +8006,471 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
         <v>350</v>
       </c>
-      <c r="C3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" t="s">
-        <v>356</v>
-      </c>
       <c r="F3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G5" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G9" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F10" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G10" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H10" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G11" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="G12" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F13" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G13" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="H13" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F14" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G14" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="H14" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G15" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="H15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G16" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="H16" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E17" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="G17" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G18" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H18" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G19" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="H19" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G20" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="H20" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -8465,17 +8558,17 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -8748,7 +8841,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -8759,7 +8852,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -8770,7 +8863,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -8781,7 +8874,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
         <v>123</v>
@@ -8792,79 +8885,79 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8915,12 +9008,12 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -8929,19 +9022,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -8949,7 +9042,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -8958,16 +9051,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
         <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -8975,7 +9068,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -8984,16 +9077,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -9001,7 +9094,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -9010,16 +9103,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -9027,7 +9120,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -9039,7 +9132,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="751">
   <si>
     <t>name</t>
   </si>
@@ -1072,27 +1072,12 @@
     <t>SoilParameter</t>
   </si>
   <si>
-    <t>eau résiduelle du sol sec couche 10</t>
-  </si>
-  <si>
-    <t>point de flétrissement permanent couche 10</t>
-  </si>
-  <si>
-    <t>capacité au champ couche 10</t>
-  </si>
-  <si>
     <t>cm.cm-1</t>
   </si>
   <si>
-    <t>saturation couche 10</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>épaisseur de la couche de sol 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potential daily increase (growth) in root depth </t>
   </si>
   <si>
@@ -1226,9 +1211,6 @@
   </si>
   <si>
     <t>poids du mulch laissé en surface</t>
-  </si>
-  <si>
-    <t>thickness soil layer (columns = cases, rows: layers)</t>
   </si>
   <si>
     <t>water content at full saturation  (columns = cases, rows: layers)</t>
@@ -1909,9 +1891,6 @@
     <t>LDRAIN</t>
   </si>
   <si>
-    <t>paramètre du sol utilise dans le calcul de l’évaporation avec le module complet de Ritchie</t>
-  </si>
-  <si>
     <t>soil parameter used for Ritchie calculation of evaporation</t>
   </si>
   <si>
@@ -2252,6 +2231,123 @@
   </si>
   <si>
     <t>because when ther is no plant we don't want transpiration</t>
+  </si>
+  <si>
+    <t>LAI lower threshold during seed growth that leads to plant death</t>
+  </si>
+  <si>
+    <t>seuil de LAI pendant le remplissage du grain en deça duquel la plante meurt</t>
+  </si>
+  <si>
+    <t>pTresholdLowLAIdeath</t>
+  </si>
+  <si>
+    <t>sFloodDuration</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Duration of flood</t>
+  </si>
+  <si>
+    <t>FLDUR</t>
+  </si>
+  <si>
+    <t>durée de l'inondation</t>
+  </si>
+  <si>
+    <t>thickness soil layer</t>
+  </si>
+  <si>
+    <t>épaisseur de la couche de sol</t>
+  </si>
+  <si>
+    <t>saturation couche</t>
+  </si>
+  <si>
+    <t>capacité au champ couche</t>
+  </si>
+  <si>
+    <t>point de flétrissement permanent couche</t>
+  </si>
+  <si>
+    <t>eau résiduelle du sol sec couche</t>
+  </si>
+  <si>
+    <t>couche au-delà de laquelle l'eau est drainée hors du système</t>
+  </si>
+  <si>
+    <t>layer below which the water is drained outside the system</t>
+  </si>
+  <si>
+    <t>paramètre du sol utilisé dans le calcul de l’évaporation avec le module complet de Ritchie</t>
+  </si>
+  <si>
+    <t>inital nitrate concentraiton</t>
+  </si>
+  <si>
+    <t>initial ammonical nitrate concentration</t>
+  </si>
+  <si>
+    <t>pWaterStressSaturationFlood</t>
+  </si>
+  <si>
+    <t>threshold for water above field capacity for flooding</t>
+  </si>
+  <si>
+    <t>seuil de stress anoxique pour considérer que c'est une inondation</t>
+  </si>
+  <si>
+    <t>FLDKL</t>
+  </si>
+  <si>
+    <t>pFloodLengthDeath</t>
+  </si>
+  <si>
+    <t>Number of days with saturated soil for the plant to die</t>
+  </si>
+  <si>
+    <t>nombre de jours pour que la plante meure si elle a les pieds dans l'eau</t>
+  </si>
+  <si>
+    <t>code for maturity type</t>
+  </si>
+  <si>
+    <t>code de fin de culture</t>
+  </si>
+  <si>
+    <t>sCycleEndType</t>
+  </si>
+  <si>
+    <t>not really a state variable, but just to keep the levels of the factor</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>sCropNum</t>
+  </si>
+  <si>
+    <t>number of the current crop (and grop management) in the rotation</t>
+  </si>
+  <si>
+    <t>position de la culture actuelle (et de son ITK) dans la rotation</t>
+  </si>
+  <si>
+    <t>cCoefWaterStressSaturation</t>
+  </si>
+  <si>
+    <t>Water Stress from soil saturation</t>
+  </si>
+  <si>
+    <t>WSFX</t>
+  </si>
+  <si>
+    <t>facteur de stress hydrique par excès d'eau</t>
+  </si>
+  <si>
+    <t>"not yet"</t>
   </si>
 </sst>
 </file>
@@ -2367,8 +2463,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="459">
+  <cellStyleXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2864,7 +2980,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="459">
+  <cellStyles count="479">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3094,6 +3210,16 @@
     <cellStyle name="Lien hypertexte" xfId="453" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="455" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="477" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3323,6 +3449,16 @@
     <cellStyle name="Lien hypertexte visité" xfId="454" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="478" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3687,13 +3823,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3734,146 +3870,152 @@
         <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>740</v>
       </c>
       <c r="B2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" t="s">
+        <v>739</v>
+      </c>
+      <c r="I2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" t="s">
         <v>429</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="19">
+        <v>-5</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" t="s">
+        <v>430</v>
+      </c>
+      <c r="I4">
+        <v>-10</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H5" t="s">
         <v>204</v>
       </c>
-      <c r="I2">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20"/>
+      <c r="J5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
-        <v>280</v>
+        <v>543</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>545</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20">
@@ -3883,25 +4025,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>265</v>
+        <v>542</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20">
@@ -3911,25 +4053,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
-        <v>580</v>
+        <v>279</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>583</v>
+        <v>535</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20">
@@ -3939,25 +4081,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>570</v>
+        <v>536</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20">
@@ -3967,25 +4109,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>707</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>534</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>586</v>
+        <v>265</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
@@ -3995,25 +4137,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="20" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20">
@@ -4022,425 +4164,419 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>471</v>
-      </c>
-      <c r="B12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="H12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12">
+      <c r="A12" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1">
-      <c r="A13" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>429</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="I13">
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
         <v>0</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B14" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="I14">
+      <c r="A14" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
         <v>0</v>
       </c>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>177</v>
+        <v>705</v>
+      </c>
+      <c r="E15" t="s">
+        <v>466</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="H15" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>438</v>
+      <c r="J15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
-      </c>
-      <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H16" t="s">
-        <v>232</v>
+        <v>705</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>641</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>447</v>
+      <c r="A17" s="14" t="s">
+        <v>642</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" t="s">
-        <v>449</v>
+        <v>705</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>645</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>450</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" t="s">
+        <v>443</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>164</v>
       </c>
-      <c r="B18" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" t="s">
         <v>163</v>
       </c>
-      <c r="D18" t="s">
-        <v>432</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E21" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I18" t="e">
+      <c r="I21" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>706</v>
-      </c>
-      <c r="B19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>699</v>
+      </c>
+      <c r="B22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C22" t="s">
         <v>163</v>
       </c>
-      <c r="D19" t="s">
-        <v>432</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D22" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F19" t="s">
-        <v>708</v>
-      </c>
-      <c r="H19" t="s">
-        <v>709</v>
-      </c>
-      <c r="I19" t="e">
+      <c r="F22" t="s">
+        <v>701</v>
+      </c>
+      <c r="H22" t="s">
+        <v>702</v>
+      </c>
+      <c r="I22" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" t="s">
+        <v>744</v>
+      </c>
+      <c r="H23" t="s">
+        <v>745</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>165</v>
       </c>
-      <c r="B20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" t="s">
         <v>163</v>
       </c>
-      <c r="D20" t="s">
-        <v>432</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I20" t="e">
+      <c r="I24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" t="s">
-        <v>429</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E21" t="s">
-        <v>433</v>
-      </c>
-      <c r="F21" t="s">
-        <v>435</v>
-      </c>
-      <c r="H21" t="s">
-        <v>437</v>
-      </c>
-      <c r="I21" s="19">
-        <v>-5</v>
-      </c>
-      <c r="J21" s="20" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>700</v>
+      </c>
+      <c r="B25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="s">
+        <v>703</v>
+      </c>
+      <c r="H25" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>432</v>
-      </c>
-      <c r="E22" t="s">
-        <v>433</v>
-      </c>
-      <c r="F22" t="s">
-        <v>434</v>
-      </c>
-      <c r="H22" t="s">
-        <v>436</v>
-      </c>
-      <c r="I22">
-        <v>-10</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>707</v>
-      </c>
-      <c r="B23" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>432</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" t="s">
-        <v>710</v>
-      </c>
-      <c r="H23" t="s">
-        <v>711</v>
-      </c>
-      <c r="I23" t="e">
+      <c r="I25" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E24" t="s">
-        <v>395</v>
-      </c>
-      <c r="F24" t="s">
-        <v>394</v>
-      </c>
-      <c r="G24" t="s">
-        <v>393</v>
-      </c>
-      <c r="H24" t="s">
-        <v>396</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>668</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" t="s">
-        <v>463</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>595</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>668</v>
+        <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>597</v>
+        <v>390</v>
+      </c>
+      <c r="F26" t="s">
+        <v>389</v>
       </c>
       <c r="G26" t="s">
-        <v>596</v>
+        <v>388</v>
       </c>
       <c r="H26" t="s">
-        <v>598</v>
+        <v>391</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4448,145 +4584,143 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E27" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>465</v>
-      </c>
-      <c r="I27" t="e">
+        <v>457</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G28" t="s">
+        <v>590</v>
+      </c>
+      <c r="H28" t="s">
+        <v>592</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1">
+      <c r="A29" t="s">
+        <v>455</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>459</v>
+      </c>
+      <c r="I29" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+      <c r="J29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
         <v>158</v>
       </c>
-      <c r="B28" t="s">
-        <v>429</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D28" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E30" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>162</v>
       </c>
-      <c r="I28" t="e">
+      <c r="I30" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1">
-      <c r="A29" t="s">
-        <v>441</v>
-      </c>
-      <c r="B29" t="s">
-        <v>429</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>668</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" t="s">
-        <v>443</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>458</v>
-      </c>
-      <c r="B30" t="s">
-        <v>429</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>668</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>668</v>
-      </c>
-      <c r="E31" t="s">
-        <v>118</v>
+        <v>661</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" t="s">
-        <v>154</v>
+        <v>436</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>437</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4594,28 +4728,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>359</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>429</v>
+        <v>452</v>
+      </c>
+      <c r="B32" t="s">
+        <v>423</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>360</v>
+        <v>118</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>361</v>
+        <v>179</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4623,28 +4757,28 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>665</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>429</v>
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>423</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>717</v>
+        <v>661</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" t="s">
-        <v>666</v>
+        <v>118</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>403</v>
+        <v>154</v>
       </c>
       <c r="H33" t="s">
-        <v>667</v>
+        <v>155</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4652,115 +4786,115 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34" t="s">
-        <v>429</v>
+        <v>354</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="E34" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="I34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>715</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
+        <v>663</v>
+      </c>
+      <c r="E35" t="s">
+        <v>716</v>
+      </c>
+      <c r="F35" t="s">
         <v>717</v>
       </c>
-      <c r="E35" t="s">
-        <v>322</v>
-      </c>
-      <c r="F35" t="s">
-        <v>332</v>
-      </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>718</v>
       </c>
       <c r="H35" t="s">
-        <v>343</v>
+        <v>719</v>
       </c>
       <c r="I35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>313</v>
-      </c>
-      <c r="B36" t="s">
-        <v>429</v>
+        <v>658</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>659</v>
       </c>
       <c r="G36" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="H36" t="s">
-        <v>335</v>
+        <v>660</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E37" t="s">
         <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
         <v>333</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I37">
         <v>0.5</v>
@@ -4768,28 +4902,28 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E38" t="s">
         <v>322</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
         <v>333</v>
       </c>
       <c r="H38" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I38">
         <v>0.5</v>
@@ -4797,28 +4931,28 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E39" t="s">
         <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
         <v>333</v>
       </c>
       <c r="H39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I39">
         <v>0.5</v>
@@ -4826,28 +4960,28 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E40" t="s">
         <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
         <v>333</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I40">
         <v>0.5</v>
@@ -4855,28 +4989,28 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E41" t="s">
         <v>322</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
         <v>333</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I41">
         <v>0.5</v>
@@ -4884,28 +5018,28 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E42" t="s">
         <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
         <v>333</v>
       </c>
       <c r="H42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I42">
         <v>0.5</v>
@@ -4913,28 +5047,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E43" t="s">
         <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
         <v>333</v>
       </c>
       <c r="H43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I43">
         <v>0.5</v>
@@ -4942,145 +5076,142 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>710</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>330</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>341</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
       <c r="C46" t="s">
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>342</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
       <c r="C47" t="s">
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>713</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I48" t="e">
         <f>NA()</f>
@@ -5089,7 +5220,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -5098,19 +5229,19 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -5118,86 +5249,98 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>706</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>706</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>706</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="20" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>135</v>
@@ -5206,16 +5349,16 @@
         <v>26</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -5223,7 +5366,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>135</v>
@@ -5232,16 +5375,16 @@
         <v>26</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -5249,7 +5392,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>135</v>
@@ -5258,16 +5401,16 @@
         <v>26</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -5275,7 +5418,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>135</v>
@@ -5284,16 +5427,16 @@
         <v>26</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -5301,7 +5444,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>135</v>
@@ -5310,16 +5453,16 @@
         <v>26</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -5327,7 +5470,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="20" t="s">
-        <v>266</v>
+        <v>506</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>135</v>
@@ -5336,16 +5479,16 @@
         <v>26</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -5353,7 +5496,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="20" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>135</v>
@@ -5362,16 +5505,16 @@
         <v>26</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -5379,7 +5522,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="20" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>135</v>
@@ -5388,16 +5531,16 @@
         <v>26</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5405,7 +5548,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="20" t="s">
-        <v>536</v>
+        <v>266</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>135</v>
@@ -5414,114 +5557,102 @@
         <v>26</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>539</v>
+        <v>291</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s">
-        <v>715</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H62" t="s">
-        <v>261</v>
-      </c>
-      <c r="I62" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C62" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" t="s">
-        <v>715</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H63" t="s">
-        <v>252</v>
-      </c>
-      <c r="I63" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C63" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>499</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" t="s">
-        <v>715</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H64" t="s">
-        <v>507</v>
-      </c>
-      <c r="I64" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="C64" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>269</v>
+      <c r="A65" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="B65" t="s">
         <v>135</v>
@@ -5530,19 +5661,19 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>715</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>268</v>
+        <v>708</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>304</v>
+        <v>260</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="H65" t="s">
-        <v>505</v>
+        <v>261</v>
       </c>
       <c r="I65" t="e">
         <f>NA()</f>
@@ -5551,7 +5682,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
         <v>135</v>
@@ -5560,19 +5691,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>715</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>268</v>
+        <v>708</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>305</v>
+        <v>250</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="H66" t="s">
-        <v>506</v>
+        <v>252</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -5581,7 +5712,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>594</v>
+        <v>493</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -5590,19 +5721,19 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>500</v>
+      <c r="F67" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -5611,7 +5742,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -5620,19 +5751,19 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>712</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>177</v>
+        <v>708</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>306</v>
+        <v>496</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="H68" t="s">
-        <v>228</v>
+        <v>499</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -5641,7 +5772,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
@@ -5650,19 +5781,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>712</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>177</v>
+        <v>708</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>444</v>
+        <v>497</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="H69" t="s">
-        <v>229</v>
+        <v>500</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -5671,7 +5802,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>588</v>
       </c>
       <c r="B70" t="s">
         <v>135</v>
@@ -5680,31 +5811,28 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>712</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>445</v>
+        <v>708</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="H70" t="s">
-        <v>216</v>
+        <v>498</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J70" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
@@ -5713,31 +5841,28 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>712</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>446</v>
+        <v>705</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H71" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J71" t="s">
-        <v>476</v>
-      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>135</v>
@@ -5746,13 +5871,19 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>712</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>268</v>
+        <v>705</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>307</v>
+        <v>438</v>
+      </c>
+      <c r="H72" t="s">
+        <v>229</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -5761,7 +5892,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
         <v>135</v>
@@ -5770,25 +5901,31 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>712</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>308</v>
+        <v>705</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="H73" t="s">
+        <v>216</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J73" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
         <v>135</v>
@@ -5797,28 +5934,31 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>712</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G74" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>219</v>
+      <c r="H74" t="s">
+        <v>215</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J74" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
         <v>135</v>
@@ -5827,19 +5967,13 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>712</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>239</v>
+        <v>705</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H75" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
@@ -5848,7 +5982,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -5857,28 +5991,25 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>712</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>205</v>
+        <v>705</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H76" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J76" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s">
         <v>135</v>
@@ -5887,19 +6018,19 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H77" t="s">
-        <v>211</v>
+        <v>434</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
@@ -5907,8 +6038,8 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="6" t="s">
-        <v>459</v>
+      <c r="A78" t="s">
+        <v>241</v>
       </c>
       <c r="B78" t="s">
         <v>135</v>
@@ -5917,19 +6048,19 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>668</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
+        <v>705</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G78" t="s">
-        <v>186</v>
+        <v>239</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="H78" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -5938,22 +6069,28 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
         <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>668</v>
-      </c>
-      <c r="F79" t="s">
-        <v>455</v>
+        <v>705</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="H79" t="s">
-        <v>456</v>
+        <v>210</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -5961,8 +6098,8 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="6" t="s">
-        <v>175</v>
+      <c r="A80" t="s">
+        <v>209</v>
       </c>
       <c r="B80" t="s">
         <v>135</v>
@@ -5971,19 +6108,19 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>668</v>
-      </c>
-      <c r="E80" t="s">
-        <v>177</v>
+        <v>705</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="H80" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -5992,7 +6129,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>735</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
@@ -6001,28 +6138,27 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>668</v>
+        <v>426</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>716</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>736</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>734</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>737</v>
       </c>
       <c r="I81" t="e">
-        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="16" t="s">
-        <v>130</v>
+      <c r="A82" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
@@ -6031,19 +6167,19 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>277</v>
+        <v>188</v>
+      </c>
+      <c r="G82" t="s">
+        <v>186</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -6052,28 +6188,22 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="B83" t="s">
         <v>135</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>668</v>
-      </c>
-      <c r="E83" t="s">
-        <v>15</v>
+        <v>661</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -6081,8 +6211,8 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="16" t="s">
-        <v>131</v>
+      <c r="A84" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B84" t="s">
         <v>135</v>
@@ -6091,19 +6221,19 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>278</v>
+        <v>187</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="H84" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -6112,7 +6242,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>428</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
         <v>135</v>
@@ -6121,19 +6251,19 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -6142,7 +6272,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="16" t="s">
-        <v>427</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
         <v>135</v>
@@ -6151,19 +6281,19 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -6172,7 +6302,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>592</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
         <v>135</v>
@@ -6181,19 +6311,19 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -6202,7 +6332,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="16" t="s">
-        <v>593</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>135</v>
@@ -6211,19 +6341,19 @@
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H88" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -6231,8 +6361,8 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="4" t="s">
-        <v>267</v>
+      <c r="A89" t="s">
+        <v>422</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -6241,17 +6371,19 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>668</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>145</v>
+        <v>661</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" t="s">
+        <v>67</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -6259,8 +6391,8 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>142</v>
+      <c r="A90" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
@@ -6269,16 +6401,19 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>668</v>
+        <v>661</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G90" t="s">
-        <v>143</v>
+        <v>129</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="H90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -6287,7 +6422,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>586</v>
       </c>
       <c r="B91" t="s">
         <v>135</v>
@@ -6296,19 +6431,19 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>363</v>
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s">
+        <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
@@ -6316,8 +6451,8 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>354</v>
+      <c r="A92" s="16" t="s">
+        <v>587</v>
       </c>
       <c r="B92" t="s">
         <v>135</v>
@@ -6326,19 +6461,19 @@
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>716</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F92" t="s">
-        <v>352</v>
-      </c>
-      <c r="G92" t="s">
-        <v>353</v>
+        <v>661</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="H92" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
@@ -6346,8 +6481,8 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>675</v>
+      <c r="A93" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="B93" t="s">
         <v>135</v>
@@ -6356,19 +6491,17 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>670</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>676</v>
-      </c>
-      <c r="G93" t="s">
-        <v>660</v>
-      </c>
-      <c r="H93" t="s">
-        <v>677</v>
+        <v>661</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
@@ -6377,7 +6510,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>657</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
         <v>135</v>
@@ -6386,19 +6519,16 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>670</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F94" t="s">
         <v>661</v>
       </c>
+      <c r="F94" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G94" t="s">
-        <v>656</v>
+        <v>143</v>
       </c>
       <c r="H94" t="s">
-        <v>663</v>
+        <v>144</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
@@ -6407,7 +6537,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>658</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
         <v>135</v>
@@ -6416,19 +6546,19 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>670</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F95" t="s">
-        <v>662</v>
-      </c>
-      <c r="G95" t="s">
-        <v>659</v>
+        <v>709</v>
+      </c>
+      <c r="E95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="H95" t="s">
-        <v>664</v>
+        <v>360</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
@@ -6437,7 +6567,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="B96" t="s">
         <v>135</v>
@@ -6446,19 +6576,19 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>717</v>
-      </c>
-      <c r="E96" t="s">
-        <v>177</v>
+        <v>709</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="F96" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="G96" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="H96" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="I96" t="e">
         <f>NA()</f>
@@ -6467,28 +6597,28 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>668</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>663</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>246</v>
+      <c r="F97" t="s">
+        <v>669</v>
+      </c>
+      <c r="G97" t="s">
+        <v>653</v>
       </c>
       <c r="H97" t="s">
-        <v>247</v>
+        <v>670</v>
       </c>
       <c r="I97" t="e">
         <f>NA()</f>
@@ -6496,127 +6626,128 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F98" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="H98" s="20"/>
+      <c r="A98" t="s">
+        <v>650</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>663</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" t="s">
+        <v>654</v>
+      </c>
+      <c r="G98" t="s">
+        <v>649</v>
+      </c>
+      <c r="H98" t="s">
+        <v>656</v>
+      </c>
       <c r="I98" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J98" s="20"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="B99" s="20" t="s">
+      <c r="A99" t="s">
+        <v>651</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>663</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" t="s">
+        <v>655</v>
+      </c>
+      <c r="G99" t="s">
+        <v>652</v>
+      </c>
+      <c r="H99" t="s">
+        <v>657</v>
+      </c>
+      <c r="I99" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>710</v>
+      </c>
+      <c r="E100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" t="s">
+        <v>406</v>
+      </c>
+      <c r="G100" t="s">
+        <v>407</v>
+      </c>
+      <c r="H100" t="s">
+        <v>409</v>
+      </c>
+      <c r="I100" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20">
-        <v>0</v>
-      </c>
-      <c r="J99" s="20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20">
-        <v>0</v>
-      </c>
-      <c r="J100" s="20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20">
-        <v>0</v>
-      </c>
-      <c r="J101" s="20" t="s">
-        <v>554</v>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H101" t="s">
+        <v>247</v>
+      </c>
+      <c r="I101" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="20" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>41</v>
@@ -6625,28 +6756,27 @@
         <v>26</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H102" s="20"/>
-      <c r="I102" s="20">
-        <v>1</v>
-      </c>
-      <c r="J102" s="20" t="s">
-        <v>564</v>
-      </c>
+      <c r="I102" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J102" s="20"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="20" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>41</v>
@@ -6655,28 +6785,28 @@
         <v>26</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="20" t="s">
-        <v>452</v>
+        <v>552</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>41</v>
@@ -6685,152 +6815,148 @@
         <v>26</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F104" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>283</v>
+      <c r="G104" s="20" t="s">
+        <v>554</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="20">
         <v>0</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" t="s">
-        <v>486</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D105" t="s">
-        <v>715</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H105" t="s">
-        <v>255</v>
-      </c>
-      <c r="I105" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="C105" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20">
+        <v>0</v>
+      </c>
+      <c r="J105" s="20" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>263</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="A106" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C106" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" t="s">
-        <v>715</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H106" t="s">
-        <v>264</v>
-      </c>
-      <c r="I106">
+      <c r="C106" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20">
+        <v>1</v>
+      </c>
+      <c r="J106" s="20" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20">
+        <v>1</v>
+      </c>
+      <c r="J107" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20">
         <v>0</v>
       </c>
-      <c r="J106" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" t="s">
-        <v>487</v>
-      </c>
-      <c r="B107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" t="s">
-        <v>715</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H107" t="s">
-        <v>257</v>
-      </c>
-      <c r="I107" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" t="s">
-        <v>201</v>
-      </c>
-      <c r="B108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" t="s">
-        <v>712</v>
-      </c>
-      <c r="E108" t="s">
-        <v>195</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G108" t="s">
-        <v>192</v>
-      </c>
-      <c r="H108" t="s">
-        <v>200</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>590</v>
+      <c r="J108" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -6839,19 +6965,19 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>712</v>
-      </c>
-      <c r="E109" t="s">
-        <v>193</v>
+        <v>708</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="G109" t="s">
-        <v>482</v>
+        <v>254</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="H109" t="s">
-        <v>484</v>
+        <v>255</v>
       </c>
       <c r="I109" t="e">
         <f>NA()</f>
@@ -6860,7 +6986,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -6869,28 +6995,30 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>712</v>
-      </c>
-      <c r="E110" t="s">
-        <v>195</v>
+        <v>708</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G110" t="s">
-        <v>191</v>
+        <v>262</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="H110" t="s">
-        <v>199</v>
-      </c>
-      <c r="I110" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>264</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -6899,19 +7027,19 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>712</v>
-      </c>
-      <c r="E111" t="s">
-        <v>193</v>
+        <v>708</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G111" t="s">
-        <v>483</v>
+        <v>256</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H111" t="s">
-        <v>485</v>
+        <v>257</v>
       </c>
       <c r="I111" t="e">
         <f>NA()</f>
@@ -6920,7 +7048,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>653</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -6929,27 +7057,30 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>432</v>
+        <v>705</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F112" t="s">
-        <v>655</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>654</v>
+        <v>195</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G112" t="s">
+        <v>192</v>
       </c>
       <c r="H112" t="s">
-        <v>655</v>
+        <v>200</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
+      <c r="J112" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -6958,27 +7089,28 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="E113" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>495</v>
+        <v>474</v>
+      </c>
+      <c r="G113" t="s">
+        <v>476</v>
       </c>
       <c r="H113" t="s">
-        <v>496</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113" t="s">
-        <v>497</v>
+        <v>478</v>
+      </c>
+      <c r="I113" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -6987,30 +7119,28 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="E114" t="s">
-        <v>160</v>
-      </c>
-      <c r="F114" t="s">
-        <v>90</v>
+        <v>195</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G114" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="H114" t="s">
-        <v>96</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114" t="s">
-        <v>493</v>
+        <v>199</v>
+      </c>
+      <c r="I114" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -7019,30 +7149,28 @@
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115" t="s">
-        <v>72</v>
+        <v>193</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="G115" t="s">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>492</v>
+        <v>479</v>
+      </c>
+      <c r="I115" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>646</v>
       </c>
       <c r="B116" t="s">
         <v>41</v>
@@ -7051,30 +7179,27 @@
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>668</v>
+        <v>426</v>
       </c>
       <c r="E116" t="s">
-        <v>160</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G116" t="s">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="F116" t="s">
+        <v>648</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>647</v>
       </c>
       <c r="H116" t="s">
-        <v>101</v>
+        <v>648</v>
       </c>
       <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>488</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -7083,148 +7208,153 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E117" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H117" t="s">
+        <v>490</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>661</v>
+      </c>
+      <c r="E118" t="s">
+        <v>160</v>
+      </c>
+      <c r="F118" t="s">
+        <v>90</v>
+      </c>
+      <c r="G118" t="s">
+        <v>95</v>
+      </c>
+      <c r="H118" t="s">
+        <v>96</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>661</v>
+      </c>
+      <c r="E119" t="s">
+        <v>160</v>
+      </c>
+      <c r="F119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>661</v>
+      </c>
+      <c r="E120" t="s">
+        <v>160</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G120" t="s">
+        <v>100</v>
+      </c>
+      <c r="H120" t="s">
+        <v>101</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>661</v>
+      </c>
+      <c r="E121" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G121" t="s">
         <v>124</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H121" t="s">
         <v>125</v>
       </c>
-      <c r="I117" t="e">
+      <c r="I121" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" t="s">
-        <v>127</v>
-      </c>
-      <c r="B118" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118" t="s">
-        <v>668</v>
-      </c>
-      <c r="E118" t="s">
-        <v>160</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" t="s">
-        <v>137</v>
-      </c>
-      <c r="H118" t="s">
-        <v>147</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" t="s">
-        <v>460</v>
-      </c>
-      <c r="B119" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" t="s">
-        <v>668</v>
-      </c>
-      <c r="E119" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" t="s">
-        <v>466</v>
-      </c>
-      <c r="G119" t="s">
-        <v>97</v>
-      </c>
-      <c r="H119" t="s">
-        <v>467</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-      <c r="B120" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" t="s">
-        <v>668</v>
-      </c>
-      <c r="E120" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" t="s">
-        <v>468</v>
-      </c>
-      <c r="G120" t="s">
-        <v>77</v>
-      </c>
-      <c r="H120" t="s">
-        <v>469</v>
-      </c>
-      <c r="I120" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
@@ -7233,28 +7363,30 @@
         <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>668</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>176</v>
+        <v>661</v>
+      </c>
+      <c r="E122" t="s">
+        <v>160</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="G122" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="H122" t="s">
-        <v>178</v>
-      </c>
-      <c r="I122" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>147</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>454</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
@@ -7263,28 +7395,30 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>460</v>
       </c>
       <c r="G123" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H123" t="s">
-        <v>56</v>
-      </c>
-      <c r="I123" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>461</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -7293,60 +7427,54 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E124" t="s">
-        <v>160</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>462</v>
       </c>
       <c r="G124" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H124" t="s">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="I124" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J124" s="13"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>669</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C125" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125" t="s">
-        <v>670</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H125" t="s">
-        <v>259</v>
-      </c>
-      <c r="I125" t="e">
+      <c r="C125" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>682</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
@@ -7355,29 +7483,28 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>670</v>
-      </c>
-      <c r="E126" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>234</v>
+        <v>661</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G126" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="H126" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="I126" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>678</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -7386,19 +7513,19 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E127" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>680</v>
+        <v>54</v>
       </c>
       <c r="G127" t="s">
-        <v>679</v>
+        <v>55</v>
       </c>
       <c r="H127" t="s">
-        <v>681</v>
+        <v>56</v>
       </c>
       <c r="I127" t="e">
         <f>NA()</f>
@@ -7407,7 +7534,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>671</v>
+        <v>483</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -7416,28 +7543,29 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E128" t="s">
         <v>160</v>
       </c>
-      <c r="F128" t="s">
-        <v>672</v>
+      <c r="F128" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G128" t="s">
-        <v>673</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s">
-        <v>674</v>
+        <v>94</v>
       </c>
       <c r="I128" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -7446,28 +7574,29 @@
         <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>717</v>
-      </c>
-      <c r="E129" t="s">
-        <v>112</v>
-      </c>
-      <c r="F129" t="s">
-        <v>695</v>
-      </c>
-      <c r="G129" t="s">
-        <v>406</v>
+        <v>663</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="H129" t="s">
-        <v>697</v>
+        <v>259</v>
       </c>
       <c r="I129" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="13"/>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
@@ -7476,22 +7605,29 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="E130" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="G130" t="s">
-        <v>416</v>
+        <v>233</v>
+      </c>
+      <c r="H130" t="s">
+        <v>235</v>
       </c>
       <c r="I130" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="13"/>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>426</v>
+        <v>746</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -7500,19 +7636,29 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="E131" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G131" t="s">
+        <v>748</v>
+      </c>
+      <c r="H131" t="s">
+        <v>749</v>
       </c>
       <c r="I131" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>418</v>
+        <v>671</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -7521,19 +7667,28 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="E132" t="s">
         <v>112</v>
+      </c>
+      <c r="F132" t="s">
+        <v>673</v>
+      </c>
+      <c r="G132" t="s">
+        <v>672</v>
+      </c>
+      <c r="H132" t="s">
+        <v>674</v>
       </c>
       <c r="I132" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>419</v>
+        <v>664</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
@@ -7542,19 +7697,28 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="E133" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="F133" t="s">
+        <v>665</v>
+      </c>
+      <c r="G133" t="s">
+        <v>666</v>
+      </c>
+      <c r="H133" t="s">
+        <v>667</v>
       </c>
       <c r="I133" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>420</v>
+        <v>679</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
@@ -7563,19 +7727,28 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E134" t="s">
         <v>112</v>
+      </c>
+      <c r="F134" t="s">
+        <v>688</v>
+      </c>
+      <c r="G134" t="s">
+        <v>400</v>
+      </c>
+      <c r="H134" t="s">
+        <v>690</v>
       </c>
       <c r="I134" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B135" t="s">
         <v>41</v>
@@ -7584,19 +7757,22 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E135" t="s">
         <v>112</v>
+      </c>
+      <c r="G135" t="s">
+        <v>410</v>
       </c>
       <c r="I135" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B136" t="s">
         <v>41</v>
@@ -7605,7 +7781,7 @@
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E136" t="s">
         <v>112</v>
@@ -7615,9 +7791,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
@@ -7626,7 +7802,7 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E137" t="s">
         <v>112</v>
@@ -7636,9 +7812,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B138" t="s">
         <v>41</v>
@@ -7647,7 +7823,7 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E138" t="s">
         <v>112</v>
@@ -7657,9 +7833,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B139" t="s">
         <v>41</v>
@@ -7668,7 +7844,7 @@
         <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E139" t="s">
         <v>112</v>
@@ -7678,9 +7854,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>700</v>
+        <v>415</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -7689,28 +7865,19 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E140" t="s">
         <v>112</v>
-      </c>
-      <c r="F140" t="s">
-        <v>702</v>
-      </c>
-      <c r="G140" t="s">
-        <v>701</v>
-      </c>
-      <c r="H140" t="s">
-        <v>703</v>
       </c>
       <c r="I140" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>684</v>
+        <v>416</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -7719,28 +7886,19 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E141" t="s">
         <v>112</v>
-      </c>
-      <c r="F141" t="s">
-        <v>689</v>
-      </c>
-      <c r="G141" t="s">
-        <v>689</v>
-      </c>
-      <c r="H141" t="s">
-        <v>693</v>
       </c>
       <c r="I141" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>685</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
@@ -7749,28 +7907,19 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E142" t="s">
         <v>112</v>
-      </c>
-      <c r="F142" t="s">
-        <v>694</v>
-      </c>
-      <c r="G142" t="s">
-        <v>690</v>
-      </c>
-      <c r="H142" s="13" t="s">
-        <v>698</v>
       </c>
       <c r="I142" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>683</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
@@ -7779,28 +7928,19 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E143" t="s">
         <v>112</v>
-      </c>
-      <c r="F143" t="s">
-        <v>692</v>
-      </c>
-      <c r="G143" t="s">
-        <v>688</v>
-      </c>
-      <c r="H143" t="s">
-        <v>699</v>
       </c>
       <c r="I143" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s">
         <v>41</v>
@@ -7809,19 +7949,10 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E144" t="s">
         <v>112</v>
-      </c>
-      <c r="F144" t="s">
-        <v>405</v>
-      </c>
-      <c r="G144" t="s">
-        <v>406</v>
-      </c>
-      <c r="H144" t="s">
-        <v>407</v>
       </c>
       <c r="I144" t="e">
         <f>NA()</f>
@@ -7830,7 +7961,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B145" t="s">
         <v>41</v>
@@ -7839,30 +7970,28 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E145" t="s">
         <v>112</v>
       </c>
       <c r="F145" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G145" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="H145" t="s">
         <v>696</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>718</v>
+      <c r="I145" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>35</v>
+        <v>677</v>
       </c>
       <c r="B146" t="s">
         <v>41</v>
@@ -7871,19 +8000,19 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>682</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>682</v>
       </c>
       <c r="H146" t="s">
-        <v>42</v>
+        <v>686</v>
       </c>
       <c r="I146" t="e">
         <f>NA()</f>
@@ -7892,7 +8021,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>109</v>
+        <v>678</v>
       </c>
       <c r="B147" t="s">
         <v>41</v>
@@ -7901,19 +8030,19 @@
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E147" t="s">
         <v>112</v>
       </c>
       <c r="F147" t="s">
-        <v>115</v>
+        <v>687</v>
       </c>
       <c r="G147" t="s">
-        <v>28</v>
-      </c>
-      <c r="H147" t="s">
-        <v>116</v>
+        <v>683</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="I147" t="e">
         <f>NA()</f>
@@ -7922,7 +8051,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>108</v>
+        <v>676</v>
       </c>
       <c r="B148" t="s">
         <v>41</v>
@@ -7931,30 +8060,182 @@
         <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E148" t="s">
         <v>112</v>
       </c>
       <c r="F148" t="s">
-        <v>113</v>
+        <v>685</v>
       </c>
       <c r="G148" t="s">
-        <v>114</v>
+        <v>681</v>
       </c>
       <c r="H148" t="s">
-        <v>117</v>
+        <v>692</v>
       </c>
       <c r="I148" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>398</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>710</v>
+      </c>
+      <c r="E149" t="s">
+        <v>112</v>
+      </c>
+      <c r="F149" t="s">
+        <v>399</v>
+      </c>
+      <c r="G149" t="s">
+        <v>400</v>
+      </c>
+      <c r="H149" t="s">
+        <v>401</v>
+      </c>
+      <c r="I149" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>680</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>710</v>
+      </c>
+      <c r="E150" t="s">
+        <v>112</v>
+      </c>
+      <c r="F150" t="s">
+        <v>689</v>
+      </c>
+      <c r="G150" t="s">
+        <v>684</v>
+      </c>
+      <c r="H150" t="s">
+        <v>689</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>35</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>706</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" t="s">
+        <v>42</v>
+      </c>
+      <c r="G151" t="s">
+        <v>42</v>
+      </c>
+      <c r="H151" t="s">
+        <v>42</v>
+      </c>
+      <c r="I151" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>706</v>
+      </c>
+      <c r="E152" t="s">
+        <v>112</v>
+      </c>
+      <c r="F152" t="s">
+        <v>115</v>
+      </c>
+      <c r="G152" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" t="s">
+        <v>116</v>
+      </c>
+      <c r="I152" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>706</v>
+      </c>
+      <c r="E153" t="s">
+        <v>112</v>
+      </c>
+      <c r="F153" t="s">
+        <v>113</v>
+      </c>
+      <c r="G153" t="s">
+        <v>114</v>
+      </c>
+      <c r="H153" t="s">
+        <v>117</v>
+      </c>
+      <c r="I153" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:J148">
-    <sortCondition descending="1" ref="B2:B148"/>
-    <sortCondition ref="D2:D148"/>
-    <sortCondition ref="A2:A148"/>
+  <sortState ref="A2:J152">
+    <sortCondition descending="1" ref="B2:B152"/>
+    <sortCondition ref="D2:D152"/>
+    <sortCondition ref="A2:A152"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7972,7 +8253,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8011,7 +8292,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>344</v>
@@ -8020,154 +8301,154 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
         <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
         <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
         <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H4" t="s">
-        <v>349</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
         <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
         <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G6" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
         <v>344</v>
@@ -8176,24 +8457,24 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E8" t="s">
         <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>344</v>
@@ -8202,21 +8483,21 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B10" t="s">
         <v>344</v>
@@ -8225,21 +8506,21 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H10" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B11" t="s">
         <v>344</v>
@@ -8248,15 +8529,21 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="F11" t="s">
+        <v>727</v>
       </c>
       <c r="G11" t="s">
-        <v>603</v>
+        <v>597</v>
+      </c>
+      <c r="H11" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B12" t="s">
         <v>344</v>
@@ -8265,21 +8552,21 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G12" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B13" t="s">
         <v>344</v>
@@ -8288,24 +8575,24 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G13" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="H13" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B14" t="s">
         <v>344</v>
@@ -8314,24 +8601,24 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E14" t="s">
         <v>177</v>
       </c>
       <c r="F14" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G14" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H14" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B15" t="s">
         <v>344</v>
@@ -8340,21 +8627,21 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="G15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H15" t="s">
         <v>626</v>
-      </c>
-      <c r="G15" t="s">
-        <v>613</v>
-      </c>
-      <c r="H15" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B16" t="s">
         <v>344</v>
@@ -8363,24 +8650,24 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E16" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G16" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H16" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B17" t="s">
         <v>344</v>
@@ -8389,24 +8676,24 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E17" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G17" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H17" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B18" t="s">
         <v>344</v>
@@ -8415,21 +8702,21 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G18" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H18" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B19" t="s">
         <v>344</v>
@@ -8438,21 +8725,24 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>624</v>
+        <v>617</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>729</v>
       </c>
       <c r="G19" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H19" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B20" t="s">
         <v>344</v>
@@ -8461,16 +8751,19 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="G20" t="s">
+        <v>611</v>
+      </c>
+      <c r="H20" t="s">
         <v>634</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="G20" t="s">
-        <v>618</v>
-      </c>
-      <c r="H20" t="s">
-        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -8974,10 +9267,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9013,7 +9306,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -9022,19 +9315,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -9042,7 +9335,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -9051,16 +9344,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s">
         <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -9068,7 +9361,7 @@
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -9077,16 +9370,16 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E4" t="s">
         <v>177</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I4">
         <v>0.5</v>
@@ -9094,7 +9387,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -9103,16 +9396,16 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
         <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I5">
         <v>0.23</v>
@@ -9120,7 +9413,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -9146,6 +9439,58 @@
       </c>
       <c r="I6">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="s">
+        <v>713</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>663</v>
+      </c>
+      <c r="F8" t="s">
+        <v>732</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="s">
+        <v>733</v>
+      </c>
+      <c r="I8">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="749">
   <si>
     <t>name</t>
   </si>
@@ -2317,12 +2317,6 @@
     <t>code de fin de culture</t>
   </si>
   <si>
-    <t>sCycleEndType</t>
-  </si>
-  <si>
-    <t>not really a state variable, but just to keep the levels of the factor</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
@@ -2347,7 +2341,7 @@
     <t>facteur de stress hydrique par excès d'eau</t>
   </si>
   <si>
-    <t>"not yet"</t>
+    <t>cCycleEndType</t>
   </si>
 </sst>
 </file>
@@ -2463,8 +2457,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="479">
+  <cellStyleXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2980,7 +2976,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="479">
+  <cellStyles count="481">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3220,6 +3216,7 @@
     <cellStyle name="Lien hypertexte" xfId="473" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="475" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="479" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3459,6 +3456,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="474" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="476" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="480" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3826,10 +3824,10 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3875,68 +3873,58 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>740</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>742</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>426</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" t="s">
-        <v>738</v>
-      </c>
-      <c r="G2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" t="s">
-        <v>739</v>
-      </c>
-      <c r="I2" t="s">
-        <v>750</v>
-      </c>
-      <c r="J2" t="s">
-        <v>741</v>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
         <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>426</v>
       </c>
-      <c r="E3" t="s">
-        <v>427</v>
+      <c r="E3" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>429</v>
+        <v>701</v>
       </c>
       <c r="H3" t="s">
-        <v>431</v>
-      </c>
-      <c r="I3" s="19">
-        <v>-5</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>697</v>
+        <v>702</v>
+      </c>
+      <c r="I3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>741</v>
       </c>
       <c r="B4" t="s">
         <v>423</v>
@@ -3947,225 +3935,221 @@
       <c r="D4" t="s">
         <v>426</v>
       </c>
-      <c r="E4" t="s">
-        <v>427</v>
+      <c r="E4" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>428</v>
+        <v>742</v>
       </c>
       <c r="H4" t="s">
-        <v>430</v>
+        <v>743</v>
       </c>
       <c r="I4">
-        <v>-10</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" t="s">
+        <v>739</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I7" s="19">
+        <v>-5</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8">
+        <v>-10</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>703</v>
+      </c>
+      <c r="H9" t="s">
+        <v>704</v>
+      </c>
+      <c r="I9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H11" t="s">
         <v>204</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J11" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="20" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>423</v>
@@ -4179,11 +4163,11 @@
       <c r="E12" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>563</v>
+      <c r="F12" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20">
@@ -4193,7 +4177,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="20" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>423</v>
@@ -4204,14 +4188,14 @@
       <c r="D13" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>177</v>
+      <c r="E13" s="20" t="s">
+        <v>534</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20">
@@ -4221,7 +4205,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="20" t="s">
-        <v>565</v>
+        <v>279</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>423</v>
@@ -4236,10 +4220,10 @@
         <v>534</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>567</v>
+        <v>535</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20">
@@ -4248,314 +4232,321 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E15" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15">
+      <c r="C15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>468</v>
-      </c>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1">
-      <c r="A16" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="I16">
+      <c r="C16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20">
         <v>0</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="I17">
+      <c r="C17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20">
         <v>0</v>
       </c>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" t="s">
-        <v>223</v>
-      </c>
-      <c r="I18">
+      <c r="F19" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" t="s">
-        <v>232</v>
-      </c>
-      <c r="I19">
+      <c r="C20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H20" t="s">
-        <v>443</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>444</v>
-      </c>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="B21" t="s">
         <v>423</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
-        <v>426</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>466</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>467</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>699</v>
+      <c r="A22" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>423</v>
       </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" t="s">
-        <v>701</v>
-      </c>
-      <c r="H22" t="s">
-        <v>702</v>
-      </c>
-      <c r="I22" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="C22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>743</v>
+      <c r="A23" s="14" t="s">
+        <v>642</v>
       </c>
       <c r="B23" t="s">
         <v>423</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>426</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" t="s">
-        <v>744</v>
-      </c>
-      <c r="H23" t="s">
-        <v>745</v>
+      <c r="C23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>645</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
         <v>423</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E24" t="s">
-        <v>167</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>221</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>700</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
         <v>423</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" t="s">
-        <v>426</v>
+        <v>26</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" t="s">
-        <v>703</v>
+        <v>230</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>704</v>
-      </c>
-      <c r="I25" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>232</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>433</v>
+      <c r="A26" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="B26" t="s">
         <v>423</v>
@@ -4563,23 +4554,26 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>426</v>
-      </c>
-      <c r="E26" t="s">
-        <v>390</v>
-      </c>
-      <c r="F26" t="s">
-        <v>389</v>
-      </c>
-      <c r="G26" t="s">
-        <v>388</v>
+      <c r="D26" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="I26">
         <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5339,34 +5333,37 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="A53" t="s">
+        <v>735</v>
+      </c>
+      <c r="B53" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>426</v>
+      </c>
+      <c r="E53" t="s">
+        <v>716</v>
+      </c>
+      <c r="F53" t="s">
+        <v>736</v>
+      </c>
+      <c r="G53" t="s">
+        <v>734</v>
+      </c>
+      <c r="H53" t="s">
+        <v>737</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="20" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>135</v>
@@ -5378,13 +5375,13 @@
         <v>707</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -5392,7 +5389,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>135</v>
@@ -5404,13 +5401,13 @@
         <v>707</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -5418,7 +5415,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>135</v>
@@ -5430,13 +5427,13 @@
         <v>707</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -5444,7 +5441,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>135</v>
@@ -5456,13 +5453,13 @@
         <v>707</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="20" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>135</v>
@@ -5482,13 +5479,13 @@
         <v>707</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -5496,7 +5493,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="20" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>135</v>
@@ -5511,10 +5508,10 @@
         <v>507</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -5522,7 +5519,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>135</v>
@@ -5537,10 +5534,10 @@
         <v>507</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="20" t="s">
-        <v>266</v>
+        <v>511</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>135</v>
@@ -5560,13 +5557,13 @@
         <v>707</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5574,7 +5571,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="20" t="s">
-        <v>528</v>
+        <v>266</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>135</v>
@@ -5586,13 +5583,13 @@
         <v>707</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -5600,7 +5597,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="20" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>135</v>
@@ -5612,13 +5609,13 @@
         <v>707</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -5626,7 +5623,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="20" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>135</v>
@@ -5638,51 +5635,47 @@
         <v>707</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>533</v>
+        <v>295</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" t="s">
-        <v>708</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H65" t="s">
-        <v>261</v>
-      </c>
-      <c r="I65" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>251</v>
       </c>
       <c r="B66" t="s">
         <v>135</v>
@@ -5694,16 +5687,16 @@
         <v>708</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I66" t="e">
         <f>NA()</f>
@@ -5712,7 +5705,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>493</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -5723,17 +5716,17 @@
       <c r="D67" t="s">
         <v>708</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>268</v>
+      <c r="E67" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>303</v>
+        <v>250</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="H67" t="s">
-        <v>501</v>
+        <v>252</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -5742,7 +5735,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -5757,13 +5750,13 @@
         <v>268</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H68" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -5772,7 +5765,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
@@ -5787,13 +5780,13 @@
         <v>268</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -5802,7 +5795,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>588</v>
+        <v>270</v>
       </c>
       <c r="B70" t="s">
         <v>135</v>
@@ -5816,14 +5809,14 @@
       <c r="E70" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>494</v>
+      <c r="F70" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H70" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
@@ -5832,7 +5825,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>588</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
@@ -5841,19 +5834,19 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>705</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>306</v>
+        <v>708</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="H71" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
@@ -5862,7 +5855,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
         <v>135</v>
@@ -5877,13 +5870,13 @@
         <v>177</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>438</v>
+        <v>306</v>
       </c>
       <c r="H72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -5892,7 +5885,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
         <v>135</v>
@@ -5903,29 +5896,26 @@
       <c r="D73" t="s">
         <v>705</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>439</v>
+      <c r="E73" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J73" t="s">
-        <v>469</v>
-      </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
         <v>135</v>
@@ -5936,29 +5926,29 @@
       <c r="D74" t="s">
         <v>705</v>
       </c>
-      <c r="E74" t="s">
-        <v>15</v>
+      <c r="E74" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>440</v>
+        <v>213</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>439</v>
       </c>
       <c r="H74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>135</v>
@@ -5969,20 +5959,29 @@
       <c r="D75" t="s">
         <v>705</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>307</v>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H75" t="s">
+        <v>215</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J75" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -5997,19 +5996,16 @@
         <v>268</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J76" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
         <v>135</v>
@@ -6020,26 +6016,23 @@
       <c r="D77" t="s">
         <v>705</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>219</v>
+      <c r="E77" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J77" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s">
         <v>135</v>
@@ -6051,16 +6044,16 @@
         <v>705</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H78" t="s">
-        <v>243</v>
+        <v>434</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
@@ -6069,7 +6062,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B79" t="s">
         <v>135</v>
@@ -6081,16 +6074,16 @@
         <v>705</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="H79" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -6099,7 +6092,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
         <v>135</v>
@@ -6114,13 +6107,13 @@
         <v>206</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -6129,7 +6122,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>735</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
@@ -6138,21 +6131,22 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>426</v>
-      </c>
-      <c r="E81" t="s">
-        <v>716</v>
-      </c>
-      <c r="F81" t="s">
-        <v>736</v>
-      </c>
-      <c r="G81" t="s">
-        <v>734</v>
+        <v>705</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H81" t="s">
-        <v>737</v>
+        <v>211</v>
       </c>
       <c r="I81" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6717,7 +6711,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>646</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -6726,57 +6720,57 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
+        <v>426</v>
+      </c>
+      <c r="E101" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" t="s">
+        <v>648</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="H101" t="s">
+        <v>648</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
         <v>32</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
         <v>247</v>
       </c>
-      <c r="I101" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="H102" s="20"/>
       <c r="I102" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J102" s="20"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="20" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>41</v>
@@ -6788,25 +6782,24 @@
         <v>707</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="H103" s="20"/>
-      <c r="I103" s="20">
-        <v>0</v>
-      </c>
-      <c r="J103" s="20" t="s">
-        <v>555</v>
-      </c>
+      <c r="I103" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="20" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>41</v>
@@ -6818,13 +6811,13 @@
         <v>707</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="20">
@@ -6836,7 +6829,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="20" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>41</v>
@@ -6851,22 +6844,22 @@
         <v>546</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>554</v>
       </c>
       <c r="H105" s="20"/>
       <c r="I105" s="20">
         <v>0</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="20" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>41</v>
@@ -6878,25 +6871,25 @@
         <v>707</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>557</v>
+        <v>550</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H106" s="20"/>
       <c r="I106" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="20" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>41</v>
@@ -6908,25 +6901,25 @@
         <v>707</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="20">
         <v>1</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="20" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>41</v>
@@ -6938,87 +6931,85 @@
         <v>707</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>283</v>
+        <v>569</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20">
+        <v>1</v>
+      </c>
+      <c r="J108" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20">
         <v>0</v>
       </c>
-      <c r="J108" s="20" t="s">
+      <c r="J109" s="20" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>480</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>41</v>
       </c>
-      <c r="C109" t="s">
-        <v>26</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
         <v>708</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>255</v>
       </c>
-      <c r="I109" t="e">
+      <c r="I110" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>263</v>
-      </c>
-      <c r="B110" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" t="s">
-        <v>708</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H110" t="s">
-        <v>264</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>583</v>
-      </c>
-    </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>481</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -7030,57 +7021,57 @@
         <v>708</v>
       </c>
       <c r="E111" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H111" t="s">
+        <v>264</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>708</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H112" t="s">
         <v>257</v>
       </c>
-      <c r="I111" t="e">
+      <c r="I112" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>201</v>
-      </c>
-      <c r="B112" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" t="s">
-        <v>705</v>
-      </c>
-      <c r="E112" t="s">
-        <v>195</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G112" t="s">
-        <v>192</v>
-      </c>
-      <c r="H112" t="s">
-        <v>200</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>584</v>
-      </c>
-    </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>472</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -7092,25 +7083,27 @@
         <v>705</v>
       </c>
       <c r="E113" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>474</v>
+        <v>198</v>
       </c>
       <c r="G113" t="s">
-        <v>476</v>
+        <v>192</v>
       </c>
       <c r="H113" t="s">
-        <v>478</v>
-      </c>
-      <c r="I113" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>200</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -7122,16 +7115,16 @@
         <v>705</v>
       </c>
       <c r="E114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
       <c r="G114" t="s">
-        <v>191</v>
+        <v>476</v>
       </c>
       <c r="H114" t="s">
-        <v>199</v>
+        <v>478</v>
       </c>
       <c r="I114" t="e">
         <f>NA()</f>
@@ -7140,7 +7133,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>473</v>
+        <v>197</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -7152,16 +7145,16 @@
         <v>705</v>
       </c>
       <c r="E115" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>475</v>
+        <v>196</v>
       </c>
       <c r="G115" t="s">
-        <v>477</v>
+        <v>191</v>
       </c>
       <c r="H115" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
       <c r="I115" t="e">
         <f>NA()</f>
@@ -7170,7 +7163,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>646</v>
+        <v>473</v>
       </c>
       <c r="B116" t="s">
         <v>41</v>
@@ -7179,22 +7172,23 @@
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>426</v>
+        <v>705</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
-      </c>
-      <c r="F116" t="s">
-        <v>648</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>647</v>
+        <v>193</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G116" t="s">
+        <v>477</v>
       </c>
       <c r="H116" t="s">
-        <v>648</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="I116" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7627,7 +7621,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -7642,13 +7636,13 @@
         <v>160</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G131" t="s">
+        <v>746</v>
+      </c>
+      <c r="H131" t="s">
         <v>747</v>
-      </c>
-      <c r="G131" t="s">
-        <v>748</v>
-      </c>
-      <c r="H131" t="s">
-        <v>749</v>
       </c>
       <c r="I131" t="e">
         <f>NA()</f>
@@ -8232,10 +8226,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J152">
-    <sortCondition descending="1" ref="B2:B152"/>
-    <sortCondition ref="D2:D152"/>
-    <sortCondition ref="A2:A152"/>
+  <sortState ref="A2:J153">
+    <sortCondition descending="1" ref="B2:B153"/>
+    <sortCondition ref="D2:D153"/>
+    <sortCondition ref="A2:A153"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="560" windowWidth="24480" windowHeight="12100" tabRatio="652" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="21800" yWindow="6780" windowWidth="24480" windowHeight="12100" tabRatio="652" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -1969,9 +1969,6 @@
     <t>pOrganicN</t>
   </si>
   <si>
-    <t>PFractionMineralizableN</t>
-  </si>
-  <si>
     <t>pStones</t>
   </si>
   <si>
@@ -2342,6 +2339,9 @@
   </si>
   <si>
     <t>cCycleEndType</t>
+  </si>
+  <si>
+    <t>pFractionMineralizableN</t>
   </si>
 </sst>
 </file>
@@ -2457,8 +2457,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="481">
+  <cellStyleXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2976,7 +2984,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="481">
+  <cellStyles count="489">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3217,6 +3225,10 @@
     <cellStyle name="Lien hypertexte" xfId="475" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="477" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3457,6 +3469,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="476" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="478" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3823,8 +3839,8 @@
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
@@ -3897,7 +3913,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
         <v>423</v>
@@ -3912,10 +3928,10 @@
         <v>177</v>
       </c>
       <c r="F3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H3" t="s">
         <v>701</v>
-      </c>
-      <c r="H3" t="s">
-        <v>702</v>
       </c>
       <c r="I3" t="e">
         <f>NA()</f>
@@ -3924,7 +3940,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" t="s">
         <v>423</v>
@@ -3939,10 +3955,10 @@
         <v>177</v>
       </c>
       <c r="F4" t="s">
+        <v>741</v>
+      </c>
+      <c r="H4" t="s">
         <v>742</v>
-      </c>
-      <c r="H4" t="s">
-        <v>743</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3974,13 +3990,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D6" t="s">
         <v>426</v>
@@ -3989,13 +4005,13 @@
         <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G6" t="s">
         <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I6" t="e">
         <v>#N/A</v>
@@ -4027,7 +4043,7 @@
         <v>-5</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4056,12 +4072,12 @@
         <v>-10</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B9" t="s">
         <v>423</v>
@@ -4076,10 +4092,10 @@
         <v>177</v>
       </c>
       <c r="F9" t="s">
+        <v>702</v>
+      </c>
+      <c r="H9" t="s">
         <v>703</v>
-      </c>
-      <c r="H9" t="s">
-        <v>704</v>
       </c>
       <c r="I9" t="e">
         <f>NA()</f>
@@ -4158,7 +4174,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>534</v>
@@ -4186,7 +4202,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>534</v>
@@ -4214,7 +4230,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>534</v>
@@ -4242,7 +4258,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>534</v>
@@ -4270,7 +4286,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>534</v>
@@ -4298,7 +4314,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>575</v>
@@ -4326,7 +4342,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>534</v>
@@ -4354,7 +4370,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>177</v>
@@ -4382,7 +4398,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>534</v>
@@ -4410,7 +4426,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" t="s">
         <v>466</v>
@@ -4439,7 +4455,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>193</v>
@@ -4451,7 +4467,7 @@
         <v>190</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4459,7 +4475,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" t="s">
         <v>423</v>
@@ -4468,19 +4484,19 @@
         <v>26</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>193</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>644</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>645</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4497,7 +4513,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>177</v>
@@ -4526,7 +4542,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>230</v>
@@ -4555,7 +4571,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>237</v>
@@ -4587,7 +4603,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E27" t="s">
         <v>97</v>
@@ -4616,7 +4632,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E28" t="s">
         <v>97</v>
@@ -4645,7 +4661,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E29" t="s">
         <v>97</v>
@@ -4678,7 +4694,7 @@
         <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E30" t="s">
         <v>161</v>
@@ -4705,7 +4721,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>177</v>
@@ -4731,7 +4747,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E32" t="s">
         <v>118</v>
@@ -4760,7 +4776,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E33" t="s">
         <v>118</v>
@@ -4789,7 +4805,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E34" t="s">
         <v>112</v>
@@ -4809,7 +4825,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B35" t="s">
         <v>423</v>
@@ -4818,19 +4834,19 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E35" t="s">
+        <v>715</v>
+      </c>
+      <c r="F35" t="s">
         <v>716</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>717</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>718</v>
-      </c>
-      <c r="H35" t="s">
-        <v>719</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4838,7 +4854,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>423</v>
@@ -4847,19 +4863,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G36" t="s">
         <v>397</v>
       </c>
       <c r="H36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4876,7 +4892,7 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E37" t="s">
         <v>322</v>
@@ -4905,7 +4921,7 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E38" t="s">
         <v>322</v>
@@ -4934,7 +4950,7 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E39" t="s">
         <v>322</v>
@@ -4963,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E40" t="s">
         <v>322</v>
@@ -4992,7 +5008,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E41" t="s">
         <v>322</v>
@@ -5021,7 +5037,7 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E42" t="s">
         <v>322</v>
@@ -5050,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E43" t="s">
         <v>322</v>
@@ -5079,7 +5095,7 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E44" t="s">
         <v>322</v>
@@ -5108,7 +5124,7 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E45" t="s">
         <v>322</v>
@@ -5137,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E46" t="s">
         <v>322</v>
@@ -5166,7 +5182,7 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E47" t="s">
         <v>104</v>
@@ -5223,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -5253,7 +5269,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -5283,7 +5299,7 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -5313,7 +5329,7 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
@@ -5334,7 +5350,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B53" t="s">
         <v>135</v>
@@ -5346,16 +5362,16 @@
         <v>426</v>
       </c>
       <c r="E53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F53" t="s">
+        <v>735</v>
+      </c>
+      <c r="G53" t="s">
+        <v>733</v>
+      </c>
+      <c r="H53" t="s">
         <v>736</v>
-      </c>
-      <c r="G53" t="s">
-        <v>734</v>
-      </c>
-      <c r="H53" t="s">
-        <v>737</v>
       </c>
       <c r="I53" t="e">
         <v>#N/A</v>
@@ -5372,7 +5388,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>517</v>
@@ -5398,7 +5414,7 @@
         <v>26</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>520</v>
@@ -5424,7 +5440,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>523</v>
@@ -5450,7 +5466,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>526</v>
@@ -5476,7 +5492,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>503</v>
@@ -5502,7 +5518,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>507</v>
@@ -5528,7 +5544,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>507</v>
@@ -5554,7 +5570,7 @@
         <v>26</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>507</v>
@@ -5580,7 +5596,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>503</v>
@@ -5606,7 +5622,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>517</v>
@@ -5632,7 +5648,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>514</v>
@@ -5658,7 +5674,7 @@
         <v>26</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>531</v>
@@ -5684,7 +5700,7 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>177</v>
@@ -5714,7 +5730,7 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>249</v>
@@ -5744,7 +5760,7 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>268</v>
@@ -5774,7 +5790,7 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>268</v>
@@ -5804,7 +5820,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>268</v>
@@ -5834,7 +5850,7 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>268</v>
@@ -5864,7 +5880,7 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>177</v>
@@ -5894,7 +5910,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>177</v>
@@ -5924,7 +5940,7 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>217</v>
@@ -5957,7 +5973,7 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5990,7 +6006,7 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>268</v>
@@ -6014,7 +6030,7 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>268</v>
@@ -6041,7 +6057,7 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>220</v>
@@ -6071,7 +6087,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>242</v>
@@ -6101,7 +6117,7 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>206</v>
@@ -6131,7 +6147,7 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>206</v>
@@ -6161,7 +6177,7 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E82" t="s">
         <v>176</v>
@@ -6191,7 +6207,7 @@
         <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F83" t="s">
         <v>449</v>
@@ -6215,7 +6231,7 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E84" t="s">
         <v>177</v>
@@ -6245,7 +6261,7 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
@@ -6275,7 +6291,7 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -6305,7 +6321,7 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -6335,7 +6351,7 @@
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -6365,7 +6381,7 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -6395,7 +6411,7 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -6425,7 +6441,7 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -6455,7 +6471,7 @@
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -6485,7 +6501,7 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
@@ -6513,7 +6529,7 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>139</v>
@@ -6540,7 +6556,7 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E95" t="s">
         <v>112</v>
@@ -6570,7 +6586,7 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>351</v>
@@ -6591,7 +6607,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B97" t="s">
         <v>135</v>
@@ -6600,19 +6616,19 @@
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F97" t="s">
+        <v>668</v>
+      </c>
+      <c r="G97" t="s">
+        <v>652</v>
+      </c>
+      <c r="H97" t="s">
         <v>669</v>
-      </c>
-      <c r="G97" t="s">
-        <v>653</v>
-      </c>
-      <c r="H97" t="s">
-        <v>670</v>
       </c>
       <c r="I97" t="e">
         <f>NA()</f>
@@ -6621,7 +6637,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B98" t="s">
         <v>135</v>
@@ -6630,19 +6646,19 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H98" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I98" t="e">
         <f>NA()</f>
@@ -6651,7 +6667,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B99" t="s">
         <v>135</v>
@@ -6660,19 +6676,19 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F99" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G99" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H99" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I99" t="e">
         <f>NA()</f>
@@ -6690,7 +6706,7 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E100" t="s">
         <v>177</v>
@@ -6711,7 +6727,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -6726,13 +6742,13 @@
         <v>112</v>
       </c>
       <c r="F101" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G101" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="H101" t="s">
         <v>647</v>
-      </c>
-      <c r="H101" t="s">
-        <v>648</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6779,7 +6795,7 @@
         <v>26</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>546</v>
@@ -6808,7 +6824,7 @@
         <v>26</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>534</v>
@@ -6838,7 +6854,7 @@
         <v>26</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>546</v>
@@ -6868,7 +6884,7 @@
         <v>26</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>546</v>
@@ -6898,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>507</v>
@@ -6928,7 +6944,7 @@
         <v>26</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>503</v>
@@ -6958,7 +6974,7 @@
         <v>26</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>546</v>
@@ -6988,7 +7004,7 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>253</v>
@@ -7018,7 +7034,7 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>238</v>
@@ -7050,7 +7066,7 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>249</v>
@@ -7080,7 +7096,7 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E113" t="s">
         <v>195</v>
@@ -7112,7 +7128,7 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E114" t="s">
         <v>193</v>
@@ -7142,7 +7158,7 @@
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E115" t="s">
         <v>195</v>
@@ -7172,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E116" t="s">
         <v>193</v>
@@ -7202,7 +7218,7 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E117" t="s">
         <v>160</v>
@@ -7231,7 +7247,7 @@
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E118" t="s">
         <v>160</v>
@@ -7263,7 +7279,7 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E119" t="s">
         <v>160</v>
@@ -7295,7 +7311,7 @@
         <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E120" t="s">
         <v>160</v>
@@ -7327,7 +7343,7 @@
         <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
@@ -7357,7 +7373,7 @@
         <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E122" t="s">
         <v>160</v>
@@ -7389,7 +7405,7 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
@@ -7421,7 +7437,7 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -7451,7 +7467,7 @@
         <v>163</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>171</v>
@@ -7477,7 +7493,7 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>176</v>
@@ -7507,7 +7523,7 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
@@ -7537,7 +7553,7 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E128" t="s">
         <v>160</v>
@@ -7559,7 +7575,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -7568,7 +7584,7 @@
         <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>177</v>
@@ -7590,7 +7606,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
@@ -7599,7 +7615,7 @@
         <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E130" t="s">
         <v>160</v>
@@ -7621,7 +7637,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -7630,19 +7646,19 @@
         <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E131" t="s">
         <v>160</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G131" t="s">
         <v>745</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>746</v>
-      </c>
-      <c r="H131" t="s">
-        <v>747</v>
       </c>
       <c r="I131" t="e">
         <f>NA()</f>
@@ -7652,7 +7668,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -7661,19 +7677,19 @@
         <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E132" t="s">
         <v>112</v>
       </c>
       <c r="F132" t="s">
+        <v>672</v>
+      </c>
+      <c r="G132" t="s">
+        <v>671</v>
+      </c>
+      <c r="H132" t="s">
         <v>673</v>
-      </c>
-      <c r="G132" t="s">
-        <v>672</v>
-      </c>
-      <c r="H132" t="s">
-        <v>674</v>
       </c>
       <c r="I132" t="e">
         <f>NA()</f>
@@ -7682,7 +7698,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
@@ -7691,19 +7707,19 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E133" t="s">
         <v>160</v>
       </c>
       <c r="F133" t="s">
+        <v>664</v>
+      </c>
+      <c r="G133" t="s">
         <v>665</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>666</v>
-      </c>
-      <c r="H133" t="s">
-        <v>667</v>
       </c>
       <c r="I133" t="e">
         <f>NA()</f>
@@ -7712,7 +7728,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
@@ -7721,19 +7737,19 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E134" t="s">
         <v>112</v>
       </c>
       <c r="F134" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G134" t="s">
         <v>400</v>
       </c>
       <c r="H134" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I134" t="e">
         <f>NA()</f>
@@ -7751,7 +7767,7 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E135" t="s">
         <v>112</v>
@@ -7775,7 +7791,7 @@
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E136" t="s">
         <v>112</v>
@@ -7796,7 +7812,7 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E137" t="s">
         <v>112</v>
@@ -7817,7 +7833,7 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E138" t="s">
         <v>112</v>
@@ -7838,7 +7854,7 @@
         <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E139" t="s">
         <v>112</v>
@@ -7859,7 +7875,7 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E140" t="s">
         <v>112</v>
@@ -7880,7 +7896,7 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E141" t="s">
         <v>112</v>
@@ -7901,7 +7917,7 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E142" t="s">
         <v>112</v>
@@ -7922,7 +7938,7 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E143" t="s">
         <v>112</v>
@@ -7943,7 +7959,7 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E144" t="s">
         <v>112</v>
@@ -7955,7 +7971,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B145" t="s">
         <v>41</v>
@@ -7964,19 +7980,19 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E145" t="s">
         <v>112</v>
       </c>
       <c r="F145" t="s">
+        <v>694</v>
+      </c>
+      <c r="G145" t="s">
+        <v>693</v>
+      </c>
+      <c r="H145" t="s">
         <v>695</v>
-      </c>
-      <c r="G145" t="s">
-        <v>694</v>
-      </c>
-      <c r="H145" t="s">
-        <v>696</v>
       </c>
       <c r="I145" t="e">
         <f>NA()</f>
@@ -7985,7 +8001,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B146" t="s">
         <v>41</v>
@@ -7994,19 +8010,19 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E146" t="s">
         <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G146" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H146" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I146" t="e">
         <f>NA()</f>
@@ -8015,7 +8031,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B147" t="s">
         <v>41</v>
@@ -8024,19 +8040,19 @@
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E147" t="s">
         <v>112</v>
       </c>
       <c r="F147" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G147" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I147" t="e">
         <f>NA()</f>
@@ -8045,7 +8061,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B148" t="s">
         <v>41</v>
@@ -8054,19 +8070,19 @@
         <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E148" t="s">
         <v>112</v>
       </c>
       <c r="F148" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G148" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H148" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I148" t="e">
         <f>NA()</f>
@@ -8084,7 +8100,7 @@
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E149" t="s">
         <v>112</v>
@@ -8105,7 +8121,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B150" t="s">
         <v>41</v>
@@ -8114,25 +8130,25 @@
         <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E150" t="s">
         <v>112</v>
       </c>
       <c r="F150" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G150" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H150" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8146,7 +8162,7 @@
         <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E151" t="s">
         <v>16</v>
@@ -8176,7 +8192,7 @@
         <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E152" t="s">
         <v>112</v>
@@ -8206,7 +8222,7 @@
         <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E153" t="s">
         <v>112</v>
@@ -8246,8 +8262,8 @@
   <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8304,7 +8320,7 @@
         <v>363</v>
       </c>
       <c r="G2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2" t="s">
         <v>364</v>
@@ -8327,13 +8343,13 @@
         <v>346</v>
       </c>
       <c r="F3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" t="s">
         <v>720</v>
-      </c>
-      <c r="G3" t="s">
-        <v>635</v>
-      </c>
-      <c r="H3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8356,10 +8372,10 @@
         <v>392</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8382,10 +8398,10 @@
         <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8408,10 +8424,10 @@
         <v>394</v>
       </c>
       <c r="G6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8434,10 +8450,10 @@
         <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8526,13 +8542,13 @@
         <v>362</v>
       </c>
       <c r="F11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G11" t="s">
         <v>597</v>
       </c>
       <c r="H11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8555,7 +8571,7 @@
         <v>595</v>
       </c>
       <c r="H12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8612,7 +8628,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B15" t="s">
         <v>344</v>
@@ -8621,7 +8637,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>619</v>
@@ -8630,7 +8646,7 @@
         <v>606</v>
       </c>
       <c r="H15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8644,7 +8660,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E16" t="s">
         <v>616</v>
@@ -8656,7 +8672,7 @@
         <v>607</v>
       </c>
       <c r="H16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -8670,7 +8686,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E17" t="s">
         <v>618</v>
@@ -8682,12 +8698,12 @@
         <v>608</v>
       </c>
       <c r="H17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>624</v>
+        <v>748</v>
       </c>
       <c r="B18" t="s">
         <v>344</v>
@@ -8696,7 +8712,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>621</v>
@@ -8705,12 +8721,12 @@
         <v>609</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B19" t="s">
         <v>344</v>
@@ -8719,24 +8735,24 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>617</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G19" t="s">
         <v>610</v>
       </c>
       <c r="H19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B20" t="s">
         <v>344</v>
@@ -8745,19 +8761,19 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>617</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G20" t="s">
         <v>611</v>
       </c>
       <c r="H20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -9437,7 +9453,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9449,13 +9465,13 @@
         <v>426</v>
       </c>
       <c r="F7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G7" t="e">
         <v>#N/A</v>
       </c>
       <c r="H7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7">
         <v>0.05</v>
@@ -9463,7 +9479,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -9472,16 +9488,16 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G8" t="e">
         <v>#N/A</v>
       </c>
       <c r="H8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I8">
         <v>0.02</v>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21800" yWindow="6780" windowWidth="24480" windowHeight="12100" tabRatio="652" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="35240" windowHeight="16400" tabRatio="652" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="753">
   <si>
     <t>name</t>
   </si>
@@ -2342,6 +2342,18 @@
   </si>
   <si>
     <t>pFractionMineralizableN</t>
+  </si>
+  <si>
+    <t>sIrrigationNumber</t>
+  </si>
+  <si>
+    <t>number of irrigations done on the crop</t>
+  </si>
+  <si>
+    <t>IRGNO</t>
+  </si>
+  <si>
+    <t>nombre d'irrigations réalisées sur la culture</t>
   </si>
 </sst>
 </file>
@@ -2457,8 +2469,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="489">
+  <cellStyleXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2984,7 +3004,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="489">
+  <cellStyles count="497">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3229,6 +3249,10 @@
     <cellStyle name="Lien hypertexte" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="485" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="495" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3473,6 +3497,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="486" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="496" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3837,13 +3865,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4133,7 +4161,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
         <v>423</v>
@@ -4142,58 +4170,59 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>288</v>
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>750</v>
+      </c>
+      <c r="G11" t="s">
+        <v>751</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>752</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="20" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>423</v>
@@ -4207,11 +4236,11 @@
       <c r="E13" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>541</v>
+      <c r="F13" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20">
@@ -4221,7 +4250,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="20" t="s">
-        <v>279</v>
+        <v>540</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>423</v>
@@ -4236,10 +4265,10 @@
         <v>534</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>284</v>
+        <v>541</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>542</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20">
@@ -4249,7 +4278,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>423</v>
@@ -4264,10 +4293,10 @@
         <v>534</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>537</v>
+        <v>284</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20">
@@ -4275,9 +4304,9 @@
       </c>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="20" t="s">
-        <v>538</v>
+        <v>280</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>423</v>
@@ -4292,10 +4321,10 @@
         <v>534</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>265</v>
+        <v>536</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20">
@@ -4303,9 +4332,9 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" s="14" customFormat="1">
       <c r="A17" s="20" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>423</v>
@@ -4317,13 +4346,13 @@
         <v>706</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>577</v>
+        <v>265</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20">
@@ -4333,7 +4362,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="20" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>423</v>
@@ -4345,13 +4374,13 @@
         <v>706</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20">
@@ -4361,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="20" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>423</v>
@@ -4372,14 +4401,14 @@
       <c r="D19" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>177</v>
+      <c r="E19" s="20" t="s">
+        <v>534</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20">
@@ -4389,7 +4418,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="20" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>423</v>
@@ -4400,14 +4429,14 @@
       <c r="D20" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>534</v>
+      <c r="E20" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20">
@@ -4416,66 +4445,65 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>465</v>
-      </c>
-      <c r="B21" t="s">
-        <v>423</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="E21" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H21" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>423</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>640</v>
+      <c r="E22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>641</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>423</v>
@@ -4490,42 +4518,42 @@
         <v>193</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>643</v>
+        <v>194</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>642</v>
+        <v>190</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>281</v>
+      <c r="A24" s="14" t="s">
+        <v>641</v>
       </c>
       <c r="B24" t="s">
         <v>423</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" t="s">
-        <v>223</v>
+      <c r="E24" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>644</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4533,7 +4561,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
         <v>423</v>
@@ -4545,24 +4573,24 @@
         <v>704</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
-        <v>441</v>
+      <c r="A26" t="s">
+        <v>432</v>
       </c>
       <c r="B26" t="s">
         <v>423</v>
@@ -4574,27 +4602,24 @@
         <v>704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>442</v>
+        <v>231</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
-        <v>443</v>
+        <v>232</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>174</v>
+      <c r="A27" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="B27" t="s">
         <v>423</v>
@@ -4602,28 +4627,31 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>660</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
+      <c r="D27" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G27" t="s">
-        <v>97</v>
+        <v>442</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="H27" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
+      <c r="J27" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>423</v>
@@ -4638,21 +4666,21 @@
         <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>591</v>
+        <v>456</v>
       </c>
       <c r="G28" t="s">
-        <v>590</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>592</v>
+        <v>457</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>455</v>
+        <v>589</v>
       </c>
       <c r="B29" t="s">
         <v>423</v>
@@ -4667,78 +4695,81 @@
         <v>97</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>458</v>
+        <v>591</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>590</v>
       </c>
       <c r="H29" t="s">
-        <v>459</v>
-      </c>
-      <c r="I29" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>592</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>455</v>
       </c>
       <c r="B30" t="s">
         <v>423</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>660</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>159</v>
+        <v>458</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
       <c r="I30" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J30" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>435</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>423</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
         <v>660</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>177</v>
+      <c r="E31" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>436</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s">
-        <v>437</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="I31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
         <v>423</v>
@@ -4749,17 +4780,14 @@
       <c r="D32" t="s">
         <v>660</v>
       </c>
-      <c r="E32" t="s">
-        <v>118</v>
+      <c r="E32" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>437</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4767,7 +4795,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="B33" t="s">
         <v>423</v>
@@ -4782,13 +4810,13 @@
         <v>118</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4796,28 +4824,28 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>354</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
         <v>423</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>708</v>
+        <v>660</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>355</v>
+        <v>118</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>353</v>
+        <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4825,28 +4853,28 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>714</v>
-      </c>
-      <c r="B35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>423</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="E35" t="s">
-        <v>715</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>716</v>
+        <v>355</v>
       </c>
       <c r="G35" t="s">
-        <v>717</v>
+        <v>353</v>
       </c>
       <c r="H35" t="s">
-        <v>718</v>
+        <v>356</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4854,28 +4882,28 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>657</v>
-      </c>
-      <c r="B36" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B36" t="s">
         <v>423</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>715</v>
       </c>
       <c r="F36" t="s">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="G36" t="s">
-        <v>397</v>
+        <v>717</v>
       </c>
       <c r="H36" t="s">
-        <v>659</v>
+        <v>718</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4883,9 +4911,9 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B37" t="s">
+        <v>657</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>423</v>
       </c>
       <c r="C37" t="s">
@@ -4895,24 +4923,24 @@
         <v>709</v>
       </c>
       <c r="E37" t="s">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>658</v>
       </c>
       <c r="G37" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="H37" t="s">
-        <v>334</v>
+        <v>659</v>
       </c>
       <c r="I37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
         <v>423</v>
@@ -4927,13 +4955,13 @@
         <v>322</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
         <v>333</v>
       </c>
       <c r="H38" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I38">
         <v>0.5</v>
@@ -4941,7 +4969,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
         <v>423</v>
@@ -4956,13 +4984,13 @@
         <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
         <v>333</v>
       </c>
       <c r="H39" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I39">
         <v>0.5</v>
@@ -4970,7 +4998,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
         <v>423</v>
@@ -4985,13 +5013,13 @@
         <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G40" t="s">
         <v>333</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I40">
         <v>0.5</v>
@@ -4999,7 +5027,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s">
         <v>423</v>
@@ -5014,13 +5042,13 @@
         <v>322</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
         <v>333</v>
       </c>
       <c r="H41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I41">
         <v>0.5</v>
@@ -5028,7 +5056,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s">
         <v>423</v>
@@ -5043,13 +5071,13 @@
         <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>333</v>
       </c>
       <c r="H42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I42">
         <v>0.5</v>
@@ -5057,7 +5085,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
         <v>423</v>
@@ -5072,13 +5100,13 @@
         <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G43" t="s">
         <v>333</v>
       </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I43">
         <v>0.5</v>
@@ -5086,7 +5114,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
         <v>423</v>
@@ -5101,13 +5129,13 @@
         <v>322</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G44" t="s">
         <v>333</v>
       </c>
       <c r="H44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I44">
         <v>0.5</v>
@@ -5115,7 +5143,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s">
         <v>423</v>
@@ -5130,13 +5158,13 @@
         <v>322</v>
       </c>
       <c r="F45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G45" t="s">
         <v>333</v>
       </c>
       <c r="H45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I45">
         <v>0.5</v>
@@ -5144,7 +5172,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s">
         <v>423</v>
@@ -5159,13 +5187,13 @@
         <v>322</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G46" t="s">
         <v>333</v>
       </c>
       <c r="H46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I46">
         <v>0.5</v>
@@ -5173,7 +5201,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
         <v>423</v>
@@ -5182,76 +5210,75 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
       <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>705</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="G48" t="s">
+        <v>106</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>705</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I49" t="e">
         <f>NA()</f>
@@ -5260,7 +5287,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -5272,16 +5299,16 @@
         <v>705</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I50" t="e">
         <f>NA()</f>
@@ -5290,7 +5317,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -5302,16 +5329,16 @@
         <v>705</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I51" t="e">
         <f>NA()</f>
@@ -5320,7 +5347,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -5335,13 +5362,13 @@
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I52" t="e">
         <f>NA()</f>
@@ -5350,62 +5377,66 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>705</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
         <v>734</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>135</v>
       </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
         <v>426</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>715</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>735</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>733</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>736</v>
       </c>
-      <c r="I53" t="e">
+      <c r="I54" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="20" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>135</v>
@@ -5417,13 +5448,13 @@
         <v>706</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -5431,7 +5462,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>135</v>
@@ -5443,13 +5474,13 @@
         <v>706</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -5457,7 +5488,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>135</v>
@@ -5469,13 +5500,13 @@
         <v>706</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -5483,7 +5514,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="20" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>135</v>
@@ -5495,13 +5526,13 @@
         <v>706</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -5509,7 +5540,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="20" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>135</v>
@@ -5521,13 +5552,13 @@
         <v>706</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -5535,7 +5566,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="20" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>135</v>
@@ -5550,10 +5581,10 @@
         <v>507</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5561,7 +5592,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>135</v>
@@ -5576,10 +5607,10 @@
         <v>507</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5587,7 +5618,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="20" t="s">
-        <v>266</v>
+        <v>511</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>135</v>
@@ -5599,13 +5630,13 @@
         <v>706</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -5613,7 +5644,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="20" t="s">
-        <v>528</v>
+        <v>266</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>135</v>
@@ -5625,13 +5656,13 @@
         <v>706</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -5639,7 +5670,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="20" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>135</v>
@@ -5651,13 +5682,13 @@
         <v>706</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -5665,7 +5696,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="20" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>135</v>
@@ -5677,51 +5708,47 @@
         <v>706</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>533</v>
+        <v>295</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" t="s">
-        <v>707</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H66" t="s">
-        <v>261</v>
-      </c>
-      <c r="I66" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>251</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -5733,16 +5760,16 @@
         <v>707</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I67" t="e">
         <f>NA()</f>
@@ -5751,7 +5778,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>493</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -5762,17 +5789,17 @@
       <c r="D68" t="s">
         <v>707</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>268</v>
+      <c r="E68" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>303</v>
+        <v>250</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="H68" t="s">
-        <v>501</v>
+        <v>252</v>
       </c>
       <c r="I68" t="e">
         <f>NA()</f>
@@ -5781,7 +5808,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s">
         <v>135</v>
@@ -5796,13 +5823,13 @@
         <v>268</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H69" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I69" t="e">
         <f>NA()</f>
@@ -5811,7 +5838,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
         <v>135</v>
@@ -5826,13 +5853,13 @@
         <v>268</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I70" t="e">
         <f>NA()</f>
@@ -5841,7 +5868,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>588</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
@@ -5855,14 +5882,14 @@
       <c r="E71" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>494</v>
+      <c r="F71" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I71" t="e">
         <f>NA()</f>
@@ -5871,7 +5898,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>588</v>
       </c>
       <c r="B72" t="s">
         <v>135</v>
@@ -5880,19 +5907,19 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>704</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>306</v>
+        <v>707</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="H72" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="I72" t="e">
         <f>NA()</f>
@@ -5901,7 +5928,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
         <v>135</v>
@@ -5916,13 +5943,13 @@
         <v>177</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>438</v>
+        <v>306</v>
       </c>
       <c r="H73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I73" t="e">
         <f>NA()</f>
@@ -5931,7 +5958,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
         <v>135</v>
@@ -5942,29 +5969,26 @@
       <c r="D74" t="s">
         <v>704</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>439</v>
+      <c r="E74" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="H74" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="I74" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J74" t="s">
-        <v>469</v>
-      </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
         <v>135</v>
@@ -5975,29 +5999,29 @@
       <c r="D75" t="s">
         <v>704</v>
       </c>
-      <c r="E75" t="s">
-        <v>15</v>
+      <c r="E75" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>440</v>
+        <v>213</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>439</v>
       </c>
       <c r="H75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I75" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J75" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -6008,20 +6032,29 @@
       <c r="D76" t="s">
         <v>704</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>307</v>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H76" t="s">
+        <v>215</v>
       </c>
       <c r="I76" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J76" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
         <v>135</v>
@@ -6036,19 +6069,16 @@
         <v>268</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I77" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J77" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
         <v>135</v>
@@ -6059,26 +6089,23 @@
       <c r="D78" t="s">
         <v>704</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>219</v>
+      <c r="E78" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="I78" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J78" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
         <v>135</v>
@@ -6090,16 +6117,16 @@
         <v>704</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H79" t="s">
-        <v>243</v>
+        <v>434</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I79" t="e">
         <f>NA()</f>
@@ -6108,7 +6135,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
         <v>135</v>
@@ -6120,16 +6147,16 @@
         <v>704</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="H80" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="I80" t="e">
         <f>NA()</f>
@@ -6138,7 +6165,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
@@ -6153,13 +6180,13 @@
         <v>206</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I81" t="e">
         <f>NA()</f>
@@ -6167,8 +6194,8 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="6" t="s">
-        <v>453</v>
+      <c r="A82" t="s">
+        <v>209</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
@@ -6177,19 +6204,19 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>660</v>
-      </c>
-      <c r="E82" t="s">
-        <v>176</v>
+        <v>704</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G82" t="s">
-        <v>186</v>
+        <v>207</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H82" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="I82" t="e">
         <f>NA()</f>
@@ -6197,23 +6224,29 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>451</v>
+      <c r="A83" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="B83" t="s">
         <v>135</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
         <v>660</v>
       </c>
-      <c r="F83" t="s">
-        <v>449</v>
+      <c r="E83" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" t="s">
+        <v>186</v>
       </c>
       <c r="H83" t="s">
-        <v>450</v>
+        <v>181</v>
       </c>
       <c r="I83" t="e">
         <f>NA()</f>
@@ -6221,29 +6254,23 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="6" t="s">
-        <v>175</v>
+      <c r="A84" t="s">
+        <v>451</v>
       </c>
       <c r="B84" t="s">
         <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
         <v>660</v>
       </c>
-      <c r="E84" t="s">
-        <v>177</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>185</v>
+      <c r="F84" t="s">
+        <v>449</v>
       </c>
       <c r="H84" t="s">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="I84" t="e">
         <f>NA()</f>
@@ -6251,8 +6278,8 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>61</v>
+      <c r="A85" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B85" t="s">
         <v>135</v>
@@ -6264,16 +6291,16 @@
         <v>660</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" t="s">
-        <v>62</v>
-      </c>
-      <c r="G85" t="s">
-        <v>63</v>
+        <v>177</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="H85" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="I85" t="e">
         <f>NA()</f>
@@ -6281,8 +6308,8 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="16" t="s">
-        <v>130</v>
+      <c r="A86" t="s">
+        <v>61</v>
       </c>
       <c r="B86" t="s">
         <v>135</v>
@@ -6296,14 +6323,14 @@
       <c r="E86" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>277</v>
+      <c r="F86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" t="s">
+        <v>63</v>
       </c>
       <c r="H86" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="I86" t="e">
         <f>NA()</f>
@@ -6311,8 +6338,8 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>58</v>
+      <c r="A87" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="B87" t="s">
         <v>135</v>
@@ -6326,14 +6353,14 @@
       <c r="E87" t="s">
         <v>15</v>
       </c>
-      <c r="F87" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s">
-        <v>64</v>
+      <c r="F87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="I87" t="e">
         <f>NA()</f>
@@ -6341,8 +6368,8 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="16" t="s">
-        <v>131</v>
+      <c r="A88" t="s">
+        <v>58</v>
       </c>
       <c r="B88" t="s">
         <v>135</v>
@@ -6356,14 +6383,14 @@
       <c r="E88" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>278</v>
+      <c r="F88" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s">
+        <v>64</v>
       </c>
       <c r="H88" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="I88" t="e">
         <f>NA()</f>
@@ -6371,8 +6398,8 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>422</v>
+      <c r="A89" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -6386,14 +6413,14 @@
       <c r="E89" t="s">
         <v>15</v>
       </c>
-      <c r="F89" t="s">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s">
-        <v>65</v>
+      <c r="F89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="H89" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="I89" t="e">
         <f>NA()</f>
@@ -6401,8 +6428,8 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="16" t="s">
-        <v>421</v>
+      <c r="A90" t="s">
+        <v>422</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
@@ -6416,14 +6443,14 @@
       <c r="E90" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>274</v>
+      <c r="F90" t="s">
+        <v>87</v>
+      </c>
+      <c r="G90" t="s">
+        <v>65</v>
       </c>
       <c r="H90" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="I90" t="e">
         <f>NA()</f>
@@ -6431,8 +6458,8 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>586</v>
+      <c r="A91" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="B91" t="s">
         <v>135</v>
@@ -6446,14 +6473,14 @@
       <c r="E91" t="s">
         <v>15</v>
       </c>
-      <c r="F91" t="s">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s">
-        <v>66</v>
+      <c r="F91" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="I91" t="e">
         <f>NA()</f>
@@ -6461,8 +6488,8 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="16" t="s">
-        <v>587</v>
+      <c r="A92" t="s">
+        <v>586</v>
       </c>
       <c r="B92" t="s">
         <v>135</v>
@@ -6476,14 +6503,14 @@
       <c r="E92" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>275</v>
+      <c r="F92" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s">
+        <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="I92" t="e">
         <f>NA()</f>
@@ -6491,8 +6518,8 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="4" t="s">
-        <v>267</v>
+      <c r="A93" s="16" t="s">
+        <v>587</v>
       </c>
       <c r="B93" t="s">
         <v>135</v>
@@ -6503,15 +6530,17 @@
       <c r="D93" t="s">
         <v>660</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="5" t="s">
-        <v>140</v>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>145</v>
+        <v>275</v>
+      </c>
+      <c r="H93" t="s">
+        <v>146</v>
       </c>
       <c r="I93" t="e">
         <f>NA()</f>
@@ -6519,8 +6548,8 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>142</v>
+      <c r="A94" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="B94" t="s">
         <v>135</v>
@@ -6531,14 +6560,15 @@
       <c r="D94" t="s">
         <v>660</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G94" t="s">
-        <v>143</v>
-      </c>
-      <c r="H94" t="s">
-        <v>144</v>
+      <c r="E94" s="4"/>
+      <c r="F94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="I94" t="e">
         <f>NA()</f>
@@ -6547,7 +6577,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>359</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
         <v>135</v>
@@ -6556,19 +6586,16 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>708</v>
-      </c>
-      <c r="E95" t="s">
-        <v>112</v>
+        <v>660</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>358</v>
+        <v>139</v>
+      </c>
+      <c r="G95" t="s">
+        <v>143</v>
       </c>
       <c r="H95" t="s">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="I95" t="e">
         <f>NA()</f>
@@ -6577,7 +6604,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B96" t="s">
         <v>135</v>
@@ -6588,17 +6615,17 @@
       <c r="D96" t="s">
         <v>708</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F96" t="s">
-        <v>347</v>
-      </c>
-      <c r="G96" t="s">
-        <v>348</v>
+      <c r="E96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="H96" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="I96" t="e">
         <f>NA()</f>
@@ -6607,7 +6634,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>667</v>
+        <v>349</v>
       </c>
       <c r="B97" t="s">
         <v>135</v>
@@ -6616,19 +6643,19 @@
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="F97" t="s">
-        <v>668</v>
+        <v>347</v>
       </c>
       <c r="G97" t="s">
-        <v>652</v>
+        <v>348</v>
       </c>
       <c r="H97" t="s">
-        <v>669</v>
+        <v>352</v>
       </c>
       <c r="I97" t="e">
         <f>NA()</f>
@@ -6637,7 +6664,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="B98" t="s">
         <v>135</v>
@@ -6652,13 +6679,13 @@
         <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="G98" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H98" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="I98" t="e">
         <f>NA()</f>
@@ -6667,7 +6694,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B99" t="s">
         <v>135</v>
@@ -6682,13 +6709,13 @@
         <v>177</v>
       </c>
       <c r="F99" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G99" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H99" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I99" t="e">
         <f>NA()</f>
@@ -6697,7 +6724,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>408</v>
+        <v>650</v>
       </c>
       <c r="B100" t="s">
         <v>135</v>
@@ -6706,19 +6733,19 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>709</v>
-      </c>
-      <c r="E100" t="s">
+        <v>662</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F100" t="s">
-        <v>406</v>
+        <v>654</v>
       </c>
       <c r="G100" t="s">
-        <v>407</v>
+        <v>651</v>
       </c>
       <c r="H100" t="s">
-        <v>409</v>
+        <v>656</v>
       </c>
       <c r="I100" t="e">
         <f>NA()</f>
@@ -6727,36 +6754,37 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>645</v>
+        <v>408</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>426</v>
+        <v>709</v>
       </c>
       <c r="E101" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="F101" t="s">
-        <v>647</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>646</v>
+        <v>406</v>
+      </c>
+      <c r="G101" t="s">
+        <v>407</v>
       </c>
       <c r="H101" t="s">
-        <v>647</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="I101" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>645</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -6765,57 +6793,57 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
+        <v>426</v>
+      </c>
+      <c r="E102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" t="s">
+        <v>647</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="H102" t="s">
+        <v>647</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
         <v>32</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H103" t="s">
         <v>247</v>
       </c>
-      <c r="I102" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="H103" s="20"/>
       <c r="I103" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="20" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>41</v>
@@ -6827,25 +6855,24 @@
         <v>706</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="H104" s="20"/>
-      <c r="I104" s="20">
-        <v>0</v>
-      </c>
-      <c r="J104" s="20" t="s">
-        <v>555</v>
-      </c>
+      <c r="I104" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="20" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>41</v>
@@ -6857,13 +6884,13 @@
         <v>706</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H105" s="20"/>
       <c r="I105" s="20">
@@ -6875,7 +6902,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="20" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>41</v>
@@ -6890,22 +6917,22 @@
         <v>546</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>554</v>
       </c>
       <c r="H106" s="20"/>
       <c r="I106" s="20">
         <v>0</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="20" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>41</v>
@@ -6917,25 +6944,25 @@
         <v>706</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>557</v>
+        <v>550</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="20" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>41</v>
@@ -6947,25 +6974,25 @@
         <v>706</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20">
         <v>1</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="20" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>41</v>
@@ -6977,87 +7004,85 @@
         <v>706</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>283</v>
+        <v>569</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="H109" s="20"/>
       <c r="I109" s="20">
+        <v>1</v>
+      </c>
+      <c r="J109" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20">
         <v>0</v>
       </c>
-      <c r="J109" s="20" t="s">
+      <c r="J110" s="20" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>480</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>41</v>
       </c>
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
         <v>707</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H111" t="s">
         <v>255</v>
       </c>
-      <c r="I110" t="e">
+      <c r="I111" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>263</v>
-      </c>
-      <c r="B111" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" t="s">
-        <v>707</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H111" t="s">
-        <v>264</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>583</v>
-      </c>
-    </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>481</v>
+        <v>263</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -7069,57 +7094,57 @@
         <v>707</v>
       </c>
       <c r="E112" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H112" t="s">
+        <v>264</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>481</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>707</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>257</v>
       </c>
-      <c r="I112" t="e">
+      <c r="I113" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113" t="s">
-        <v>704</v>
-      </c>
-      <c r="E113" t="s">
-        <v>195</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G113" t="s">
-        <v>192</v>
-      </c>
-      <c r="H113" t="s">
-        <v>200</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>584</v>
-      </c>
-    </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>472</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -7131,25 +7156,27 @@
         <v>704</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>474</v>
+        <v>198</v>
       </c>
       <c r="G114" t="s">
-        <v>476</v>
+        <v>192</v>
       </c>
       <c r="H114" t="s">
-        <v>478</v>
-      </c>
-      <c r="I114" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>200</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -7161,16 +7188,16 @@
         <v>704</v>
       </c>
       <c r="E115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
       <c r="G115" t="s">
-        <v>191</v>
+        <v>476</v>
       </c>
       <c r="H115" t="s">
-        <v>199</v>
+        <v>478</v>
       </c>
       <c r="I115" t="e">
         <f>NA()</f>
@@ -7179,7 +7206,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>473</v>
+        <v>197</v>
       </c>
       <c r="B116" t="s">
         <v>41</v>
@@ -7191,16 +7218,16 @@
         <v>704</v>
       </c>
       <c r="E116" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>475</v>
+        <v>196</v>
       </c>
       <c r="G116" t="s">
-        <v>477</v>
+        <v>191</v>
       </c>
       <c r="H116" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
       <c r="I116" t="e">
         <f>NA()</f>
@@ -7209,7 +7236,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
@@ -7218,27 +7245,28 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>489</v>
+        <v>475</v>
+      </c>
+      <c r="G117" t="s">
+        <v>477</v>
       </c>
       <c r="H117" t="s">
-        <v>490</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>491</v>
+        <v>479</v>
+      </c>
+      <c r="I117" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>488</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
@@ -7252,25 +7280,22 @@
       <c r="E118" t="s">
         <v>160</v>
       </c>
-      <c r="F118" t="s">
-        <v>90</v>
-      </c>
-      <c r="G118" t="s">
-        <v>95</v>
+      <c r="F118" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="H118" t="s">
-        <v>96</v>
+        <v>490</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -7285,24 +7310,24 @@
         <v>160</v>
       </c>
       <c r="F119" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G119" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
         <v>41</v>
@@ -7316,25 +7341,25 @@
       <c r="E120" t="s">
         <v>160</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>99</v>
+      <c r="F120" t="s">
+        <v>72</v>
       </c>
       <c r="G120" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H120" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B121" t="s">
         <v>41</v>
@@ -7346,57 +7371,57 @@
         <v>660</v>
       </c>
       <c r="E121" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121" t="s">
+        <v>100</v>
+      </c>
+      <c r="H121" t="s">
+        <v>101</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" t="s">
+        <v>660</v>
+      </c>
+      <c r="E122" t="s">
         <v>15</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G122" t="s">
         <v>124</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H122" t="s">
         <v>125</v>
       </c>
-      <c r="I121" t="e">
+      <c r="I122" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" t="s">
-        <v>41</v>
-      </c>
-      <c r="C122" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" t="s">
-        <v>660</v>
-      </c>
-      <c r="E122" t="s">
-        <v>160</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G122" t="s">
-        <v>137</v>
-      </c>
-      <c r="H122" t="s">
-        <v>147</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>484</v>
-      </c>
-    </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>454</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
@@ -7408,27 +7433,27 @@
         <v>660</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" t="s">
-        <v>460</v>
+        <v>160</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="G123" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="H123" t="s">
-        <v>461</v>
+        <v>147</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -7443,78 +7468,80 @@
         <v>15</v>
       </c>
       <c r="F124" t="s">
+        <v>460</v>
+      </c>
+      <c r="G124" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124" t="s">
+        <v>461</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>75</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>660</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
         <v>462</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G125" t="s">
         <v>77</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H125" t="s">
         <v>463</v>
       </c>
-      <c r="I124" t="e">
+      <c r="I125" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="16" t="s">
+    <row r="126" spans="1:10">
+      <c r="A126" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B126" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C126" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D126" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E126" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F126" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16" t="e">
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
-      <c r="A126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126" t="s">
-        <v>41</v>
-      </c>
-      <c r="C126" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126" t="s">
-        <v>660</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G126" t="s">
-        <v>182</v>
-      </c>
-      <c r="H126" t="s">
-        <v>178</v>
-      </c>
-      <c r="I126" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
@@ -7525,17 +7552,17 @@
       <c r="D127" t="s">
         <v>660</v>
       </c>
-      <c r="E127" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" t="s">
-        <v>54</v>
+      <c r="E127" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G127" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="H127" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="I127" t="e">
         <f>NA()</f>
@@ -7544,7 +7571,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>483</v>
+        <v>53</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -7553,29 +7580,28 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E128" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>54</v>
       </c>
       <c r="G128" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="H128" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="I128" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>661</v>
+        <v>483</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
@@ -7586,17 +7612,17 @@
       <c r="D129" t="s">
         <v>662</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>289</v>
+      <c r="E129" t="s">
+        <v>160</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G129" t="s">
+        <v>92</v>
       </c>
       <c r="H129" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="I129" t="e">
         <f>NA()</f>
@@ -7606,7 +7632,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
@@ -7617,17 +7643,17 @@
       <c r="D130" t="s">
         <v>662</v>
       </c>
-      <c r="E130" t="s">
-        <v>160</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G130" t="s">
-        <v>233</v>
+      <c r="E130" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="H130" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="I130" t="e">
         <f>NA()</f>
@@ -7637,7 +7663,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>743</v>
+        <v>674</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
@@ -7652,13 +7678,13 @@
         <v>160</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>744</v>
+        <v>234</v>
       </c>
       <c r="G131" t="s">
-        <v>745</v>
+        <v>233</v>
       </c>
       <c r="H131" t="s">
-        <v>746</v>
+        <v>235</v>
       </c>
       <c r="I131" t="e">
         <f>NA()</f>
@@ -7668,7 +7694,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>670</v>
+        <v>743</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -7680,25 +7706,26 @@
         <v>662</v>
       </c>
       <c r="E132" t="s">
-        <v>112</v>
-      </c>
-      <c r="F132" t="s">
-        <v>672</v>
+        <v>160</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="G132" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="H132" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="I132" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
@@ -7710,16 +7737,16 @@
         <v>662</v>
       </c>
       <c r="E133" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F133" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="G133" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H133" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="I133" t="e">
         <f>NA()</f>
@@ -7728,7 +7755,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
@@ -7737,19 +7764,19 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="E134" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="F134" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="G134" t="s">
-        <v>400</v>
+        <v>665</v>
       </c>
       <c r="H134" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="I134" t="e">
         <f>NA()</f>
@@ -7758,7 +7785,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>678</v>
       </c>
       <c r="B135" t="s">
         <v>41</v>
@@ -7772,8 +7799,14 @@
       <c r="E135" t="s">
         <v>112</v>
       </c>
+      <c r="F135" t="s">
+        <v>687</v>
+      </c>
       <c r="G135" t="s">
-        <v>410</v>
+        <v>400</v>
+      </c>
+      <c r="H135" t="s">
+        <v>689</v>
       </c>
       <c r="I135" t="e">
         <f>NA()</f>
@@ -7782,7 +7815,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B136" t="s">
         <v>41</v>
@@ -7795,6 +7828,9 @@
       </c>
       <c r="E136" t="s">
         <v>112</v>
+      </c>
+      <c r="G136" t="s">
+        <v>410</v>
       </c>
       <c r="I136" t="e">
         <f>NA()</f>
@@ -7803,7 +7839,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
@@ -7824,7 +7860,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B138" t="s">
         <v>41</v>
@@ -7845,7 +7881,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
         <v>41</v>
@@ -7866,7 +7902,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -7887,7 +7923,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -7908,7 +7944,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
@@ -7929,7 +7965,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
@@ -7950,7 +7986,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B144" t="s">
         <v>41</v>
@@ -7971,7 +8007,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>692</v>
+        <v>419</v>
       </c>
       <c r="B145" t="s">
         <v>41</v>
@@ -7984,15 +8020,6 @@
       </c>
       <c r="E145" t="s">
         <v>112</v>
-      </c>
-      <c r="F145" t="s">
-        <v>694</v>
-      </c>
-      <c r="G145" t="s">
-        <v>693</v>
-      </c>
-      <c r="H145" t="s">
-        <v>695</v>
       </c>
       <c r="I145" t="e">
         <f>NA()</f>
@@ -8001,7 +8028,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="B146" t="s">
         <v>41</v>
@@ -8016,13 +8043,13 @@
         <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="G146" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="H146" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="I146" t="e">
         <f>NA()</f>
@@ -8031,7 +8058,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B147" t="s">
         <v>41</v>
@@ -8046,13 +8073,13 @@
         <v>112</v>
       </c>
       <c r="F147" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G147" t="s">
-        <v>682</v>
-      </c>
-      <c r="H147" s="13" t="s">
-        <v>690</v>
+        <v>681</v>
+      </c>
+      <c r="H147" t="s">
+        <v>685</v>
       </c>
       <c r="I147" t="e">
         <f>NA()</f>
@@ -8061,7 +8088,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B148" t="s">
         <v>41</v>
@@ -8076,13 +8103,13 @@
         <v>112</v>
       </c>
       <c r="F148" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G148" t="s">
-        <v>680</v>
-      </c>
-      <c r="H148" t="s">
-        <v>691</v>
+        <v>682</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>690</v>
       </c>
       <c r="I148" t="e">
         <f>NA()</f>
@@ -8091,7 +8118,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>398</v>
+        <v>675</v>
       </c>
       <c r="B149" t="s">
         <v>41</v>
@@ -8106,13 +8133,13 @@
         <v>112</v>
       </c>
       <c r="F149" t="s">
-        <v>399</v>
+        <v>684</v>
       </c>
       <c r="G149" t="s">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="H149" t="s">
-        <v>401</v>
+        <v>691</v>
       </c>
       <c r="I149" t="e">
         <f>NA()</f>
@@ -8121,7 +8148,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>679</v>
+        <v>398</v>
       </c>
       <c r="B150" t="s">
         <v>41</v>
@@ -8136,24 +8163,22 @@
         <v>112</v>
       </c>
       <c r="F150" t="s">
-        <v>688</v>
+        <v>399</v>
       </c>
       <c r="G150" t="s">
-        <v>683</v>
+        <v>400</v>
       </c>
       <c r="H150" t="s">
-        <v>688</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
-        <v>710</v>
+        <v>401</v>
+      </c>
+      <c r="I150" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>679</v>
       </c>
       <c r="B151" t="s">
         <v>41</v>
@@ -8162,28 +8187,30 @@
         <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>688</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>683</v>
       </c>
       <c r="H151" t="s">
-        <v>42</v>
-      </c>
-      <c r="I151" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>688</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
         <v>41</v>
@@ -8195,16 +8222,16 @@
         <v>705</v>
       </c>
       <c r="E152" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H152" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I152" t="e">
         <f>NA()</f>
@@ -8213,7 +8240,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B153" t="s">
         <v>41</v>
@@ -8228,15 +8255,45 @@
         <v>112</v>
       </c>
       <c r="F153" t="s">
+        <v>115</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s">
+        <v>116</v>
+      </c>
+      <c r="I153" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" t="s">
+        <v>705</v>
+      </c>
+      <c r="E154" t="s">
+        <v>112</v>
+      </c>
+      <c r="F154" t="s">
         <v>113</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G154" t="s">
         <v>114</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H154" t="s">
         <v>117</v>
       </c>
-      <c r="I153" t="e">
+      <c r="I154" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8262,7 +8319,7 @@
   <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="35240" windowHeight="16400" tabRatio="652" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32240" windowHeight="16200" tabRatio="652" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="754">
   <si>
     <t>name</t>
   </si>
@@ -2354,6 +2354,9 @@
   </si>
   <si>
     <t>nombre d'irrigations réalisées sur la culture</t>
+  </si>
+  <si>
+    <t>factor levels: 1 "normal", 2 "low LAI", 3 "not sowed", 4 "stopDAP", 5 "killed by flood", 6 "not yet"</t>
   </si>
 </sst>
 </file>
@@ -3868,10 +3871,10 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4043,6 +4046,9 @@
       </c>
       <c r="I6" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="J6" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/allvariables.xlsx
+++ b/allvariables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32240" windowHeight="16200" tabRatio="652" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="5440" yWindow="3260" windowWidth="32240" windowHeight="16200" tabRatio="652" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclature" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="756">
   <si>
     <t>name</t>
   </si>
@@ -2086,12 +2086,6 @@
     <t>rUpdateStresses</t>
   </si>
   <si>
-    <t>cFTSWweightedByRoots</t>
-  </si>
-  <si>
-    <t>FTSW of the whole soil weighted by rooted length in each layer</t>
-  </si>
-  <si>
     <t>FTSWRZ</t>
   </si>
   <si>
@@ -2107,18 +2101,9 @@
     <t>coefficient pour passer du stress hydrique pour la croissance au stress hydrique pour le développement</t>
   </si>
   <si>
-    <t>cEfficientRootLength</t>
-  </si>
-  <si>
     <t>AROOT</t>
   </si>
   <si>
-    <t>root length weighted by effect of water stress on transpiration</t>
-  </si>
-  <si>
-    <t>longueur de racines pondérée par effet du stress hydrique sur la transpiration</t>
-  </si>
-  <si>
     <t>cCoefWaterstressLeafArea</t>
   </si>
   <si>
@@ -2357,6 +2342,27 @@
   </si>
   <si>
     <t>factor levels: 1 "normal", 2 "low LAI", 3 "not sowed", 4 "stopDAP", 5 "killed by flood", 6 "not yet"</t>
+  </si>
+  <si>
+    <t>cAvailableWaterInRootZone</t>
+  </si>
+  <si>
+    <t>cAvailableWaterInRootZone was cEfficientRootLength (root length weighted by effect of water stress on transpiration)</t>
+  </si>
+  <si>
+    <t>available water in root zone</t>
+  </si>
+  <si>
+    <t>eau disponible dans la zone racinée</t>
+  </si>
+  <si>
+    <t>cFTSWrootZone</t>
+  </si>
+  <si>
+    <t>cFTSWrootZone was cFTSWweightedByRoots (FTSW of the whole soil weighted by rooted length in each layer)</t>
+  </si>
+  <si>
+    <t>FTSW in the root zone</t>
   </si>
 </sst>
 </file>
@@ -2472,8 +2478,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="497">
+  <cellStyleXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumb